--- a/2021/Fantasy F1 2021.xlsx
+++ b/2021/Fantasy F1 2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="63">
   <si>
     <t>Bahrain</t>
   </si>
@@ -180,6 +180,30 @@
   </si>
   <si>
     <t>Williams</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Total Points/Value</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Average Points/Value</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Range</t>
   </si>
 </sst>
 </file>
@@ -672,7 +696,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ24"/>
+  <dimension ref="A1:AQ33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2066,7 +2090,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:43">
       <c r="A17" s="12" t="s">
         <v>15</v>
       </c>
@@ -2074,7 +2098,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:43">
       <c r="A18" s="12" t="s">
         <v>16</v>
       </c>
@@ -2082,7 +2106,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:43">
       <c r="A19" s="12" t="s">
         <v>17</v>
       </c>
@@ -2090,7 +2114,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:43">
       <c r="A20" s="12" t="s">
         <v>18</v>
       </c>
@@ -2098,7 +2122,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:43">
       <c r="A21" s="12" t="s">
         <v>19</v>
       </c>
@@ -2106,7 +2130,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:43">
       <c r="A22" s="12" t="s">
         <v>20</v>
       </c>
@@ -2114,7 +2138,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:43">
       <c r="A23" s="12" t="s">
         <v>21</v>
       </c>
@@ -2122,12 +2146,1036 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:43">
       <c r="A24" s="12" t="s">
         <v>22</v>
       </c>
       <c r="W24" s="12" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:43">
+      <c r="A26" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="13">
+        <v>313</v>
+      </c>
+      <c r="C26" s="13">
+        <v>182</v>
+      </c>
+      <c r="D26" s="13">
+        <v>368</v>
+      </c>
+      <c r="E26" s="13">
+        <v>227</v>
+      </c>
+      <c r="F26" s="13">
+        <v>130</v>
+      </c>
+      <c r="G26" s="13">
+        <v>264</v>
+      </c>
+      <c r="H26" s="13">
+        <v>111</v>
+      </c>
+      <c r="I26" s="13">
+        <v>65</v>
+      </c>
+      <c r="J26" s="13">
+        <v>96</v>
+      </c>
+      <c r="K26" s="13">
+        <v>46</v>
+      </c>
+      <c r="L26" s="13">
+        <v>157</v>
+      </c>
+      <c r="M26" s="13">
+        <v>155</v>
+      </c>
+      <c r="N26" s="13">
+        <v>135</v>
+      </c>
+      <c r="O26" s="13">
+        <v>42</v>
+      </c>
+      <c r="P26" s="13">
+        <v>72</v>
+      </c>
+      <c r="Q26" s="13">
+        <v>63</v>
+      </c>
+      <c r="R26" s="13">
+        <v>81</v>
+      </c>
+      <c r="S26" s="13">
+        <v>31</v>
+      </c>
+      <c r="T26" s="13">
+        <v>31</v>
+      </c>
+      <c r="U26" s="13">
+        <v>23</v>
+      </c>
+      <c r="W26" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="X26">
+        <v>332.6000000000001</v>
+      </c>
+      <c r="Y26">
+        <v>232.2</v>
+      </c>
+      <c r="Z26">
+        <v>253.4</v>
+      </c>
+      <c r="AA26">
+        <v>184</v>
+      </c>
+      <c r="AB26">
+        <v>163.1</v>
+      </c>
+      <c r="AC26">
+        <v>137.3</v>
+      </c>
+      <c r="AD26">
+        <v>152.3</v>
+      </c>
+      <c r="AE26">
+        <v>135</v>
+      </c>
+      <c r="AF26">
+        <v>149.9</v>
+      </c>
+      <c r="AG26">
+        <v>101.6</v>
+      </c>
+      <c r="AH26">
+        <v>177.2</v>
+      </c>
+      <c r="AI26">
+        <v>144.2</v>
+      </c>
+      <c r="AJ26">
+        <v>117.2</v>
+      </c>
+      <c r="AK26">
+        <v>87.89999999999999</v>
+      </c>
+      <c r="AL26">
+        <v>93.8</v>
+      </c>
+      <c r="AM26">
+        <v>79.09999999999999</v>
+      </c>
+      <c r="AN26">
+        <v>57.89999999999999</v>
+      </c>
+      <c r="AO26">
+        <v>53.19999999999999</v>
+      </c>
+      <c r="AP26">
+        <v>62.20000000000002</v>
+      </c>
+      <c r="AQ26">
+        <v>64.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:43">
+      <c r="A27" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="13">
+        <v>0.9410703547805169</v>
+      </c>
+      <c r="C27" s="13">
+        <v>0.7838070628768303</v>
+      </c>
+      <c r="D27" s="13">
+        <v>1.452249408050513</v>
+      </c>
+      <c r="E27" s="13">
+        <v>1.233695652173913</v>
+      </c>
+      <c r="F27" s="13">
+        <v>0.7970570202329857</v>
+      </c>
+      <c r="G27" s="13">
+        <v>1.922796795338674</v>
+      </c>
+      <c r="H27" s="13">
+        <v>0.7288246881155614</v>
+      </c>
+      <c r="I27" s="13">
+        <v>0.4814814814814814</v>
+      </c>
+      <c r="J27" s="13">
+        <v>0.6404269513008672</v>
+      </c>
+      <c r="K27" s="13">
+        <v>0.4527559055118111</v>
+      </c>
+      <c r="L27" s="13">
+        <v>0.8860045146726863</v>
+      </c>
+      <c r="M27" s="13">
+        <v>1.074895977808599</v>
+      </c>
+      <c r="N27" s="13">
+        <v>1.151877133105802</v>
+      </c>
+      <c r="O27" s="13">
+        <v>0.4778156996587031</v>
+      </c>
+      <c r="P27" s="13">
+        <v>0.767590618336887</v>
+      </c>
+      <c r="Q27" s="13">
+        <v>0.7964601769911505</v>
+      </c>
+      <c r="R27" s="13">
+        <v>1.398963730569948</v>
+      </c>
+      <c r="S27" s="13">
+        <v>0.5827067669172934</v>
+      </c>
+      <c r="T27" s="13">
+        <v>0.4983922829581992</v>
+      </c>
+      <c r="U27" s="13">
+        <v>0.3576982892690513</v>
+      </c>
+      <c r="W27" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="X27">
+        <v>0.9410703547805169</v>
+      </c>
+      <c r="Y27">
+        <v>0.7838070628768303</v>
+      </c>
+      <c r="Z27">
+        <v>1.452249408050513</v>
+      </c>
+      <c r="AA27">
+        <v>1.233695652173913</v>
+      </c>
+      <c r="AB27">
+        <v>0.7970570202329857</v>
+      </c>
+      <c r="AC27">
+        <v>1.922796795338674</v>
+      </c>
+      <c r="AD27">
+        <v>0.7288246881155614</v>
+      </c>
+      <c r="AE27">
+        <v>0.4814814814814814</v>
+      </c>
+      <c r="AF27">
+        <v>0.6404269513008672</v>
+      </c>
+      <c r="AG27">
+        <v>0.4527559055118111</v>
+      </c>
+      <c r="AH27">
+        <v>0.8860045146726863</v>
+      </c>
+      <c r="AI27">
+        <v>1.074895977808599</v>
+      </c>
+      <c r="AJ27">
+        <v>1.151877133105802</v>
+      </c>
+      <c r="AK27">
+        <v>0.4778156996587031</v>
+      </c>
+      <c r="AL27">
+        <v>0.767590618336887</v>
+      </c>
+      <c r="AM27">
+        <v>0.7964601769911505</v>
+      </c>
+      <c r="AN27">
+        <v>1.398963730569948</v>
+      </c>
+      <c r="AO27">
+        <v>0.5827067669172934</v>
+      </c>
+      <c r="AP27">
+        <v>0.4983922829581992</v>
+      </c>
+      <c r="AQ27">
+        <v>0.3576982892690513</v>
+      </c>
+    </row>
+    <row r="28" spans="1:43">
+      <c r="A28" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="13">
+        <v>34.77777777777778</v>
+      </c>
+      <c r="C28" s="13">
+        <v>20.22222222222222</v>
+      </c>
+      <c r="D28" s="13">
+        <v>40.88888888888889</v>
+      </c>
+      <c r="E28" s="13">
+        <v>25.22222222222222</v>
+      </c>
+      <c r="F28" s="13">
+        <v>14.44444444444444</v>
+      </c>
+      <c r="G28" s="13">
+        <v>29.33333333333333</v>
+      </c>
+      <c r="H28" s="13">
+        <v>12.33333333333333</v>
+      </c>
+      <c r="I28" s="13">
+        <v>7.222222222222222</v>
+      </c>
+      <c r="J28" s="13">
+        <v>10.66666666666667</v>
+      </c>
+      <c r="K28" s="13">
+        <v>5.111111111111111</v>
+      </c>
+      <c r="L28" s="13">
+        <v>17.44444444444444</v>
+      </c>
+      <c r="M28" s="13">
+        <v>17.22222222222222</v>
+      </c>
+      <c r="N28" s="13">
+        <v>15</v>
+      </c>
+      <c r="O28" s="13">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="P28" s="13">
+        <v>8</v>
+      </c>
+      <c r="Q28" s="13">
+        <v>7</v>
+      </c>
+      <c r="R28" s="13">
+        <v>9</v>
+      </c>
+      <c r="S28" s="13">
+        <v>3.444444444444445</v>
+      </c>
+      <c r="T28" s="13">
+        <v>3.444444444444445</v>
+      </c>
+      <c r="U28" s="13">
+        <v>2.555555555555555</v>
+      </c>
+      <c r="W28" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="X28">
+        <v>33.26000000000001</v>
+      </c>
+      <c r="Y28">
+        <v>23.22</v>
+      </c>
+      <c r="Z28">
+        <v>25.34</v>
+      </c>
+      <c r="AA28">
+        <v>18.4</v>
+      </c>
+      <c r="AB28">
+        <v>16.31</v>
+      </c>
+      <c r="AC28">
+        <v>13.73</v>
+      </c>
+      <c r="AD28">
+        <v>15.23</v>
+      </c>
+      <c r="AE28">
+        <v>13.5</v>
+      </c>
+      <c r="AF28">
+        <v>14.99</v>
+      </c>
+      <c r="AG28">
+        <v>10.16</v>
+      </c>
+      <c r="AH28">
+        <v>17.72</v>
+      </c>
+      <c r="AI28">
+        <v>14.42</v>
+      </c>
+      <c r="AJ28">
+        <v>11.72</v>
+      </c>
+      <c r="AK28">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="AL28">
+        <v>9.379999999999999</v>
+      </c>
+      <c r="AM28">
+        <v>7.909999999999999</v>
+      </c>
+      <c r="AN28">
+        <v>5.789999999999999</v>
+      </c>
+      <c r="AO28">
+        <v>5.319999999999999</v>
+      </c>
+      <c r="AP28">
+        <v>6.220000000000002</v>
+      </c>
+      <c r="AQ28">
+        <v>6.43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:43">
+      <c r="A29" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="13">
+        <v>1.045633727533908</v>
+      </c>
+      <c r="C29" s="13">
+        <v>0.8708967365298115</v>
+      </c>
+      <c r="D29" s="13">
+        <v>1.613610453389459</v>
+      </c>
+      <c r="E29" s="13">
+        <v>1.370772946859903</v>
+      </c>
+      <c r="F29" s="13">
+        <v>0.8856189113699843</v>
+      </c>
+      <c r="G29" s="13">
+        <v>2.136440883709638</v>
+      </c>
+      <c r="H29" s="13">
+        <v>0.8098052090172906</v>
+      </c>
+      <c r="I29" s="13">
+        <v>0.5349794238683127</v>
+      </c>
+      <c r="J29" s="13">
+        <v>0.711585501445408</v>
+      </c>
+      <c r="K29" s="13">
+        <v>0.5030621172353456</v>
+      </c>
+      <c r="L29" s="13">
+        <v>0.9844494607474291</v>
+      </c>
+      <c r="M29" s="13">
+        <v>1.194328864231777</v>
+      </c>
+      <c r="N29" s="13">
+        <v>1.279863481228669</v>
+      </c>
+      <c r="O29" s="13">
+        <v>0.5309063329541146</v>
+      </c>
+      <c r="P29" s="13">
+        <v>0.8528784648187634</v>
+      </c>
+      <c r="Q29" s="13">
+        <v>0.8849557522123894</v>
+      </c>
+      <c r="R29" s="13">
+        <v>1.55440414507772</v>
+      </c>
+      <c r="S29" s="13">
+        <v>0.6474519632414372</v>
+      </c>
+      <c r="T29" s="13">
+        <v>0.5537692032868881</v>
+      </c>
+      <c r="U29" s="13">
+        <v>0.3974425436322792</v>
+      </c>
+      <c r="W29" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="X29">
+        <v>1.045633727533908</v>
+      </c>
+      <c r="Y29">
+        <v>0.8708967365298115</v>
+      </c>
+      <c r="Z29">
+        <v>1.613610453389459</v>
+      </c>
+      <c r="AA29">
+        <v>1.370772946859903</v>
+      </c>
+      <c r="AB29">
+        <v>0.8856189113699843</v>
+      </c>
+      <c r="AC29">
+        <v>2.136440883709638</v>
+      </c>
+      <c r="AD29">
+        <v>0.8098052090172906</v>
+      </c>
+      <c r="AE29">
+        <v>0.5349794238683127</v>
+      </c>
+      <c r="AF29">
+        <v>0.711585501445408</v>
+      </c>
+      <c r="AG29">
+        <v>0.5030621172353456</v>
+      </c>
+      <c r="AH29">
+        <v>0.9844494607474291</v>
+      </c>
+      <c r="AI29">
+        <v>1.194328864231777</v>
+      </c>
+      <c r="AJ29">
+        <v>1.279863481228669</v>
+      </c>
+      <c r="AK29">
+        <v>0.5309063329541146</v>
+      </c>
+      <c r="AL29">
+        <v>0.8528784648187634</v>
+      </c>
+      <c r="AM29">
+        <v>0.8849557522123894</v>
+      </c>
+      <c r="AN29">
+        <v>1.55440414507772</v>
+      </c>
+      <c r="AO29">
+        <v>0.6474519632414372</v>
+      </c>
+      <c r="AP29">
+        <v>0.5537692032868881</v>
+      </c>
+      <c r="AQ29">
+        <v>0.3974425436322792</v>
+      </c>
+    </row>
+    <row r="30" spans="1:43">
+      <c r="A30" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="13">
+        <v>47.5390946502057</v>
+      </c>
+      <c r="C30" s="13">
+        <v>81.90946502057614</v>
+      </c>
+      <c r="D30" s="13">
+        <v>58.6255144032923</v>
+      </c>
+      <c r="E30" s="13">
+        <v>51.68724279835389</v>
+      </c>
+      <c r="F30" s="13">
+        <v>15.63786008230452</v>
+      </c>
+      <c r="G30" s="13">
+        <v>28.88888888888891</v>
+      </c>
+      <c r="H30" s="13">
+        <v>44.51851851851853</v>
+      </c>
+      <c r="I30" s="13">
+        <v>40.65020576131688</v>
+      </c>
+      <c r="J30" s="13">
+        <v>32.51851851851853</v>
+      </c>
+      <c r="K30" s="13">
+        <v>40.18106995884774</v>
+      </c>
+      <c r="L30" s="13">
+        <v>31.41563786008231</v>
+      </c>
+      <c r="M30" s="13">
+        <v>36.05761316872429</v>
+      </c>
+      <c r="N30" s="13">
+        <v>53.48148148148149</v>
+      </c>
+      <c r="O30" s="13">
+        <v>25.11111111111111</v>
+      </c>
+      <c r="P30" s="13">
+        <v>27.18518518518518</v>
+      </c>
+      <c r="Q30" s="13">
+        <v>1.703703703703705</v>
+      </c>
+      <c r="R30" s="13">
+        <v>6.444444444444443</v>
+      </c>
+      <c r="S30" s="13">
+        <v>15.93415637860082</v>
+      </c>
+      <c r="T30" s="13">
+        <v>23.04526748971193</v>
+      </c>
+      <c r="U30" s="13">
+        <v>14.23045267489712</v>
+      </c>
+      <c r="W30" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="X30">
+        <v>0.007083501958652808</v>
+      </c>
+      <c r="Y30">
+        <v>0.0163173527265072</v>
+      </c>
+      <c r="Z30">
+        <v>0.01973261259953053</v>
+      </c>
+      <c r="AA30">
+        <v>0.01897366596102897</v>
+      </c>
+      <c r="AB30">
+        <v>0.06416261372479833</v>
+      </c>
+      <c r="AC30">
+        <v>0.02596229958998143</v>
+      </c>
+      <c r="AD30">
+        <v>0.04303859895490031</v>
+      </c>
+      <c r="AE30">
+        <v>0.01138419957657963</v>
+      </c>
+      <c r="AF30">
+        <v>0.01925827095040863</v>
+      </c>
+      <c r="AG30">
+        <v>0.02415980132368404</v>
+      </c>
+      <c r="AH30">
+        <v>0.0605892399688602</v>
+      </c>
+      <c r="AI30">
+        <v>0.00683051974594778</v>
+      </c>
+      <c r="AJ30">
+        <v>0.004300697617818972</v>
+      </c>
+      <c r="AK30">
+        <v>0.0464538588278742</v>
+      </c>
+      <c r="AL30">
+        <v>0.00303578655376805</v>
+      </c>
+      <c r="AM30">
+        <v>0.002181971585521207</v>
+      </c>
+      <c r="AN30">
+        <v>0.00091706052145231</v>
+      </c>
+      <c r="AO30">
+        <v>0.001138419957665828</v>
+      </c>
+      <c r="AP30">
+        <v>0.0005059644256235145</v>
+      </c>
+      <c r="AQ30">
+        <v>0.0006640783086416761</v>
+      </c>
+    </row>
+    <row r="31" spans="1:43">
+      <c r="A31" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="13">
+        <v>45</v>
+      </c>
+      <c r="C31" s="13">
+        <v>37</v>
+      </c>
+      <c r="D31" s="13">
+        <v>60</v>
+      </c>
+      <c r="E31" s="13">
+        <v>51</v>
+      </c>
+      <c r="F31" s="13">
+        <v>23</v>
+      </c>
+      <c r="G31" s="13">
+        <v>49</v>
+      </c>
+      <c r="H31" s="13">
+        <v>36</v>
+      </c>
+      <c r="I31" s="13">
+        <v>18</v>
+      </c>
+      <c r="J31" s="13">
+        <v>23</v>
+      </c>
+      <c r="K31" s="13">
+        <v>18</v>
+      </c>
+      <c r="L31" s="13">
+        <v>28</v>
+      </c>
+      <c r="M31" s="13">
+        <v>36</v>
+      </c>
+      <c r="N31" s="13">
+        <v>43</v>
+      </c>
+      <c r="O31" s="13">
+        <v>16</v>
+      </c>
+      <c r="P31" s="13">
+        <v>17</v>
+      </c>
+      <c r="Q31" s="13">
+        <v>11</v>
+      </c>
+      <c r="R31" s="13">
+        <v>15</v>
+      </c>
+      <c r="S31" s="13">
+        <v>11</v>
+      </c>
+      <c r="T31" s="13">
+        <v>12</v>
+      </c>
+      <c r="U31" s="13">
+        <v>11</v>
+      </c>
+      <c r="W31" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X31">
+        <v>33.5</v>
+      </c>
+      <c r="Y31">
+        <v>23.6</v>
+      </c>
+      <c r="Z31">
+        <v>25.7</v>
+      </c>
+      <c r="AA31">
+        <v>18.8</v>
+      </c>
+      <c r="AB31">
+        <v>17.3</v>
+      </c>
+      <c r="AC31">
+        <v>14</v>
+      </c>
+      <c r="AD31">
+        <v>16.2</v>
+      </c>
+      <c r="AE31">
+        <v>13.9</v>
+      </c>
+      <c r="AF31">
+        <v>15.6</v>
+      </c>
+      <c r="AG31">
+        <v>10.5</v>
+      </c>
+      <c r="AH31">
+        <v>18.3</v>
+      </c>
+      <c r="AI31">
+        <v>14.7</v>
+      </c>
+      <c r="AJ31">
+        <v>11.9</v>
+      </c>
+      <c r="AK31">
+        <v>9.4</v>
+      </c>
+      <c r="AL31">
+        <v>9.6</v>
+      </c>
+      <c r="AM31">
+        <v>8</v>
+      </c>
+      <c r="AN31">
+        <v>5.9</v>
+      </c>
+      <c r="AO31">
+        <v>5.5</v>
+      </c>
+      <c r="AP31">
+        <v>6.3</v>
+      </c>
+      <c r="AQ31">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:43">
+      <c r="A32" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="13">
+        <v>5</v>
+      </c>
+      <c r="C32" s="13">
+        <v>-9</v>
+      </c>
+      <c r="D32" s="13">
+        <v>9</v>
+      </c>
+      <c r="E32" s="13">
+        <v>5</v>
+      </c>
+      <c r="F32" s="13">
+        <v>3</v>
+      </c>
+      <c r="G32" s="13">
+        <v>12</v>
+      </c>
+      <c r="H32" s="13">
+        <v>1</v>
+      </c>
+      <c r="I32" s="13">
+        <v>-20</v>
+      </c>
+      <c r="J32" s="13">
+        <v>-8</v>
+      </c>
+      <c r="K32" s="13">
+        <v>-14</v>
+      </c>
+      <c r="L32" s="13">
+        <v>-2</v>
+      </c>
+      <c r="M32" s="13">
+        <v>2</v>
+      </c>
+      <c r="N32" s="13">
+        <v>-5</v>
+      </c>
+      <c r="O32" s="13">
+        <v>-14</v>
+      </c>
+      <c r="P32" s="13">
+        <v>-13</v>
+      </c>
+      <c r="Q32" s="13">
+        <v>4</v>
+      </c>
+      <c r="R32" s="13">
+        <v>0</v>
+      </c>
+      <c r="S32" s="13">
+        <v>-14</v>
+      </c>
+      <c r="T32" s="13">
+        <v>-11</v>
+      </c>
+      <c r="U32" s="13">
+        <v>-13</v>
+      </c>
+      <c r="W32" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="X32">
+        <v>33</v>
+      </c>
+      <c r="Y32">
+        <v>23</v>
+      </c>
+      <c r="Z32">
+        <v>24.8</v>
+      </c>
+      <c r="AA32">
+        <v>18</v>
+      </c>
+      <c r="AB32">
+        <v>15.8</v>
+      </c>
+      <c r="AC32">
+        <v>13.1</v>
+      </c>
+      <c r="AD32">
+        <v>14.9</v>
+      </c>
+      <c r="AE32">
+        <v>13.3</v>
+      </c>
+      <c r="AF32">
+        <v>14.8</v>
+      </c>
+      <c r="AG32">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AH32">
+        <v>16.8</v>
+      </c>
+      <c r="AI32">
+        <v>14.3</v>
+      </c>
+      <c r="AJ32">
+        <v>11.5</v>
+      </c>
+      <c r="AK32">
+        <v>8.4</v>
+      </c>
+      <c r="AL32">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AM32">
+        <v>7.8</v>
+      </c>
+      <c r="AN32">
+        <v>5.7</v>
+      </c>
+      <c r="AO32">
+        <v>5.3</v>
+      </c>
+      <c r="AP32">
+        <v>6.2</v>
+      </c>
+      <c r="AQ32">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:43">
+      <c r="A33" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="13">
+        <v>40</v>
+      </c>
+      <c r="C33" s="13">
+        <v>46</v>
+      </c>
+      <c r="D33" s="13">
+        <v>51</v>
+      </c>
+      <c r="E33" s="13">
+        <v>46</v>
+      </c>
+      <c r="F33" s="13">
+        <v>20</v>
+      </c>
+      <c r="G33" s="13">
+        <v>37</v>
+      </c>
+      <c r="H33" s="13">
+        <v>35</v>
+      </c>
+      <c r="I33" s="13">
+        <v>38</v>
+      </c>
+      <c r="J33" s="13">
+        <v>31</v>
+      </c>
+      <c r="K33" s="13">
+        <v>32</v>
+      </c>
+      <c r="L33" s="13">
+        <v>30</v>
+      </c>
+      <c r="M33" s="13">
+        <v>34</v>
+      </c>
+      <c r="N33" s="13">
+        <v>48</v>
+      </c>
+      <c r="O33" s="13">
+        <v>30</v>
+      </c>
+      <c r="P33" s="13">
+        <v>30</v>
+      </c>
+      <c r="Q33" s="13">
+        <v>7</v>
+      </c>
+      <c r="R33" s="13">
+        <v>15</v>
+      </c>
+      <c r="S33" s="13">
+        <v>25</v>
+      </c>
+      <c r="T33" s="13">
+        <v>23</v>
+      </c>
+      <c r="U33" s="13">
+        <v>24</v>
+      </c>
+      <c r="W33" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="X33">
+        <v>0.5</v>
+      </c>
+      <c r="Y33">
+        <v>0.6000000000000014</v>
+      </c>
+      <c r="Z33">
+        <v>0.8999999999999986</v>
+      </c>
+      <c r="AA33">
+        <v>0.8000000000000007</v>
+      </c>
+      <c r="AB33">
+        <v>1.5</v>
+      </c>
+      <c r="AC33">
+        <v>0.9000000000000004</v>
+      </c>
+      <c r="AD33">
+        <v>1.299999999999999</v>
+      </c>
+      <c r="AE33">
+        <v>0.5999999999999996</v>
+      </c>
+      <c r="AF33">
+        <v>0.7999999999999989</v>
+      </c>
+      <c r="AG33">
+        <v>0.8000000000000007</v>
+      </c>
+      <c r="AH33">
+        <v>1.5</v>
+      </c>
+      <c r="AI33">
+        <v>0.3999999999999986</v>
+      </c>
+      <c r="AJ33">
+        <v>0.4000000000000004</v>
+      </c>
+      <c r="AK33">
+        <v>1</v>
+      </c>
+      <c r="AL33">
+        <v>0.2999999999999989</v>
+      </c>
+      <c r="AM33">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="AN33">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="AO33">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="AP33">
+        <v>0.09999999999999964</v>
+      </c>
+      <c r="AQ33">
+        <v>0.09999999999999964</v>
       </c>
     </row>
   </sheetData>
@@ -2137,7 +3185,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2901,7 +3949,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:23">
       <c r="A17" s="12" t="s">
         <v>15</v>
       </c>
@@ -2909,7 +3957,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:23">
       <c r="A18" s="12" t="s">
         <v>16</v>
       </c>
@@ -2917,7 +3965,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:23">
       <c r="A19" s="12" t="s">
         <v>17</v>
       </c>
@@ -2925,7 +3973,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:23">
       <c r="A20" s="12" t="s">
         <v>18</v>
       </c>
@@ -2933,7 +3981,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:23">
       <c r="A21" s="12" t="s">
         <v>19</v>
       </c>
@@ -2941,7 +3989,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:23">
       <c r="A22" s="12" t="s">
         <v>20</v>
       </c>
@@ -2949,7 +3997,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:23">
       <c r="A23" s="12" t="s">
         <v>21</v>
       </c>
@@ -2957,12 +4005,556 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:23">
       <c r="A24" s="12" t="s">
         <v>22</v>
       </c>
       <c r="M24" s="12" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="13">
+        <v>460</v>
+      </c>
+      <c r="C26" s="13">
+        <v>530</v>
+      </c>
+      <c r="D26" s="13">
+        <v>344</v>
+      </c>
+      <c r="E26" s="13">
+        <v>156</v>
+      </c>
+      <c r="F26" s="13">
+        <v>142</v>
+      </c>
+      <c r="G26" s="13">
+        <v>277</v>
+      </c>
+      <c r="H26" s="13">
+        <v>157</v>
+      </c>
+      <c r="I26" s="13">
+        <v>110</v>
+      </c>
+      <c r="J26" s="13">
+        <v>87</v>
+      </c>
+      <c r="K26" s="13">
+        <v>57</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N26" s="13">
+        <v>375.2</v>
+      </c>
+      <c r="O26" s="13">
+        <v>261.7</v>
+      </c>
+      <c r="P26" s="13">
+        <v>187.2</v>
+      </c>
+      <c r="Q26" s="13">
+        <v>166.4</v>
+      </c>
+      <c r="R26" s="13">
+        <v>151.9</v>
+      </c>
+      <c r="S26" s="13">
+        <v>188.9</v>
+      </c>
+      <c r="T26" s="13">
+        <v>128.1</v>
+      </c>
+      <c r="U26" s="13">
+        <v>90.50000000000001</v>
+      </c>
+      <c r="V26" s="13">
+        <v>61.00000000000001</v>
+      </c>
+      <c r="W26" s="13">
+        <v>62.99999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="13">
+        <v>1.226012793176972</v>
+      </c>
+      <c r="C27" s="13">
+        <v>2.025219717233473</v>
+      </c>
+      <c r="D27" s="13">
+        <v>1.837606837606838</v>
+      </c>
+      <c r="E27" s="13">
+        <v>0.9374999999999998</v>
+      </c>
+      <c r="F27" s="13">
+        <v>0.9348255431204742</v>
+      </c>
+      <c r="G27" s="13">
+        <v>1.46638433033351</v>
+      </c>
+      <c r="H27" s="13">
+        <v>1.2256049960968</v>
+      </c>
+      <c r="I27" s="13">
+        <v>1.215469613259668</v>
+      </c>
+      <c r="J27" s="13">
+        <v>1.426229508196721</v>
+      </c>
+      <c r="K27" s="13">
+        <v>0.904761904761905</v>
+      </c>
+      <c r="M27" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="N27" s="13">
+        <v>1.226012793176972</v>
+      </c>
+      <c r="O27" s="13">
+        <v>2.025219717233473</v>
+      </c>
+      <c r="P27" s="13">
+        <v>1.837606837606838</v>
+      </c>
+      <c r="Q27" s="13">
+        <v>0.9374999999999998</v>
+      </c>
+      <c r="R27" s="13">
+        <v>0.9348255431204742</v>
+      </c>
+      <c r="S27" s="13">
+        <v>1.46638433033351</v>
+      </c>
+      <c r="T27" s="13">
+        <v>1.2256049960968</v>
+      </c>
+      <c r="U27" s="13">
+        <v>1.215469613259668</v>
+      </c>
+      <c r="V27" s="13">
+        <v>1.426229508196721</v>
+      </c>
+      <c r="W27" s="13">
+        <v>0.904761904761905</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="13">
+        <v>51.11111111111111</v>
+      </c>
+      <c r="C28" s="13">
+        <v>58.88888888888889</v>
+      </c>
+      <c r="D28" s="13">
+        <v>38.22222222222222</v>
+      </c>
+      <c r="E28" s="13">
+        <v>17.33333333333333</v>
+      </c>
+      <c r="F28" s="13">
+        <v>15.77777777777778</v>
+      </c>
+      <c r="G28" s="13">
+        <v>30.77777777777778</v>
+      </c>
+      <c r="H28" s="13">
+        <v>17.44444444444444</v>
+      </c>
+      <c r="I28" s="13">
+        <v>12.22222222222222</v>
+      </c>
+      <c r="J28" s="13">
+        <v>9.666666666666666</v>
+      </c>
+      <c r="K28" s="13">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="M28" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="N28" s="13">
+        <v>37.52</v>
+      </c>
+      <c r="O28" s="13">
+        <v>26.17</v>
+      </c>
+      <c r="P28" s="13">
+        <v>18.72</v>
+      </c>
+      <c r="Q28" s="13">
+        <v>16.64</v>
+      </c>
+      <c r="R28" s="13">
+        <v>15.19</v>
+      </c>
+      <c r="S28" s="13">
+        <v>18.89</v>
+      </c>
+      <c r="T28" s="13">
+        <v>12.81</v>
+      </c>
+      <c r="U28" s="13">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="V28" s="13">
+        <v>6.100000000000001</v>
+      </c>
+      <c r="W28" s="13">
+        <v>6.299999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="13">
+        <v>1.362236436863303</v>
+      </c>
+      <c r="C29" s="13">
+        <v>2.250244130259415</v>
+      </c>
+      <c r="D29" s="13">
+        <v>2.041785375118709</v>
+      </c>
+      <c r="E29" s="13">
+        <v>1.041666666666666</v>
+      </c>
+      <c r="F29" s="13">
+        <v>1.038695047911638</v>
+      </c>
+      <c r="G29" s="13">
+        <v>1.629315922592789</v>
+      </c>
+      <c r="H29" s="13">
+        <v>1.361783328996444</v>
+      </c>
+      <c r="I29" s="13">
+        <v>1.350521792510743</v>
+      </c>
+      <c r="J29" s="13">
+        <v>1.584699453551912</v>
+      </c>
+      <c r="K29" s="13">
+        <v>1.005291005291005</v>
+      </c>
+      <c r="M29" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="N29" s="13">
+        <v>1.362236436863303</v>
+      </c>
+      <c r="O29" s="13">
+        <v>2.250244130259415</v>
+      </c>
+      <c r="P29" s="13">
+        <v>2.041785375118709</v>
+      </c>
+      <c r="Q29" s="13">
+        <v>1.041666666666666</v>
+      </c>
+      <c r="R29" s="13">
+        <v>1.038695047911638</v>
+      </c>
+      <c r="S29" s="13">
+        <v>1.629315922592789</v>
+      </c>
+      <c r="T29" s="13">
+        <v>1.361783328996444</v>
+      </c>
+      <c r="U29" s="13">
+        <v>1.350521792510743</v>
+      </c>
+      <c r="V29" s="13">
+        <v>1.584699453551912</v>
+      </c>
+      <c r="W29" s="13">
+        <v>1.005291005291005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="13">
+        <v>150.8477366255142</v>
+      </c>
+      <c r="C30" s="13">
+        <v>37.88477366255165</v>
+      </c>
+      <c r="D30" s="13">
+        <v>25.09465020576135</v>
+      </c>
+      <c r="E30" s="13">
+        <v>48.74074074074076</v>
+      </c>
+      <c r="F30" s="13">
+        <v>21.61316872427982</v>
+      </c>
+      <c r="G30" s="13">
+        <v>73.39094650205755</v>
+      </c>
+      <c r="H30" s="13">
+        <v>38.52674897119343</v>
+      </c>
+      <c r="I30" s="13">
+        <v>11.61316872427984</v>
+      </c>
+      <c r="J30" s="13">
+        <v>10.00000000000001</v>
+      </c>
+      <c r="K30" s="13">
+        <v>5.925925925925926</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="N30" s="13">
+        <v>0.020744541450818</v>
+      </c>
+      <c r="O30" s="13">
+        <v>0.01457810001341977</v>
+      </c>
+      <c r="P30" s="13">
+        <v>0.004300697617845936</v>
+      </c>
+      <c r="Q30" s="13">
+        <v>0.04186855622059917</v>
+      </c>
+      <c r="R30" s="13">
+        <v>0.003446882649608081</v>
+      </c>
+      <c r="S30" s="13">
+        <v>0.05973542500063133</v>
+      </c>
+      <c r="T30" s="13">
+        <v>0.01609599329027908</v>
+      </c>
+      <c r="U30" s="13">
+        <v>0.007115124735372381</v>
+      </c>
+      <c r="V30" s="13">
+        <v>-6.740800259667266e-15</v>
+      </c>
+      <c r="W30" s="13">
+        <v>4.493866839778177e-15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="13">
+        <v>72</v>
+      </c>
+      <c r="C31" s="13">
+        <v>78</v>
+      </c>
+      <c r="D31" s="13">
+        <v>48</v>
+      </c>
+      <c r="E31" s="13">
+        <v>40</v>
+      </c>
+      <c r="F31" s="13">
+        <v>30</v>
+      </c>
+      <c r="G31" s="13">
+        <v>51</v>
+      </c>
+      <c r="H31" s="13">
+        <v>41</v>
+      </c>
+      <c r="I31" s="13">
+        <v>23</v>
+      </c>
+      <c r="J31" s="13">
+        <v>20</v>
+      </c>
+      <c r="K31" s="13">
+        <v>13</v>
+      </c>
+      <c r="M31" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="N31" s="13">
+        <v>38</v>
+      </c>
+      <c r="O31" s="13">
+        <v>26.6</v>
+      </c>
+      <c r="P31" s="13">
+        <v>18.9</v>
+      </c>
+      <c r="Q31" s="13">
+        <v>17.6</v>
+      </c>
+      <c r="R31" s="13">
+        <v>15.4</v>
+      </c>
+      <c r="S31" s="13">
+        <v>19.6</v>
+      </c>
+      <c r="T31" s="13">
+        <v>13.2</v>
+      </c>
+      <c r="U31" s="13">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="V31" s="13">
+        <v>6.1</v>
+      </c>
+      <c r="W31" s="13">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="13">
+        <v>9</v>
+      </c>
+      <c r="C32" s="13">
+        <v>44</v>
+      </c>
+      <c r="D32" s="13">
+        <v>20</v>
+      </c>
+      <c r="E32" s="13">
+        <v>-1</v>
+      </c>
+      <c r="F32" s="13">
+        <v>-1</v>
+      </c>
+      <c r="G32" s="13">
+        <v>-2</v>
+      </c>
+      <c r="H32" s="13">
+        <v>3</v>
+      </c>
+      <c r="I32" s="13">
+        <v>3</v>
+      </c>
+      <c r="J32" s="13">
+        <v>-1</v>
+      </c>
+      <c r="K32" s="13">
+        <v>0</v>
+      </c>
+      <c r="M32" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="N32" s="13">
+        <v>37.2</v>
+      </c>
+      <c r="O32" s="13">
+        <v>25.9</v>
+      </c>
+      <c r="P32" s="13">
+        <v>18.6</v>
+      </c>
+      <c r="Q32" s="13">
+        <v>16.4</v>
+      </c>
+      <c r="R32" s="13">
+        <v>15.1</v>
+      </c>
+      <c r="S32" s="13">
+        <v>18.1</v>
+      </c>
+      <c r="T32" s="13">
+        <v>12.6</v>
+      </c>
+      <c r="U32" s="13">
+        <v>8.9</v>
+      </c>
+      <c r="V32" s="13">
+        <v>6.1</v>
+      </c>
+      <c r="W32" s="13">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="13">
+        <v>63</v>
+      </c>
+      <c r="C33" s="13">
+        <v>34</v>
+      </c>
+      <c r="D33" s="13">
+        <v>28</v>
+      </c>
+      <c r="E33" s="13">
+        <v>41</v>
+      </c>
+      <c r="F33" s="13">
+        <v>31</v>
+      </c>
+      <c r="G33" s="13">
+        <v>53</v>
+      </c>
+      <c r="H33" s="13">
+        <v>38</v>
+      </c>
+      <c r="I33" s="13">
+        <v>20</v>
+      </c>
+      <c r="J33" s="13">
+        <v>21</v>
+      </c>
+      <c r="K33" s="13">
+        <v>13</v>
+      </c>
+      <c r="M33" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="N33" s="13">
+        <v>0.7999999999999972</v>
+      </c>
+      <c r="O33" s="13">
+        <v>0.7000000000000028</v>
+      </c>
+      <c r="P33" s="13">
+        <v>0.2999999999999972</v>
+      </c>
+      <c r="Q33" s="13">
+        <v>1.200000000000003</v>
+      </c>
+      <c r="R33" s="13">
+        <v>0.3000000000000007</v>
+      </c>
+      <c r="S33" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="T33" s="13">
+        <v>0.5999999999999996</v>
+      </c>
+      <c r="U33" s="13">
+        <v>0.2999999999999989</v>
+      </c>
+      <c r="V33" s="13">
+        <v>0</v>
+      </c>
+      <c r="W33" s="13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/2021/Fantasy F1 2021.xlsx
+++ b/2021/Fantasy F1 2021.xlsx
@@ -963,64 +963,64 @@
         <v>1</v>
       </c>
       <c r="B3" s="13">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="C3" s="13">
-        <v>-9</v>
+        <v>23</v>
       </c>
       <c r="D3" s="13">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="E3" s="13">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="F3" s="13">
+        <v>34</v>
+      </c>
+      <c r="G3" s="13">
+        <v>63</v>
+      </c>
+      <c r="H3" s="13">
+        <v>13</v>
+      </c>
+      <c r="I3" s="13">
+        <v>29</v>
+      </c>
+      <c r="J3" s="13">
+        <v>6</v>
+      </c>
+      <c r="K3" s="13">
+        <v>24</v>
+      </c>
+      <c r="L3" s="13">
+        <v>48</v>
+      </c>
+      <c r="M3" s="13">
+        <v>34</v>
+      </c>
+      <c r="N3" s="13">
         <v>19</v>
       </c>
-      <c r="G3" s="13">
-        <v>34</v>
-      </c>
-      <c r="H3" s="13">
-        <v>1</v>
-      </c>
-      <c r="I3" s="13">
-        <v>18</v>
-      </c>
-      <c r="J3" s="13">
-        <v>14</v>
-      </c>
-      <c r="K3" s="13">
+      <c r="O3" s="13">
+        <v>22</v>
+      </c>
+      <c r="P3" s="13">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="13">
         <v>13</v>
       </c>
-      <c r="L3" s="13">
-        <v>28</v>
-      </c>
-      <c r="M3" s="13">
-        <v>23</v>
-      </c>
-      <c r="N3" s="13">
-        <v>17</v>
-      </c>
-      <c r="O3" s="13">
-        <v>6</v>
-      </c>
-      <c r="P3" s="13">
-        <v>13</v>
-      </c>
-      <c r="Q3" s="13">
-        <v>8</v>
-      </c>
       <c r="R3" s="13">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="S3" s="13">
-        <v>6</v>
+        <v>-8</v>
       </c>
       <c r="T3" s="13">
-        <v>-11</v>
+        <v>-1</v>
       </c>
       <c r="U3" s="13">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="W3" s="12" t="s">
         <v>1</v>
@@ -1091,64 +1091,64 @@
         <v>2</v>
       </c>
       <c r="B4" s="13">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="C4" s="13">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D4" s="13">
+        <v>116</v>
+      </c>
+      <c r="E4" s="13">
+        <v>51</v>
+      </c>
+      <c r="F4" s="13">
+        <v>48</v>
+      </c>
+      <c r="G4" s="13">
+        <v>90</v>
+      </c>
+      <c r="H4" s="13">
+        <v>17</v>
+      </c>
+      <c r="I4" s="13">
         <v>37</v>
       </c>
-      <c r="E4" s="13">
+      <c r="J4" s="13">
         <v>23</v>
       </c>
-      <c r="F4" s="13">
-        <v>14</v>
-      </c>
-      <c r="G4" s="13">
-        <v>27</v>
-      </c>
-      <c r="H4" s="13">
-        <v>4</v>
-      </c>
-      <c r="I4" s="13">
-        <v>8</v>
-      </c>
-      <c r="J4" s="13">
-        <v>17</v>
-      </c>
       <c r="K4" s="13">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L4" s="13">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="M4" s="13">
+        <v>36</v>
+      </c>
+      <c r="N4" s="13">
+        <v>29</v>
+      </c>
+      <c r="O4" s="13">
+        <v>24</v>
+      </c>
+      <c r="P4" s="13">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>21</v>
+      </c>
+      <c r="R4" s="13">
+        <v>33</v>
+      </c>
+      <c r="S4" s="13">
+        <v>-4</v>
+      </c>
+      <c r="T4" s="13">
         <v>2</v>
       </c>
-      <c r="N4" s="13">
-        <v>10</v>
-      </c>
-      <c r="O4" s="13">
-        <v>2</v>
-      </c>
-      <c r="P4" s="13">
-        <v>-13</v>
-      </c>
-      <c r="Q4" s="13">
-        <v>8</v>
-      </c>
-      <c r="R4" s="13">
-        <v>11</v>
-      </c>
-      <c r="S4" s="13">
-        <v>4</v>
-      </c>
-      <c r="T4" s="13">
-        <v>3</v>
-      </c>
       <c r="U4" s="13">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="W4" s="12" t="s">
         <v>2</v>
@@ -1219,64 +1219,64 @@
         <v>3</v>
       </c>
       <c r="B5" s="13">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="C5" s="13">
+        <v>82</v>
+      </c>
+      <c r="D5" s="13">
+        <v>157</v>
+      </c>
+      <c r="E5" s="13">
+        <v>74</v>
+      </c>
+      <c r="F5" s="13">
+        <v>71</v>
+      </c>
+      <c r="G5" s="13">
+        <v>102</v>
+      </c>
+      <c r="H5" s="13">
+        <v>20</v>
+      </c>
+      <c r="I5" s="13">
+        <v>45</v>
+      </c>
+      <c r="J5" s="13">
+        <v>18</v>
+      </c>
+      <c r="K5" s="13">
+        <v>51</v>
+      </c>
+      <c r="L5" s="13">
+        <v>98</v>
+      </c>
+      <c r="M5" s="13">
+        <v>49</v>
+      </c>
+      <c r="N5" s="13">
+        <v>42</v>
+      </c>
+      <c r="O5" s="13">
+        <v>10</v>
+      </c>
+      <c r="P5" s="13">
         <v>27</v>
       </c>
-      <c r="D5" s="13">
-        <v>41</v>
-      </c>
-      <c r="E5" s="13">
-        <v>23</v>
-      </c>
-      <c r="F5" s="13">
-        <v>23</v>
-      </c>
-      <c r="G5" s="13">
+      <c r="Q5" s="13">
+        <v>25</v>
+      </c>
+      <c r="R5" s="13">
+        <v>40</v>
+      </c>
+      <c r="S5" s="13">
+        <v>0</v>
+      </c>
+      <c r="T5" s="13">
         <v>12</v>
       </c>
-      <c r="H5" s="13">
-        <v>3</v>
-      </c>
-      <c r="I5" s="13">
-        <v>8</v>
-      </c>
-      <c r="J5" s="13">
-        <v>-5</v>
-      </c>
-      <c r="K5" s="13">
-        <v>9</v>
-      </c>
-      <c r="L5" s="13">
-        <v>28</v>
-      </c>
-      <c r="M5" s="13">
-        <v>13</v>
-      </c>
-      <c r="N5" s="13">
-        <v>13</v>
-      </c>
-      <c r="O5" s="13">
-        <v>-14</v>
-      </c>
-      <c r="P5" s="13">
-        <v>15</v>
-      </c>
-      <c r="Q5" s="13">
-        <v>4</v>
-      </c>
-      <c r="R5" s="13">
-        <v>7</v>
-      </c>
-      <c r="S5" s="13">
-        <v>4</v>
-      </c>
-      <c r="T5" s="13">
-        <v>10</v>
-      </c>
       <c r="U5" s="13">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="W5" s="12" t="s">
         <v>3</v>
@@ -1347,64 +1347,64 @@
         <v>4</v>
       </c>
       <c r="B6" s="13">
-        <v>37</v>
+        <v>209</v>
       </c>
       <c r="C6" s="13">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="D6" s="13">
-        <v>60</v>
+        <v>217</v>
       </c>
       <c r="E6" s="13">
+        <v>102</v>
+      </c>
+      <c r="F6" s="13">
+        <v>74</v>
+      </c>
+      <c r="G6" s="13">
+        <v>151</v>
+      </c>
+      <c r="H6" s="13">
+        <v>48</v>
+      </c>
+      <c r="I6" s="13">
+        <v>62</v>
+      </c>
+      <c r="J6" s="13">
         <v>28</v>
       </c>
-      <c r="F6" s="13">
-        <v>3</v>
-      </c>
-      <c r="G6" s="13">
-        <v>49</v>
-      </c>
-      <c r="H6" s="13">
-        <v>28</v>
-      </c>
-      <c r="I6" s="13">
-        <v>17</v>
-      </c>
-      <c r="J6" s="13">
-        <v>10</v>
-      </c>
       <c r="K6" s="13">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="L6" s="13">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="M6" s="13">
+        <v>85</v>
+      </c>
+      <c r="N6" s="13">
+        <v>64</v>
+      </c>
+      <c r="O6" s="13">
+        <v>12</v>
+      </c>
+      <c r="P6" s="13">
         <v>36</v>
       </c>
-      <c r="N6" s="13">
-        <v>22</v>
-      </c>
-      <c r="O6" s="13">
-        <v>2</v>
-      </c>
-      <c r="P6" s="13">
-        <v>9</v>
-      </c>
       <c r="Q6" s="13">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="R6" s="13">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="S6" s="13">
         <v>11</v>
       </c>
       <c r="T6" s="13">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="U6" s="13">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="W6" s="12" t="s">
         <v>4</v>
@@ -1475,64 +1475,64 @@
         <v>5</v>
       </c>
       <c r="B7" s="13">
-        <v>5</v>
+        <v>214</v>
       </c>
       <c r="C7" s="13">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="D7" s="13">
-        <v>9</v>
+        <v>226</v>
       </c>
       <c r="E7" s="13">
+        <v>153</v>
+      </c>
+      <c r="F7" s="13">
+        <v>87</v>
+      </c>
+      <c r="G7" s="13">
+        <v>183</v>
+      </c>
+      <c r="H7" s="13">
+        <v>84</v>
+      </c>
+      <c r="I7" s="13">
+        <v>42</v>
+      </c>
+      <c r="J7" s="13">
         <v>51</v>
       </c>
-      <c r="F7" s="13">
-        <v>13</v>
-      </c>
-      <c r="G7" s="13">
-        <v>32</v>
-      </c>
-      <c r="H7" s="13">
-        <v>36</v>
-      </c>
-      <c r="I7" s="13">
-        <v>-20</v>
-      </c>
-      <c r="J7" s="13">
-        <v>23</v>
-      </c>
       <c r="K7" s="13">
-        <v>-13</v>
+        <v>52</v>
       </c>
       <c r="L7" s="13">
+        <v>128</v>
+      </c>
+      <c r="M7" s="13">
+        <v>93</v>
+      </c>
+      <c r="N7" s="13">
+        <v>107</v>
+      </c>
+      <c r="O7" s="13">
         <v>25</v>
       </c>
-      <c r="M7" s="13">
-        <v>8</v>
-      </c>
-      <c r="N7" s="13">
-        <v>43</v>
-      </c>
-      <c r="O7" s="13">
-        <v>13</v>
-      </c>
       <c r="P7" s="13">
+        <v>53</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>42</v>
+      </c>
+      <c r="R7" s="13">
+        <v>55</v>
+      </c>
+      <c r="S7" s="13">
+        <v>21</v>
+      </c>
+      <c r="T7" s="13">
+        <v>25</v>
+      </c>
+      <c r="U7" s="13">
         <v>17</v>
-      </c>
-      <c r="Q7" s="13">
-        <v>6</v>
-      </c>
-      <c r="R7" s="13">
-        <v>15</v>
-      </c>
-      <c r="S7" s="13">
-        <v>10</v>
-      </c>
-      <c r="T7" s="13">
-        <v>3</v>
-      </c>
-      <c r="U7" s="13">
-        <v>11</v>
       </c>
       <c r="W7" s="12" t="s">
         <v>5</v>
@@ -1603,64 +1603,64 @@
         <v>6</v>
       </c>
       <c r="B8" s="13">
-        <v>36</v>
+        <v>250</v>
       </c>
       <c r="C8" s="13">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="D8" s="13">
+        <v>275</v>
+      </c>
+      <c r="E8" s="13">
+        <v>191</v>
+      </c>
+      <c r="F8" s="13">
+        <v>108</v>
+      </c>
+      <c r="G8" s="13">
+        <v>211</v>
+      </c>
+      <c r="H8" s="13">
+        <v>100</v>
+      </c>
+      <c r="I8" s="13">
         <v>49</v>
       </c>
-      <c r="E8" s="13">
-        <v>38</v>
-      </c>
-      <c r="F8" s="13">
+      <c r="J8" s="13">
+        <v>68</v>
+      </c>
+      <c r="K8" s="13">
+        <v>52</v>
+      </c>
+      <c r="L8" s="13">
+        <v>126</v>
+      </c>
+      <c r="M8" s="13">
+        <v>103</v>
+      </c>
+      <c r="N8" s="13">
+        <v>125</v>
+      </c>
+      <c r="O8" s="13">
+        <v>31</v>
+      </c>
+      <c r="P8" s="13">
+        <v>55</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>48</v>
+      </c>
+      <c r="R8" s="13">
+        <v>59</v>
+      </c>
+      <c r="S8" s="13">
         <v>21</v>
       </c>
-      <c r="G8" s="13">
-        <v>28</v>
-      </c>
-      <c r="H8" s="13">
-        <v>16</v>
-      </c>
-      <c r="I8" s="13">
-        <v>7</v>
-      </c>
-      <c r="J8" s="13">
+      <c r="T8" s="13">
+        <v>37</v>
+      </c>
+      <c r="U8" s="13">
         <v>17</v>
-      </c>
-      <c r="K8" s="13">
-        <v>0</v>
-      </c>
-      <c r="L8" s="13">
-        <v>-2</v>
-      </c>
-      <c r="M8" s="13">
-        <v>10</v>
-      </c>
-      <c r="N8" s="13">
-        <v>18</v>
-      </c>
-      <c r="O8" s="13">
-        <v>6</v>
-      </c>
-      <c r="P8" s="13">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="13">
-        <v>6</v>
-      </c>
-      <c r="R8" s="13">
-        <v>4</v>
-      </c>
-      <c r="S8" s="13">
-        <v>0</v>
-      </c>
-      <c r="T8" s="13">
-        <v>12</v>
-      </c>
-      <c r="U8" s="13">
-        <v>0</v>
       </c>
       <c r="W8" s="12" t="s">
         <v>6</v>
@@ -1731,64 +1731,64 @@
         <v>7</v>
       </c>
       <c r="B9" s="13">
-        <v>38</v>
+        <v>288</v>
       </c>
       <c r="C9" s="13">
-        <v>34</v>
+        <v>145</v>
       </c>
       <c r="D9" s="13">
+        <v>319</v>
+      </c>
+      <c r="E9" s="13">
+        <v>213</v>
+      </c>
+      <c r="F9" s="13">
+        <v>111</v>
+      </c>
+      <c r="G9" s="13">
+        <v>233</v>
+      </c>
+      <c r="H9" s="13">
+        <v>107</v>
+      </c>
+      <c r="I9" s="13">
+        <v>65</v>
+      </c>
+      <c r="J9" s="13">
+        <v>79</v>
+      </c>
+      <c r="K9" s="13">
+        <v>60</v>
+      </c>
+      <c r="L9" s="13">
+        <v>142</v>
+      </c>
+      <c r="M9" s="13">
+        <v>127</v>
+      </c>
+      <c r="N9" s="13">
+        <v>120</v>
+      </c>
+      <c r="O9" s="13">
         <v>44</v>
       </c>
-      <c r="E9" s="13">
-        <v>22</v>
-      </c>
-      <c r="F9" s="13">
-        <v>3</v>
-      </c>
-      <c r="G9" s="13">
-        <v>22</v>
-      </c>
-      <c r="H9" s="13">
-        <v>7</v>
-      </c>
-      <c r="I9" s="13">
-        <v>16</v>
-      </c>
-      <c r="J9" s="13">
-        <v>11</v>
-      </c>
-      <c r="K9" s="13">
-        <v>8</v>
-      </c>
-      <c r="L9" s="13">
-        <v>16</v>
-      </c>
-      <c r="M9" s="13">
-        <v>24</v>
-      </c>
-      <c r="N9" s="13">
-        <v>-5</v>
-      </c>
-      <c r="O9" s="13">
-        <v>13</v>
-      </c>
       <c r="P9" s="13">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="Q9" s="13">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="R9" s="13">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="S9" s="13">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="T9" s="13">
-        <v>-11</v>
+        <v>26</v>
       </c>
       <c r="U9" s="13">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="W9" s="12" t="s">
         <v>7</v>
@@ -1859,64 +1859,64 @@
         <v>8</v>
       </c>
       <c r="B10" s="13">
-        <v>25</v>
+        <v>313</v>
       </c>
       <c r="C10" s="13">
-        <v>37</v>
+        <v>182</v>
       </c>
       <c r="D10" s="13">
-        <v>49</v>
+        <v>368</v>
       </c>
       <c r="E10" s="13">
-        <v>14</v>
+        <v>227</v>
       </c>
       <c r="F10" s="13">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="G10" s="13">
+        <v>264</v>
+      </c>
+      <c r="H10" s="13">
+        <v>111</v>
+      </c>
+      <c r="I10" s="13">
+        <v>65</v>
+      </c>
+      <c r="J10" s="13">
+        <v>96</v>
+      </c>
+      <c r="K10" s="13">
+        <v>46</v>
+      </c>
+      <c r="L10" s="13">
+        <v>157</v>
+      </c>
+      <c r="M10" s="13">
+        <v>155</v>
+      </c>
+      <c r="N10" s="13">
+        <v>135</v>
+      </c>
+      <c r="O10" s="13">
+        <v>42</v>
+      </c>
+      <c r="P10" s="13">
+        <v>72</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>63</v>
+      </c>
+      <c r="R10" s="13">
+        <v>81</v>
+      </c>
+      <c r="S10" s="13">
         <v>31</v>
       </c>
-      <c r="H10" s="13">
-        <v>4</v>
-      </c>
-      <c r="I10" s="13">
-        <v>0</v>
-      </c>
-      <c r="J10" s="13">
-        <v>17</v>
-      </c>
-      <c r="K10" s="13">
-        <v>-14</v>
-      </c>
-      <c r="L10" s="13">
-        <v>15</v>
-      </c>
-      <c r="M10" s="13">
-        <v>28</v>
-      </c>
-      <c r="N10" s="13">
-        <v>15</v>
-      </c>
-      <c r="O10" s="13">
-        <v>-2</v>
-      </c>
-      <c r="P10" s="13">
-        <v>2</v>
-      </c>
-      <c r="Q10" s="13">
-        <v>10</v>
-      </c>
-      <c r="R10" s="13">
-        <v>9</v>
-      </c>
-      <c r="S10" s="13">
-        <v>4</v>
-      </c>
       <c r="T10" s="13">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="U10" s="13">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="W10" s="12" t="s">
         <v>8</v>
@@ -1986,6 +1986,66 @@
       <c r="A11" s="12" t="s">
         <v>9</v>
       </c>
+      <c r="B11" s="13">
+        <v>378</v>
+      </c>
+      <c r="C11" s="13">
+        <v>223</v>
+      </c>
+      <c r="D11" s="13">
+        <v>386</v>
+      </c>
+      <c r="E11" s="13">
+        <v>249</v>
+      </c>
+      <c r="F11" s="13">
+        <v>157</v>
+      </c>
+      <c r="G11" s="13">
+        <v>317</v>
+      </c>
+      <c r="H11" s="13">
+        <v>110</v>
+      </c>
+      <c r="I11" s="13">
+        <v>87</v>
+      </c>
+      <c r="J11" s="13">
+        <v>131</v>
+      </c>
+      <c r="K11" s="13">
+        <v>56</v>
+      </c>
+      <c r="L11" s="13">
+        <v>205</v>
+      </c>
+      <c r="M11" s="13">
+        <v>176</v>
+      </c>
+      <c r="N11" s="13">
+        <v>143</v>
+      </c>
+      <c r="O11" s="13">
+        <v>59</v>
+      </c>
+      <c r="P11" s="13">
+        <v>81</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>75</v>
+      </c>
+      <c r="R11" s="13">
+        <v>89</v>
+      </c>
+      <c r="S11" s="13">
+        <v>42</v>
+      </c>
+      <c r="T11" s="13">
+        <v>47</v>
+      </c>
+      <c r="U11" s="13">
+        <v>31</v>
+      </c>
       <c r="W11" s="12" t="s">
         <v>9</v>
       </c>
@@ -2057,6 +2117,66 @@
       <c r="W12" s="12" t="s">
         <v>10</v>
       </c>
+      <c r="X12" s="13">
+        <v>33</v>
+      </c>
+      <c r="Y12" s="13">
+        <v>23</v>
+      </c>
+      <c r="Z12" s="13">
+        <v>25.7</v>
+      </c>
+      <c r="AA12" s="13">
+        <v>18.8</v>
+      </c>
+      <c r="AB12" s="13">
+        <v>15.8</v>
+      </c>
+      <c r="AC12" s="13">
+        <v>14.1</v>
+      </c>
+      <c r="AD12" s="13">
+        <v>15.2</v>
+      </c>
+      <c r="AE12" s="13">
+        <v>13.3</v>
+      </c>
+      <c r="AF12" s="13">
+        <v>14.8</v>
+      </c>
+      <c r="AG12" s="13">
+        <v>10.1</v>
+      </c>
+      <c r="AH12" s="13">
+        <v>17.5</v>
+      </c>
+      <c r="AI12" s="13">
+        <v>14.4</v>
+      </c>
+      <c r="AJ12" s="13">
+        <v>11.9</v>
+      </c>
+      <c r="AK12" s="13">
+        <v>8.5</v>
+      </c>
+      <c r="AL12" s="13">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AM12" s="13">
+        <v>8</v>
+      </c>
+      <c r="AN12" s="13">
+        <v>5.8</v>
+      </c>
+      <c r="AO12" s="13">
+        <v>5.3</v>
+      </c>
+      <c r="AP12" s="13">
+        <v>6.2</v>
+      </c>
+      <c r="AQ12" s="13">
+        <v>6.4</v>
+      </c>
     </row>
     <row r="13" spans="1:43">
       <c r="A13" s="12" t="s">
@@ -2159,127 +2279,127 @@
         <v>55</v>
       </c>
       <c r="B26" s="13">
-        <v>313</v>
+        <v>2082</v>
       </c>
       <c r="C26" s="13">
-        <v>182</v>
+        <v>1027</v>
       </c>
       <c r="D26" s="13">
-        <v>368</v>
+        <v>2178</v>
       </c>
       <c r="E26" s="13">
-        <v>227</v>
+        <v>1311</v>
       </c>
       <c r="F26" s="13">
-        <v>130</v>
+        <v>835</v>
       </c>
       <c r="G26" s="13">
-        <v>264</v>
+        <v>1643</v>
       </c>
       <c r="H26" s="13">
-        <v>111</v>
+        <v>622</v>
       </c>
       <c r="I26" s="13">
-        <v>65</v>
+        <v>492</v>
       </c>
       <c r="J26" s="13">
-        <v>96</v>
+        <v>492</v>
       </c>
       <c r="K26" s="13">
-        <v>46</v>
+        <v>459</v>
       </c>
       <c r="L26" s="13">
-        <v>157</v>
+        <v>1097</v>
       </c>
       <c r="M26" s="13">
-        <v>155</v>
+        <v>869</v>
       </c>
       <c r="N26" s="13">
-        <v>135</v>
+        <v>786</v>
       </c>
       <c r="O26" s="13">
-        <v>42</v>
+        <v>285</v>
       </c>
       <c r="P26" s="13">
-        <v>72</v>
+        <v>443</v>
       </c>
       <c r="Q26" s="13">
-        <v>63</v>
+        <v>381</v>
       </c>
       <c r="R26" s="13">
-        <v>81</v>
+        <v>502</v>
       </c>
       <c r="S26" s="13">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="T26" s="13">
-        <v>31</v>
+        <v>211</v>
       </c>
       <c r="U26" s="13">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="W26" s="12" t="s">
         <v>55</v>
       </c>
       <c r="X26">
-        <v>332.6000000000001</v>
+        <v>365.6000000000001</v>
       </c>
       <c r="Y26">
-        <v>232.2</v>
+        <v>255.2</v>
       </c>
       <c r="Z26">
-        <v>253.4</v>
+        <v>279.1</v>
       </c>
       <c r="AA26">
-        <v>184</v>
+        <v>202.8</v>
       </c>
       <c r="AB26">
-        <v>163.1</v>
+        <v>178.9</v>
       </c>
       <c r="AC26">
-        <v>137.3</v>
+        <v>151.4</v>
       </c>
       <c r="AD26">
-        <v>152.3</v>
+        <v>167.5</v>
       </c>
       <c r="AE26">
-        <v>135</v>
+        <v>148.3</v>
       </c>
       <c r="AF26">
-        <v>149.9</v>
+        <v>164.7</v>
       </c>
       <c r="AG26">
-        <v>101.6</v>
+        <v>111.7</v>
       </c>
       <c r="AH26">
-        <v>177.2</v>
+        <v>194.7</v>
       </c>
       <c r="AI26">
-        <v>144.2</v>
+        <v>158.6</v>
       </c>
       <c r="AJ26">
-        <v>117.2</v>
+        <v>129.1</v>
       </c>
       <c r="AK26">
-        <v>87.89999999999999</v>
+        <v>96.39999999999999</v>
       </c>
       <c r="AL26">
-        <v>93.8</v>
+        <v>103.1</v>
       </c>
       <c r="AM26">
-        <v>79.09999999999999</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="AN26">
-        <v>57.89999999999999</v>
+        <v>63.69999999999999</v>
       </c>
       <c r="AO26">
-        <v>53.19999999999999</v>
+        <v>58.49999999999999</v>
       </c>
       <c r="AP26">
-        <v>62.20000000000002</v>
+        <v>68.40000000000002</v>
       </c>
       <c r="AQ26">
-        <v>64.3</v>
+        <v>70.7</v>
       </c>
     </row>
     <row r="27" spans="1:43">
@@ -2287,127 +2407,127 @@
         <v>56</v>
       </c>
       <c r="B27" s="13">
-        <v>0.9410703547805169</v>
+        <v>5.694748358862143</v>
       </c>
       <c r="C27" s="13">
-        <v>0.7838070628768303</v>
+        <v>4.024294670846396</v>
       </c>
       <c r="D27" s="13">
-        <v>1.452249408050513</v>
+        <v>7.803654604084558</v>
       </c>
       <c r="E27" s="13">
-        <v>1.233695652173913</v>
+        <v>6.464497041420118</v>
       </c>
       <c r="F27" s="13">
-        <v>0.7970570202329857</v>
+        <v>4.667411961989938</v>
       </c>
       <c r="G27" s="13">
-        <v>1.922796795338674</v>
+        <v>10.85204755614267</v>
       </c>
       <c r="H27" s="13">
-        <v>0.7288246881155614</v>
+        <v>3.713432835820896</v>
       </c>
       <c r="I27" s="13">
-        <v>0.4814814814814814</v>
+        <v>3.317599460552932</v>
       </c>
       <c r="J27" s="13">
-        <v>0.6404269513008672</v>
+        <v>2.987249544626593</v>
       </c>
       <c r="K27" s="13">
-        <v>0.4527559055118111</v>
+        <v>4.109221128021487</v>
       </c>
       <c r="L27" s="13">
-        <v>0.8860045146726863</v>
+        <v>5.634309193631228</v>
       </c>
       <c r="M27" s="13">
-        <v>1.074895977808599</v>
+        <v>5.479192938209331</v>
       </c>
       <c r="N27" s="13">
-        <v>1.151877133105802</v>
+        <v>6.088303640588689</v>
       </c>
       <c r="O27" s="13">
-        <v>0.4778156996587031</v>
+        <v>2.95643153526971</v>
       </c>
       <c r="P27" s="13">
-        <v>0.767590618336887</v>
+        <v>4.296799224054316</v>
       </c>
       <c r="Q27" s="13">
-        <v>0.7964601769911505</v>
+        <v>4.374282433983927</v>
       </c>
       <c r="R27" s="13">
-        <v>1.398963730569948</v>
+        <v>7.880690737833596</v>
       </c>
       <c r="S27" s="13">
-        <v>0.5827067669172934</v>
+        <v>2.170940170940172</v>
       </c>
       <c r="T27" s="13">
-        <v>0.4983922829581992</v>
+        <v>3.084795321637426</v>
       </c>
       <c r="U27" s="13">
-        <v>0.3576982892690513</v>
+        <v>1.301272984441301</v>
       </c>
       <c r="W27" s="12" t="s">
         <v>56</v>
       </c>
       <c r="X27">
-        <v>0.9410703547805169</v>
+        <v>5.694748358862143</v>
       </c>
       <c r="Y27">
-        <v>0.7838070628768303</v>
+        <v>4.024294670846396</v>
       </c>
       <c r="Z27">
-        <v>1.452249408050513</v>
+        <v>7.803654604084558</v>
       </c>
       <c r="AA27">
-        <v>1.233695652173913</v>
+        <v>6.464497041420118</v>
       </c>
       <c r="AB27">
-        <v>0.7970570202329857</v>
+        <v>4.667411961989938</v>
       </c>
       <c r="AC27">
-        <v>1.922796795338674</v>
+        <v>10.85204755614267</v>
       </c>
       <c r="AD27">
-        <v>0.7288246881155614</v>
+        <v>3.713432835820896</v>
       </c>
       <c r="AE27">
-        <v>0.4814814814814814</v>
+        <v>3.317599460552932</v>
       </c>
       <c r="AF27">
-        <v>0.6404269513008672</v>
+        <v>2.987249544626593</v>
       </c>
       <c r="AG27">
-        <v>0.4527559055118111</v>
+        <v>4.109221128021487</v>
       </c>
       <c r="AH27">
-        <v>0.8860045146726863</v>
+        <v>5.634309193631228</v>
       </c>
       <c r="AI27">
-        <v>1.074895977808599</v>
+        <v>5.479192938209331</v>
       </c>
       <c r="AJ27">
-        <v>1.151877133105802</v>
+        <v>6.088303640588689</v>
       </c>
       <c r="AK27">
-        <v>0.4778156996587031</v>
+        <v>2.95643153526971</v>
       </c>
       <c r="AL27">
-        <v>0.767590618336887</v>
+        <v>4.296799224054316</v>
       </c>
       <c r="AM27">
-        <v>0.7964601769911505</v>
+        <v>4.374282433983927</v>
       </c>
       <c r="AN27">
-        <v>1.398963730569948</v>
+        <v>7.880690737833596</v>
       </c>
       <c r="AO27">
-        <v>0.5827067669172934</v>
+        <v>2.170940170940172</v>
       </c>
       <c r="AP27">
-        <v>0.4983922829581992</v>
+        <v>3.084795321637426</v>
       </c>
       <c r="AQ27">
-        <v>0.3576982892690513</v>
+        <v>1.301272984441301</v>
       </c>
     </row>
     <row r="28" spans="1:43">
@@ -2415,127 +2535,127 @@
         <v>57</v>
       </c>
       <c r="B28" s="13">
-        <v>34.77777777777778</v>
+        <v>208.2</v>
       </c>
       <c r="C28" s="13">
-        <v>20.22222222222222</v>
+        <v>102.7</v>
       </c>
       <c r="D28" s="13">
-        <v>40.88888888888889</v>
+        <v>217.8</v>
       </c>
       <c r="E28" s="13">
-        <v>25.22222222222222</v>
+        <v>131.1</v>
       </c>
       <c r="F28" s="13">
-        <v>14.44444444444444</v>
+        <v>83.5</v>
       </c>
       <c r="G28" s="13">
-        <v>29.33333333333333</v>
+        <v>164.3</v>
       </c>
       <c r="H28" s="13">
-        <v>12.33333333333333</v>
+        <v>62.2</v>
       </c>
       <c r="I28" s="13">
-        <v>7.222222222222222</v>
+        <v>49.2</v>
       </c>
       <c r="J28" s="13">
-        <v>10.66666666666667</v>
+        <v>49.2</v>
       </c>
       <c r="K28" s="13">
-        <v>5.111111111111111</v>
+        <v>45.9</v>
       </c>
       <c r="L28" s="13">
-        <v>17.44444444444444</v>
+        <v>109.7</v>
       </c>
       <c r="M28" s="13">
-        <v>17.22222222222222</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="N28" s="13">
-        <v>15</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="O28" s="13">
-        <v>4.666666666666667</v>
+        <v>28.5</v>
       </c>
       <c r="P28" s="13">
-        <v>8</v>
+        <v>44.3</v>
       </c>
       <c r="Q28" s="13">
-        <v>7</v>
+        <v>38.1</v>
       </c>
       <c r="R28" s="13">
-        <v>9</v>
+        <v>50.2</v>
       </c>
       <c r="S28" s="13">
-        <v>3.444444444444445</v>
+        <v>12.7</v>
       </c>
       <c r="T28" s="13">
-        <v>3.444444444444445</v>
+        <v>21.1</v>
       </c>
       <c r="U28" s="13">
-        <v>2.555555555555555</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="W28" s="12" t="s">
         <v>57</v>
       </c>
       <c r="X28">
-        <v>33.26000000000001</v>
+        <v>33.23636363636364</v>
       </c>
       <c r="Y28">
-        <v>23.22</v>
+        <v>23.2</v>
       </c>
       <c r="Z28">
-        <v>25.34</v>
+        <v>25.37272727272727</v>
       </c>
       <c r="AA28">
-        <v>18.4</v>
+        <v>18.43636363636364</v>
       </c>
       <c r="AB28">
-        <v>16.31</v>
+        <v>16.26363636363637</v>
       </c>
       <c r="AC28">
-        <v>13.73</v>
+        <v>13.76363636363636</v>
       </c>
       <c r="AD28">
-        <v>15.23</v>
+        <v>15.22727272727272</v>
       </c>
       <c r="AE28">
-        <v>13.5</v>
+        <v>13.48181818181819</v>
       </c>
       <c r="AF28">
-        <v>14.99</v>
+        <v>14.97272727272727</v>
       </c>
       <c r="AG28">
-        <v>10.16</v>
+        <v>10.15454545454545</v>
       </c>
       <c r="AH28">
-        <v>17.72</v>
+        <v>17.7</v>
       </c>
       <c r="AI28">
-        <v>14.42</v>
+        <v>14.41818181818182</v>
       </c>
       <c r="AJ28">
-        <v>11.72</v>
+        <v>11.73636363636364</v>
       </c>
       <c r="AK28">
-        <v>8.789999999999999</v>
+        <v>8.763636363636364</v>
       </c>
       <c r="AL28">
-        <v>9.379999999999999</v>
+        <v>9.372727272727273</v>
       </c>
       <c r="AM28">
-        <v>7.909999999999999</v>
+        <v>7.918181818181818</v>
       </c>
       <c r="AN28">
-        <v>5.789999999999999</v>
+        <v>5.79090909090909</v>
       </c>
       <c r="AO28">
-        <v>5.319999999999999</v>
+        <v>5.318181818181817</v>
       </c>
       <c r="AP28">
-        <v>6.220000000000002</v>
+        <v>6.21818181818182</v>
       </c>
       <c r="AQ28">
-        <v>6.43</v>
+        <v>6.427272727272728</v>
       </c>
     </row>
     <row r="29" spans="1:43">
@@ -2543,127 +2663,127 @@
         <v>58</v>
       </c>
       <c r="B29" s="13">
-        <v>1.045633727533908</v>
+        <v>6.264223194748357</v>
       </c>
       <c r="C29" s="13">
-        <v>0.8708967365298115</v>
+        <v>4.426724137931035</v>
       </c>
       <c r="D29" s="13">
-        <v>1.613610453389459</v>
+        <v>8.584020064493014</v>
       </c>
       <c r="E29" s="13">
-        <v>1.370772946859903</v>
+        <v>7.11094674556213</v>
       </c>
       <c r="F29" s="13">
-        <v>0.8856189113699843</v>
+        <v>5.134153158188932</v>
       </c>
       <c r="G29" s="13">
-        <v>2.136440883709638</v>
+        <v>11.93725231175694</v>
       </c>
       <c r="H29" s="13">
-        <v>0.8098052090172906</v>
+        <v>4.084776119402986</v>
       </c>
       <c r="I29" s="13">
-        <v>0.5349794238683127</v>
+        <v>3.649359406608226</v>
       </c>
       <c r="J29" s="13">
-        <v>0.711585501445408</v>
+        <v>3.285974499089253</v>
       </c>
       <c r="K29" s="13">
-        <v>0.5030621172353456</v>
+        <v>4.520143240823635</v>
       </c>
       <c r="L29" s="13">
-        <v>0.9844494607474291</v>
+        <v>6.19774011299435</v>
       </c>
       <c r="M29" s="13">
-        <v>1.194328864231777</v>
+        <v>6.027112232030264</v>
       </c>
       <c r="N29" s="13">
-        <v>1.279863481228669</v>
+        <v>6.697134004647559</v>
       </c>
       <c r="O29" s="13">
-        <v>0.5309063329541146</v>
+        <v>3.25207468879668</v>
       </c>
       <c r="P29" s="13">
-        <v>0.8528784648187634</v>
+        <v>4.726479146459748</v>
       </c>
       <c r="Q29" s="13">
-        <v>0.8849557522123894</v>
+        <v>4.81171067738232</v>
       </c>
       <c r="R29" s="13">
-        <v>1.55440414507772</v>
+        <v>8.668759811616956</v>
       </c>
       <c r="S29" s="13">
-        <v>0.6474519632414372</v>
+        <v>2.388034188034188</v>
       </c>
       <c r="T29" s="13">
-        <v>0.5537692032868881</v>
+        <v>3.393274853801169</v>
       </c>
       <c r="U29" s="13">
-        <v>0.3974425436322792</v>
+        <v>1.431400282885431</v>
       </c>
       <c r="W29" s="12" t="s">
         <v>58</v>
       </c>
       <c r="X29">
-        <v>1.045633727533908</v>
+        <v>6.264223194748357</v>
       </c>
       <c r="Y29">
-        <v>0.8708967365298115</v>
+        <v>4.426724137931035</v>
       </c>
       <c r="Z29">
-        <v>1.613610453389459</v>
+        <v>8.584020064493014</v>
       </c>
       <c r="AA29">
-        <v>1.370772946859903</v>
+        <v>7.11094674556213</v>
       </c>
       <c r="AB29">
-        <v>0.8856189113699843</v>
+        <v>5.134153158188932</v>
       </c>
       <c r="AC29">
-        <v>2.136440883709638</v>
+        <v>11.93725231175694</v>
       </c>
       <c r="AD29">
-        <v>0.8098052090172906</v>
+        <v>4.084776119402986</v>
       </c>
       <c r="AE29">
-        <v>0.5349794238683127</v>
+        <v>3.649359406608226</v>
       </c>
       <c r="AF29">
-        <v>0.711585501445408</v>
+        <v>3.285974499089253</v>
       </c>
       <c r="AG29">
-        <v>0.5030621172353456</v>
+        <v>4.520143240823635</v>
       </c>
       <c r="AH29">
-        <v>0.9844494607474291</v>
+        <v>6.19774011299435</v>
       </c>
       <c r="AI29">
-        <v>1.194328864231777</v>
+        <v>6.027112232030264</v>
       </c>
       <c r="AJ29">
-        <v>1.279863481228669</v>
+        <v>6.697134004647559</v>
       </c>
       <c r="AK29">
-        <v>0.5309063329541146</v>
+        <v>3.25207468879668</v>
       </c>
       <c r="AL29">
-        <v>0.8528784648187634</v>
+        <v>4.726479146459748</v>
       </c>
       <c r="AM29">
-        <v>0.8849557522123894</v>
+        <v>4.81171067738232</v>
       </c>
       <c r="AN29">
-        <v>1.55440414507772</v>
+        <v>8.668759811616956</v>
       </c>
       <c r="AO29">
-        <v>0.6474519632414372</v>
+        <v>2.388034188034188</v>
       </c>
       <c r="AP29">
-        <v>0.5537692032868881</v>
+        <v>3.393274853801169</v>
       </c>
       <c r="AQ29">
-        <v>0.3974425436322792</v>
+        <v>1.431400282885431</v>
       </c>
     </row>
     <row r="30" spans="1:43">
@@ -2671,127 +2791,127 @@
         <v>59</v>
       </c>
       <c r="B30" s="13">
-        <v>47.5390946502057</v>
+        <v>3083.840525085563</v>
       </c>
       <c r="C30" s="13">
-        <v>81.90946502057614</v>
+        <v>1175.548259668653</v>
       </c>
       <c r="D30" s="13">
-        <v>58.6255144032923</v>
+        <v>4148.073448838627</v>
       </c>
       <c r="E30" s="13">
-        <v>51.68724279835389</v>
+        <v>2109.583887597267</v>
       </c>
       <c r="F30" s="13">
-        <v>15.63786008230452</v>
+        <v>556.0074695991052</v>
       </c>
       <c r="G30" s="13">
-        <v>28.88888888888891</v>
+        <v>2487.261033106496</v>
       </c>
       <c r="H30" s="13">
-        <v>44.51851851851853</v>
+        <v>554.7773435892997</v>
       </c>
       <c r="I30" s="13">
-        <v>40.65020576131688</v>
+        <v>132.1073115311941</v>
       </c>
       <c r="J30" s="13">
-        <v>32.51851851851853</v>
+        <v>549.4014715670135</v>
       </c>
       <c r="K30" s="13">
-        <v>40.18106995884774</v>
+        <v>78.38970091791391</v>
       </c>
       <c r="L30" s="13">
-        <v>31.41563786008231</v>
+        <v>840.3468276908052</v>
       </c>
       <c r="M30" s="13">
-        <v>36.05761316872429</v>
+        <v>856.0570231065218</v>
       </c>
       <c r="N30" s="13">
-        <v>53.48148148148149</v>
+        <v>804.3063491978664</v>
       </c>
       <c r="O30" s="13">
-        <v>25.11111111111111</v>
+        <v>69.71241101841193</v>
       </c>
       <c r="P30" s="13">
-        <v>27.18518518518518</v>
+        <v>183.1622843546127</v>
       </c>
       <c r="Q30" s="13">
-        <v>1.703703703703705</v>
+        <v>142.6471829725354</v>
       </c>
       <c r="R30" s="13">
-        <v>6.444444444444443</v>
+        <v>185.4865584348363</v>
       </c>
       <c r="S30" s="13">
-        <v>15.93415637860082</v>
+        <v>98.6662252749136</v>
       </c>
       <c r="T30" s="13">
-        <v>23.04526748971193</v>
+        <v>67.06874689451112</v>
       </c>
       <c r="U30" s="13">
-        <v>14.23045267489712</v>
+        <v>61.58851970943935</v>
       </c>
       <c r="W30" s="12" t="s">
         <v>59</v>
       </c>
       <c r="X30">
-        <v>0.007083501958652808</v>
+        <v>0.007824343983138369</v>
       </c>
       <c r="Y30">
-        <v>0.0163173527265072</v>
+        <v>0.01534966845125192</v>
       </c>
       <c r="Z30">
-        <v>0.01973261259953053</v>
+        <v>0.02033332703934076</v>
       </c>
       <c r="AA30">
-        <v>0.01897366596102897</v>
+        <v>0.02043300021104426</v>
       </c>
       <c r="AB30">
-        <v>0.06416261372479833</v>
+        <v>0.06209638600722357</v>
       </c>
       <c r="AC30">
-        <v>0.02596229958998143</v>
+        <v>0.02591502465792484</v>
       </c>
       <c r="AD30">
-        <v>0.04303859895490031</v>
+        <v>0.03732760282460029</v>
       </c>
       <c r="AE30">
-        <v>0.01138419957657963</v>
+        <v>0.01086437572194626</v>
       </c>
       <c r="AF30">
-        <v>0.01925827095040863</v>
+        <v>0.01759231481584048</v>
       </c>
       <c r="AG30">
-        <v>0.02415980132368404</v>
+        <v>0.02103103924162521</v>
       </c>
       <c r="AH30">
-        <v>0.0605892399688602</v>
+        <v>0.0537238395793303</v>
       </c>
       <c r="AI30">
-        <v>0.00683051974594778</v>
+        <v>0.005930553719777728</v>
       </c>
       <c r="AJ30">
-        <v>0.004300697617818972</v>
+        <v>0.004535129315131706</v>
       </c>
       <c r="AK30">
-        <v>0.0464538588278742</v>
+        <v>0.04236109799852803</v>
       </c>
       <c r="AL30">
-        <v>0.00303578655376805</v>
+        <v>0.002790848809313467</v>
       </c>
       <c r="AM30">
-        <v>0.002181971585521207</v>
+        <v>0.002093136606986172</v>
       </c>
       <c r="AN30">
-        <v>0.00091706052145231</v>
+        <v>0.0007973853740907863</v>
       </c>
       <c r="AO30">
-        <v>0.001138419957665828</v>
+        <v>0.0009967317176177676</v>
       </c>
       <c r="AP30">
-        <v>0.0005059644256235145</v>
+        <v>0.0004485292729207113</v>
       </c>
       <c r="AQ30">
-        <v>0.0006640783086416761</v>
+        <v>0.0005980390305702321</v>
       </c>
     </row>
     <row r="31" spans="1:43">
@@ -2799,64 +2919,64 @@
         <v>60</v>
       </c>
       <c r="B31" s="13">
-        <v>45</v>
+        <v>378</v>
       </c>
       <c r="C31" s="13">
-        <v>37</v>
+        <v>223</v>
       </c>
       <c r="D31" s="13">
-        <v>60</v>
+        <v>386</v>
       </c>
       <c r="E31" s="13">
-        <v>51</v>
+        <v>249</v>
       </c>
       <c r="F31" s="13">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="G31" s="13">
-        <v>49</v>
+        <v>317</v>
       </c>
       <c r="H31" s="13">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="I31" s="13">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="J31" s="13">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="K31" s="13">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="L31" s="13">
-        <v>28</v>
+        <v>205</v>
       </c>
       <c r="M31" s="13">
-        <v>36</v>
+        <v>176</v>
       </c>
       <c r="N31" s="13">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="O31" s="13">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="P31" s="13">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="Q31" s="13">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="R31" s="13">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="S31" s="13">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="T31" s="13">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="U31" s="13">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="W31" s="12" t="s">
         <v>60</v>
@@ -2877,7 +2997,7 @@
         <v>17.3</v>
       </c>
       <c r="AC31">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="AD31">
         <v>16.2</v>
@@ -2927,64 +3047,64 @@
         <v>61</v>
       </c>
       <c r="B32" s="13">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C32" s="13">
-        <v>-9</v>
+        <v>23</v>
       </c>
       <c r="D32" s="13">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E32" s="13">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="F32" s="13">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G32" s="13">
+        <v>29</v>
+      </c>
+      <c r="H32" s="13">
         <v>12</v>
       </c>
-      <c r="H32" s="13">
-        <v>1</v>
-      </c>
       <c r="I32" s="13">
-        <v>-20</v>
+        <v>11</v>
       </c>
       <c r="J32" s="13">
         <v>-8</v>
       </c>
       <c r="K32" s="13">
-        <v>-14</v>
+        <v>11</v>
       </c>
       <c r="L32" s="13">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="M32" s="13">
+        <v>11</v>
+      </c>
+      <c r="N32" s="13">
         <v>2</v>
       </c>
-      <c r="N32" s="13">
-        <v>-5</v>
-      </c>
       <c r="O32" s="13">
-        <v>-14</v>
+        <v>10</v>
       </c>
       <c r="P32" s="13">
-        <v>-13</v>
+        <v>12</v>
       </c>
       <c r="Q32" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R32" s="13">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="S32" s="13">
         <v>-14</v>
       </c>
       <c r="T32" s="13">
-        <v>-11</v>
+        <v>-1</v>
       </c>
       <c r="U32" s="13">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="W32" s="12" t="s">
         <v>61</v>
@@ -3055,64 +3175,64 @@
         <v>62</v>
       </c>
       <c r="B33" s="13">
-        <v>40</v>
+        <v>333</v>
       </c>
       <c r="C33" s="13">
-        <v>46</v>
+        <v>200</v>
       </c>
       <c r="D33" s="13">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="E33" s="13">
-        <v>46</v>
+        <v>226</v>
       </c>
       <c r="F33" s="13">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="G33" s="13">
-        <v>37</v>
+        <v>288</v>
       </c>
       <c r="H33" s="13">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="I33" s="13">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J33" s="13">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="K33" s="13">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="L33" s="13">
-        <v>30</v>
+        <v>185</v>
       </c>
       <c r="M33" s="13">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="N33" s="13">
+        <v>141</v>
+      </c>
+      <c r="O33" s="13">
+        <v>49</v>
+      </c>
+      <c r="P33" s="13">
+        <v>69</v>
+      </c>
+      <c r="Q33" s="13">
+        <v>70</v>
+      </c>
+      <c r="R33" s="13">
+        <v>78</v>
+      </c>
+      <c r="S33" s="13">
+        <v>56</v>
+      </c>
+      <c r="T33" s="13">
         <v>48</v>
       </c>
-      <c r="O33" s="13">
-        <v>30</v>
-      </c>
-      <c r="P33" s="13">
-        <v>30</v>
-      </c>
-      <c r="Q33" s="13">
-        <v>7</v>
-      </c>
-      <c r="R33" s="13">
-        <v>15</v>
-      </c>
-      <c r="S33" s="13">
-        <v>25</v>
-      </c>
-      <c r="T33" s="13">
-        <v>23</v>
-      </c>
       <c r="U33" s="13">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="W33" s="12" t="s">
         <v>62</v>
@@ -3133,7 +3253,7 @@
         <v>1.5</v>
       </c>
       <c r="AC33">
-        <v>0.9000000000000004</v>
+        <v>1</v>
       </c>
       <c r="AD33">
         <v>1.299999999999999</v>
@@ -3332,34 +3452,34 @@
         <v>1</v>
       </c>
       <c r="B3" s="13">
+        <v>103</v>
+      </c>
+      <c r="C3" s="13">
+        <v>97</v>
+      </c>
+      <c r="D3" s="13">
+        <v>87</v>
+      </c>
+      <c r="E3" s="13">
+        <v>32</v>
+      </c>
+      <c r="F3" s="13">
+        <v>35</v>
+      </c>
+      <c r="G3" s="13">
+        <v>72</v>
+      </c>
+      <c r="H3" s="13">
         <v>36</v>
       </c>
-      <c r="C3" s="13">
-        <v>44</v>
-      </c>
-      <c r="D3" s="13">
-        <v>48</v>
-      </c>
-      <c r="E3" s="13">
-        <v>14</v>
-      </c>
-      <c r="F3" s="13">
-        <v>22</v>
-      </c>
-      <c r="G3" s="13">
-        <v>46</v>
-      </c>
-      <c r="H3" s="13">
-        <v>23</v>
-      </c>
       <c r="I3" s="13">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="J3" s="13">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="K3" s="13">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M3" s="12" t="s">
         <v>1</v>
@@ -3400,34 +3520,34 @@
         <v>2</v>
       </c>
       <c r="B4" s="13">
-        <v>70</v>
+        <v>173</v>
       </c>
       <c r="C4" s="13">
-        <v>55</v>
+        <v>152</v>
       </c>
       <c r="D4" s="13">
-        <v>46</v>
+        <v>133</v>
       </c>
       <c r="E4" s="13">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="F4" s="13">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="G4" s="13">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="H4" s="13">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="I4" s="13">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="J4" s="13">
+        <v>29</v>
+      </c>
+      <c r="K4" s="13">
         <v>10</v>
-      </c>
-      <c r="K4" s="13">
-        <v>0</v>
       </c>
       <c r="M4" s="12" t="s">
         <v>2</v>
@@ -3468,34 +3588,34 @@
         <v>3</v>
       </c>
       <c r="B5" s="13">
-        <v>66</v>
+        <v>239</v>
       </c>
       <c r="C5" s="13">
-        <v>59</v>
+        <v>211</v>
       </c>
       <c r="D5" s="13">
-        <v>30</v>
+        <v>163</v>
       </c>
       <c r="E5" s="13">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="F5" s="13">
-        <v>-1</v>
+        <v>64</v>
       </c>
       <c r="G5" s="13">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="H5" s="13">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="I5" s="13">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="J5" s="13">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="K5" s="13">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M5" s="12" t="s">
         <v>3</v>
@@ -3536,34 +3656,34 @@
         <v>4</v>
       </c>
       <c r="B6" s="13">
-        <v>25</v>
+        <v>264</v>
       </c>
       <c r="C6" s="13">
-        <v>78</v>
+        <v>289</v>
       </c>
       <c r="D6" s="13">
-        <v>32</v>
+        <v>195</v>
       </c>
       <c r="E6" s="13">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="F6" s="13">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="G6" s="13">
-        <v>51</v>
+        <v>178</v>
       </c>
       <c r="H6" s="13">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="I6" s="13">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="J6" s="13">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="K6" s="13">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M6" s="12" t="s">
         <v>4</v>
@@ -3604,34 +3724,34 @@
         <v>5</v>
       </c>
       <c r="B7" s="13">
-        <v>9</v>
+        <v>273</v>
       </c>
       <c r="C7" s="13">
-        <v>45</v>
+        <v>334</v>
       </c>
       <c r="D7" s="13">
-        <v>40</v>
+        <v>235</v>
       </c>
       <c r="E7" s="13">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="F7" s="13">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="G7" s="13">
-        <v>28</v>
+        <v>206</v>
       </c>
       <c r="H7" s="13">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="I7" s="13">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="J7" s="13">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="K7" s="13">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="M7" s="12" t="s">
         <v>5</v>
@@ -3672,34 +3792,34 @@
         <v>6</v>
       </c>
       <c r="B8" s="13">
-        <v>53</v>
+        <v>326</v>
       </c>
       <c r="C8" s="13">
-        <v>72</v>
+        <v>406</v>
       </c>
       <c r="D8" s="13">
-        <v>44</v>
+        <v>279</v>
       </c>
       <c r="E8" s="13">
-        <v>23</v>
+        <v>139</v>
       </c>
       <c r="F8" s="13">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="G8" s="13">
-        <v>-2</v>
+        <v>204</v>
       </c>
       <c r="H8" s="13">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="I8" s="13">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="J8" s="13">
-        <v>-1</v>
+        <v>65</v>
       </c>
       <c r="K8" s="13">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="M8" s="12" t="s">
         <v>6</v>
@@ -3740,34 +3860,34 @@
         <v>7</v>
       </c>
       <c r="B9" s="13">
-        <v>62</v>
+        <v>388</v>
       </c>
       <c r="C9" s="13">
-        <v>61</v>
+        <v>467</v>
       </c>
       <c r="D9" s="13">
-        <v>20</v>
+        <v>299</v>
       </c>
       <c r="E9" s="13">
-        <v>18</v>
+        <v>157</v>
       </c>
       <c r="F9" s="13">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="G9" s="13">
-        <v>35</v>
+        <v>239</v>
       </c>
       <c r="H9" s="13">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="I9" s="13">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="J9" s="13">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="K9" s="13">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="M9" s="12" t="s">
         <v>7</v>
@@ -3808,34 +3928,34 @@
         <v>8</v>
       </c>
       <c r="B10" s="13">
-        <v>72</v>
+        <v>460</v>
       </c>
       <c r="C10" s="13">
-        <v>63</v>
+        <v>530</v>
       </c>
       <c r="D10" s="13">
-        <v>45</v>
+        <v>344</v>
       </c>
       <c r="E10" s="13">
-        <v>-1</v>
+        <v>156</v>
       </c>
       <c r="F10" s="13">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="G10" s="13">
-        <v>38</v>
+        <v>277</v>
       </c>
       <c r="H10" s="13">
-        <v>3</v>
+        <v>157</v>
       </c>
       <c r="I10" s="13">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="J10" s="13">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="K10" s="13">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="M10" s="12" t="s">
         <v>8</v>
@@ -3875,6 +3995,36 @@
       <c r="A11" s="12" t="s">
         <v>9</v>
       </c>
+      <c r="B11" s="13">
+        <v>546</v>
+      </c>
+      <c r="C11" s="13">
+        <v>573</v>
+      </c>
+      <c r="D11" s="13">
+        <v>402</v>
+      </c>
+      <c r="E11" s="13">
+        <v>185</v>
+      </c>
+      <c r="F11" s="13">
+        <v>170</v>
+      </c>
+      <c r="G11" s="13">
+        <v>349</v>
+      </c>
+      <c r="H11" s="13">
+        <v>175</v>
+      </c>
+      <c r="I11" s="13">
+        <v>124</v>
+      </c>
+      <c r="J11" s="13">
+        <v>99</v>
+      </c>
+      <c r="K11" s="13">
+        <v>74</v>
+      </c>
       <c r="M11" s="12" t="s">
         <v>9</v>
       </c>
@@ -3916,6 +4066,36 @@
       <c r="M12" s="12" t="s">
         <v>10</v>
       </c>
+      <c r="N12" s="13">
+        <v>37.1</v>
+      </c>
+      <c r="O12" s="13">
+        <v>26.7</v>
+      </c>
+      <c r="P12" s="13">
+        <v>18.6</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>16.4</v>
+      </c>
+      <c r="R12" s="13">
+        <v>15.1</v>
+      </c>
+      <c r="S12" s="13">
+        <v>18.7</v>
+      </c>
+      <c r="T12" s="13">
+        <v>12.7</v>
+      </c>
+      <c r="U12" s="13">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="V12" s="13">
+        <v>6.1</v>
+      </c>
+      <c r="W12" s="13">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="12" t="s">
@@ -4018,67 +4198,67 @@
         <v>55</v>
       </c>
       <c r="B26" s="13">
-        <v>460</v>
+        <v>2839</v>
       </c>
       <c r="C26" s="13">
-        <v>530</v>
+        <v>3112</v>
       </c>
       <c r="D26" s="13">
-        <v>344</v>
+        <v>2176</v>
       </c>
       <c r="E26" s="13">
-        <v>156</v>
+        <v>972</v>
       </c>
       <c r="F26" s="13">
-        <v>142</v>
+        <v>919</v>
       </c>
       <c r="G26" s="13">
-        <v>277</v>
+        <v>1769</v>
       </c>
       <c r="H26" s="13">
-        <v>157</v>
+        <v>949</v>
       </c>
       <c r="I26" s="13">
-        <v>110</v>
+        <v>692</v>
       </c>
       <c r="J26" s="13">
-        <v>87</v>
+        <v>532</v>
       </c>
       <c r="K26" s="13">
-        <v>57</v>
+        <v>350</v>
       </c>
       <c r="M26" s="12" t="s">
         <v>55</v>
       </c>
       <c r="N26" s="13">
-        <v>375.2</v>
+        <v>412.3</v>
       </c>
       <c r="O26" s="13">
-        <v>261.7</v>
+        <v>288.4</v>
       </c>
       <c r="P26" s="13">
-        <v>187.2</v>
+        <v>205.8</v>
       </c>
       <c r="Q26" s="13">
-        <v>166.4</v>
+        <v>182.8</v>
       </c>
       <c r="R26" s="13">
-        <v>151.9</v>
+        <v>167</v>
       </c>
       <c r="S26" s="13">
-        <v>188.9</v>
+        <v>207.6</v>
       </c>
       <c r="T26" s="13">
-        <v>128.1</v>
+        <v>140.8</v>
       </c>
       <c r="U26" s="13">
-        <v>90.50000000000001</v>
+        <v>99.70000000000002</v>
       </c>
       <c r="V26" s="13">
-        <v>61.00000000000001</v>
+        <v>67.10000000000001</v>
       </c>
       <c r="W26" s="13">
-        <v>62.99999999999999</v>
+        <v>69.29999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -4086,67 +4266,67 @@
         <v>56</v>
       </c>
       <c r="B27" s="13">
-        <v>1.226012793176972</v>
+        <v>6.885762794081979</v>
       </c>
       <c r="C27" s="13">
-        <v>2.025219717233473</v>
+        <v>10.79056865464633</v>
       </c>
       <c r="D27" s="13">
-        <v>1.837606837606838</v>
+        <v>10.57337220602527</v>
       </c>
       <c r="E27" s="13">
-        <v>0.9374999999999998</v>
+        <v>5.317286652078773</v>
       </c>
       <c r="F27" s="13">
-        <v>0.9348255431204742</v>
+        <v>5.502994011976049</v>
       </c>
       <c r="G27" s="13">
-        <v>1.46638433033351</v>
+        <v>8.521194605009635</v>
       </c>
       <c r="H27" s="13">
-        <v>1.2256049960968</v>
+        <v>6.74005681818182</v>
       </c>
       <c r="I27" s="13">
-        <v>1.215469613259668</v>
+        <v>6.940822467402206</v>
       </c>
       <c r="J27" s="13">
-        <v>1.426229508196721</v>
+        <v>7.928464977645304</v>
       </c>
       <c r="K27" s="13">
-        <v>0.904761904761905</v>
+        <v>5.050505050505052</v>
       </c>
       <c r="M27" s="12" t="s">
         <v>56</v>
       </c>
       <c r="N27" s="13">
-        <v>1.226012793176972</v>
+        <v>6.885762794081979</v>
       </c>
       <c r="O27" s="13">
-        <v>2.025219717233473</v>
+        <v>10.79056865464633</v>
       </c>
       <c r="P27" s="13">
-        <v>1.837606837606838</v>
+        <v>10.57337220602527</v>
       </c>
       <c r="Q27" s="13">
-        <v>0.9374999999999998</v>
+        <v>5.317286652078773</v>
       </c>
       <c r="R27" s="13">
-        <v>0.9348255431204742</v>
+        <v>5.502994011976049</v>
       </c>
       <c r="S27" s="13">
-        <v>1.46638433033351</v>
+        <v>8.521194605009635</v>
       </c>
       <c r="T27" s="13">
-        <v>1.2256049960968</v>
+        <v>6.74005681818182</v>
       </c>
       <c r="U27" s="13">
-        <v>1.215469613259668</v>
+        <v>6.940822467402206</v>
       </c>
       <c r="V27" s="13">
-        <v>1.426229508196721</v>
+        <v>7.928464977645304</v>
       </c>
       <c r="W27" s="13">
-        <v>0.904761904761905</v>
+        <v>5.050505050505052</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -4154,67 +4334,67 @@
         <v>57</v>
       </c>
       <c r="B28" s="13">
-        <v>51.11111111111111</v>
+        <v>283.9</v>
       </c>
       <c r="C28" s="13">
-        <v>58.88888888888889</v>
+        <v>311.2</v>
       </c>
       <c r="D28" s="13">
-        <v>38.22222222222222</v>
+        <v>217.6</v>
       </c>
       <c r="E28" s="13">
-        <v>17.33333333333333</v>
+        <v>97.2</v>
       </c>
       <c r="F28" s="13">
-        <v>15.77777777777778</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="G28" s="13">
-        <v>30.77777777777778</v>
+        <v>176.9</v>
       </c>
       <c r="H28" s="13">
-        <v>17.44444444444444</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="I28" s="13">
-        <v>12.22222222222222</v>
+        <v>69.2</v>
       </c>
       <c r="J28" s="13">
-        <v>9.666666666666666</v>
+        <v>53.2</v>
       </c>
       <c r="K28" s="13">
-        <v>6.333333333333333</v>
+        <v>35</v>
       </c>
       <c r="M28" s="12" t="s">
         <v>57</v>
       </c>
       <c r="N28" s="13">
-        <v>37.52</v>
+        <v>37.48181818181818</v>
       </c>
       <c r="O28" s="13">
-        <v>26.17</v>
+        <v>26.21818181818182</v>
       </c>
       <c r="P28" s="13">
-        <v>18.72</v>
+        <v>18.70909090909091</v>
       </c>
       <c r="Q28" s="13">
-        <v>16.64</v>
+        <v>16.61818181818182</v>
       </c>
       <c r="R28" s="13">
-        <v>15.19</v>
+        <v>15.18181818181818</v>
       </c>
       <c r="S28" s="13">
-        <v>18.89</v>
+        <v>18.87272727272727</v>
       </c>
       <c r="T28" s="13">
-        <v>12.81</v>
+        <v>12.8</v>
       </c>
       <c r="U28" s="13">
-        <v>9.050000000000001</v>
+        <v>9.063636363636364</v>
       </c>
       <c r="V28" s="13">
         <v>6.100000000000001</v>
       </c>
       <c r="W28" s="13">
-        <v>6.299999999999999</v>
+        <v>6.299999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -4222,67 +4402,67 @@
         <v>58</v>
       </c>
       <c r="B29" s="13">
-        <v>1.362236436863303</v>
+        <v>7.574339073490176</v>
       </c>
       <c r="C29" s="13">
-        <v>2.250244130259415</v>
+        <v>11.86962552011096</v>
       </c>
       <c r="D29" s="13">
-        <v>2.041785375118709</v>
+        <v>11.6307094266278</v>
       </c>
       <c r="E29" s="13">
-        <v>1.041666666666666</v>
+        <v>5.849015317286652</v>
       </c>
       <c r="F29" s="13">
-        <v>1.038695047911638</v>
+        <v>6.053293413173654</v>
       </c>
       <c r="G29" s="13">
-        <v>1.629315922592789</v>
+        <v>9.373314065510598</v>
       </c>
       <c r="H29" s="13">
-        <v>1.361783328996444</v>
+        <v>7.414062500000004</v>
       </c>
       <c r="I29" s="13">
-        <v>1.350521792510743</v>
+        <v>7.634904714142427</v>
       </c>
       <c r="J29" s="13">
-        <v>1.584699453551912</v>
+        <v>8.721311475409836</v>
       </c>
       <c r="K29" s="13">
-        <v>1.005291005291005</v>
+        <v>5.555555555555557</v>
       </c>
       <c r="M29" s="12" t="s">
         <v>58</v>
       </c>
       <c r="N29" s="13">
-        <v>1.362236436863303</v>
+        <v>7.574339073490176</v>
       </c>
       <c r="O29" s="13">
-        <v>2.250244130259415</v>
+        <v>11.86962552011096</v>
       </c>
       <c r="P29" s="13">
-        <v>2.041785375118709</v>
+        <v>11.6307094266278</v>
       </c>
       <c r="Q29" s="13">
-        <v>1.041666666666666</v>
+        <v>5.849015317286652</v>
       </c>
       <c r="R29" s="13">
-        <v>1.038695047911638</v>
+        <v>6.053293413173654</v>
       </c>
       <c r="S29" s="13">
-        <v>1.629315922592789</v>
+        <v>9.373314065510598</v>
       </c>
       <c r="T29" s="13">
-        <v>1.361783328996444</v>
+        <v>7.414062500000004</v>
       </c>
       <c r="U29" s="13">
-        <v>1.350521792510743</v>
+        <v>7.634904714142427</v>
       </c>
       <c r="V29" s="13">
-        <v>1.584699453551912</v>
+        <v>8.721311475409836</v>
       </c>
       <c r="W29" s="13">
-        <v>1.005291005291005</v>
+        <v>5.555555555555557</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -4290,67 +4470,67 @@
         <v>59</v>
       </c>
       <c r="B30" s="13">
-        <v>150.8477366255142</v>
+        <v>6543.286903812946</v>
       </c>
       <c r="C30" s="13">
-        <v>37.88477366255165</v>
+        <v>9443.180899684176</v>
       </c>
       <c r="D30" s="13">
-        <v>25.09465020576135</v>
+        <v>3803.663464314372</v>
       </c>
       <c r="E30" s="13">
-        <v>48.74074074074076</v>
+        <v>1063.398082450782</v>
       </c>
       <c r="F30" s="13">
-        <v>21.61316872427982</v>
+        <v>685.7999938830558</v>
       </c>
       <c r="G30" s="13">
-        <v>73.39094650205755</v>
+        <v>2805.601200600327</v>
       </c>
       <c r="H30" s="13">
-        <v>38.52674897119343</v>
+        <v>981.219972895986</v>
       </c>
       <c r="I30" s="13">
-        <v>11.61316872427984</v>
+        <v>418.6096675424491</v>
       </c>
       <c r="J30" s="13">
-        <v>10.00000000000001</v>
+        <v>268.2117420248412</v>
       </c>
       <c r="K30" s="13">
-        <v>5.925925925925926</v>
+        <v>144.6425801761017</v>
       </c>
       <c r="M30" s="12" t="s">
         <v>59</v>
       </c>
       <c r="N30" s="13">
-        <v>0.020744541450818</v>
+        <v>0.0223766270603852</v>
       </c>
       <c r="O30" s="13">
-        <v>0.01457810001341977</v>
+        <v>0.01963561483702203</v>
       </c>
       <c r="P30" s="13">
-        <v>0.004300697617845936</v>
+        <v>0.00408660004224313</v>
       </c>
       <c r="Q30" s="13">
-        <v>0.04186855622059917</v>
+        <v>0.03772629551160284</v>
       </c>
       <c r="R30" s="13">
-        <v>0.003446882649608081</v>
+        <v>0.003189541496388853</v>
       </c>
       <c r="S30" s="13">
-        <v>0.05973542500063133</v>
+        <v>0.05267727127585221</v>
       </c>
       <c r="T30" s="13">
-        <v>0.01609599329027908</v>
+        <v>0.0142532635618878</v>
       </c>
       <c r="U30" s="13">
-        <v>0.007115124735372381</v>
+        <v>0.006727939093881368</v>
       </c>
       <c r="V30" s="13">
-        <v>-6.740800259667266e-15</v>
+        <v>-6.427100869169713e-15</v>
       </c>
       <c r="W30" s="13">
-        <v>4.493866839778177e-15</v>
+        <v>6.427100869169713e-15</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -4358,34 +4538,34 @@
         <v>60</v>
       </c>
       <c r="B31" s="13">
-        <v>72</v>
+        <v>546</v>
       </c>
       <c r="C31" s="13">
-        <v>78</v>
+        <v>573</v>
       </c>
       <c r="D31" s="13">
-        <v>48</v>
+        <v>402</v>
       </c>
       <c r="E31" s="13">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="F31" s="13">
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="G31" s="13">
-        <v>51</v>
+        <v>349</v>
       </c>
       <c r="H31" s="13">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="I31" s="13">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="J31" s="13">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="K31" s="13">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M31" s="12" t="s">
         <v>60</v>
@@ -4394,7 +4574,7 @@
         <v>38</v>
       </c>
       <c r="O31" s="13">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="P31" s="13">
         <v>18.9</v>
@@ -4426,40 +4606,40 @@
         <v>61</v>
       </c>
       <c r="B32" s="13">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="C32" s="13">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D32" s="13">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="E32" s="13">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="F32" s="13">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="G32" s="13">
-        <v>-2</v>
+        <v>26</v>
       </c>
       <c r="H32" s="13">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="I32" s="13">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J32" s="13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K32" s="13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M32" s="12" t="s">
         <v>61</v>
       </c>
       <c r="N32" s="13">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="O32" s="13">
         <v>25.9</v>
@@ -4494,43 +4674,43 @@
         <v>62</v>
       </c>
       <c r="B33" s="13">
-        <v>63</v>
+        <v>479</v>
       </c>
       <c r="C33" s="13">
-        <v>34</v>
+        <v>520</v>
       </c>
       <c r="D33" s="13">
-        <v>28</v>
+        <v>363</v>
       </c>
       <c r="E33" s="13">
-        <v>41</v>
+        <v>167</v>
       </c>
       <c r="F33" s="13">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="G33" s="13">
-        <v>53</v>
+        <v>323</v>
       </c>
       <c r="H33" s="13">
-        <v>38</v>
+        <v>162</v>
       </c>
       <c r="I33" s="13">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="J33" s="13">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="K33" s="13">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M33" s="12" t="s">
         <v>62</v>
       </c>
       <c r="N33" s="13">
-        <v>0.7999999999999972</v>
+        <v>0.8999999999999986</v>
       </c>
       <c r="O33" s="13">
-        <v>0.7000000000000028</v>
+        <v>0.8000000000000007</v>
       </c>
       <c r="P33" s="13">
         <v>0.2999999999999972</v>

--- a/2021/Fantasy F1 2021.xlsx
+++ b/2021/Fantasy F1 2021.xlsx
@@ -963,64 +963,64 @@
         <v>1</v>
       </c>
       <c r="B3" s="13">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="C3" s="13">
+        <v>-9</v>
+      </c>
+      <c r="D3" s="13">
+        <v>44</v>
+      </c>
+      <c r="E3" s="13">
+        <v>5</v>
+      </c>
+      <c r="F3" s="13">
+        <v>19</v>
+      </c>
+      <c r="G3" s="13">
+        <v>34</v>
+      </c>
+      <c r="H3" s="13">
+        <v>1</v>
+      </c>
+      <c r="I3" s="13">
+        <v>18</v>
+      </c>
+      <c r="J3" s="13">
+        <v>14</v>
+      </c>
+      <c r="K3" s="13">
+        <v>13</v>
+      </c>
+      <c r="L3" s="13">
+        <v>28</v>
+      </c>
+      <c r="M3" s="13">
         <v>23</v>
       </c>
-      <c r="D3" s="13">
-        <v>79</v>
-      </c>
-      <c r="E3" s="13">
-        <v>28</v>
-      </c>
-      <c r="F3" s="13">
-        <v>34</v>
-      </c>
-      <c r="G3" s="13">
-        <v>63</v>
-      </c>
-      <c r="H3" s="13">
+      <c r="N3" s="13">
+        <v>17</v>
+      </c>
+      <c r="O3" s="13">
+        <v>6</v>
+      </c>
+      <c r="P3" s="13">
         <v>13</v>
       </c>
-      <c r="I3" s="13">
-        <v>29</v>
-      </c>
-      <c r="J3" s="13">
+      <c r="Q3" s="13">
+        <v>8</v>
+      </c>
+      <c r="R3" s="13">
+        <v>11</v>
+      </c>
+      <c r="S3" s="13">
         <v>6</v>
       </c>
-      <c r="K3" s="13">
-        <v>24</v>
-      </c>
-      <c r="L3" s="13">
-        <v>48</v>
-      </c>
-      <c r="M3" s="13">
-        <v>34</v>
-      </c>
-      <c r="N3" s="13">
-        <v>19</v>
-      </c>
-      <c r="O3" s="13">
-        <v>22</v>
-      </c>
-      <c r="P3" s="13">
-        <v>25</v>
-      </c>
-      <c r="Q3" s="13">
-        <v>13</v>
-      </c>
-      <c r="R3" s="13">
-        <v>22</v>
-      </c>
-      <c r="S3" s="13">
-        <v>-8</v>
-      </c>
       <c r="T3" s="13">
-        <v>-1</v>
+        <v>-11</v>
       </c>
       <c r="U3" s="13">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="W3" s="12" t="s">
         <v>1</v>
@@ -1091,64 +1091,64 @@
         <v>2</v>
       </c>
       <c r="B4" s="13">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="C4" s="13">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="D4" s="13">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="E4" s="13">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F4" s="13">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="G4" s="13">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="H4" s="13">
+        <v>4</v>
+      </c>
+      <c r="I4" s="13">
+        <v>8</v>
+      </c>
+      <c r="J4" s="13">
         <v>17</v>
       </c>
-      <c r="I4" s="13">
-        <v>37</v>
-      </c>
-      <c r="J4" s="13">
-        <v>23</v>
-      </c>
       <c r="K4" s="13">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="L4" s="13">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="M4" s="13">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="N4" s="13">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="O4" s="13">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="P4" s="13">
-        <v>12</v>
+        <v>-13</v>
       </c>
       <c r="Q4" s="13">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="R4" s="13">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="S4" s="13">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="T4" s="13">
+        <v>3</v>
+      </c>
+      <c r="U4" s="13">
         <v>2</v>
-      </c>
-      <c r="U4" s="13">
-        <v>-10</v>
       </c>
       <c r="W4" s="12" t="s">
         <v>2</v>
@@ -1219,64 +1219,64 @@
         <v>3</v>
       </c>
       <c r="B5" s="13">
-        <v>172</v>
+        <v>44</v>
       </c>
       <c r="C5" s="13">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="D5" s="13">
-        <v>157</v>
+        <v>41</v>
       </c>
       <c r="E5" s="13">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="F5" s="13">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="G5" s="13">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="H5" s="13">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I5" s="13">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="J5" s="13">
-        <v>18</v>
+        <v>-5</v>
       </c>
       <c r="K5" s="13">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="L5" s="13">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="M5" s="13">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="N5" s="13">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="O5" s="13">
+        <v>-14</v>
+      </c>
+      <c r="P5" s="13">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>4</v>
+      </c>
+      <c r="R5" s="13">
+        <v>7</v>
+      </c>
+      <c r="S5" s="13">
+        <v>4</v>
+      </c>
+      <c r="T5" s="13">
         <v>10</v>
       </c>
-      <c r="P5" s="13">
-        <v>27</v>
-      </c>
-      <c r="Q5" s="13">
-        <v>25</v>
-      </c>
-      <c r="R5" s="13">
-        <v>40</v>
-      </c>
-      <c r="S5" s="13">
-        <v>0</v>
-      </c>
-      <c r="T5" s="13">
-        <v>12</v>
-      </c>
       <c r="U5" s="13">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="W5" s="12" t="s">
         <v>3</v>
@@ -1347,64 +1347,64 @@
         <v>4</v>
       </c>
       <c r="B6" s="13">
-        <v>209</v>
+        <v>37</v>
       </c>
       <c r="C6" s="13">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="D6" s="13">
-        <v>217</v>
+        <v>60</v>
       </c>
       <c r="E6" s="13">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="F6" s="13">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="G6" s="13">
-        <v>151</v>
+        <v>49</v>
       </c>
       <c r="H6" s="13">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="I6" s="13">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="J6" s="13">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="K6" s="13">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="L6" s="13">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="M6" s="13">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="N6" s="13">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="O6" s="13">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="P6" s="13">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="Q6" s="13">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="R6" s="13">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="S6" s="13">
         <v>11</v>
       </c>
       <c r="T6" s="13">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="U6" s="13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W6" s="12" t="s">
         <v>4</v>
@@ -1475,64 +1475,64 @@
         <v>5</v>
       </c>
       <c r="B7" s="13">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="C7" s="13">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="D7" s="13">
-        <v>226</v>
+        <v>9</v>
       </c>
       <c r="E7" s="13">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="F7" s="13">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="G7" s="13">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="H7" s="13">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="I7" s="13">
-        <v>42</v>
+        <v>-20</v>
       </c>
       <c r="J7" s="13">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="K7" s="13">
-        <v>52</v>
+        <v>-13</v>
       </c>
       <c r="L7" s="13">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="M7" s="13">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="N7" s="13">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="O7" s="13">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="P7" s="13">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="Q7" s="13">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="R7" s="13">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="S7" s="13">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="T7" s="13">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="U7" s="13">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="W7" s="12" t="s">
         <v>5</v>
@@ -1603,64 +1603,64 @@
         <v>6</v>
       </c>
       <c r="B8" s="13">
-        <v>250</v>
+        <v>36</v>
       </c>
       <c r="C8" s="13">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="D8" s="13">
-        <v>275</v>
+        <v>49</v>
       </c>
       <c r="E8" s="13">
-        <v>191</v>
+        <v>38</v>
       </c>
       <c r="F8" s="13">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="G8" s="13">
-        <v>211</v>
+        <v>28</v>
       </c>
       <c r="H8" s="13">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I8" s="13">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="J8" s="13">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="K8" s="13">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="L8" s="13">
-        <v>126</v>
+        <v>-2</v>
       </c>
       <c r="M8" s="13">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="N8" s="13">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="O8" s="13">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="P8" s="13">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="Q8" s="13">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="R8" s="13">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="S8" s="13">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="T8" s="13">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="U8" s="13">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="W8" s="12" t="s">
         <v>6</v>
@@ -1731,64 +1731,64 @@
         <v>7</v>
       </c>
       <c r="B9" s="13">
-        <v>288</v>
+        <v>38</v>
       </c>
       <c r="C9" s="13">
-        <v>145</v>
+        <v>34</v>
       </c>
       <c r="D9" s="13">
-        <v>319</v>
+        <v>44</v>
       </c>
       <c r="E9" s="13">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="F9" s="13">
-        <v>111</v>
+        <v>3</v>
       </c>
       <c r="G9" s="13">
-        <v>233</v>
+        <v>22</v>
       </c>
       <c r="H9" s="13">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="I9" s="13">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="J9" s="13">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="K9" s="13">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="L9" s="13">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="M9" s="13">
-        <v>127</v>
+        <v>24</v>
       </c>
       <c r="N9" s="13">
-        <v>120</v>
+        <v>-5</v>
       </c>
       <c r="O9" s="13">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="P9" s="13">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="13">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="R9" s="13">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="S9" s="13">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="T9" s="13">
-        <v>26</v>
+        <v>-11</v>
       </c>
       <c r="U9" s="13">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="W9" s="12" t="s">
         <v>7</v>
@@ -1859,64 +1859,64 @@
         <v>8</v>
       </c>
       <c r="B10" s="13">
-        <v>313</v>
+        <v>25</v>
       </c>
       <c r="C10" s="13">
-        <v>182</v>
+        <v>37</v>
       </c>
       <c r="D10" s="13">
-        <v>368</v>
+        <v>49</v>
       </c>
       <c r="E10" s="13">
-        <v>227</v>
+        <v>14</v>
       </c>
       <c r="F10" s="13">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="G10" s="13">
-        <v>264</v>
+        <v>31</v>
       </c>
       <c r="H10" s="13">
-        <v>111</v>
+        <v>4</v>
       </c>
       <c r="I10" s="13">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="J10" s="13">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="K10" s="13">
-        <v>46</v>
+        <v>-14</v>
       </c>
       <c r="L10" s="13">
-        <v>157</v>
+        <v>15</v>
       </c>
       <c r="M10" s="13">
-        <v>155</v>
+        <v>28</v>
       </c>
       <c r="N10" s="13">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="O10" s="13">
-        <v>42</v>
+        <v>-2</v>
       </c>
       <c r="P10" s="13">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="Q10" s="13">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="R10" s="13">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="S10" s="13">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="T10" s="13">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="U10" s="13">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="W10" s="12" t="s">
         <v>8</v>
@@ -1987,64 +1987,64 @@
         <v>9</v>
       </c>
       <c r="B11" s="13">
-        <v>378</v>
+        <v>65</v>
       </c>
       <c r="C11" s="13">
-        <v>223</v>
+        <v>41</v>
       </c>
       <c r="D11" s="13">
-        <v>386</v>
+        <v>18</v>
       </c>
       <c r="E11" s="13">
-        <v>249</v>
+        <v>22</v>
       </c>
       <c r="F11" s="13">
-        <v>157</v>
+        <v>27</v>
       </c>
       <c r="G11" s="13">
-        <v>317</v>
+        <v>53</v>
       </c>
       <c r="H11" s="13">
-        <v>110</v>
+        <v>-1</v>
       </c>
       <c r="I11" s="13">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="J11" s="13">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="K11" s="13">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="L11" s="13">
-        <v>205</v>
+        <v>48</v>
       </c>
       <c r="M11" s="13">
-        <v>176</v>
+        <v>21</v>
       </c>
       <c r="N11" s="13">
-        <v>143</v>
+        <v>8</v>
       </c>
       <c r="O11" s="13">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="P11" s="13">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="Q11" s="13">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="R11" s="13">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="S11" s="13">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="T11" s="13">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="U11" s="13">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="W11" s="12" t="s">
         <v>9</v>
@@ -2279,64 +2279,64 @@
         <v>55</v>
       </c>
       <c r="B26" s="13">
-        <v>2082</v>
+        <v>378</v>
       </c>
       <c r="C26" s="13">
-        <v>1027</v>
+        <v>223</v>
       </c>
       <c r="D26" s="13">
-        <v>2178</v>
+        <v>386</v>
       </c>
       <c r="E26" s="13">
-        <v>1311</v>
+        <v>249</v>
       </c>
       <c r="F26" s="13">
-        <v>835</v>
+        <v>157</v>
       </c>
       <c r="G26" s="13">
-        <v>1643</v>
+        <v>317</v>
       </c>
       <c r="H26" s="13">
-        <v>622</v>
+        <v>110</v>
       </c>
       <c r="I26" s="13">
-        <v>492</v>
+        <v>87</v>
       </c>
       <c r="J26" s="13">
-        <v>492</v>
+        <v>131</v>
       </c>
       <c r="K26" s="13">
-        <v>459</v>
+        <v>56</v>
       </c>
       <c r="L26" s="13">
-        <v>1097</v>
+        <v>205</v>
       </c>
       <c r="M26" s="13">
-        <v>869</v>
+        <v>176</v>
       </c>
       <c r="N26" s="13">
-        <v>786</v>
+        <v>143</v>
       </c>
       <c r="O26" s="13">
-        <v>285</v>
+        <v>59</v>
       </c>
       <c r="P26" s="13">
-        <v>443</v>
+        <v>81</v>
       </c>
       <c r="Q26" s="13">
-        <v>381</v>
+        <v>75</v>
       </c>
       <c r="R26" s="13">
-        <v>502</v>
+        <v>89</v>
       </c>
       <c r="S26" s="13">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="T26" s="13">
-        <v>211</v>
+        <v>47</v>
       </c>
       <c r="U26" s="13">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="W26" s="12" t="s">
         <v>55</v>
@@ -2407,127 +2407,127 @@
         <v>56</v>
       </c>
       <c r="B27" s="13">
-        <v>5.694748358862143</v>
+        <v>1.033916849015317</v>
       </c>
       <c r="C27" s="13">
-        <v>4.024294670846396</v>
+        <v>0.8738244514106583</v>
       </c>
       <c r="D27" s="13">
-        <v>7.803654604084558</v>
+        <v>1.383016839842351</v>
       </c>
       <c r="E27" s="13">
-        <v>6.464497041420118</v>
+        <v>1.227810650887574</v>
       </c>
       <c r="F27" s="13">
-        <v>4.667411961989938</v>
+        <v>0.877585243152599</v>
       </c>
       <c r="G27" s="13">
-        <v>10.85204755614267</v>
+        <v>2.093791281373844</v>
       </c>
       <c r="H27" s="13">
-        <v>3.713432835820896</v>
+        <v>0.6567164179104479</v>
       </c>
       <c r="I27" s="13">
-        <v>3.317599460552932</v>
+        <v>0.5866486850977746</v>
       </c>
       <c r="J27" s="13">
-        <v>2.987249544626593</v>
+        <v>0.79538554948391</v>
       </c>
       <c r="K27" s="13">
-        <v>4.109221128021487</v>
+        <v>0.5013428827215757</v>
       </c>
       <c r="L27" s="13">
-        <v>5.634309193631228</v>
+        <v>1.052901900359527</v>
       </c>
       <c r="M27" s="13">
-        <v>5.479192938209331</v>
+        <v>1.109709962168978</v>
       </c>
       <c r="N27" s="13">
-        <v>6.088303640588689</v>
+        <v>1.107668474051123</v>
       </c>
       <c r="O27" s="13">
-        <v>2.95643153526971</v>
+        <v>0.6120331950207469</v>
       </c>
       <c r="P27" s="13">
-        <v>4.296799224054316</v>
+        <v>0.7856450048496606</v>
       </c>
       <c r="Q27" s="13">
-        <v>4.374282433983927</v>
+        <v>0.8610792192881745</v>
       </c>
       <c r="R27" s="13">
-        <v>7.880690737833596</v>
+        <v>1.397174254317112</v>
       </c>
       <c r="S27" s="13">
-        <v>2.170940170940172</v>
+        <v>0.7179487179487182</v>
       </c>
       <c r="T27" s="13">
-        <v>3.084795321637426</v>
+        <v>0.6871345029239764</v>
       </c>
       <c r="U27" s="13">
-        <v>1.301272984441301</v>
+        <v>0.4384724186704385</v>
       </c>
       <c r="W27" s="12" t="s">
         <v>56</v>
       </c>
       <c r="X27">
-        <v>5.694748358862143</v>
+        <v>1.033916849015317</v>
       </c>
       <c r="Y27">
-        <v>4.024294670846396</v>
+        <v>0.8738244514106583</v>
       </c>
       <c r="Z27">
-        <v>7.803654604084558</v>
+        <v>1.383016839842351</v>
       </c>
       <c r="AA27">
-        <v>6.464497041420118</v>
+        <v>1.227810650887574</v>
       </c>
       <c r="AB27">
-        <v>4.667411961989938</v>
+        <v>0.877585243152599</v>
       </c>
       <c r="AC27">
-        <v>10.85204755614267</v>
+        <v>2.093791281373844</v>
       </c>
       <c r="AD27">
-        <v>3.713432835820896</v>
+        <v>0.6567164179104479</v>
       </c>
       <c r="AE27">
-        <v>3.317599460552932</v>
+        <v>0.5866486850977746</v>
       </c>
       <c r="AF27">
-        <v>2.987249544626593</v>
+        <v>0.79538554948391</v>
       </c>
       <c r="AG27">
-        <v>4.109221128021487</v>
+        <v>0.5013428827215757</v>
       </c>
       <c r="AH27">
-        <v>5.634309193631228</v>
+        <v>1.052901900359527</v>
       </c>
       <c r="AI27">
-        <v>5.479192938209331</v>
+        <v>1.109709962168978</v>
       </c>
       <c r="AJ27">
-        <v>6.088303640588689</v>
+        <v>1.107668474051123</v>
       </c>
       <c r="AK27">
-        <v>2.95643153526971</v>
+        <v>0.6120331950207469</v>
       </c>
       <c r="AL27">
-        <v>4.296799224054316</v>
+        <v>0.7856450048496606</v>
       </c>
       <c r="AM27">
-        <v>4.374282433983927</v>
+        <v>0.8610792192881745</v>
       </c>
       <c r="AN27">
-        <v>7.880690737833596</v>
+        <v>1.397174254317112</v>
       </c>
       <c r="AO27">
-        <v>2.170940170940172</v>
+        <v>0.7179487179487182</v>
       </c>
       <c r="AP27">
-        <v>3.084795321637426</v>
+        <v>0.6871345029239764</v>
       </c>
       <c r="AQ27">
-        <v>1.301272984441301</v>
+        <v>0.4384724186704385</v>
       </c>
     </row>
     <row r="28" spans="1:43">
@@ -2535,64 +2535,64 @@
         <v>57</v>
       </c>
       <c r="B28" s="13">
-        <v>208.2</v>
+        <v>37.8</v>
       </c>
       <c r="C28" s="13">
-        <v>102.7</v>
+        <v>22.3</v>
       </c>
       <c r="D28" s="13">
-        <v>217.8</v>
+        <v>38.6</v>
       </c>
       <c r="E28" s="13">
-        <v>131.1</v>
+        <v>24.9</v>
       </c>
       <c r="F28" s="13">
-        <v>83.5</v>
+        <v>15.7</v>
       </c>
       <c r="G28" s="13">
-        <v>164.3</v>
+        <v>31.7</v>
       </c>
       <c r="H28" s="13">
-        <v>62.2</v>
+        <v>11</v>
       </c>
       <c r="I28" s="13">
-        <v>49.2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J28" s="13">
-        <v>49.2</v>
+        <v>13.1</v>
       </c>
       <c r="K28" s="13">
-        <v>45.9</v>
+        <v>5.6</v>
       </c>
       <c r="L28" s="13">
-        <v>109.7</v>
+        <v>20.5</v>
       </c>
       <c r="M28" s="13">
-        <v>86.90000000000001</v>
+        <v>17.6</v>
       </c>
       <c r="N28" s="13">
-        <v>78.59999999999999</v>
+        <v>14.3</v>
       </c>
       <c r="O28" s="13">
-        <v>28.5</v>
+        <v>5.9</v>
       </c>
       <c r="P28" s="13">
-        <v>44.3</v>
+        <v>8.1</v>
       </c>
       <c r="Q28" s="13">
-        <v>38.1</v>
+        <v>7.5</v>
       </c>
       <c r="R28" s="13">
-        <v>50.2</v>
+        <v>8.9</v>
       </c>
       <c r="S28" s="13">
-        <v>12.7</v>
+        <v>4.2</v>
       </c>
       <c r="T28" s="13">
-        <v>21.1</v>
+        <v>4.7</v>
       </c>
       <c r="U28" s="13">
-        <v>9.199999999999999</v>
+        <v>3.1</v>
       </c>
       <c r="W28" s="12" t="s">
         <v>57</v>
@@ -2663,127 +2663,127 @@
         <v>58</v>
       </c>
       <c r="B29" s="13">
-        <v>6.264223194748357</v>
+        <v>1.137308533916849</v>
       </c>
       <c r="C29" s="13">
-        <v>4.426724137931035</v>
+        <v>0.9612068965517242</v>
       </c>
       <c r="D29" s="13">
-        <v>8.584020064493014</v>
+        <v>1.521318523826586</v>
       </c>
       <c r="E29" s="13">
-        <v>7.11094674556213</v>
+        <v>1.350591715976331</v>
       </c>
       <c r="F29" s="13">
-        <v>5.134153158188932</v>
+        <v>0.965343767467859</v>
       </c>
       <c r="G29" s="13">
-        <v>11.93725231175694</v>
+        <v>2.303170409511229</v>
       </c>
       <c r="H29" s="13">
-        <v>4.084776119402986</v>
+        <v>0.7223880597014927</v>
       </c>
       <c r="I29" s="13">
-        <v>3.649359406608226</v>
+        <v>0.645313553607552</v>
       </c>
       <c r="J29" s="13">
-        <v>3.285974499089253</v>
+        <v>0.8749241044323011</v>
       </c>
       <c r="K29" s="13">
-        <v>4.520143240823635</v>
+        <v>0.5514771709937332</v>
       </c>
       <c r="L29" s="13">
-        <v>6.19774011299435</v>
+        <v>1.15819209039548</v>
       </c>
       <c r="M29" s="13">
-        <v>6.027112232030264</v>
+        <v>1.220680958385876</v>
       </c>
       <c r="N29" s="13">
-        <v>6.697134004647559</v>
+        <v>1.218435321456235</v>
       </c>
       <c r="O29" s="13">
-        <v>3.25207468879668</v>
+        <v>0.6732365145228216</v>
       </c>
       <c r="P29" s="13">
-        <v>4.726479146459748</v>
+        <v>0.8642095053346265</v>
       </c>
       <c r="Q29" s="13">
-        <v>4.81171067738232</v>
+        <v>0.947187141216992</v>
       </c>
       <c r="R29" s="13">
-        <v>8.668759811616956</v>
+        <v>1.536891679748823</v>
       </c>
       <c r="S29" s="13">
-        <v>2.388034188034188</v>
+        <v>0.78974358974359</v>
       </c>
       <c r="T29" s="13">
-        <v>3.393274853801169</v>
+        <v>0.7558479532163741</v>
       </c>
       <c r="U29" s="13">
-        <v>1.431400282885431</v>
+        <v>0.4823196605374823</v>
       </c>
       <c r="W29" s="12" t="s">
         <v>58</v>
       </c>
       <c r="X29">
-        <v>6.264223194748357</v>
+        <v>1.137308533916849</v>
       </c>
       <c r="Y29">
-        <v>4.426724137931035</v>
+        <v>0.9612068965517242</v>
       </c>
       <c r="Z29">
-        <v>8.584020064493014</v>
+        <v>1.521318523826586</v>
       </c>
       <c r="AA29">
-        <v>7.11094674556213</v>
+        <v>1.350591715976331</v>
       </c>
       <c r="AB29">
-        <v>5.134153158188932</v>
+        <v>0.965343767467859</v>
       </c>
       <c r="AC29">
-        <v>11.93725231175694</v>
+        <v>2.303170409511229</v>
       </c>
       <c r="AD29">
-        <v>4.084776119402986</v>
+        <v>0.7223880597014927</v>
       </c>
       <c r="AE29">
-        <v>3.649359406608226</v>
+        <v>0.645313553607552</v>
       </c>
       <c r="AF29">
-        <v>3.285974499089253</v>
+        <v>0.8749241044323011</v>
       </c>
       <c r="AG29">
-        <v>4.520143240823635</v>
+        <v>0.5514771709937332</v>
       </c>
       <c r="AH29">
-        <v>6.19774011299435</v>
+        <v>1.15819209039548</v>
       </c>
       <c r="AI29">
-        <v>6.027112232030264</v>
+        <v>1.220680958385876</v>
       </c>
       <c r="AJ29">
-        <v>6.697134004647559</v>
+        <v>1.218435321456235</v>
       </c>
       <c r="AK29">
-        <v>3.25207468879668</v>
+        <v>0.6732365145228216</v>
       </c>
       <c r="AL29">
-        <v>4.726479146459748</v>
+        <v>0.8642095053346265</v>
       </c>
       <c r="AM29">
-        <v>4.81171067738232</v>
+        <v>0.947187141216992</v>
       </c>
       <c r="AN29">
-        <v>8.668759811616956</v>
+        <v>1.536891679748823</v>
       </c>
       <c r="AO29">
-        <v>2.388034188034188</v>
+        <v>0.78974358974359</v>
       </c>
       <c r="AP29">
-        <v>3.393274853801169</v>
+        <v>0.7558479532163741</v>
       </c>
       <c r="AQ29">
-        <v>1.431400282885431</v>
+        <v>0.4823196605374823</v>
       </c>
     </row>
     <row r="30" spans="1:43">
@@ -2791,64 +2791,64 @@
         <v>59</v>
       </c>
       <c r="B30" s="13">
-        <v>3083.840525085563</v>
+        <v>66.58491841250552</v>
       </c>
       <c r="C30" s="13">
-        <v>1175.548259668653</v>
+        <v>82.222381442038</v>
       </c>
       <c r="D30" s="13">
-        <v>4148.073448838627</v>
+        <v>64.9658322504992</v>
       </c>
       <c r="E30" s="13">
-        <v>2109.583887597267</v>
+        <v>44.4268388477056</v>
       </c>
       <c r="F30" s="13">
-        <v>556.0074695991052</v>
+        <v>17.83840828100983</v>
       </c>
       <c r="G30" s="13">
-        <v>2487.261033106496</v>
+        <v>40.60680743422215</v>
       </c>
       <c r="H30" s="13">
-        <v>554.7773435892997</v>
+        <v>43.07022173149332</v>
       </c>
       <c r="I30" s="13">
-        <v>132.1073115311941</v>
+        <v>40.923035200239</v>
       </c>
       <c r="J30" s="13">
-        <v>549.4014715670135</v>
+        <v>44.61657550731566</v>
       </c>
       <c r="K30" s="13">
-        <v>78.38970091791391</v>
+        <v>34.98744003210295</v>
       </c>
       <c r="L30" s="13">
-        <v>840.3468276908052</v>
+        <v>53.39505829194309</v>
       </c>
       <c r="M30" s="13">
-        <v>856.0570231065218</v>
+        <v>31.19270683990087</v>
       </c>
       <c r="N30" s="13">
-        <v>804.3063491978664</v>
+        <v>47.05785386096565</v>
       </c>
       <c r="O30" s="13">
-        <v>69.71241101841193</v>
+        <v>25.76940065271212</v>
       </c>
       <c r="P30" s="13">
-        <v>183.1622843546127</v>
+        <v>23.23957852457742</v>
       </c>
       <c r="Q30" s="13">
-        <v>142.6471829725354</v>
+        <v>2.16616019721534</v>
       </c>
       <c r="R30" s="13">
-        <v>185.4865584348363</v>
+        <v>5.530823627634494</v>
       </c>
       <c r="S30" s="13">
-        <v>98.6662252749136</v>
+        <v>15.22952921137091</v>
       </c>
       <c r="T30" s="13">
-        <v>67.06874689451112</v>
+        <v>24.16296360134658</v>
       </c>
       <c r="U30" s="13">
-        <v>61.58851970943935</v>
+        <v>12.99379890563187</v>
       </c>
       <c r="W30" s="12" t="s">
         <v>59</v>
@@ -2919,64 +2919,64 @@
         <v>60</v>
       </c>
       <c r="B31" s="13">
-        <v>378</v>
+        <v>65</v>
       </c>
       <c r="C31" s="13">
-        <v>223</v>
+        <v>41</v>
       </c>
       <c r="D31" s="13">
-        <v>386</v>
+        <v>60</v>
       </c>
       <c r="E31" s="13">
-        <v>249</v>
+        <v>51</v>
       </c>
       <c r="F31" s="13">
-        <v>157</v>
+        <v>27</v>
       </c>
       <c r="G31" s="13">
-        <v>317</v>
+        <v>53</v>
       </c>
       <c r="H31" s="13">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="I31" s="13">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="J31" s="13">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="K31" s="13">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="L31" s="13">
-        <v>205</v>
+        <v>48</v>
       </c>
       <c r="M31" s="13">
-        <v>176</v>
+        <v>36</v>
       </c>
       <c r="N31" s="13">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="O31" s="13">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="P31" s="13">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="Q31" s="13">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="R31" s="13">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="S31" s="13">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="T31" s="13">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="U31" s="13">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="W31" s="12" t="s">
         <v>60</v>
@@ -3047,64 +3047,64 @@
         <v>61</v>
       </c>
       <c r="B32" s="13">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="C32" s="13">
-        <v>23</v>
+        <v>-9</v>
       </c>
       <c r="D32" s="13">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E32" s="13">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F32" s="13">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G32" s="13">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H32" s="13">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="I32" s="13">
-        <v>11</v>
+        <v>-20</v>
       </c>
       <c r="J32" s="13">
         <v>-8</v>
       </c>
       <c r="K32" s="13">
-        <v>11</v>
+        <v>-14</v>
       </c>
       <c r="L32" s="13">
-        <v>20</v>
+        <v>-2</v>
       </c>
       <c r="M32" s="13">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="N32" s="13">
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="O32" s="13">
-        <v>10</v>
+        <v>-14</v>
       </c>
       <c r="P32" s="13">
-        <v>12</v>
+        <v>-13</v>
       </c>
       <c r="Q32" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R32" s="13">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="S32" s="13">
         <v>-14</v>
       </c>
       <c r="T32" s="13">
-        <v>-1</v>
+        <v>-11</v>
       </c>
       <c r="U32" s="13">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="W32" s="12" t="s">
         <v>61</v>
@@ -3175,64 +3175,64 @@
         <v>62</v>
       </c>
       <c r="B33" s="13">
-        <v>333</v>
+        <v>60</v>
       </c>
       <c r="C33" s="13">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D33" s="13">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="E33" s="13">
-        <v>226</v>
+        <v>46</v>
       </c>
       <c r="F33" s="13">
-        <v>142</v>
+        <v>24</v>
       </c>
       <c r="G33" s="13">
-        <v>288</v>
+        <v>41</v>
       </c>
       <c r="H33" s="13">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="I33" s="13">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="J33" s="13">
-        <v>139</v>
+        <v>43</v>
       </c>
       <c r="K33" s="13">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="L33" s="13">
-        <v>185</v>
+        <v>50</v>
       </c>
       <c r="M33" s="13">
-        <v>165</v>
+        <v>34</v>
       </c>
       <c r="N33" s="13">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="O33" s="13">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="P33" s="13">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="Q33" s="13">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="R33" s="13">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="S33" s="13">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="T33" s="13">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="U33" s="13">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="W33" s="12" t="s">
         <v>62</v>
@@ -3452,34 +3452,34 @@
         <v>1</v>
       </c>
       <c r="B3" s="13">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="C3" s="13">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="D3" s="13">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="E3" s="13">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F3" s="13">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="G3" s="13">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="H3" s="13">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I3" s="13">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J3" s="13">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="K3" s="13">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M3" s="12" t="s">
         <v>1</v>
@@ -3520,34 +3520,34 @@
         <v>2</v>
       </c>
       <c r="B4" s="13">
-        <v>173</v>
+        <v>70</v>
       </c>
       <c r="C4" s="13">
-        <v>152</v>
+        <v>55</v>
       </c>
       <c r="D4" s="13">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="E4" s="13">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="F4" s="13">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="G4" s="13">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="H4" s="13">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="I4" s="13">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="J4" s="13">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="K4" s="13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M4" s="12" t="s">
         <v>2</v>
@@ -3588,34 +3588,34 @@
         <v>3</v>
       </c>
       <c r="B5" s="13">
-        <v>239</v>
+        <v>66</v>
       </c>
       <c r="C5" s="13">
-        <v>211</v>
+        <v>59</v>
       </c>
       <c r="D5" s="13">
-        <v>163</v>
+        <v>30</v>
       </c>
       <c r="E5" s="13">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="F5" s="13">
-        <v>64</v>
+        <v>-1</v>
       </c>
       <c r="G5" s="13">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="H5" s="13">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="I5" s="13">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="J5" s="13">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="K5" s="13">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M5" s="12" t="s">
         <v>3</v>
@@ -3656,34 +3656,34 @@
         <v>4</v>
       </c>
       <c r="B6" s="13">
-        <v>264</v>
+        <v>25</v>
       </c>
       <c r="C6" s="13">
-        <v>289</v>
+        <v>78</v>
       </c>
       <c r="D6" s="13">
-        <v>195</v>
+        <v>32</v>
       </c>
       <c r="E6" s="13">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="F6" s="13">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="G6" s="13">
-        <v>178</v>
+        <v>51</v>
       </c>
       <c r="H6" s="13">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="I6" s="13">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="J6" s="13">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="K6" s="13">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M6" s="12" t="s">
         <v>4</v>
@@ -3724,34 +3724,34 @@
         <v>5</v>
       </c>
       <c r="B7" s="13">
-        <v>273</v>
+        <v>9</v>
       </c>
       <c r="C7" s="13">
-        <v>334</v>
+        <v>45</v>
       </c>
       <c r="D7" s="13">
-        <v>235</v>
+        <v>40</v>
       </c>
       <c r="E7" s="13">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c r="F7" s="13">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="G7" s="13">
-        <v>206</v>
+        <v>28</v>
       </c>
       <c r="H7" s="13">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="I7" s="13">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="J7" s="13">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="K7" s="13">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="M7" s="12" t="s">
         <v>5</v>
@@ -3792,34 +3792,34 @@
         <v>6</v>
       </c>
       <c r="B8" s="13">
-        <v>326</v>
+        <v>53</v>
       </c>
       <c r="C8" s="13">
-        <v>406</v>
+        <v>72</v>
       </c>
       <c r="D8" s="13">
-        <v>279</v>
+        <v>44</v>
       </c>
       <c r="E8" s="13">
-        <v>139</v>
+        <v>23</v>
       </c>
       <c r="F8" s="13">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="G8" s="13">
-        <v>204</v>
+        <v>-2</v>
       </c>
       <c r="H8" s="13">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="I8" s="13">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="J8" s="13">
-        <v>65</v>
+        <v>-1</v>
       </c>
       <c r="K8" s="13">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="M8" s="12" t="s">
         <v>6</v>
@@ -3860,34 +3860,34 @@
         <v>7</v>
       </c>
       <c r="B9" s="13">
-        <v>388</v>
+        <v>62</v>
       </c>
       <c r="C9" s="13">
-        <v>467</v>
+        <v>61</v>
       </c>
       <c r="D9" s="13">
-        <v>299</v>
+        <v>20</v>
       </c>
       <c r="E9" s="13">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="F9" s="13">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="G9" s="13">
-        <v>239</v>
+        <v>35</v>
       </c>
       <c r="H9" s="13">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="I9" s="13">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="J9" s="13">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="K9" s="13">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="M9" s="12" t="s">
         <v>7</v>
@@ -3928,34 +3928,34 @@
         <v>8</v>
       </c>
       <c r="B10" s="13">
-        <v>460</v>
+        <v>72</v>
       </c>
       <c r="C10" s="13">
-        <v>530</v>
+        <v>63</v>
       </c>
       <c r="D10" s="13">
-        <v>344</v>
+        <v>45</v>
       </c>
       <c r="E10" s="13">
-        <v>156</v>
+        <v>-1</v>
       </c>
       <c r="F10" s="13">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="G10" s="13">
-        <v>277</v>
+        <v>38</v>
       </c>
       <c r="H10" s="13">
-        <v>157</v>
+        <v>3</v>
       </c>
       <c r="I10" s="13">
-        <v>110</v>
+        <v>7</v>
       </c>
       <c r="J10" s="13">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="K10" s="13">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="M10" s="12" t="s">
         <v>8</v>
@@ -3996,34 +3996,34 @@
         <v>9</v>
       </c>
       <c r="B11" s="13">
-        <v>546</v>
+        <v>86</v>
       </c>
       <c r="C11" s="13">
-        <v>573</v>
+        <v>43</v>
       </c>
       <c r="D11" s="13">
-        <v>402</v>
+        <v>58</v>
       </c>
       <c r="E11" s="13">
-        <v>185</v>
+        <v>29</v>
       </c>
       <c r="F11" s="13">
-        <v>170</v>
+        <v>28</v>
       </c>
       <c r="G11" s="13">
-        <v>349</v>
+        <v>72</v>
       </c>
       <c r="H11" s="13">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="I11" s="13">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="J11" s="13">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="K11" s="13">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="M11" s="12" t="s">
         <v>9</v>
@@ -4198,34 +4198,34 @@
         <v>55</v>
       </c>
       <c r="B26" s="13">
-        <v>2839</v>
+        <v>546</v>
       </c>
       <c r="C26" s="13">
-        <v>3112</v>
+        <v>573</v>
       </c>
       <c r="D26" s="13">
-        <v>2176</v>
+        <v>402</v>
       </c>
       <c r="E26" s="13">
-        <v>972</v>
+        <v>185</v>
       </c>
       <c r="F26" s="13">
-        <v>919</v>
+        <v>170</v>
       </c>
       <c r="G26" s="13">
-        <v>1769</v>
+        <v>349</v>
       </c>
       <c r="H26" s="13">
-        <v>949</v>
+        <v>175</v>
       </c>
       <c r="I26" s="13">
-        <v>692</v>
+        <v>124</v>
       </c>
       <c r="J26" s="13">
-        <v>532</v>
+        <v>99</v>
       </c>
       <c r="K26" s="13">
-        <v>350</v>
+        <v>74</v>
       </c>
       <c r="M26" s="12" t="s">
         <v>55</v>
@@ -4266,67 +4266,67 @@
         <v>56</v>
       </c>
       <c r="B27" s="13">
-        <v>6.885762794081979</v>
+        <v>1.32427843803056</v>
       </c>
       <c r="C27" s="13">
-        <v>10.79056865464633</v>
+        <v>1.986823855755895</v>
       </c>
       <c r="D27" s="13">
-        <v>10.57337220602527</v>
+        <v>1.9533527696793</v>
       </c>
       <c r="E27" s="13">
-        <v>5.317286652078773</v>
+        <v>1.012035010940919</v>
       </c>
       <c r="F27" s="13">
-        <v>5.502994011976049</v>
+        <v>1.017964071856288</v>
       </c>
       <c r="G27" s="13">
-        <v>8.521194605009635</v>
+        <v>1.68111753371869</v>
       </c>
       <c r="H27" s="13">
-        <v>6.74005681818182</v>
+        <v>1.242897727272728</v>
       </c>
       <c r="I27" s="13">
-        <v>6.940822467402206</v>
+        <v>1.243731193580742</v>
       </c>
       <c r="J27" s="13">
-        <v>7.928464977645304</v>
+        <v>1.475409836065574</v>
       </c>
       <c r="K27" s="13">
-        <v>5.050505050505052</v>
+        <v>1.067821067821068</v>
       </c>
       <c r="M27" s="12" t="s">
         <v>56</v>
       </c>
       <c r="N27" s="13">
-        <v>6.885762794081979</v>
+        <v>1.32427843803056</v>
       </c>
       <c r="O27" s="13">
-        <v>10.79056865464633</v>
+        <v>1.986823855755895</v>
       </c>
       <c r="P27" s="13">
-        <v>10.57337220602527</v>
+        <v>1.9533527696793</v>
       </c>
       <c r="Q27" s="13">
-        <v>5.317286652078773</v>
+        <v>1.012035010940919</v>
       </c>
       <c r="R27" s="13">
-        <v>5.502994011976049</v>
+        <v>1.017964071856288</v>
       </c>
       <c r="S27" s="13">
-        <v>8.521194605009635</v>
+        <v>1.68111753371869</v>
       </c>
       <c r="T27" s="13">
-        <v>6.74005681818182</v>
+        <v>1.242897727272728</v>
       </c>
       <c r="U27" s="13">
-        <v>6.940822467402206</v>
+        <v>1.243731193580742</v>
       </c>
       <c r="V27" s="13">
-        <v>7.928464977645304</v>
+        <v>1.475409836065574</v>
       </c>
       <c r="W27" s="13">
-        <v>5.050505050505052</v>
+        <v>1.067821067821068</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -4334,34 +4334,34 @@
         <v>57</v>
       </c>
       <c r="B28" s="13">
-        <v>283.9</v>
+        <v>54.6</v>
       </c>
       <c r="C28" s="13">
-        <v>311.2</v>
+        <v>57.3</v>
       </c>
       <c r="D28" s="13">
-        <v>217.6</v>
+        <v>40.2</v>
       </c>
       <c r="E28" s="13">
-        <v>97.2</v>
+        <v>18.5</v>
       </c>
       <c r="F28" s="13">
-        <v>91.90000000000001</v>
+        <v>17</v>
       </c>
       <c r="G28" s="13">
-        <v>176.9</v>
+        <v>34.9</v>
       </c>
       <c r="H28" s="13">
-        <v>94.90000000000001</v>
+        <v>17.5</v>
       </c>
       <c r="I28" s="13">
-        <v>69.2</v>
+        <v>12.4</v>
       </c>
       <c r="J28" s="13">
-        <v>53.2</v>
+        <v>9.9</v>
       </c>
       <c r="K28" s="13">
-        <v>35</v>
+        <v>7.4</v>
       </c>
       <c r="M28" s="12" t="s">
         <v>57</v>
@@ -4402,67 +4402,67 @@
         <v>58</v>
       </c>
       <c r="B29" s="13">
-        <v>7.574339073490176</v>
+        <v>1.456706281833616</v>
       </c>
       <c r="C29" s="13">
-        <v>11.86962552011096</v>
+        <v>2.185506241331484</v>
       </c>
       <c r="D29" s="13">
-        <v>11.6307094266278</v>
+        <v>2.148688046647231</v>
       </c>
       <c r="E29" s="13">
-        <v>5.849015317286652</v>
+        <v>1.113238512035011</v>
       </c>
       <c r="F29" s="13">
-        <v>6.053293413173654</v>
+        <v>1.119760479041916</v>
       </c>
       <c r="G29" s="13">
-        <v>9.373314065510598</v>
+        <v>1.849229287090559</v>
       </c>
       <c r="H29" s="13">
-        <v>7.414062500000004</v>
+        <v>1.3671875</v>
       </c>
       <c r="I29" s="13">
-        <v>7.634904714142427</v>
+        <v>1.368104312938816</v>
       </c>
       <c r="J29" s="13">
-        <v>8.721311475409836</v>
+        <v>1.622950819672131</v>
       </c>
       <c r="K29" s="13">
-        <v>5.555555555555557</v>
+        <v>1.174603174603175</v>
       </c>
       <c r="M29" s="12" t="s">
         <v>58</v>
       </c>
       <c r="N29" s="13">
-        <v>7.574339073490176</v>
+        <v>1.456706281833616</v>
       </c>
       <c r="O29" s="13">
-        <v>11.86962552011096</v>
+        <v>2.185506241331484</v>
       </c>
       <c r="P29" s="13">
-        <v>11.6307094266278</v>
+        <v>2.148688046647231</v>
       </c>
       <c r="Q29" s="13">
-        <v>5.849015317286652</v>
+        <v>1.113238512035011</v>
       </c>
       <c r="R29" s="13">
-        <v>6.053293413173654</v>
+        <v>1.119760479041916</v>
       </c>
       <c r="S29" s="13">
-        <v>9.373314065510598</v>
+        <v>1.849229287090559</v>
       </c>
       <c r="T29" s="13">
-        <v>7.414062500000004</v>
+        <v>1.3671875</v>
       </c>
       <c r="U29" s="13">
-        <v>7.634904714142427</v>
+        <v>1.368104312938816</v>
       </c>
       <c r="V29" s="13">
-        <v>8.721311475409836</v>
+        <v>1.622950819672131</v>
       </c>
       <c r="W29" s="13">
-        <v>5.555555555555557</v>
+        <v>1.174603174603175</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -4470,34 +4470,34 @@
         <v>59</v>
       </c>
       <c r="B30" s="13">
-        <v>6543.286903812946</v>
+        <v>163.4391585881424</v>
       </c>
       <c r="C30" s="13">
-        <v>9443.180899684176</v>
+        <v>39.53163302976512</v>
       </c>
       <c r="D30" s="13">
-        <v>3803.663464314372</v>
+        <v>32.55881078909357</v>
       </c>
       <c r="E30" s="13">
-        <v>1063.398082450782</v>
+        <v>45.48936414152214</v>
       </c>
       <c r="F30" s="13">
-        <v>685.7999938830558</v>
+        <v>22.70515360000897</v>
       </c>
       <c r="G30" s="13">
-        <v>2805.601200600327</v>
+        <v>111.0244063708516</v>
       </c>
       <c r="H30" s="13">
-        <v>981.219972895986</v>
+        <v>32.90349905405199</v>
       </c>
       <c r="I30" s="13">
-        <v>418.6096675424491</v>
+        <v>10.00544651677275</v>
       </c>
       <c r="J30" s="13">
-        <v>268.2117420248412</v>
+        <v>8.693101287802874</v>
       </c>
       <c r="K30" s="13">
-        <v>144.6425801761017</v>
+        <v>8.297816580281825</v>
       </c>
       <c r="M30" s="12" t="s">
         <v>59</v>
@@ -4538,34 +4538,34 @@
         <v>60</v>
       </c>
       <c r="B31" s="13">
-        <v>546</v>
+        <v>86</v>
       </c>
       <c r="C31" s="13">
-        <v>573</v>
+        <v>78</v>
       </c>
       <c r="D31" s="13">
-        <v>402</v>
+        <v>58</v>
       </c>
       <c r="E31" s="13">
-        <v>185</v>
+        <v>40</v>
       </c>
       <c r="F31" s="13">
-        <v>170</v>
+        <v>30</v>
       </c>
       <c r="G31" s="13">
-        <v>349</v>
+        <v>72</v>
       </c>
       <c r="H31" s="13">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="I31" s="13">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="J31" s="13">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="K31" s="13">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="M31" s="12" t="s">
         <v>60</v>
@@ -4606,34 +4606,34 @@
         <v>61</v>
       </c>
       <c r="B32" s="13">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="C32" s="13">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D32" s="13">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E32" s="13">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="F32" s="13">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="G32" s="13">
-        <v>26</v>
+        <v>-2</v>
       </c>
       <c r="H32" s="13">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="I32" s="13">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J32" s="13">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="K32" s="13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M32" s="12" t="s">
         <v>61</v>
@@ -4674,34 +4674,34 @@
         <v>62</v>
       </c>
       <c r="B33" s="13">
-        <v>479</v>
+        <v>77</v>
       </c>
       <c r="C33" s="13">
-        <v>520</v>
+        <v>35</v>
       </c>
       <c r="D33" s="13">
-        <v>363</v>
+        <v>38</v>
       </c>
       <c r="E33" s="13">
-        <v>167</v>
+        <v>41</v>
       </c>
       <c r="F33" s="13">
-        <v>157</v>
+        <v>31</v>
       </c>
       <c r="G33" s="13">
-        <v>323</v>
+        <v>74</v>
       </c>
       <c r="H33" s="13">
-        <v>162</v>
+        <v>38</v>
       </c>
       <c r="I33" s="13">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="J33" s="13">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="K33" s="13">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="M33" s="12" t="s">
         <v>62</v>

--- a/2021/Fantasy F1 2021.xlsx
+++ b/2021/Fantasy F1 2021.xlsx
@@ -137,7 +137,7 @@
     <t>Raikkonen</t>
   </si>
   <si>
-    <t>Giovanazzi</t>
+    <t>Giovinazzi</t>
   </si>
   <si>
     <t>Schumacher</t>
@@ -2114,6 +2114,66 @@
       <c r="A12" s="12" t="s">
         <v>10</v>
       </c>
+      <c r="B12" s="13">
+        <v>423</v>
+      </c>
+      <c r="C12" s="13">
+        <v>220</v>
+      </c>
+      <c r="D12" s="13">
+        <v>395</v>
+      </c>
+      <c r="E12" s="13">
+        <v>249</v>
+      </c>
+      <c r="F12" s="13">
+        <v>163</v>
+      </c>
+      <c r="G12" s="13">
+        <v>312</v>
+      </c>
+      <c r="H12" s="13">
+        <v>96</v>
+      </c>
+      <c r="I12" s="13">
+        <v>77</v>
+      </c>
+      <c r="J12" s="13">
+        <v>159</v>
+      </c>
+      <c r="K12" s="13">
+        <v>103</v>
+      </c>
+      <c r="L12" s="13">
+        <v>199</v>
+      </c>
+      <c r="M12" s="13">
+        <v>207</v>
+      </c>
+      <c r="N12" s="13">
+        <v>173</v>
+      </c>
+      <c r="O12" s="13">
+        <v>79</v>
+      </c>
+      <c r="P12" s="13">
+        <v>96</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>80</v>
+      </c>
+      <c r="R12" s="13">
+        <v>98</v>
+      </c>
+      <c r="S12" s="13">
+        <v>30</v>
+      </c>
+      <c r="T12" s="13">
+        <v>65</v>
+      </c>
+      <c r="U12" s="13">
+        <v>52</v>
+      </c>
       <c r="W12" s="12" t="s">
         <v>10</v>
       </c>
@@ -2182,16 +2242,256 @@
       <c r="A13" s="12" t="s">
         <v>11</v>
       </c>
+      <c r="B13" s="13">
+        <v>445.5</v>
+      </c>
+      <c r="C13" s="13">
+        <v>227.5</v>
+      </c>
+      <c r="D13" s="13">
+        <v>427</v>
+      </c>
+      <c r="E13" s="13">
+        <v>251.5</v>
+      </c>
+      <c r="F13" s="13">
+        <v>183</v>
+      </c>
+      <c r="G13" s="13">
+        <v>317.5</v>
+      </c>
+      <c r="H13" s="13">
+        <v>114</v>
+      </c>
+      <c r="I13" s="13">
+        <v>79</v>
+      </c>
+      <c r="J13" s="13">
+        <v>162.5</v>
+      </c>
+      <c r="K13" s="13">
+        <v>116</v>
+      </c>
+      <c r="L13" s="13">
+        <v>208</v>
+      </c>
+      <c r="M13" s="13">
+        <v>220</v>
+      </c>
+      <c r="N13" s="13">
+        <v>189</v>
+      </c>
+      <c r="O13" s="13">
+        <v>81.5</v>
+      </c>
+      <c r="P13" s="13">
+        <v>99.5</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>86</v>
+      </c>
+      <c r="R13" s="13">
+        <v>104</v>
+      </c>
+      <c r="S13" s="13">
+        <v>32.5</v>
+      </c>
+      <c r="T13" s="13">
+        <v>90</v>
+      </c>
+      <c r="U13" s="13">
+        <v>56.5</v>
+      </c>
       <c r="W13" s="12" t="s">
         <v>11</v>
+      </c>
+      <c r="X13" s="13">
+        <v>33</v>
+      </c>
+      <c r="Y13" s="13">
+        <v>23.1</v>
+      </c>
+      <c r="Z13" s="13">
+        <v>25.7</v>
+      </c>
+      <c r="AA13" s="13">
+        <v>18.6</v>
+      </c>
+      <c r="AB13" s="13">
+        <v>15.8</v>
+      </c>
+      <c r="AC13" s="13">
+        <v>14.2</v>
+      </c>
+      <c r="AD13" s="13">
+        <v>15.2</v>
+      </c>
+      <c r="AE13" s="13">
+        <v>13.3</v>
+      </c>
+      <c r="AF13" s="13">
+        <v>14.9</v>
+      </c>
+      <c r="AG13" s="13">
+        <v>10</v>
+      </c>
+      <c r="AH13" s="13">
+        <v>17.7</v>
+      </c>
+      <c r="AI13" s="13">
+        <v>14.5</v>
+      </c>
+      <c r="AJ13" s="13">
+        <v>11.9</v>
+      </c>
+      <c r="AK13" s="13">
+        <v>8.4</v>
+      </c>
+      <c r="AL13" s="13">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AM13" s="13">
+        <v>8.1</v>
+      </c>
+      <c r="AN13" s="13">
+        <v>5.8</v>
+      </c>
+      <c r="AO13" s="13">
+        <v>5.3</v>
+      </c>
+      <c r="AP13" s="13">
+        <v>6.2</v>
+      </c>
+      <c r="AQ13" s="13">
+        <v>6.4</v>
       </c>
     </row>
     <row r="14" spans="1:43">
       <c r="A14" s="12" t="s">
         <v>12</v>
       </c>
+      <c r="B14" s="13">
+        <v>486.5</v>
+      </c>
+      <c r="C14" s="13">
+        <v>254.5</v>
+      </c>
+      <c r="D14" s="13">
+        <v>471</v>
+      </c>
+      <c r="E14" s="13">
+        <v>267.5</v>
+      </c>
+      <c r="F14" s="13">
+        <v>188</v>
+      </c>
+      <c r="G14" s="13">
+        <v>330.5</v>
+      </c>
+      <c r="H14" s="13">
+        <v>120</v>
+      </c>
+      <c r="I14" s="13">
+        <v>87</v>
+      </c>
+      <c r="J14" s="13">
+        <v>185.5</v>
+      </c>
+      <c r="K14" s="13">
+        <v>125</v>
+      </c>
+      <c r="L14" s="13">
+        <v>233</v>
+      </c>
+      <c r="M14" s="13">
+        <v>233</v>
+      </c>
+      <c r="N14" s="13">
+        <v>217</v>
+      </c>
+      <c r="O14" s="13">
+        <v>68.5</v>
+      </c>
+      <c r="P14" s="13">
+        <v>103.5</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>89</v>
+      </c>
+      <c r="R14" s="13">
+        <v>110</v>
+      </c>
+      <c r="S14" s="13">
+        <v>18.5</v>
+      </c>
+      <c r="T14" s="13">
+        <v>90</v>
+      </c>
+      <c r="U14" s="13">
+        <v>70.5</v>
+      </c>
       <c r="W14" s="12" t="s">
         <v>12</v>
+      </c>
+      <c r="X14" s="13">
+        <v>33</v>
+      </c>
+      <c r="Y14" s="13">
+        <v>23</v>
+      </c>
+      <c r="Z14" s="13">
+        <v>25.7</v>
+      </c>
+      <c r="AA14" s="13">
+        <v>18.5</v>
+      </c>
+      <c r="AB14" s="13">
+        <v>15.7</v>
+      </c>
+      <c r="AC14" s="13">
+        <v>14.2</v>
+      </c>
+      <c r="AD14" s="13">
+        <v>15.2</v>
+      </c>
+      <c r="AE14" s="13">
+        <v>13.3</v>
+      </c>
+      <c r="AF14" s="13">
+        <v>15</v>
+      </c>
+      <c r="AG14" s="13">
+        <v>10.2</v>
+      </c>
+      <c r="AH14" s="13">
+        <v>17.6</v>
+      </c>
+      <c r="AI14" s="13">
+        <v>14.5</v>
+      </c>
+      <c r="AJ14" s="13">
+        <v>11.9</v>
+      </c>
+      <c r="AK14" s="13">
+        <v>8.4</v>
+      </c>
+      <c r="AL14" s="13">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AM14" s="13">
+        <v>8</v>
+      </c>
+      <c r="AN14" s="13">
+        <v>5.8</v>
+      </c>
+      <c r="AO14" s="13">
+        <v>5.3</v>
+      </c>
+      <c r="AP14" s="13">
+        <v>6.2</v>
+      </c>
+      <c r="AQ14" s="13">
+        <v>6.4</v>
       </c>
     </row>
     <row r="15" spans="1:43">
@@ -2201,6 +2501,66 @@
       <c r="W15" s="12" t="s">
         <v>13</v>
       </c>
+      <c r="X15" s="13">
+        <v>33</v>
+      </c>
+      <c r="Y15" s="13">
+        <v>23</v>
+      </c>
+      <c r="Z15" s="13">
+        <v>25.7</v>
+      </c>
+      <c r="AA15" s="13">
+        <v>18.5</v>
+      </c>
+      <c r="AB15" s="13">
+        <v>15.7</v>
+      </c>
+      <c r="AC15" s="13">
+        <v>14.2</v>
+      </c>
+      <c r="AD15" s="13">
+        <v>15.3</v>
+      </c>
+      <c r="AE15" s="13">
+        <v>13.3</v>
+      </c>
+      <c r="AF15" s="13">
+        <v>15.1</v>
+      </c>
+      <c r="AG15" s="13">
+        <v>10.2</v>
+      </c>
+      <c r="AH15" s="13">
+        <v>17.7</v>
+      </c>
+      <c r="AI15" s="13">
+        <v>14.5</v>
+      </c>
+      <c r="AJ15" s="13">
+        <v>11.9</v>
+      </c>
+      <c r="AK15" s="13">
+        <v>8.4</v>
+      </c>
+      <c r="AL15" s="13">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AM15" s="13">
+        <v>8</v>
+      </c>
+      <c r="AN15" s="13">
+        <v>5.8</v>
+      </c>
+      <c r="AO15" s="13">
+        <v>5.3</v>
+      </c>
+      <c r="AP15" s="13">
+        <v>6.2</v>
+      </c>
+      <c r="AQ15" s="13">
+        <v>6.4</v>
+      </c>
     </row>
     <row r="16" spans="1:43">
       <c r="A16" s="12" t="s">
@@ -2279,127 +2639,127 @@
         <v>55</v>
       </c>
       <c r="B26" s="13">
-        <v>2082</v>
+        <v>3437</v>
       </c>
       <c r="C26" s="13">
-        <v>1027</v>
+        <v>1729</v>
       </c>
       <c r="D26" s="13">
-        <v>2178</v>
+        <v>3471</v>
       </c>
       <c r="E26" s="13">
-        <v>1311</v>
+        <v>2079</v>
       </c>
       <c r="F26" s="13">
-        <v>835</v>
+        <v>1369</v>
       </c>
       <c r="G26" s="13">
-        <v>1643</v>
+        <v>2603</v>
       </c>
       <c r="H26" s="13">
-        <v>622</v>
+        <v>952</v>
       </c>
       <c r="I26" s="13">
-        <v>492</v>
+        <v>735</v>
       </c>
       <c r="J26" s="13">
-        <v>492</v>
+        <v>999</v>
       </c>
       <c r="K26" s="13">
-        <v>459</v>
+        <v>803</v>
       </c>
       <c r="L26" s="13">
-        <v>1097</v>
+        <v>1737</v>
       </c>
       <c r="M26" s="13">
-        <v>869</v>
+        <v>1529</v>
       </c>
       <c r="N26" s="13">
-        <v>786</v>
+        <v>1365</v>
       </c>
       <c r="O26" s="13">
-        <v>285</v>
+        <v>514</v>
       </c>
       <c r="P26" s="13">
-        <v>443</v>
+        <v>742</v>
       </c>
       <c r="Q26" s="13">
-        <v>381</v>
+        <v>636</v>
       </c>
       <c r="R26" s="13">
-        <v>502</v>
+        <v>814</v>
       </c>
       <c r="S26" s="13">
-        <v>127</v>
+        <v>208</v>
       </c>
       <c r="T26" s="13">
-        <v>211</v>
+        <v>456</v>
       </c>
       <c r="U26" s="13">
-        <v>92</v>
+        <v>271</v>
       </c>
       <c r="W26" s="12" t="s">
         <v>55</v>
       </c>
       <c r="X26">
-        <v>365.6000000000001</v>
+        <v>464.6000000000001</v>
       </c>
       <c r="Y26">
-        <v>255.2</v>
+        <v>324.3</v>
       </c>
       <c r="Z26">
-        <v>279.1</v>
+        <v>356.1999999999999</v>
       </c>
       <c r="AA26">
-        <v>202.8</v>
+        <v>258.4</v>
       </c>
       <c r="AB26">
-        <v>178.9</v>
+        <v>226.1</v>
       </c>
       <c r="AC26">
-        <v>151.4</v>
+        <v>194</v>
       </c>
       <c r="AD26">
-        <v>167.5</v>
+        <v>213.2</v>
       </c>
       <c r="AE26">
-        <v>148.3</v>
+        <v>188.2000000000001</v>
       </c>
       <c r="AF26">
-        <v>164.7</v>
+        <v>209.7</v>
       </c>
       <c r="AG26">
-        <v>111.7</v>
+        <v>142.1</v>
       </c>
       <c r="AH26">
-        <v>194.7</v>
+        <v>247.7</v>
       </c>
       <c r="AI26">
-        <v>158.6</v>
+        <v>202.1</v>
       </c>
       <c r="AJ26">
-        <v>129.1</v>
+        <v>164.8</v>
       </c>
       <c r="AK26">
-        <v>96.39999999999999</v>
+        <v>121.6</v>
       </c>
       <c r="AL26">
-        <v>103.1</v>
+        <v>130.8</v>
       </c>
       <c r="AM26">
-        <v>87.09999999999999</v>
+        <v>111.2</v>
       </c>
       <c r="AN26">
-        <v>63.69999999999999</v>
+        <v>81.09999999999998</v>
       </c>
       <c r="AO26">
-        <v>58.49999999999999</v>
+        <v>74.39999999999998</v>
       </c>
       <c r="AP26">
-        <v>68.40000000000002</v>
+        <v>87.00000000000003</v>
       </c>
       <c r="AQ26">
-        <v>70.7</v>
+        <v>89.90000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:43">
@@ -2407,127 +2767,127 @@
         <v>56</v>
       </c>
       <c r="B27" s="13">
-        <v>5.694748358862143</v>
+        <v>7.397761515281962</v>
       </c>
       <c r="C27" s="13">
-        <v>4.024294670846396</v>
+        <v>5.331483194572926</v>
       </c>
       <c r="D27" s="13">
-        <v>7.803654604084558</v>
+        <v>9.744525547445257</v>
       </c>
       <c r="E27" s="13">
-        <v>6.464497041420118</v>
+        <v>8.045665634674924</v>
       </c>
       <c r="F27" s="13">
-        <v>4.667411961989938</v>
+        <v>6.05484298982751</v>
       </c>
       <c r="G27" s="13">
-        <v>10.85204755614267</v>
+        <v>13.41752577319588</v>
       </c>
       <c r="H27" s="13">
-        <v>3.713432835820896</v>
+        <v>4.465290806754222</v>
       </c>
       <c r="I27" s="13">
-        <v>3.317599460552932</v>
+        <v>3.905419766206162</v>
       </c>
       <c r="J27" s="13">
-        <v>2.987249544626593</v>
+        <v>4.763948497854077</v>
       </c>
       <c r="K27" s="13">
-        <v>4.109221128021487</v>
+        <v>5.65095003518649</v>
       </c>
       <c r="L27" s="13">
-        <v>5.634309193631228</v>
+        <v>7.01251513928139</v>
       </c>
       <c r="M27" s="13">
-        <v>5.479192938209331</v>
+        <v>7.565561603166748</v>
       </c>
       <c r="N27" s="13">
-        <v>6.088303640588689</v>
+        <v>8.282766990291259</v>
       </c>
       <c r="O27" s="13">
-        <v>2.95643153526971</v>
+        <v>4.226973684210526</v>
       </c>
       <c r="P27" s="13">
-        <v>4.296799224054316</v>
+        <v>5.672782874617738</v>
       </c>
       <c r="Q27" s="13">
-        <v>4.374282433983927</v>
+        <v>5.719424460431656</v>
       </c>
       <c r="R27" s="13">
-        <v>7.880690737833596</v>
+        <v>10.03699136868064</v>
       </c>
       <c r="S27" s="13">
-        <v>2.170940170940172</v>
+        <v>2.795698924731184</v>
       </c>
       <c r="T27" s="13">
-        <v>3.084795321637426</v>
+        <v>5.241379310344826</v>
       </c>
       <c r="U27" s="13">
-        <v>1.301272984441301</v>
+        <v>3.014460511679643</v>
       </c>
       <c r="W27" s="12" t="s">
         <v>56</v>
       </c>
       <c r="X27">
-        <v>5.694748358862143</v>
+        <v>7.397761515281962</v>
       </c>
       <c r="Y27">
-        <v>4.024294670846396</v>
+        <v>5.331483194572926</v>
       </c>
       <c r="Z27">
-        <v>7.803654604084558</v>
+        <v>9.744525547445257</v>
       </c>
       <c r="AA27">
-        <v>6.464497041420118</v>
+        <v>8.045665634674924</v>
       </c>
       <c r="AB27">
-        <v>4.667411961989938</v>
+        <v>6.05484298982751</v>
       </c>
       <c r="AC27">
-        <v>10.85204755614267</v>
+        <v>13.41752577319588</v>
       </c>
       <c r="AD27">
-        <v>3.713432835820896</v>
+        <v>4.465290806754222</v>
       </c>
       <c r="AE27">
-        <v>3.317599460552932</v>
+        <v>3.905419766206162</v>
       </c>
       <c r="AF27">
-        <v>2.987249544626593</v>
+        <v>4.763948497854077</v>
       </c>
       <c r="AG27">
-        <v>4.109221128021487</v>
+        <v>5.65095003518649</v>
       </c>
       <c r="AH27">
-        <v>5.634309193631228</v>
+        <v>7.01251513928139</v>
       </c>
       <c r="AI27">
-        <v>5.479192938209331</v>
+        <v>7.565561603166748</v>
       </c>
       <c r="AJ27">
-        <v>6.088303640588689</v>
+        <v>8.282766990291259</v>
       </c>
       <c r="AK27">
-        <v>2.95643153526971</v>
+        <v>4.226973684210526</v>
       </c>
       <c r="AL27">
-        <v>4.296799224054316</v>
+        <v>5.672782874617738</v>
       </c>
       <c r="AM27">
-        <v>4.374282433983927</v>
+        <v>5.719424460431656</v>
       </c>
       <c r="AN27">
-        <v>7.880690737833596</v>
+        <v>10.03699136868064</v>
       </c>
       <c r="AO27">
-        <v>2.170940170940172</v>
+        <v>2.795698924731184</v>
       </c>
       <c r="AP27">
-        <v>3.084795321637426</v>
+        <v>5.241379310344826</v>
       </c>
       <c r="AQ27">
-        <v>1.301272984441301</v>
+        <v>3.014460511679643</v>
       </c>
     </row>
     <row r="28" spans="1:43">
@@ -2535,127 +2895,127 @@
         <v>57</v>
       </c>
       <c r="B28" s="13">
-        <v>208.2</v>
+        <v>264.3846153846154</v>
       </c>
       <c r="C28" s="13">
-        <v>102.7</v>
+        <v>133</v>
       </c>
       <c r="D28" s="13">
-        <v>217.8</v>
+        <v>267</v>
       </c>
       <c r="E28" s="13">
-        <v>131.1</v>
+        <v>159.9230769230769</v>
       </c>
       <c r="F28" s="13">
-        <v>83.5</v>
+        <v>105.3076923076923</v>
       </c>
       <c r="G28" s="13">
-        <v>164.3</v>
+        <v>200.2307692307692</v>
       </c>
       <c r="H28" s="13">
-        <v>62.2</v>
+        <v>73.23076923076923</v>
       </c>
       <c r="I28" s="13">
-        <v>49.2</v>
+        <v>56.53846153846154</v>
       </c>
       <c r="J28" s="13">
-        <v>49.2</v>
+        <v>76.84615384615384</v>
       </c>
       <c r="K28" s="13">
-        <v>45.9</v>
+        <v>61.76923076923077</v>
       </c>
       <c r="L28" s="13">
-        <v>109.7</v>
+        <v>133.6153846153846</v>
       </c>
       <c r="M28" s="13">
-        <v>86.90000000000001</v>
+        <v>117.6153846153846</v>
       </c>
       <c r="N28" s="13">
-        <v>78.59999999999999</v>
+        <v>105</v>
       </c>
       <c r="O28" s="13">
-        <v>28.5</v>
+        <v>39.53846153846154</v>
       </c>
       <c r="P28" s="13">
-        <v>44.3</v>
+        <v>57.07692307692308</v>
       </c>
       <c r="Q28" s="13">
-        <v>38.1</v>
+        <v>48.92307692307692</v>
       </c>
       <c r="R28" s="13">
-        <v>50.2</v>
+        <v>62.61538461538461</v>
       </c>
       <c r="S28" s="13">
-        <v>12.7</v>
+        <v>16</v>
       </c>
       <c r="T28" s="13">
-        <v>21.1</v>
+        <v>35.07692307692308</v>
       </c>
       <c r="U28" s="13">
-        <v>9.199999999999999</v>
+        <v>20.84615384615385</v>
       </c>
       <c r="W28" s="12" t="s">
         <v>57</v>
       </c>
       <c r="X28">
-        <v>33.23636363636364</v>
+        <v>33.18571428571429</v>
       </c>
       <c r="Y28">
-        <v>23.2</v>
+        <v>23.16428571428571</v>
       </c>
       <c r="Z28">
-        <v>25.37272727272727</v>
+        <v>25.44285714285714</v>
       </c>
       <c r="AA28">
-        <v>18.43636363636364</v>
+        <v>18.45714285714286</v>
       </c>
       <c r="AB28">
-        <v>16.26363636363637</v>
+        <v>16.15</v>
       </c>
       <c r="AC28">
-        <v>13.76363636363636</v>
+        <v>13.85714285714286</v>
       </c>
       <c r="AD28">
-        <v>15.22727272727272</v>
+        <v>15.22857142857143</v>
       </c>
       <c r="AE28">
-        <v>13.48181818181819</v>
+        <v>13.44285714285715</v>
       </c>
       <c r="AF28">
-        <v>14.97272727272727</v>
+        <v>14.97857142857143</v>
       </c>
       <c r="AG28">
-        <v>10.15454545454545</v>
+        <v>10.15</v>
       </c>
       <c r="AH28">
-        <v>17.7</v>
+        <v>17.69285714285714</v>
       </c>
       <c r="AI28">
-        <v>14.41818181818182</v>
+        <v>14.43571428571429</v>
       </c>
       <c r="AJ28">
-        <v>11.73636363636364</v>
+        <v>11.77142857142857</v>
       </c>
       <c r="AK28">
-        <v>8.763636363636364</v>
+        <v>8.685714285714287</v>
       </c>
       <c r="AL28">
-        <v>9.372727272727273</v>
+        <v>9.342857142857142</v>
       </c>
       <c r="AM28">
-        <v>7.918181818181818</v>
+        <v>7.942857142857142</v>
       </c>
       <c r="AN28">
-        <v>5.79090909090909</v>
+        <v>5.792857142857142</v>
       </c>
       <c r="AO28">
-        <v>5.318181818181817</v>
+        <v>5.314285714285712</v>
       </c>
       <c r="AP28">
-        <v>6.21818181818182</v>
+        <v>6.214285714285716</v>
       </c>
       <c r="AQ28">
-        <v>6.427272727272728</v>
+        <v>6.421428571428573</v>
       </c>
     </row>
     <row r="29" spans="1:43">
@@ -2663,127 +3023,127 @@
         <v>58</v>
       </c>
       <c r="B29" s="13">
-        <v>6.264223194748357</v>
+        <v>7.966820093380574</v>
       </c>
       <c r="C29" s="13">
-        <v>4.426724137931035</v>
+        <v>5.741597286463151</v>
       </c>
       <c r="D29" s="13">
-        <v>8.584020064493014</v>
+        <v>10.49410443571028</v>
       </c>
       <c r="E29" s="13">
-        <v>7.11094674556213</v>
+        <v>8.664562991188379</v>
       </c>
       <c r="F29" s="13">
-        <v>5.134153158188932</v>
+        <v>6.520600142891164</v>
       </c>
       <c r="G29" s="13">
-        <v>11.93725231175694</v>
+        <v>14.44964314036479</v>
       </c>
       <c r="H29" s="13">
-        <v>4.084776119402986</v>
+        <v>4.808774714966085</v>
       </c>
       <c r="I29" s="13">
-        <v>3.649359406608226</v>
+        <v>4.205836671298944</v>
       </c>
       <c r="J29" s="13">
-        <v>3.285974499089253</v>
+        <v>5.130406074612083</v>
       </c>
       <c r="K29" s="13">
-        <v>4.520143240823635</v>
+        <v>6.085638499431605</v>
       </c>
       <c r="L29" s="13">
-        <v>6.19774011299435</v>
+        <v>7.551939380764574</v>
       </c>
       <c r="M29" s="13">
-        <v>6.027112232030264</v>
+        <v>8.147527880333421</v>
       </c>
       <c r="N29" s="13">
-        <v>6.697134004647559</v>
+        <v>8.919902912621357</v>
       </c>
       <c r="O29" s="13">
-        <v>3.25207468879668</v>
+        <v>4.552125506072874</v>
       </c>
       <c r="P29" s="13">
-        <v>4.726479146459748</v>
+        <v>6.109150788049872</v>
       </c>
       <c r="Q29" s="13">
-        <v>4.81171067738232</v>
+        <v>6.159380188157167</v>
       </c>
       <c r="R29" s="13">
-        <v>8.668759811616956</v>
+        <v>10.80906762780992</v>
       </c>
       <c r="S29" s="13">
-        <v>2.388034188034188</v>
+        <v>3.010752688172044</v>
       </c>
       <c r="T29" s="13">
-        <v>3.393274853801169</v>
+        <v>5.644562334217506</v>
       </c>
       <c r="U29" s="13">
-        <v>1.431400282885431</v>
+        <v>3.246342089501155</v>
       </c>
       <c r="W29" s="12" t="s">
         <v>58</v>
       </c>
       <c r="X29">
-        <v>6.264223194748357</v>
+        <v>7.966820093380574</v>
       </c>
       <c r="Y29">
-        <v>4.426724137931035</v>
+        <v>5.741597286463151</v>
       </c>
       <c r="Z29">
-        <v>8.584020064493014</v>
+        <v>10.49410443571028</v>
       </c>
       <c r="AA29">
-        <v>7.11094674556213</v>
+        <v>8.664562991188379</v>
       </c>
       <c r="AB29">
-        <v>5.134153158188932</v>
+        <v>6.520600142891164</v>
       </c>
       <c r="AC29">
-        <v>11.93725231175694</v>
+        <v>14.44964314036479</v>
       </c>
       <c r="AD29">
-        <v>4.084776119402986</v>
+        <v>4.808774714966085</v>
       </c>
       <c r="AE29">
-        <v>3.649359406608226</v>
+        <v>4.205836671298944</v>
       </c>
       <c r="AF29">
-        <v>3.285974499089253</v>
+        <v>5.130406074612083</v>
       </c>
       <c r="AG29">
-        <v>4.520143240823635</v>
+        <v>6.085638499431605</v>
       </c>
       <c r="AH29">
-        <v>6.19774011299435</v>
+        <v>7.551939380764574</v>
       </c>
       <c r="AI29">
-        <v>6.027112232030264</v>
+        <v>8.147527880333421</v>
       </c>
       <c r="AJ29">
-        <v>6.697134004647559</v>
+        <v>8.919902912621357</v>
       </c>
       <c r="AK29">
-        <v>3.25207468879668</v>
+        <v>4.552125506072874</v>
       </c>
       <c r="AL29">
-        <v>4.726479146459748</v>
+        <v>6.109150788049872</v>
       </c>
       <c r="AM29">
-        <v>4.81171067738232</v>
+        <v>6.159380188157167</v>
       </c>
       <c r="AN29">
-        <v>8.668759811616956</v>
+        <v>10.80906762780992</v>
       </c>
       <c r="AO29">
-        <v>2.388034188034188</v>
+        <v>3.010752688172044</v>
       </c>
       <c r="AP29">
-        <v>3.393274853801169</v>
+        <v>5.644562334217506</v>
       </c>
       <c r="AQ29">
-        <v>1.431400282885431</v>
+        <v>3.246342089501155</v>
       </c>
     </row>
     <row r="30" spans="1:43">
@@ -2791,127 +3151,127 @@
         <v>59</v>
       </c>
       <c r="B30" s="13">
-        <v>3083.840525085563</v>
+        <v>5043.154480909707</v>
       </c>
       <c r="C30" s="13">
-        <v>1175.548259668653</v>
+        <v>1655.918760781365</v>
       </c>
       <c r="D30" s="13">
-        <v>4148.073448838627</v>
+        <v>5098.548188227125</v>
       </c>
       <c r="E30" s="13">
-        <v>2109.583887597267</v>
+        <v>2195.597741337807</v>
       </c>
       <c r="F30" s="13">
-        <v>556.0074695991052</v>
+        <v>822.2527790376527</v>
       </c>
       <c r="G30" s="13">
-        <v>2487.261033106496</v>
+        <v>2875.455041304827</v>
       </c>
       <c r="H30" s="13">
-        <v>554.7773435892997</v>
+        <v>493.4337236646369</v>
       </c>
       <c r="I30" s="13">
-        <v>132.1073115311941</v>
+        <v>140.1093921672565</v>
       </c>
       <c r="J30" s="13">
-        <v>549.4014715670135</v>
+        <v>1086.107087021102</v>
       </c>
       <c r="K30" s="13">
-        <v>78.38970091791391</v>
+        <v>290.9254827965646</v>
       </c>
       <c r="L30" s="13">
-        <v>840.3468276908052</v>
+        <v>1108.954006493733</v>
       </c>
       <c r="M30" s="13">
-        <v>856.0570231065218</v>
+        <v>1456.964375756269</v>
       </c>
       <c r="N30" s="13">
-        <v>804.3063491978664</v>
+        <v>1208.137027378549</v>
       </c>
       <c r="O30" s="13">
-        <v>69.71241101841193</v>
+        <v>161.7106978856428</v>
       </c>
       <c r="P30" s="13">
-        <v>183.1622843546127</v>
+        <v>275.0976542684749</v>
       </c>
       <c r="Q30" s="13">
-        <v>142.6471829725354</v>
+        <v>205.4294430848797</v>
       </c>
       <c r="R30" s="13">
-        <v>185.4865584348363</v>
+        <v>269.1805786545994</v>
       </c>
       <c r="S30" s="13">
-        <v>98.6662252749136</v>
+        <v>79.01277602769754</v>
       </c>
       <c r="T30" s="13">
-        <v>67.06874689451112</v>
+        <v>234.7432149930897</v>
       </c>
       <c r="U30" s="13">
-        <v>61.58851970943935</v>
+        <v>170.9157671182681</v>
       </c>
       <c r="W30" s="12" t="s">
         <v>59</v>
       </c>
       <c r="X30">
-        <v>0.007824343983138369</v>
+        <v>0.007963294146738872</v>
       </c>
       <c r="Y30">
-        <v>0.01534966845125192</v>
+        <v>0.01206766321900289</v>
       </c>
       <c r="Z30">
-        <v>0.02033332703934076</v>
+        <v>0.01898100248686399</v>
       </c>
       <c r="AA30">
-        <v>0.02043300021104426</v>
+        <v>0.01478118297109463</v>
       </c>
       <c r="AB30">
-        <v>0.06209638600722357</v>
+        <v>0.05602941035803755</v>
       </c>
       <c r="AC30">
-        <v>0.02591502465792484</v>
+        <v>0.02661703797005615</v>
       </c>
       <c r="AD30">
-        <v>0.03732760282460029</v>
+        <v>0.02612614997472089</v>
       </c>
       <c r="AE30">
-        <v>0.01086437572194626</v>
+        <v>0.009054156358632147</v>
       </c>
       <c r="AF30">
-        <v>0.01759231481584048</v>
+        <v>0.01266763743553812</v>
       </c>
       <c r="AG30">
-        <v>0.02103103924162521</v>
+        <v>0.01517662052289797</v>
       </c>
       <c r="AH30">
-        <v>0.0537238395793303</v>
+        <v>0.03759383897721134</v>
       </c>
       <c r="AI30">
-        <v>0.005930553719777728</v>
+        <v>0.004431627735780349</v>
       </c>
       <c r="AJ30">
-        <v>0.004535129315131706</v>
+        <v>0.004363448847550313</v>
       </c>
       <c r="AK30">
-        <v>0.04236109799852803</v>
+        <v>0.03545302188633015</v>
       </c>
       <c r="AL30">
-        <v>0.002790848809313467</v>
+        <v>0.00294532797209893</v>
       </c>
       <c r="AM30">
-        <v>0.002093136606986172</v>
+        <v>0.002181724423777055</v>
       </c>
       <c r="AN30">
-        <v>0.0007973853740907863</v>
+        <v>0.0005590668835937844</v>
       </c>
       <c r="AO30">
-        <v>0.0009967317176177676</v>
+        <v>0.000709060437730439</v>
       </c>
       <c r="AP30">
-        <v>0.0004485292729207113</v>
+        <v>0.0003272586635619058</v>
       </c>
       <c r="AQ30">
-        <v>0.0005980390305702321</v>
+        <v>0.0004499806624052165</v>
       </c>
     </row>
     <row r="31" spans="1:43">
@@ -2919,64 +3279,64 @@
         <v>60</v>
       </c>
       <c r="B31" s="13">
-        <v>378</v>
+        <v>486.5</v>
       </c>
       <c r="C31" s="13">
-        <v>223</v>
+        <v>254.5</v>
       </c>
       <c r="D31" s="13">
-        <v>386</v>
+        <v>471</v>
       </c>
       <c r="E31" s="13">
-        <v>249</v>
+        <v>267.5</v>
       </c>
       <c r="F31" s="13">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="G31" s="13">
-        <v>317</v>
+        <v>330.5</v>
       </c>
       <c r="H31" s="13">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="I31" s="13">
         <v>87</v>
       </c>
       <c r="J31" s="13">
-        <v>131</v>
+        <v>185.5</v>
       </c>
       <c r="K31" s="13">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="L31" s="13">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="M31" s="13">
-        <v>176</v>
+        <v>233</v>
       </c>
       <c r="N31" s="13">
-        <v>143</v>
+        <v>217</v>
       </c>
       <c r="O31" s="13">
-        <v>59</v>
+        <v>81.5</v>
       </c>
       <c r="P31" s="13">
-        <v>81</v>
+        <v>103.5</v>
       </c>
       <c r="Q31" s="13">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="R31" s="13">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="S31" s="13">
         <v>42</v>
       </c>
       <c r="T31" s="13">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="U31" s="13">
-        <v>31</v>
+        <v>70.5</v>
       </c>
       <c r="W31" s="12" t="s">
         <v>60</v>
@@ -2997,7 +3357,7 @@
         <v>17.3</v>
       </c>
       <c r="AC31">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="AD31">
         <v>16.2</v>
@@ -3027,7 +3387,7 @@
         <v>9.6</v>
       </c>
       <c r="AM31">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="AN31">
         <v>5.9</v>
@@ -3122,7 +3482,7 @@
         <v>18</v>
       </c>
       <c r="AB32">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="AC32">
         <v>13.1</v>
@@ -3152,7 +3512,7 @@
         <v>8.4</v>
       </c>
       <c r="AL32">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AM32">
         <v>7.8</v>
@@ -3175,64 +3535,64 @@
         <v>62</v>
       </c>
       <c r="B33" s="13">
-        <v>333</v>
+        <v>441.5</v>
       </c>
       <c r="C33" s="13">
-        <v>200</v>
+        <v>231.5</v>
       </c>
       <c r="D33" s="13">
-        <v>351</v>
+        <v>436</v>
       </c>
       <c r="E33" s="13">
-        <v>226</v>
+        <v>244.5</v>
       </c>
       <c r="F33" s="13">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="G33" s="13">
-        <v>288</v>
+        <v>301.5</v>
       </c>
       <c r="H33" s="13">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="I33" s="13">
         <v>76</v>
       </c>
       <c r="J33" s="13">
-        <v>139</v>
+        <v>193.5</v>
       </c>
       <c r="K33" s="13">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="L33" s="13">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="M33" s="13">
-        <v>165</v>
+        <v>222</v>
       </c>
       <c r="N33" s="13">
-        <v>141</v>
+        <v>215</v>
       </c>
       <c r="O33" s="13">
-        <v>49</v>
+        <v>71.5</v>
       </c>
       <c r="P33" s="13">
-        <v>69</v>
+        <v>91.5</v>
       </c>
       <c r="Q33" s="13">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="R33" s="13">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="S33" s="13">
         <v>56</v>
       </c>
       <c r="T33" s="13">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="U33" s="13">
-        <v>43</v>
+        <v>82.5</v>
       </c>
       <c r="W33" s="12" t="s">
         <v>62</v>
@@ -3250,10 +3610,10 @@
         <v>0.8000000000000007</v>
       </c>
       <c r="AB33">
-        <v>1.5</v>
+        <v>1.600000000000001</v>
       </c>
       <c r="AC33">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AD33">
         <v>1.299999999999999</v>
@@ -3280,10 +3640,10 @@
         <v>1</v>
       </c>
       <c r="AL33">
-        <v>0.2999999999999989</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="AM33">
-        <v>0.2000000000000002</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="AN33">
         <v>0.2000000000000002</v>
@@ -4063,6 +4423,36 @@
       <c r="A12" s="12" t="s">
         <v>10</v>
       </c>
+      <c r="B12" s="13">
+        <v>588</v>
+      </c>
+      <c r="C12" s="13">
+        <v>587</v>
+      </c>
+      <c r="D12" s="13">
+        <v>413</v>
+      </c>
+      <c r="E12" s="13">
+        <v>191</v>
+      </c>
+      <c r="F12" s="13">
+        <v>240</v>
+      </c>
+      <c r="G12" s="13">
+        <v>384</v>
+      </c>
+      <c r="H12" s="13">
+        <v>215</v>
+      </c>
+      <c r="I12" s="13">
+        <v>139</v>
+      </c>
+      <c r="J12" s="13">
+        <v>111</v>
+      </c>
+      <c r="K12" s="13">
+        <v>108</v>
+      </c>
       <c r="M12" s="12" t="s">
         <v>10</v>
       </c>
@@ -4101,16 +4491,136 @@
       <c r="A13" s="12" t="s">
         <v>11</v>
       </c>
+      <c r="B13" s="13">
+        <v>619.5</v>
+      </c>
+      <c r="C13" s="13">
+        <v>615.5</v>
+      </c>
+      <c r="D13" s="13">
+        <v>435</v>
+      </c>
+      <c r="E13" s="13">
+        <v>207.5</v>
+      </c>
+      <c r="F13" s="13">
+        <v>253</v>
+      </c>
+      <c r="G13" s="13">
+        <v>393.5</v>
+      </c>
+      <c r="H13" s="13">
+        <v>230</v>
+      </c>
+      <c r="I13" s="13">
+        <v>145</v>
+      </c>
+      <c r="J13" s="13">
+        <v>116</v>
+      </c>
+      <c r="K13" s="13">
+        <v>134</v>
+      </c>
       <c r="M13" s="12" t="s">
         <v>11</v>
+      </c>
+      <c r="N13" s="13">
+        <v>37.1</v>
+      </c>
+      <c r="O13" s="13">
+        <v>26.6</v>
+      </c>
+      <c r="P13" s="13">
+        <v>18.7</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>16.4</v>
+      </c>
+      <c r="R13" s="13">
+        <v>15.1</v>
+      </c>
+      <c r="S13" s="13">
+        <v>18.8</v>
+      </c>
+      <c r="T13" s="13">
+        <v>12.7</v>
+      </c>
+      <c r="U13" s="13">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="V13" s="13">
+        <v>6.1</v>
+      </c>
+      <c r="W13" s="13">
+        <v>6.3</v>
       </c>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="12" t="s">
         <v>12</v>
       </c>
+      <c r="B14" s="13">
+        <v>677.5</v>
+      </c>
+      <c r="C14" s="13">
+        <v>670.5</v>
+      </c>
+      <c r="D14" s="13">
+        <v>448</v>
+      </c>
+      <c r="E14" s="13">
+        <v>216.5</v>
+      </c>
+      <c r="F14" s="13">
+        <v>280</v>
+      </c>
+      <c r="G14" s="13">
+        <v>426.5</v>
+      </c>
+      <c r="H14" s="13">
+        <v>255</v>
+      </c>
+      <c r="I14" s="13">
+        <v>147</v>
+      </c>
+      <c r="J14" s="13">
+        <v>118</v>
+      </c>
+      <c r="K14" s="13">
+        <v>143</v>
+      </c>
       <c r="M14" s="12" t="s">
         <v>12</v>
+      </c>
+      <c r="N14" s="13">
+        <v>37.1</v>
+      </c>
+      <c r="O14" s="13">
+        <v>26.6</v>
+      </c>
+      <c r="P14" s="13">
+        <v>18.7</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="R14" s="13">
+        <v>15.1</v>
+      </c>
+      <c r="S14" s="13">
+        <v>18.8</v>
+      </c>
+      <c r="T14" s="13">
+        <v>12.7</v>
+      </c>
+      <c r="U14" s="13">
+        <v>9.1</v>
+      </c>
+      <c r="V14" s="13">
+        <v>6.1</v>
+      </c>
+      <c r="W14" s="13">
+        <v>6.3</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -4120,6 +4630,36 @@
       <c r="M15" s="12" t="s">
         <v>13</v>
       </c>
+      <c r="N15" s="13">
+        <v>37.1</v>
+      </c>
+      <c r="O15" s="13">
+        <v>26.6</v>
+      </c>
+      <c r="P15" s="13">
+        <v>18.6</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="R15" s="13">
+        <v>15.1</v>
+      </c>
+      <c r="S15" s="13">
+        <v>18.8</v>
+      </c>
+      <c r="T15" s="13">
+        <v>12.6</v>
+      </c>
+      <c r="U15" s="13">
+        <v>9.1</v>
+      </c>
+      <c r="V15" s="13">
+        <v>6.1</v>
+      </c>
+      <c r="W15" s="13">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="12" t="s">
@@ -4198,67 +4738,67 @@
         <v>55</v>
       </c>
       <c r="B26" s="13">
-        <v>2839</v>
+        <v>4724</v>
       </c>
       <c r="C26" s="13">
-        <v>3112</v>
+        <v>4985</v>
       </c>
       <c r="D26" s="13">
-        <v>2176</v>
+        <v>3472</v>
       </c>
       <c r="E26" s="13">
-        <v>972</v>
+        <v>1587</v>
       </c>
       <c r="F26" s="13">
-        <v>919</v>
+        <v>1692</v>
       </c>
       <c r="G26" s="13">
-        <v>1769</v>
+        <v>2973</v>
       </c>
       <c r="H26" s="13">
-        <v>949</v>
+        <v>1649</v>
       </c>
       <c r="I26" s="13">
-        <v>692</v>
+        <v>1123</v>
       </c>
       <c r="J26" s="13">
-        <v>532</v>
+        <v>877</v>
       </c>
       <c r="K26" s="13">
-        <v>350</v>
+        <v>735</v>
       </c>
       <c r="M26" s="12" t="s">
         <v>55</v>
       </c>
       <c r="N26" s="13">
-        <v>412.3</v>
+        <v>523.6</v>
       </c>
       <c r="O26" s="13">
-        <v>288.4</v>
+        <v>368.2</v>
       </c>
       <c r="P26" s="13">
-        <v>205.8</v>
+        <v>261.8</v>
       </c>
       <c r="Q26" s="13">
-        <v>182.8</v>
+        <v>232.2</v>
       </c>
       <c r="R26" s="13">
-        <v>167</v>
+        <v>212.3</v>
       </c>
       <c r="S26" s="13">
-        <v>207.6</v>
+        <v>264</v>
       </c>
       <c r="T26" s="13">
-        <v>140.8</v>
+        <v>178.7999999999999</v>
       </c>
       <c r="U26" s="13">
-        <v>99.70000000000002</v>
+        <v>127.1</v>
       </c>
       <c r="V26" s="13">
-        <v>67.10000000000001</v>
+        <v>85.39999999999999</v>
       </c>
       <c r="W26" s="13">
-        <v>69.29999999999998</v>
+        <v>88.19999999999997</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -4266,67 +4806,67 @@
         <v>56</v>
       </c>
       <c r="B27" s="13">
-        <v>6.885762794081979</v>
+        <v>9.022154316271964</v>
       </c>
       <c r="C27" s="13">
-        <v>10.79056865464633</v>
+        <v>13.53883758826724</v>
       </c>
       <c r="D27" s="13">
-        <v>10.57337220602527</v>
+        <v>13.2620320855615</v>
       </c>
       <c r="E27" s="13">
-        <v>5.317286652078773</v>
+        <v>6.834625322997415</v>
       </c>
       <c r="F27" s="13">
-        <v>5.502994011976049</v>
+        <v>7.969853980216676</v>
       </c>
       <c r="G27" s="13">
-        <v>8.521194605009635</v>
+        <v>11.26136363636364</v>
       </c>
       <c r="H27" s="13">
-        <v>6.74005681818182</v>
+        <v>9.222595078299781</v>
       </c>
       <c r="I27" s="13">
-        <v>6.940822467402206</v>
+        <v>8.835562549173877</v>
       </c>
       <c r="J27" s="13">
-        <v>7.928464977645304</v>
+        <v>10.26932084309134</v>
       </c>
       <c r="K27" s="13">
-        <v>5.050505050505052</v>
+        <v>8.333333333333336</v>
       </c>
       <c r="M27" s="12" t="s">
         <v>56</v>
       </c>
       <c r="N27" s="13">
-        <v>6.885762794081979</v>
+        <v>9.022154316271964</v>
       </c>
       <c r="O27" s="13">
-        <v>10.79056865464633</v>
+        <v>13.53883758826724</v>
       </c>
       <c r="P27" s="13">
-        <v>10.57337220602527</v>
+        <v>13.2620320855615</v>
       </c>
       <c r="Q27" s="13">
-        <v>5.317286652078773</v>
+        <v>6.834625322997415</v>
       </c>
       <c r="R27" s="13">
-        <v>5.502994011976049</v>
+        <v>7.969853980216676</v>
       </c>
       <c r="S27" s="13">
-        <v>8.521194605009635</v>
+        <v>11.26136363636364</v>
       </c>
       <c r="T27" s="13">
-        <v>6.74005681818182</v>
+        <v>9.222595078299781</v>
       </c>
       <c r="U27" s="13">
-        <v>6.940822467402206</v>
+        <v>8.835562549173877</v>
       </c>
       <c r="V27" s="13">
-        <v>7.928464977645304</v>
+        <v>10.26932084309134</v>
       </c>
       <c r="W27" s="13">
-        <v>5.050505050505052</v>
+        <v>8.333333333333336</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -4334,64 +4874,64 @@
         <v>57</v>
       </c>
       <c r="B28" s="13">
-        <v>283.9</v>
+        <v>363.3846153846154</v>
       </c>
       <c r="C28" s="13">
-        <v>311.2</v>
+        <v>383.4615384615385</v>
       </c>
       <c r="D28" s="13">
-        <v>217.6</v>
+        <v>267.0769230769231</v>
       </c>
       <c r="E28" s="13">
-        <v>97.2</v>
+        <v>122.0769230769231</v>
       </c>
       <c r="F28" s="13">
-        <v>91.90000000000001</v>
+        <v>130.1538461538462</v>
       </c>
       <c r="G28" s="13">
-        <v>176.9</v>
+        <v>228.6923076923077</v>
       </c>
       <c r="H28" s="13">
-        <v>94.90000000000001</v>
+        <v>126.8461538461538</v>
       </c>
       <c r="I28" s="13">
-        <v>69.2</v>
+        <v>86.38461538461539</v>
       </c>
       <c r="J28" s="13">
-        <v>53.2</v>
+        <v>67.46153846153847</v>
       </c>
       <c r="K28" s="13">
-        <v>35</v>
+        <v>56.53846153846154</v>
       </c>
       <c r="M28" s="12" t="s">
         <v>57</v>
       </c>
       <c r="N28" s="13">
-        <v>37.48181818181818</v>
+        <v>37.4</v>
       </c>
       <c r="O28" s="13">
-        <v>26.21818181818182</v>
+        <v>26.3</v>
       </c>
       <c r="P28" s="13">
-        <v>18.70909090909091</v>
+        <v>18.7</v>
       </c>
       <c r="Q28" s="13">
-        <v>16.61818181818182</v>
+        <v>16.58571428571429</v>
       </c>
       <c r="R28" s="13">
-        <v>15.18181818181818</v>
+        <v>15.16428571428571</v>
       </c>
       <c r="S28" s="13">
-        <v>18.87272727272727</v>
+        <v>18.85714285714286</v>
       </c>
       <c r="T28" s="13">
-        <v>12.8</v>
+        <v>12.77142857142857</v>
       </c>
       <c r="U28" s="13">
-        <v>9.063636363636364</v>
+        <v>9.078571428571429</v>
       </c>
       <c r="V28" s="13">
-        <v>6.100000000000001</v>
+        <v>6.1</v>
       </c>
       <c r="W28" s="13">
         <v>6.299999999999998</v>
@@ -4402,67 +4942,67 @@
         <v>58</v>
       </c>
       <c r="B29" s="13">
-        <v>7.574339073490176</v>
+        <v>9.716166186754421</v>
       </c>
       <c r="C29" s="13">
-        <v>11.86962552011096</v>
+        <v>14.58028663351857</v>
       </c>
       <c r="D29" s="13">
-        <v>11.6307094266278</v>
+        <v>14.28218839983546</v>
       </c>
       <c r="E29" s="13">
-        <v>5.849015317286652</v>
+        <v>7.360365732458755</v>
       </c>
       <c r="F29" s="13">
-        <v>6.053293413173654</v>
+        <v>8.582919671002575</v>
       </c>
       <c r="G29" s="13">
-        <v>9.373314065510598</v>
+        <v>12.12762237762238</v>
       </c>
       <c r="H29" s="13">
-        <v>7.414062500000004</v>
+        <v>9.932025468938223</v>
       </c>
       <c r="I29" s="13">
-        <v>7.634904714142427</v>
+        <v>9.515221206802638</v>
       </c>
       <c r="J29" s="13">
-        <v>8.721311475409836</v>
+        <v>11.05926860025221</v>
       </c>
       <c r="K29" s="13">
-        <v>5.555555555555557</v>
+        <v>8.974358974358978</v>
       </c>
       <c r="M29" s="12" t="s">
         <v>58</v>
       </c>
       <c r="N29" s="13">
-        <v>7.574339073490176</v>
+        <v>9.716166186754421</v>
       </c>
       <c r="O29" s="13">
-        <v>11.86962552011096</v>
+        <v>14.58028663351857</v>
       </c>
       <c r="P29" s="13">
-        <v>11.6307094266278</v>
+        <v>14.28218839983546</v>
       </c>
       <c r="Q29" s="13">
-        <v>5.849015317286652</v>
+        <v>7.360365732458755</v>
       </c>
       <c r="R29" s="13">
-        <v>6.053293413173654</v>
+        <v>8.582919671002575</v>
       </c>
       <c r="S29" s="13">
-        <v>9.373314065510598</v>
+        <v>12.12762237762238</v>
       </c>
       <c r="T29" s="13">
-        <v>7.414062500000004</v>
+        <v>9.932025468938223</v>
       </c>
       <c r="U29" s="13">
-        <v>7.634904714142427</v>
+        <v>9.515221206802638</v>
       </c>
       <c r="V29" s="13">
-        <v>8.721311475409836</v>
+        <v>11.05926860025221</v>
       </c>
       <c r="W29" s="13">
-        <v>5.555555555555557</v>
+        <v>8.974358974358978</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -4470,67 +5010,67 @@
         <v>59</v>
       </c>
       <c r="B30" s="13">
-        <v>6543.286903812946</v>
+        <v>10343.25085197298</v>
       </c>
       <c r="C30" s="13">
-        <v>9443.180899684176</v>
+        <v>11275.29980624156</v>
       </c>
       <c r="D30" s="13">
-        <v>3803.663464314372</v>
+        <v>4842.680414281933</v>
       </c>
       <c r="E30" s="13">
-        <v>1063.398082450782</v>
+        <v>1296.706073354824</v>
       </c>
       <c r="F30" s="13">
-        <v>685.7999938830558</v>
+        <v>1833.320253270882</v>
       </c>
       <c r="G30" s="13">
-        <v>2805.601200600327</v>
+        <v>4393.978009843368</v>
       </c>
       <c r="H30" s="13">
-        <v>981.219972895986</v>
+        <v>1622.918201918067</v>
       </c>
       <c r="I30" s="13">
-        <v>418.6096675424491</v>
+        <v>556.1739263323601</v>
       </c>
       <c r="J30" s="13">
-        <v>268.2117420248412</v>
+        <v>369.5419271751836</v>
       </c>
       <c r="K30" s="13">
-        <v>144.6425801761017</v>
+        <v>540.5602645960086</v>
       </c>
       <c r="M30" s="12" t="s">
         <v>59</v>
       </c>
       <c r="N30" s="13">
-        <v>0.0223766270603852</v>
+        <v>0.02214450290132107</v>
       </c>
       <c r="O30" s="13">
-        <v>0.01963561483702203</v>
+        <v>0.02023549403045466</v>
       </c>
       <c r="P30" s="13">
-        <v>0.00408660004224313</v>
+        <v>0.003054414193325478</v>
       </c>
       <c r="Q30" s="13">
-        <v>0.03772629551160284</v>
+        <v>0.02743518462893813</v>
       </c>
       <c r="R30" s="13">
-        <v>0.003189541496388853</v>
+        <v>0.002522618865043078</v>
       </c>
       <c r="S30" s="13">
-        <v>0.05267727127585221</v>
+        <v>0.03692568587240051</v>
       </c>
       <c r="T30" s="13">
-        <v>0.0142532635618878</v>
+        <v>0.01085407900832138</v>
       </c>
       <c r="U30" s="13">
-        <v>0.006727939093881368</v>
+        <v>0.00503160195232317</v>
       </c>
       <c r="V30" s="13">
-        <v>-6.427100869169713e-15</v>
+        <v>-1.89900533991096e-15</v>
       </c>
       <c r="W30" s="13">
-        <v>6.427100869169713e-15</v>
+        <v>7.596021359643839e-15</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -4538,34 +5078,34 @@
         <v>60</v>
       </c>
       <c r="B31" s="13">
-        <v>546</v>
+        <v>677.5</v>
       </c>
       <c r="C31" s="13">
-        <v>573</v>
+        <v>670.5</v>
       </c>
       <c r="D31" s="13">
-        <v>402</v>
+        <v>448</v>
       </c>
       <c r="E31" s="13">
-        <v>185</v>
+        <v>216.5</v>
       </c>
       <c r="F31" s="13">
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="G31" s="13">
-        <v>349</v>
+        <v>426.5</v>
       </c>
       <c r="H31" s="13">
-        <v>175</v>
+        <v>255</v>
       </c>
       <c r="I31" s="13">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="J31" s="13">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="K31" s="13">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="M31" s="12" t="s">
         <v>60</v>
@@ -4674,34 +5214,34 @@
         <v>62</v>
       </c>
       <c r="B33" s="13">
-        <v>479</v>
+        <v>610.5</v>
       </c>
       <c r="C33" s="13">
-        <v>520</v>
+        <v>617.5</v>
       </c>
       <c r="D33" s="13">
-        <v>363</v>
+        <v>409</v>
       </c>
       <c r="E33" s="13">
-        <v>167</v>
+        <v>198.5</v>
       </c>
       <c r="F33" s="13">
-        <v>157</v>
+        <v>267</v>
       </c>
       <c r="G33" s="13">
-        <v>323</v>
+        <v>400.5</v>
       </c>
       <c r="H33" s="13">
-        <v>162</v>
+        <v>242</v>
       </c>
       <c r="I33" s="13">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="J33" s="13">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="K33" s="13">
-        <v>68</v>
+        <v>137</v>
       </c>
       <c r="M33" s="12" t="s">
         <v>62</v>

--- a/2021/Fantasy F1 2021.xlsx
+++ b/2021/Fantasy F1 2021.xlsx
@@ -963,64 +963,64 @@
         <v>1</v>
       </c>
       <c r="B3" s="13">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="C3" s="13">
+        <v>-9</v>
+      </c>
+      <c r="D3" s="13">
+        <v>44</v>
+      </c>
+      <c r="E3" s="13">
+        <v>5</v>
+      </c>
+      <c r="F3" s="13">
+        <v>19</v>
+      </c>
+      <c r="G3" s="13">
+        <v>34</v>
+      </c>
+      <c r="H3" s="13">
+        <v>1</v>
+      </c>
+      <c r="I3" s="13">
+        <v>18</v>
+      </c>
+      <c r="J3" s="13">
+        <v>14</v>
+      </c>
+      <c r="K3" s="13">
+        <v>13</v>
+      </c>
+      <c r="L3" s="13">
+        <v>28</v>
+      </c>
+      <c r="M3" s="13">
         <v>23</v>
       </c>
-      <c r="D3" s="13">
-        <v>79</v>
-      </c>
-      <c r="E3" s="13">
-        <v>28</v>
-      </c>
-      <c r="F3" s="13">
-        <v>34</v>
-      </c>
-      <c r="G3" s="13">
-        <v>63</v>
-      </c>
-      <c r="H3" s="13">
+      <c r="N3" s="13">
+        <v>17</v>
+      </c>
+      <c r="O3" s="13">
+        <v>6</v>
+      </c>
+      <c r="P3" s="13">
         <v>13</v>
       </c>
-      <c r="I3" s="13">
-        <v>29</v>
-      </c>
-      <c r="J3" s="13">
+      <c r="Q3" s="13">
+        <v>8</v>
+      </c>
+      <c r="R3" s="13">
+        <v>11</v>
+      </c>
+      <c r="S3" s="13">
         <v>6</v>
       </c>
-      <c r="K3" s="13">
-        <v>24</v>
-      </c>
-      <c r="L3" s="13">
-        <v>48</v>
-      </c>
-      <c r="M3" s="13">
-        <v>34</v>
-      </c>
-      <c r="N3" s="13">
-        <v>19</v>
-      </c>
-      <c r="O3" s="13">
-        <v>22</v>
-      </c>
-      <c r="P3" s="13">
-        <v>25</v>
-      </c>
-      <c r="Q3" s="13">
-        <v>13</v>
-      </c>
-      <c r="R3" s="13">
-        <v>22</v>
-      </c>
-      <c r="S3" s="13">
-        <v>-8</v>
-      </c>
       <c r="T3" s="13">
-        <v>-1</v>
+        <v>-11</v>
       </c>
       <c r="U3" s="13">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="W3" s="12" t="s">
         <v>1</v>
@@ -1091,64 +1091,64 @@
         <v>2</v>
       </c>
       <c r="B4" s="13">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="C4" s="13">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="D4" s="13">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="E4" s="13">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F4" s="13">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="G4" s="13">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="H4" s="13">
+        <v>4</v>
+      </c>
+      <c r="I4" s="13">
+        <v>8</v>
+      </c>
+      <c r="J4" s="13">
         <v>17</v>
       </c>
-      <c r="I4" s="13">
-        <v>37</v>
-      </c>
-      <c r="J4" s="13">
-        <v>23</v>
-      </c>
       <c r="K4" s="13">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="L4" s="13">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="M4" s="13">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="N4" s="13">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="O4" s="13">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="P4" s="13">
-        <v>12</v>
+        <v>-13</v>
       </c>
       <c r="Q4" s="13">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="R4" s="13">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="S4" s="13">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="T4" s="13">
+        <v>3</v>
+      </c>
+      <c r="U4" s="13">
         <v>2</v>
-      </c>
-      <c r="U4" s="13">
-        <v>-10</v>
       </c>
       <c r="W4" s="12" t="s">
         <v>2</v>
@@ -1219,64 +1219,64 @@
         <v>3</v>
       </c>
       <c r="B5" s="13">
-        <v>172</v>
+        <v>44</v>
       </c>
       <c r="C5" s="13">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="D5" s="13">
-        <v>157</v>
+        <v>41</v>
       </c>
       <c r="E5" s="13">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="F5" s="13">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="G5" s="13">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="H5" s="13">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I5" s="13">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="J5" s="13">
-        <v>18</v>
+        <v>-5</v>
       </c>
       <c r="K5" s="13">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="L5" s="13">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="M5" s="13">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="N5" s="13">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="O5" s="13">
+        <v>-14</v>
+      </c>
+      <c r="P5" s="13">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>4</v>
+      </c>
+      <c r="R5" s="13">
+        <v>7</v>
+      </c>
+      <c r="S5" s="13">
+        <v>4</v>
+      </c>
+      <c r="T5" s="13">
         <v>10</v>
       </c>
-      <c r="P5" s="13">
-        <v>27</v>
-      </c>
-      <c r="Q5" s="13">
-        <v>25</v>
-      </c>
-      <c r="R5" s="13">
-        <v>40</v>
-      </c>
-      <c r="S5" s="13">
-        <v>0</v>
-      </c>
-      <c r="T5" s="13">
-        <v>12</v>
-      </c>
       <c r="U5" s="13">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="W5" s="12" t="s">
         <v>3</v>
@@ -1347,64 +1347,64 @@
         <v>4</v>
       </c>
       <c r="B6" s="13">
-        <v>209</v>
+        <v>37</v>
       </c>
       <c r="C6" s="13">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="D6" s="13">
-        <v>217</v>
+        <v>60</v>
       </c>
       <c r="E6" s="13">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="F6" s="13">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="G6" s="13">
-        <v>151</v>
+        <v>49</v>
       </c>
       <c r="H6" s="13">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="I6" s="13">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="J6" s="13">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="K6" s="13">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="L6" s="13">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="M6" s="13">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="N6" s="13">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="O6" s="13">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="P6" s="13">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="Q6" s="13">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="R6" s="13">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="S6" s="13">
         <v>11</v>
       </c>
       <c r="T6" s="13">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="U6" s="13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W6" s="12" t="s">
         <v>4</v>
@@ -1475,64 +1475,64 @@
         <v>5</v>
       </c>
       <c r="B7" s="13">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="C7" s="13">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="D7" s="13">
-        <v>226</v>
+        <v>9</v>
       </c>
       <c r="E7" s="13">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="F7" s="13">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="G7" s="13">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="H7" s="13">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="I7" s="13">
-        <v>42</v>
+        <v>-20</v>
       </c>
       <c r="J7" s="13">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="K7" s="13">
-        <v>52</v>
+        <v>-13</v>
       </c>
       <c r="L7" s="13">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="M7" s="13">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="N7" s="13">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="O7" s="13">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="P7" s="13">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="Q7" s="13">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="R7" s="13">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="S7" s="13">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="T7" s="13">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="U7" s="13">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="W7" s="12" t="s">
         <v>5</v>
@@ -1603,64 +1603,64 @@
         <v>6</v>
       </c>
       <c r="B8" s="13">
-        <v>250</v>
+        <v>36</v>
       </c>
       <c r="C8" s="13">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="D8" s="13">
-        <v>275</v>
+        <v>49</v>
       </c>
       <c r="E8" s="13">
-        <v>191</v>
+        <v>38</v>
       </c>
       <c r="F8" s="13">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="G8" s="13">
-        <v>211</v>
+        <v>28</v>
       </c>
       <c r="H8" s="13">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I8" s="13">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="J8" s="13">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="K8" s="13">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="L8" s="13">
-        <v>126</v>
+        <v>-2</v>
       </c>
       <c r="M8" s="13">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="N8" s="13">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="O8" s="13">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="P8" s="13">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="Q8" s="13">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="R8" s="13">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="S8" s="13">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="T8" s="13">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="U8" s="13">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="W8" s="12" t="s">
         <v>6</v>
@@ -1731,64 +1731,64 @@
         <v>7</v>
       </c>
       <c r="B9" s="13">
-        <v>288</v>
+        <v>38</v>
       </c>
       <c r="C9" s="13">
-        <v>145</v>
+        <v>34</v>
       </c>
       <c r="D9" s="13">
-        <v>319</v>
+        <v>44</v>
       </c>
       <c r="E9" s="13">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="F9" s="13">
-        <v>111</v>
+        <v>3</v>
       </c>
       <c r="G9" s="13">
-        <v>233</v>
+        <v>22</v>
       </c>
       <c r="H9" s="13">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="I9" s="13">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="J9" s="13">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="K9" s="13">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="L9" s="13">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="M9" s="13">
-        <v>127</v>
+        <v>24</v>
       </c>
       <c r="N9" s="13">
-        <v>120</v>
+        <v>-5</v>
       </c>
       <c r="O9" s="13">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="P9" s="13">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="13">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="R9" s="13">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="S9" s="13">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="T9" s="13">
-        <v>26</v>
+        <v>-11</v>
       </c>
       <c r="U9" s="13">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="W9" s="12" t="s">
         <v>7</v>
@@ -1859,64 +1859,64 @@
         <v>8</v>
       </c>
       <c r="B10" s="13">
-        <v>313</v>
+        <v>25</v>
       </c>
       <c r="C10" s="13">
-        <v>182</v>
+        <v>37</v>
       </c>
       <c r="D10" s="13">
-        <v>368</v>
+        <v>49</v>
       </c>
       <c r="E10" s="13">
-        <v>227</v>
+        <v>14</v>
       </c>
       <c r="F10" s="13">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="G10" s="13">
-        <v>264</v>
+        <v>31</v>
       </c>
       <c r="H10" s="13">
-        <v>111</v>
+        <v>4</v>
       </c>
       <c r="I10" s="13">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="J10" s="13">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="K10" s="13">
-        <v>46</v>
+        <v>-14</v>
       </c>
       <c r="L10" s="13">
-        <v>157</v>
+        <v>15</v>
       </c>
       <c r="M10" s="13">
-        <v>155</v>
+        <v>28</v>
       </c>
       <c r="N10" s="13">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="O10" s="13">
-        <v>42</v>
+        <v>-2</v>
       </c>
       <c r="P10" s="13">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="Q10" s="13">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="R10" s="13">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="S10" s="13">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="T10" s="13">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="U10" s="13">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="W10" s="12" t="s">
         <v>8</v>
@@ -1987,64 +1987,64 @@
         <v>9</v>
       </c>
       <c r="B11" s="13">
-        <v>378</v>
+        <v>65</v>
       </c>
       <c r="C11" s="13">
-        <v>223</v>
+        <v>41</v>
       </c>
       <c r="D11" s="13">
-        <v>386</v>
+        <v>18</v>
       </c>
       <c r="E11" s="13">
-        <v>249</v>
+        <v>22</v>
       </c>
       <c r="F11" s="13">
-        <v>157</v>
+        <v>27</v>
       </c>
       <c r="G11" s="13">
-        <v>317</v>
+        <v>53</v>
       </c>
       <c r="H11" s="13">
-        <v>110</v>
+        <v>-1</v>
       </c>
       <c r="I11" s="13">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="J11" s="13">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="K11" s="13">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="L11" s="13">
-        <v>205</v>
+        <v>48</v>
       </c>
       <c r="M11" s="13">
-        <v>176</v>
+        <v>21</v>
       </c>
       <c r="N11" s="13">
-        <v>143</v>
+        <v>8</v>
       </c>
       <c r="O11" s="13">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="P11" s="13">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="Q11" s="13">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="R11" s="13">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="S11" s="13">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="T11" s="13">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="U11" s="13">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="W11" s="12" t="s">
         <v>9</v>
@@ -2115,64 +2115,64 @@
         <v>10</v>
       </c>
       <c r="B12" s="13">
-        <v>423</v>
+        <v>45</v>
       </c>
       <c r="C12" s="13">
-        <v>220</v>
+        <v>-3</v>
       </c>
       <c r="D12" s="13">
-        <v>395</v>
+        <v>9</v>
       </c>
       <c r="E12" s="13">
-        <v>249</v>
+        <v>0</v>
       </c>
       <c r="F12" s="13">
-        <v>163</v>
+        <v>6</v>
       </c>
       <c r="G12" s="13">
-        <v>312</v>
+        <v>-5</v>
       </c>
       <c r="H12" s="13">
-        <v>96</v>
+        <v>-14</v>
       </c>
       <c r="I12" s="13">
-        <v>77</v>
+        <v>-10</v>
       </c>
       <c r="J12" s="13">
-        <v>159</v>
+        <v>28</v>
       </c>
       <c r="K12" s="13">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="L12" s="13">
-        <v>199</v>
+        <v>-6</v>
       </c>
       <c r="M12" s="13">
-        <v>207</v>
+        <v>31</v>
       </c>
       <c r="N12" s="13">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="O12" s="13">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="P12" s="13">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="13">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="R12" s="13">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="S12" s="13">
-        <v>30</v>
+        <v>-12</v>
       </c>
       <c r="T12" s="13">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="U12" s="13">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="W12" s="12" t="s">
         <v>10</v>
@@ -2243,64 +2243,64 @@
         <v>11</v>
       </c>
       <c r="B13" s="13">
-        <v>445.5</v>
+        <v>22.5</v>
       </c>
       <c r="C13" s="13">
-        <v>227.5</v>
+        <v>7.5</v>
       </c>
       <c r="D13" s="13">
-        <v>427</v>
+        <v>32</v>
       </c>
       <c r="E13" s="13">
-        <v>251.5</v>
+        <v>2.5</v>
       </c>
       <c r="F13" s="13">
-        <v>183</v>
+        <v>20</v>
       </c>
       <c r="G13" s="13">
-        <v>317.5</v>
+        <v>5.5</v>
       </c>
       <c r="H13" s="13">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="I13" s="13">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="J13" s="13">
-        <v>162.5</v>
+        <v>3.5</v>
       </c>
       <c r="K13" s="13">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="L13" s="13">
-        <v>208</v>
+        <v>9</v>
       </c>
       <c r="M13" s="13">
-        <v>220</v>
+        <v>13</v>
       </c>
       <c r="N13" s="13">
-        <v>189</v>
+        <v>16</v>
       </c>
       <c r="O13" s="13">
-        <v>81.5</v>
+        <v>2.5</v>
       </c>
       <c r="P13" s="13">
-        <v>99.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q13" s="13">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="R13" s="13">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="S13" s="13">
-        <v>32.5</v>
+        <v>2.5</v>
       </c>
       <c r="T13" s="13">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="U13" s="13">
-        <v>56.5</v>
+        <v>4.5</v>
       </c>
       <c r="W13" s="12" t="s">
         <v>11</v>
@@ -2371,64 +2371,64 @@
         <v>12</v>
       </c>
       <c r="B14" s="13">
-        <v>486.5</v>
+        <v>41</v>
       </c>
       <c r="C14" s="13">
-        <v>254.5</v>
+        <v>27</v>
       </c>
       <c r="D14" s="13">
-        <v>471</v>
+        <v>44</v>
       </c>
       <c r="E14" s="13">
-        <v>267.5</v>
+        <v>16</v>
       </c>
       <c r="F14" s="13">
-        <v>188</v>
+        <v>5</v>
       </c>
       <c r="G14" s="13">
-        <v>330.5</v>
+        <v>13</v>
       </c>
       <c r="H14" s="13">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="I14" s="13">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="J14" s="13">
-        <v>185.5</v>
+        <v>23</v>
       </c>
       <c r="K14" s="13">
-        <v>125</v>
+        <v>9</v>
       </c>
       <c r="L14" s="13">
-        <v>233</v>
+        <v>25</v>
       </c>
       <c r="M14" s="13">
-        <v>233</v>
+        <v>13</v>
       </c>
       <c r="N14" s="13">
-        <v>217</v>
+        <v>28</v>
       </c>
       <c r="O14" s="13">
-        <v>68.5</v>
+        <v>-13</v>
       </c>
       <c r="P14" s="13">
-        <v>103.5</v>
+        <v>4</v>
       </c>
       <c r="Q14" s="13">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="R14" s="13">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="S14" s="13">
-        <v>18.5</v>
+        <v>-14</v>
       </c>
       <c r="T14" s="13">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="U14" s="13">
-        <v>70.5</v>
+        <v>14</v>
       </c>
       <c r="W14" s="12" t="s">
         <v>12</v>
@@ -2498,6 +2498,66 @@
       <c r="A15" s="12" t="s">
         <v>13</v>
       </c>
+      <c r="B15" s="13">
+        <v>1</v>
+      </c>
+      <c r="C15" s="13">
+        <v>57</v>
+      </c>
+      <c r="D15" s="13">
+        <v>14</v>
+      </c>
+      <c r="E15" s="13">
+        <v>28</v>
+      </c>
+      <c r="F15" s="13">
+        <v>58</v>
+      </c>
+      <c r="G15" s="13">
+        <v>41</v>
+      </c>
+      <c r="H15" s="13">
+        <v>4</v>
+      </c>
+      <c r="I15" s="13">
+        <v>22</v>
+      </c>
+      <c r="J15" s="13">
+        <v>21</v>
+      </c>
+      <c r="K15" s="13">
+        <v>20</v>
+      </c>
+      <c r="L15" s="13">
+        <v>34</v>
+      </c>
+      <c r="M15" s="13">
+        <v>23</v>
+      </c>
+      <c r="N15" s="13">
+        <v>-10</v>
+      </c>
+      <c r="O15" s="13">
+        <v>-10</v>
+      </c>
+      <c r="P15" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>8</v>
+      </c>
+      <c r="R15" s="13">
+        <v>13</v>
+      </c>
+      <c r="S15" s="13">
+        <v>-8</v>
+      </c>
+      <c r="T15" s="13">
+        <v>21</v>
+      </c>
+      <c r="U15" s="13">
+        <v>11</v>
+      </c>
       <c r="W15" s="12" t="s">
         <v>13</v>
       </c>
@@ -2569,6 +2629,66 @@
       <c r="W16" s="12" t="s">
         <v>14</v>
       </c>
+      <c r="X16" s="13">
+        <v>33</v>
+      </c>
+      <c r="Y16" s="13">
+        <v>23</v>
+      </c>
+      <c r="Z16" s="13">
+        <v>25.7</v>
+      </c>
+      <c r="AA16" s="13">
+        <v>18.4</v>
+      </c>
+      <c r="AB16" s="13">
+        <v>15.7</v>
+      </c>
+      <c r="AC16" s="13">
+        <v>14.2</v>
+      </c>
+      <c r="AD16" s="13">
+        <v>15.3</v>
+      </c>
+      <c r="AE16" s="13">
+        <v>13.3</v>
+      </c>
+      <c r="AF16" s="13">
+        <v>15.2</v>
+      </c>
+      <c r="AG16" s="13">
+        <v>10.3</v>
+      </c>
+      <c r="AH16" s="13">
+        <v>17.7</v>
+      </c>
+      <c r="AI16" s="13">
+        <v>14.5</v>
+      </c>
+      <c r="AJ16" s="13">
+        <v>11.9</v>
+      </c>
+      <c r="AK16" s="13">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AL16" s="13">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AM16" s="13">
+        <v>8</v>
+      </c>
+      <c r="AN16" s="13">
+        <v>5.8</v>
+      </c>
+      <c r="AO16" s="13">
+        <v>5.3</v>
+      </c>
+      <c r="AP16" s="13">
+        <v>6.2</v>
+      </c>
+      <c r="AQ16" s="13">
+        <v>6.4</v>
+      </c>
     </row>
     <row r="17" spans="1:43">
       <c r="A17" s="12" t="s">
@@ -2639,127 +2759,127 @@
         <v>55</v>
       </c>
       <c r="B26" s="13">
-        <v>3437</v>
+        <v>487.5</v>
       </c>
       <c r="C26" s="13">
-        <v>1729</v>
+        <v>311.5</v>
       </c>
       <c r="D26" s="13">
-        <v>3471</v>
+        <v>485</v>
       </c>
       <c r="E26" s="13">
-        <v>2079</v>
+        <v>295.5</v>
       </c>
       <c r="F26" s="13">
-        <v>1369</v>
+        <v>246</v>
       </c>
       <c r="G26" s="13">
-        <v>2603</v>
+        <v>371.5</v>
       </c>
       <c r="H26" s="13">
-        <v>952</v>
+        <v>124</v>
       </c>
       <c r="I26" s="13">
-        <v>735</v>
+        <v>109</v>
       </c>
       <c r="J26" s="13">
-        <v>999</v>
+        <v>206.5</v>
       </c>
       <c r="K26" s="13">
-        <v>803</v>
+        <v>145</v>
       </c>
       <c r="L26" s="13">
-        <v>1737</v>
+        <v>267</v>
       </c>
       <c r="M26" s="13">
-        <v>1529</v>
+        <v>256</v>
       </c>
       <c r="N26" s="13">
-        <v>1365</v>
+        <v>207</v>
       </c>
       <c r="O26" s="13">
-        <v>514</v>
+        <v>58.5</v>
       </c>
       <c r="P26" s="13">
-        <v>742</v>
+        <v>113.5</v>
       </c>
       <c r="Q26" s="13">
-        <v>636</v>
+        <v>97</v>
       </c>
       <c r="R26" s="13">
-        <v>814</v>
+        <v>123</v>
       </c>
       <c r="S26" s="13">
-        <v>208</v>
+        <v>10.5</v>
       </c>
       <c r="T26" s="13">
-        <v>456</v>
+        <v>111</v>
       </c>
       <c r="U26" s="13">
-        <v>271</v>
+        <v>81.5</v>
       </c>
       <c r="W26" s="12" t="s">
         <v>55</v>
       </c>
       <c r="X26">
-        <v>464.6000000000001</v>
+        <v>497.6000000000001</v>
       </c>
       <c r="Y26">
-        <v>324.3</v>
+        <v>347.3</v>
       </c>
       <c r="Z26">
-        <v>356.1999999999999</v>
+        <v>381.8999999999999</v>
       </c>
       <c r="AA26">
-        <v>258.4</v>
+        <v>276.8</v>
       </c>
       <c r="AB26">
-        <v>226.1</v>
+        <v>241.8</v>
       </c>
       <c r="AC26">
-        <v>194</v>
+        <v>208.2</v>
       </c>
       <c r="AD26">
-        <v>213.2</v>
+        <v>228.5</v>
       </c>
       <c r="AE26">
-        <v>188.2000000000001</v>
+        <v>201.5000000000001</v>
       </c>
       <c r="AF26">
-        <v>209.7</v>
+        <v>224.9</v>
       </c>
       <c r="AG26">
-        <v>142.1</v>
+        <v>152.4</v>
       </c>
       <c r="AH26">
-        <v>247.7</v>
+        <v>265.4</v>
       </c>
       <c r="AI26">
-        <v>202.1</v>
+        <v>216.6</v>
       </c>
       <c r="AJ26">
-        <v>164.8</v>
+        <v>176.7</v>
       </c>
       <c r="AK26">
-        <v>121.6</v>
+        <v>129.9</v>
       </c>
       <c r="AL26">
-        <v>130.8</v>
+        <v>140</v>
       </c>
       <c r="AM26">
-        <v>111.2</v>
+        <v>119.2</v>
       </c>
       <c r="AN26">
-        <v>81.09999999999998</v>
+        <v>86.89999999999998</v>
       </c>
       <c r="AO26">
-        <v>74.39999999999998</v>
+        <v>79.69999999999997</v>
       </c>
       <c r="AP26">
-        <v>87.00000000000003</v>
+        <v>93.20000000000003</v>
       </c>
       <c r="AQ26">
-        <v>89.90000000000002</v>
+        <v>96.30000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:43">
@@ -2767,127 +2887,127 @@
         <v>56</v>
       </c>
       <c r="B27" s="13">
-        <v>7.397761515281962</v>
+        <v>0.9797025723472668</v>
       </c>
       <c r="C27" s="13">
-        <v>5.331483194572926</v>
+        <v>0.8969190901238122</v>
       </c>
       <c r="D27" s="13">
-        <v>9.744525547445257</v>
+        <v>1.269965959675308</v>
       </c>
       <c r="E27" s="13">
-        <v>8.045665634674924</v>
+        <v>1.067557803468208</v>
       </c>
       <c r="F27" s="13">
-        <v>6.05484298982751</v>
+        <v>1.017369727047146</v>
       </c>
       <c r="G27" s="13">
-        <v>13.41752577319588</v>
+        <v>1.784341978866475</v>
       </c>
       <c r="H27" s="13">
-        <v>4.465290806754222</v>
+        <v>0.5426695842450766</v>
       </c>
       <c r="I27" s="13">
-        <v>3.905419766206162</v>
+        <v>0.540942928039702</v>
       </c>
       <c r="J27" s="13">
-        <v>4.763948497854077</v>
+        <v>0.9181858603823921</v>
       </c>
       <c r="K27" s="13">
-        <v>5.65095003518649</v>
+        <v>0.9514435695538059</v>
       </c>
       <c r="L27" s="13">
-        <v>7.01251513928139</v>
+        <v>1.0060286360211</v>
       </c>
       <c r="M27" s="13">
-        <v>7.565561603166748</v>
+        <v>1.181902123730378</v>
       </c>
       <c r="N27" s="13">
-        <v>8.282766990291259</v>
+        <v>1.171477079796265</v>
       </c>
       <c r="O27" s="13">
-        <v>4.226973684210526</v>
+        <v>0.4503464203233256</v>
       </c>
       <c r="P27" s="13">
-        <v>5.672782874617738</v>
+        <v>0.8107142857142858</v>
       </c>
       <c r="Q27" s="13">
-        <v>5.719424460431656</v>
+        <v>0.813758389261745</v>
       </c>
       <c r="R27" s="13">
-        <v>10.03699136868064</v>
+        <v>1.41542002301496</v>
       </c>
       <c r="S27" s="13">
-        <v>2.795698924731184</v>
+        <v>0.1317440401505647</v>
       </c>
       <c r="T27" s="13">
-        <v>5.241379310344826</v>
+        <v>1.190987124463519</v>
       </c>
       <c r="U27" s="13">
-        <v>3.014460511679643</v>
+        <v>0.8463136033229489</v>
       </c>
       <c r="W27" s="12" t="s">
         <v>56</v>
       </c>
       <c r="X27">
-        <v>7.397761515281962</v>
+        <v>0.9797025723472668</v>
       </c>
       <c r="Y27">
-        <v>5.331483194572926</v>
+        <v>0.8969190901238122</v>
       </c>
       <c r="Z27">
-        <v>9.744525547445257</v>
+        <v>1.269965959675308</v>
       </c>
       <c r="AA27">
-        <v>8.045665634674924</v>
+        <v>1.067557803468208</v>
       </c>
       <c r="AB27">
-        <v>6.05484298982751</v>
+        <v>1.017369727047146</v>
       </c>
       <c r="AC27">
-        <v>13.41752577319588</v>
+        <v>1.784341978866475</v>
       </c>
       <c r="AD27">
-        <v>4.465290806754222</v>
+        <v>0.5426695842450766</v>
       </c>
       <c r="AE27">
-        <v>3.905419766206162</v>
+        <v>0.540942928039702</v>
       </c>
       <c r="AF27">
-        <v>4.763948497854077</v>
+        <v>0.9181858603823921</v>
       </c>
       <c r="AG27">
-        <v>5.65095003518649</v>
+        <v>0.9514435695538059</v>
       </c>
       <c r="AH27">
-        <v>7.01251513928139</v>
+        <v>1.0060286360211</v>
       </c>
       <c r="AI27">
-        <v>7.565561603166748</v>
+        <v>1.181902123730378</v>
       </c>
       <c r="AJ27">
-        <v>8.282766990291259</v>
+        <v>1.171477079796265</v>
       </c>
       <c r="AK27">
-        <v>4.226973684210526</v>
+        <v>0.4503464203233256</v>
       </c>
       <c r="AL27">
-        <v>5.672782874617738</v>
+        <v>0.8107142857142858</v>
       </c>
       <c r="AM27">
-        <v>5.719424460431656</v>
+        <v>0.813758389261745</v>
       </c>
       <c r="AN27">
-        <v>10.03699136868064</v>
+        <v>1.41542002301496</v>
       </c>
       <c r="AO27">
-        <v>2.795698924731184</v>
+        <v>0.1317440401505647</v>
       </c>
       <c r="AP27">
-        <v>5.241379310344826</v>
+        <v>1.190987124463519</v>
       </c>
       <c r="AQ27">
-        <v>3.014460511679643</v>
+        <v>0.8463136033229489</v>
       </c>
     </row>
     <row r="28" spans="1:43">
@@ -2895,127 +3015,127 @@
         <v>57</v>
       </c>
       <c r="B28" s="13">
-        <v>264.3846153846154</v>
+        <v>34.82142857142857</v>
       </c>
       <c r="C28" s="13">
-        <v>133</v>
+        <v>22.25</v>
       </c>
       <c r="D28" s="13">
-        <v>267</v>
+        <v>34.64285714285715</v>
       </c>
       <c r="E28" s="13">
-        <v>159.9230769230769</v>
+        <v>21.10714285714286</v>
       </c>
       <c r="F28" s="13">
-        <v>105.3076923076923</v>
+        <v>17.57142857142857</v>
       </c>
       <c r="G28" s="13">
-        <v>200.2307692307692</v>
+        <v>26.53571428571428</v>
       </c>
       <c r="H28" s="13">
-        <v>73.23076923076923</v>
+        <v>8.857142857142858</v>
       </c>
       <c r="I28" s="13">
-        <v>56.53846153846154</v>
+        <v>7.785714285714286</v>
       </c>
       <c r="J28" s="13">
-        <v>76.84615384615384</v>
+        <v>14.75</v>
       </c>
       <c r="K28" s="13">
-        <v>61.76923076923077</v>
+        <v>10.35714285714286</v>
       </c>
       <c r="L28" s="13">
-        <v>133.6153846153846</v>
+        <v>19.07142857142857</v>
       </c>
       <c r="M28" s="13">
-        <v>117.6153846153846</v>
+        <v>18.28571428571428</v>
       </c>
       <c r="N28" s="13">
-        <v>105</v>
+        <v>14.78571428571429</v>
       </c>
       <c r="O28" s="13">
-        <v>39.53846153846154</v>
+        <v>4.178571428571429</v>
       </c>
       <c r="P28" s="13">
-        <v>57.07692307692308</v>
+        <v>8.107142857142858</v>
       </c>
       <c r="Q28" s="13">
-        <v>48.92307692307692</v>
+        <v>6.928571428571429</v>
       </c>
       <c r="R28" s="13">
-        <v>62.61538461538461</v>
+        <v>8.785714285714286</v>
       </c>
       <c r="S28" s="13">
-        <v>16</v>
+        <v>0.75</v>
       </c>
       <c r="T28" s="13">
-        <v>35.07692307692308</v>
+        <v>7.928571428571429</v>
       </c>
       <c r="U28" s="13">
-        <v>20.84615384615385</v>
+        <v>5.821428571428571</v>
       </c>
       <c r="W28" s="12" t="s">
         <v>57</v>
       </c>
       <c r="X28">
-        <v>33.18571428571429</v>
+        <v>33.17333333333334</v>
       </c>
       <c r="Y28">
-        <v>23.16428571428571</v>
+        <v>23.15333333333333</v>
       </c>
       <c r="Z28">
-        <v>25.44285714285714</v>
+        <v>25.45999999999999</v>
       </c>
       <c r="AA28">
-        <v>18.45714285714286</v>
+        <v>18.45333333333333</v>
       </c>
       <c r="AB28">
-        <v>16.15</v>
+        <v>16.12</v>
       </c>
       <c r="AC28">
-        <v>13.85714285714286</v>
+        <v>13.88</v>
       </c>
       <c r="AD28">
-        <v>15.22857142857143</v>
+        <v>15.23333333333333</v>
       </c>
       <c r="AE28">
-        <v>13.44285714285715</v>
+        <v>13.43333333333334</v>
       </c>
       <c r="AF28">
-        <v>14.97857142857143</v>
+        <v>14.99333333333333</v>
       </c>
       <c r="AG28">
-        <v>10.15</v>
+        <v>10.16</v>
       </c>
       <c r="AH28">
-        <v>17.69285714285714</v>
+        <v>17.69333333333333</v>
       </c>
       <c r="AI28">
-        <v>14.43571428571429</v>
+        <v>14.44</v>
       </c>
       <c r="AJ28">
-        <v>11.77142857142857</v>
+        <v>11.78</v>
       </c>
       <c r="AK28">
-        <v>8.685714285714287</v>
+        <v>8.66</v>
       </c>
       <c r="AL28">
-        <v>9.342857142857142</v>
+        <v>9.333333333333332</v>
       </c>
       <c r="AM28">
-        <v>7.942857142857142</v>
+        <v>7.946666666666666</v>
       </c>
       <c r="AN28">
-        <v>5.792857142857142</v>
+        <v>5.793333333333332</v>
       </c>
       <c r="AO28">
-        <v>5.314285714285712</v>
+        <v>5.313333333333332</v>
       </c>
       <c r="AP28">
-        <v>6.214285714285716</v>
+        <v>6.213333333333336</v>
       </c>
       <c r="AQ28">
-        <v>6.421428571428573</v>
+        <v>6.420000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:43">
@@ -3023,127 +3143,127 @@
         <v>58</v>
       </c>
       <c r="B29" s="13">
-        <v>7.966820093380574</v>
+        <v>1.049681327514929</v>
       </c>
       <c r="C29" s="13">
-        <v>5.741597286463151</v>
+        <v>0.9609847394183704</v>
       </c>
       <c r="D29" s="13">
-        <v>10.49410443571028</v>
+        <v>1.36067781393783</v>
       </c>
       <c r="E29" s="13">
-        <v>8.664562991188379</v>
+        <v>1.143811932287366</v>
       </c>
       <c r="F29" s="13">
-        <v>6.520600142891164</v>
+        <v>1.0900389932648</v>
       </c>
       <c r="G29" s="13">
-        <v>14.44964314036479</v>
+        <v>1.911794977356937</v>
       </c>
       <c r="H29" s="13">
-        <v>4.808774714966085</v>
+        <v>0.5814316974054393</v>
       </c>
       <c r="I29" s="13">
-        <v>4.205836671298944</v>
+        <v>0.5795817086139664</v>
       </c>
       <c r="J29" s="13">
-        <v>5.130406074612083</v>
+        <v>0.9837705646954201</v>
       </c>
       <c r="K29" s="13">
-        <v>6.085638499431605</v>
+        <v>1.019403824521935</v>
       </c>
       <c r="L29" s="13">
-        <v>7.551939380764574</v>
+        <v>1.077887824308322</v>
       </c>
       <c r="M29" s="13">
-        <v>8.147527880333421</v>
+        <v>1.266323703996834</v>
       </c>
       <c r="N29" s="13">
-        <v>8.919902912621357</v>
+        <v>1.255154014067426</v>
       </c>
       <c r="O29" s="13">
-        <v>4.552125506072874</v>
+        <v>0.4825140217749918</v>
       </c>
       <c r="P29" s="13">
-        <v>6.109150788049872</v>
+        <v>0.868622448979592</v>
       </c>
       <c r="Q29" s="13">
-        <v>6.159380188157167</v>
+        <v>0.8718839884947268</v>
       </c>
       <c r="R29" s="13">
-        <v>10.80906762780992</v>
+        <v>1.516521453230314</v>
       </c>
       <c r="S29" s="13">
-        <v>3.010752688172044</v>
+        <v>0.1411543287327479</v>
       </c>
       <c r="T29" s="13">
-        <v>5.644562334217506</v>
+        <v>1.27605763335377</v>
       </c>
       <c r="U29" s="13">
-        <v>3.246342089501155</v>
+        <v>0.9067645749888738</v>
       </c>
       <c r="W29" s="12" t="s">
         <v>58</v>
       </c>
       <c r="X29">
-        <v>7.966820093380574</v>
+        <v>1.049681327514929</v>
       </c>
       <c r="Y29">
-        <v>5.741597286463151</v>
+        <v>0.9609847394183704</v>
       </c>
       <c r="Z29">
-        <v>10.49410443571028</v>
+        <v>1.36067781393783</v>
       </c>
       <c r="AA29">
-        <v>8.664562991188379</v>
+        <v>1.143811932287366</v>
       </c>
       <c r="AB29">
-        <v>6.520600142891164</v>
+        <v>1.0900389932648</v>
       </c>
       <c r="AC29">
-        <v>14.44964314036479</v>
+        <v>1.911794977356937</v>
       </c>
       <c r="AD29">
-        <v>4.808774714966085</v>
+        <v>0.5814316974054393</v>
       </c>
       <c r="AE29">
-        <v>4.205836671298944</v>
+        <v>0.5795817086139664</v>
       </c>
       <c r="AF29">
-        <v>5.130406074612083</v>
+        <v>0.9837705646954201</v>
       </c>
       <c r="AG29">
-        <v>6.085638499431605</v>
+        <v>1.019403824521935</v>
       </c>
       <c r="AH29">
-        <v>7.551939380764574</v>
+        <v>1.077887824308322</v>
       </c>
       <c r="AI29">
-        <v>8.147527880333421</v>
+        <v>1.266323703996834</v>
       </c>
       <c r="AJ29">
-        <v>8.919902912621357</v>
+        <v>1.255154014067426</v>
       </c>
       <c r="AK29">
-        <v>4.552125506072874</v>
+        <v>0.4825140217749918</v>
       </c>
       <c r="AL29">
-        <v>6.109150788049872</v>
+        <v>0.868622448979592</v>
       </c>
       <c r="AM29">
-        <v>6.159380188157167</v>
+        <v>0.8718839884947268</v>
       </c>
       <c r="AN29">
-        <v>10.80906762780992</v>
+        <v>1.516521453230314</v>
       </c>
       <c r="AO29">
-        <v>3.010752688172044</v>
+        <v>0.1411543287327479</v>
       </c>
       <c r="AP29">
-        <v>5.644562334217506</v>
+        <v>1.27605763335377</v>
       </c>
       <c r="AQ29">
-        <v>3.246342089501155</v>
+        <v>0.9067645749888738</v>
       </c>
     </row>
     <row r="30" spans="1:43">
@@ -3151,127 +3271,127 @@
         <v>59</v>
       </c>
       <c r="B30" s="13">
-        <v>5043.154480909707</v>
+        <v>69.33145234871279</v>
       </c>
       <c r="C30" s="13">
-        <v>1655.918760781365</v>
+        <v>89.44422438038754</v>
       </c>
       <c r="D30" s="13">
-        <v>5098.548188227125</v>
+        <v>64.70040136480925</v>
       </c>
       <c r="E30" s="13">
-        <v>2195.597741337807</v>
+        <v>46.08517861339124</v>
       </c>
       <c r="F30" s="13">
-        <v>822.2527790376527</v>
+        <v>48.32519598661386</v>
       </c>
       <c r="G30" s="13">
-        <v>2875.455041304827</v>
+        <v>64.52893146087824</v>
       </c>
       <c r="H30" s="13">
-        <v>493.4337236646369</v>
+        <v>39.05286718557058</v>
       </c>
       <c r="I30" s="13">
-        <v>140.1093921672565</v>
+        <v>35.3998423535125</v>
       </c>
       <c r="J30" s="13">
-        <v>1086.107087021102</v>
+        <v>35.26655262699751</v>
       </c>
       <c r="K30" s="13">
-        <v>290.9254827965646</v>
+        <v>53.01726707549476</v>
       </c>
       <c r="L30" s="13">
-        <v>1108.954006493733</v>
+        <v>51.48460566779288</v>
       </c>
       <c r="M30" s="13">
-        <v>1456.964375756269</v>
+        <v>23.4971720440556</v>
       </c>
       <c r="N30" s="13">
-        <v>1208.137027378549</v>
+        <v>47.96112072339643</v>
       </c>
       <c r="O30" s="13">
-        <v>161.7106978856428</v>
+        <v>30.42585156174696</v>
       </c>
       <c r="P30" s="13">
-        <v>275.0976542684749</v>
+        <v>15.73193756762305</v>
       </c>
       <c r="Q30" s="13">
-        <v>205.4294430848797</v>
+        <v>1.774014672081959</v>
       </c>
       <c r="R30" s="13">
-        <v>269.1805786545994</v>
+        <v>3.977556340094598</v>
       </c>
       <c r="S30" s="13">
-        <v>79.01277602769754</v>
+        <v>20.24265281377765</v>
       </c>
       <c r="T30" s="13">
-        <v>234.7432149930897</v>
+        <v>28.53831904074046</v>
       </c>
       <c r="U30" s="13">
-        <v>170.9157671182681</v>
+        <v>15.47831210335922</v>
       </c>
       <c r="W30" s="12" t="s">
         <v>59</v>
       </c>
       <c r="X30">
-        <v>0.007963294146738872</v>
+        <v>0.00773449118612793</v>
       </c>
       <c r="Y30">
-        <v>0.01206766321900289</v>
+        <v>0.01131484912404473</v>
       </c>
       <c r="Z30">
-        <v>0.01898100248686399</v>
+        <v>0.01817720183827519</v>
       </c>
       <c r="AA30">
-        <v>0.01478118297109463</v>
+        <v>0.01338044024204656</v>
       </c>
       <c r="AB30">
-        <v>0.05602941035803755</v>
+        <v>0.05377422210464061</v>
       </c>
       <c r="AC30">
-        <v>0.02661703797005615</v>
+        <v>0.02588874201199752</v>
       </c>
       <c r="AD30">
-        <v>0.02612614997472089</v>
+        <v>0.02363954279465542</v>
       </c>
       <c r="AE30">
-        <v>0.009054156358632147</v>
+        <v>0.008491874596092755</v>
       </c>
       <c r="AF30">
-        <v>0.01266763743553812</v>
+        <v>0.0122099386084799</v>
       </c>
       <c r="AG30">
-        <v>0.01517662052289797</v>
+        <v>0.01404601960224952</v>
       </c>
       <c r="AH30">
-        <v>0.03759383897721134</v>
+        <v>0.03389864534727895</v>
       </c>
       <c r="AI30">
-        <v>0.004431627735780349</v>
+        <v>0.004062329198684093</v>
       </c>
       <c r="AJ30">
-        <v>0.004363448847550313</v>
+        <v>0.004200035273220484</v>
       </c>
       <c r="AK30">
-        <v>0.03545302188633015</v>
+        <v>0.03435766559568833</v>
       </c>
       <c r="AL30">
-        <v>0.00294532797209893</v>
+        <v>0.002983631614857284</v>
       </c>
       <c r="AM30">
-        <v>0.002181724423777055</v>
+        <v>0.002019689093135573</v>
       </c>
       <c r="AN30">
-        <v>0.0005590668835937844</v>
+        <v>0.0005049222732848106</v>
       </c>
       <c r="AO30">
-        <v>0.000709060437730439</v>
+        <v>0.000642628347817532</v>
       </c>
       <c r="AP30">
-        <v>0.0003272586635619058</v>
+        <v>0.0002983631614802246</v>
       </c>
       <c r="AQ30">
-        <v>0.0004499806624052165</v>
+        <v>0.0004131182235963296</v>
       </c>
     </row>
     <row r="31" spans="1:43">
@@ -3279,64 +3399,64 @@
         <v>60</v>
       </c>
       <c r="B31" s="13">
-        <v>486.5</v>
+        <v>65</v>
       </c>
       <c r="C31" s="13">
-        <v>254.5</v>
+        <v>57</v>
       </c>
       <c r="D31" s="13">
-        <v>471</v>
+        <v>60</v>
       </c>
       <c r="E31" s="13">
-        <v>267.5</v>
+        <v>51</v>
       </c>
       <c r="F31" s="13">
-        <v>188</v>
+        <v>58</v>
       </c>
       <c r="G31" s="13">
-        <v>330.5</v>
+        <v>53</v>
       </c>
       <c r="H31" s="13">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="I31" s="13">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="J31" s="13">
-        <v>185.5</v>
+        <v>35</v>
       </c>
       <c r="K31" s="13">
-        <v>125</v>
+        <v>47</v>
       </c>
       <c r="L31" s="13">
-        <v>233</v>
+        <v>48</v>
       </c>
       <c r="M31" s="13">
-        <v>233</v>
+        <v>36</v>
       </c>
       <c r="N31" s="13">
-        <v>217</v>
+        <v>43</v>
       </c>
       <c r="O31" s="13">
-        <v>81.5</v>
+        <v>20</v>
       </c>
       <c r="P31" s="13">
-        <v>103.5</v>
+        <v>17</v>
       </c>
       <c r="Q31" s="13">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="R31" s="13">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="S31" s="13">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="T31" s="13">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="U31" s="13">
-        <v>70.5</v>
+        <v>21</v>
       </c>
       <c r="W31" s="12" t="s">
         <v>60</v>
@@ -3407,64 +3527,64 @@
         <v>61</v>
       </c>
       <c r="B32" s="13">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="C32" s="13">
-        <v>23</v>
+        <v>-9</v>
       </c>
       <c r="D32" s="13">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E32" s="13">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F32" s="13">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G32" s="13">
-        <v>29</v>
+        <v>-5</v>
       </c>
       <c r="H32" s="13">
-        <v>12</v>
+        <v>-14</v>
       </c>
       <c r="I32" s="13">
-        <v>11</v>
+        <v>-20</v>
       </c>
       <c r="J32" s="13">
         <v>-8</v>
       </c>
       <c r="K32" s="13">
-        <v>11</v>
+        <v>-14</v>
       </c>
       <c r="L32" s="13">
-        <v>20</v>
+        <v>-6</v>
       </c>
       <c r="M32" s="13">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="N32" s="13">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="O32" s="13">
-        <v>10</v>
+        <v>-14</v>
       </c>
       <c r="P32" s="13">
-        <v>12</v>
+        <v>-13</v>
       </c>
       <c r="Q32" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R32" s="13">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="S32" s="13">
         <v>-14</v>
       </c>
       <c r="T32" s="13">
-        <v>-1</v>
+        <v>-11</v>
       </c>
       <c r="U32" s="13">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="W32" s="12" t="s">
         <v>61</v>
@@ -3509,7 +3629,7 @@
         <v>11.5</v>
       </c>
       <c r="AK32">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AL32">
         <v>9.199999999999999</v>
@@ -3535,64 +3655,64 @@
         <v>62</v>
       </c>
       <c r="B33" s="13">
-        <v>441.5</v>
+        <v>64</v>
       </c>
       <c r="C33" s="13">
-        <v>231.5</v>
+        <v>66</v>
       </c>
       <c r="D33" s="13">
-        <v>436</v>
+        <v>51</v>
       </c>
       <c r="E33" s="13">
-        <v>244.5</v>
+        <v>51</v>
       </c>
       <c r="F33" s="13">
-        <v>173</v>
+        <v>55</v>
       </c>
       <c r="G33" s="13">
-        <v>301.5</v>
+        <v>58</v>
       </c>
       <c r="H33" s="13">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="I33" s="13">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="J33" s="13">
-        <v>193.5</v>
+        <v>43</v>
       </c>
       <c r="K33" s="13">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="L33" s="13">
-        <v>213</v>
+        <v>54</v>
       </c>
       <c r="M33" s="13">
-        <v>222</v>
+        <v>34</v>
       </c>
       <c r="N33" s="13">
-        <v>215</v>
+        <v>53</v>
       </c>
       <c r="O33" s="13">
-        <v>71.5</v>
+        <v>34</v>
       </c>
       <c r="P33" s="13">
-        <v>91.5</v>
+        <v>30</v>
       </c>
       <c r="Q33" s="13">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="R33" s="13">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="S33" s="13">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="T33" s="13">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="U33" s="13">
-        <v>82.5</v>
+        <v>34</v>
       </c>
       <c r="W33" s="12" t="s">
         <v>62</v>
@@ -3637,7 +3757,7 @@
         <v>0.4000000000000004</v>
       </c>
       <c r="AK33">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AL33">
         <v>0.4000000000000004</v>
@@ -3812,34 +3932,34 @@
         <v>1</v>
       </c>
       <c r="B3" s="13">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="C3" s="13">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="D3" s="13">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="E3" s="13">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F3" s="13">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="G3" s="13">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="H3" s="13">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I3" s="13">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J3" s="13">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="K3" s="13">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M3" s="12" t="s">
         <v>1</v>
@@ -3880,34 +4000,34 @@
         <v>2</v>
       </c>
       <c r="B4" s="13">
-        <v>173</v>
+        <v>70</v>
       </c>
       <c r="C4" s="13">
-        <v>152</v>
+        <v>55</v>
       </c>
       <c r="D4" s="13">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="E4" s="13">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="F4" s="13">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="G4" s="13">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="H4" s="13">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="I4" s="13">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="J4" s="13">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="K4" s="13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M4" s="12" t="s">
         <v>2</v>
@@ -3948,34 +4068,34 @@
         <v>3</v>
       </c>
       <c r="B5" s="13">
-        <v>239</v>
+        <v>66</v>
       </c>
       <c r="C5" s="13">
-        <v>211</v>
+        <v>59</v>
       </c>
       <c r="D5" s="13">
-        <v>163</v>
+        <v>30</v>
       </c>
       <c r="E5" s="13">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="F5" s="13">
-        <v>64</v>
+        <v>-1</v>
       </c>
       <c r="G5" s="13">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="H5" s="13">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="I5" s="13">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="J5" s="13">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="K5" s="13">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M5" s="12" t="s">
         <v>3</v>
@@ -4016,34 +4136,34 @@
         <v>4</v>
       </c>
       <c r="B6" s="13">
-        <v>264</v>
+        <v>25</v>
       </c>
       <c r="C6" s="13">
-        <v>289</v>
+        <v>78</v>
       </c>
       <c r="D6" s="13">
-        <v>195</v>
+        <v>32</v>
       </c>
       <c r="E6" s="13">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="F6" s="13">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="G6" s="13">
-        <v>178</v>
+        <v>51</v>
       </c>
       <c r="H6" s="13">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="I6" s="13">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="J6" s="13">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="K6" s="13">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M6" s="12" t="s">
         <v>4</v>
@@ -4084,34 +4204,34 @@
         <v>5</v>
       </c>
       <c r="B7" s="13">
-        <v>273</v>
+        <v>9</v>
       </c>
       <c r="C7" s="13">
-        <v>334</v>
+        <v>45</v>
       </c>
       <c r="D7" s="13">
-        <v>235</v>
+        <v>40</v>
       </c>
       <c r="E7" s="13">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c r="F7" s="13">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="G7" s="13">
-        <v>206</v>
+        <v>28</v>
       </c>
       <c r="H7" s="13">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="I7" s="13">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="J7" s="13">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="K7" s="13">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="M7" s="12" t="s">
         <v>5</v>
@@ -4152,34 +4272,34 @@
         <v>6</v>
       </c>
       <c r="B8" s="13">
-        <v>326</v>
+        <v>53</v>
       </c>
       <c r="C8" s="13">
-        <v>406</v>
+        <v>72</v>
       </c>
       <c r="D8" s="13">
-        <v>279</v>
+        <v>44</v>
       </c>
       <c r="E8" s="13">
-        <v>139</v>
+        <v>23</v>
       </c>
       <c r="F8" s="13">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="G8" s="13">
-        <v>204</v>
+        <v>-2</v>
       </c>
       <c r="H8" s="13">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="I8" s="13">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="J8" s="13">
-        <v>65</v>
+        <v>-1</v>
       </c>
       <c r="K8" s="13">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="M8" s="12" t="s">
         <v>6</v>
@@ -4220,34 +4340,34 @@
         <v>7</v>
       </c>
       <c r="B9" s="13">
-        <v>388</v>
+        <v>62</v>
       </c>
       <c r="C9" s="13">
-        <v>467</v>
+        <v>61</v>
       </c>
       <c r="D9" s="13">
-        <v>299</v>
+        <v>20</v>
       </c>
       <c r="E9" s="13">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="F9" s="13">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="G9" s="13">
-        <v>239</v>
+        <v>35</v>
       </c>
       <c r="H9" s="13">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="I9" s="13">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="J9" s="13">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="K9" s="13">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="M9" s="12" t="s">
         <v>7</v>
@@ -4288,34 +4408,34 @@
         <v>8</v>
       </c>
       <c r="B10" s="13">
-        <v>460</v>
+        <v>72</v>
       </c>
       <c r="C10" s="13">
-        <v>530</v>
+        <v>63</v>
       </c>
       <c r="D10" s="13">
-        <v>344</v>
+        <v>45</v>
       </c>
       <c r="E10" s="13">
-        <v>156</v>
+        <v>-1</v>
       </c>
       <c r="F10" s="13">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="G10" s="13">
-        <v>277</v>
+        <v>38</v>
       </c>
       <c r="H10" s="13">
-        <v>157</v>
+        <v>3</v>
       </c>
       <c r="I10" s="13">
-        <v>110</v>
+        <v>7</v>
       </c>
       <c r="J10" s="13">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="K10" s="13">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="M10" s="12" t="s">
         <v>8</v>
@@ -4356,34 +4476,34 @@
         <v>9</v>
       </c>
       <c r="B11" s="13">
-        <v>546</v>
+        <v>86</v>
       </c>
       <c r="C11" s="13">
-        <v>573</v>
+        <v>43</v>
       </c>
       <c r="D11" s="13">
-        <v>402</v>
+        <v>58</v>
       </c>
       <c r="E11" s="13">
-        <v>185</v>
+        <v>29</v>
       </c>
       <c r="F11" s="13">
-        <v>170</v>
+        <v>28</v>
       </c>
       <c r="G11" s="13">
-        <v>349</v>
+        <v>72</v>
       </c>
       <c r="H11" s="13">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="I11" s="13">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="J11" s="13">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="K11" s="13">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="M11" s="12" t="s">
         <v>9</v>
@@ -4424,34 +4544,34 @@
         <v>10</v>
       </c>
       <c r="B12" s="13">
-        <v>588</v>
+        <v>42</v>
       </c>
       <c r="C12" s="13">
-        <v>587</v>
+        <v>14</v>
       </c>
       <c r="D12" s="13">
-        <v>413</v>
+        <v>11</v>
       </c>
       <c r="E12" s="13">
-        <v>191</v>
+        <v>6</v>
       </c>
       <c r="F12" s="13">
-        <v>240</v>
+        <v>70</v>
       </c>
       <c r="G12" s="13">
-        <v>384</v>
+        <v>35</v>
       </c>
       <c r="H12" s="13">
-        <v>215</v>
+        <v>40</v>
       </c>
       <c r="I12" s="13">
-        <v>139</v>
+        <v>15</v>
       </c>
       <c r="J12" s="13">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="K12" s="13">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="M12" s="12" t="s">
         <v>10</v>
@@ -4492,34 +4612,34 @@
         <v>11</v>
       </c>
       <c r="B13" s="13">
-        <v>619.5</v>
+        <v>31.5</v>
       </c>
       <c r="C13" s="13">
-        <v>615.5</v>
+        <v>28.5</v>
       </c>
       <c r="D13" s="13">
-        <v>435</v>
+        <v>22</v>
       </c>
       <c r="E13" s="13">
-        <v>207.5</v>
+        <v>16.5</v>
       </c>
       <c r="F13" s="13">
-        <v>253</v>
+        <v>13</v>
       </c>
       <c r="G13" s="13">
-        <v>393.5</v>
+        <v>9.5</v>
       </c>
       <c r="H13" s="13">
-        <v>230</v>
+        <v>15</v>
       </c>
       <c r="I13" s="13">
-        <v>145</v>
+        <v>6</v>
       </c>
       <c r="J13" s="13">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="K13" s="13">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="M13" s="12" t="s">
         <v>11</v>
@@ -4560,34 +4680,34 @@
         <v>12</v>
       </c>
       <c r="B14" s="13">
-        <v>677.5</v>
+        <v>58</v>
       </c>
       <c r="C14" s="13">
-        <v>670.5</v>
+        <v>55</v>
       </c>
       <c r="D14" s="13">
-        <v>448</v>
+        <v>13</v>
       </c>
       <c r="E14" s="13">
-        <v>216.5</v>
+        <v>9</v>
       </c>
       <c r="F14" s="13">
-        <v>280</v>
+        <v>27</v>
       </c>
       <c r="G14" s="13">
-        <v>426.5</v>
+        <v>33</v>
       </c>
       <c r="H14" s="13">
-        <v>255</v>
+        <v>25</v>
       </c>
       <c r="I14" s="13">
-        <v>147</v>
+        <v>2</v>
       </c>
       <c r="J14" s="13">
-        <v>118</v>
+        <v>2</v>
       </c>
       <c r="K14" s="13">
-        <v>143</v>
+        <v>9</v>
       </c>
       <c r="M14" s="12" t="s">
         <v>12</v>
@@ -4627,6 +4747,36 @@
       <c r="A15" s="12" t="s">
         <v>13</v>
       </c>
+      <c r="B15" s="13">
+        <v>66</v>
+      </c>
+      <c r="C15" s="13">
+        <v>47</v>
+      </c>
+      <c r="D15" s="13">
+        <v>87</v>
+      </c>
+      <c r="E15" s="13">
+        <v>19</v>
+      </c>
+      <c r="F15" s="13">
+        <v>24</v>
+      </c>
+      <c r="G15" s="13">
+        <v>60</v>
+      </c>
+      <c r="H15" s="13">
+        <v>6</v>
+      </c>
+      <c r="I15" s="13">
+        <v>11</v>
+      </c>
+      <c r="J15" s="13">
+        <v>13</v>
+      </c>
+      <c r="K15" s="13">
+        <v>25</v>
+      </c>
       <c r="M15" s="12" t="s">
         <v>13</v>
       </c>
@@ -4668,6 +4818,36 @@
       <c r="M16" s="12" t="s">
         <v>14</v>
       </c>
+      <c r="N16" s="13">
+        <v>37.1</v>
+      </c>
+      <c r="O16" s="13">
+        <v>26.6</v>
+      </c>
+      <c r="P16" s="13">
+        <v>18.6</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="R16" s="13">
+        <v>15.2</v>
+      </c>
+      <c r="S16" s="13">
+        <v>18.8</v>
+      </c>
+      <c r="T16" s="13">
+        <v>12.6</v>
+      </c>
+      <c r="U16" s="13">
+        <v>9.1</v>
+      </c>
+      <c r="V16" s="13">
+        <v>6.1</v>
+      </c>
+      <c r="W16" s="13">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="17" spans="1:23">
       <c r="A17" s="12" t="s">
@@ -4738,67 +4918,67 @@
         <v>55</v>
       </c>
       <c r="B26" s="13">
-        <v>4724</v>
+        <v>743.5</v>
       </c>
       <c r="C26" s="13">
-        <v>4985</v>
+        <v>717.5</v>
       </c>
       <c r="D26" s="13">
-        <v>3472</v>
+        <v>535</v>
       </c>
       <c r="E26" s="13">
-        <v>1587</v>
+        <v>235.5</v>
       </c>
       <c r="F26" s="13">
-        <v>1692</v>
+        <v>304</v>
       </c>
       <c r="G26" s="13">
-        <v>2973</v>
+        <v>486.5</v>
       </c>
       <c r="H26" s="13">
-        <v>1649</v>
+        <v>261</v>
       </c>
       <c r="I26" s="13">
-        <v>1123</v>
+        <v>158</v>
       </c>
       <c r="J26" s="13">
-        <v>877</v>
+        <v>131</v>
       </c>
       <c r="K26" s="13">
-        <v>735</v>
+        <v>168</v>
       </c>
       <c r="M26" s="12" t="s">
         <v>55</v>
       </c>
       <c r="N26" s="13">
-        <v>523.6</v>
+        <v>560.7</v>
       </c>
       <c r="O26" s="13">
-        <v>368.2</v>
+        <v>394.8000000000001</v>
       </c>
       <c r="P26" s="13">
-        <v>261.8</v>
+        <v>280.4</v>
       </c>
       <c r="Q26" s="13">
-        <v>232.2</v>
+        <v>248.7</v>
       </c>
       <c r="R26" s="13">
-        <v>212.3</v>
+        <v>227.4999999999999</v>
       </c>
       <c r="S26" s="13">
-        <v>264</v>
+        <v>282.8</v>
       </c>
       <c r="T26" s="13">
-        <v>178.7999999999999</v>
+        <v>191.3999999999999</v>
       </c>
       <c r="U26" s="13">
-        <v>127.1</v>
+        <v>136.2</v>
       </c>
       <c r="V26" s="13">
-        <v>85.39999999999999</v>
+        <v>91.49999999999999</v>
       </c>
       <c r="W26" s="13">
-        <v>88.19999999999997</v>
+        <v>94.49999999999997</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -4806,67 +4986,67 @@
         <v>56</v>
       </c>
       <c r="B27" s="13">
-        <v>9.022154316271964</v>
+        <v>1.326021045122169</v>
       </c>
       <c r="C27" s="13">
-        <v>13.53883758826724</v>
+        <v>1.817375886524822</v>
       </c>
       <c r="D27" s="13">
-        <v>13.2620320855615</v>
+        <v>1.907988587731812</v>
       </c>
       <c r="E27" s="13">
-        <v>6.834625322997415</v>
+        <v>0.9469240048250903</v>
       </c>
       <c r="F27" s="13">
-        <v>7.969853980216676</v>
+        <v>1.336263736263737</v>
       </c>
       <c r="G27" s="13">
-        <v>11.26136363636364</v>
+        <v>1.72029702970297</v>
       </c>
       <c r="H27" s="13">
-        <v>9.222595078299781</v>
+        <v>1.363636363636364</v>
       </c>
       <c r="I27" s="13">
-        <v>8.835562549173877</v>
+        <v>1.160058737151248</v>
       </c>
       <c r="J27" s="13">
-        <v>10.26932084309134</v>
+        <v>1.431693989071039</v>
       </c>
       <c r="K27" s="13">
-        <v>8.333333333333336</v>
+        <v>1.777777777777778</v>
       </c>
       <c r="M27" s="12" t="s">
         <v>56</v>
       </c>
       <c r="N27" s="13">
-        <v>9.022154316271964</v>
+        <v>1.326021045122169</v>
       </c>
       <c r="O27" s="13">
-        <v>13.53883758826724</v>
+        <v>1.817375886524822</v>
       </c>
       <c r="P27" s="13">
-        <v>13.2620320855615</v>
+        <v>1.907988587731812</v>
       </c>
       <c r="Q27" s="13">
-        <v>6.834625322997415</v>
+        <v>0.9469240048250903</v>
       </c>
       <c r="R27" s="13">
-        <v>7.969853980216676</v>
+        <v>1.336263736263737</v>
       </c>
       <c r="S27" s="13">
-        <v>11.26136363636364</v>
+        <v>1.72029702970297</v>
       </c>
       <c r="T27" s="13">
-        <v>9.222595078299781</v>
+        <v>1.363636363636364</v>
       </c>
       <c r="U27" s="13">
-        <v>8.835562549173877</v>
+        <v>1.160058737151248</v>
       </c>
       <c r="V27" s="13">
-        <v>10.26932084309134</v>
+        <v>1.431693989071039</v>
       </c>
       <c r="W27" s="13">
-        <v>8.333333333333336</v>
+        <v>1.777777777777778</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -4874,64 +5054,64 @@
         <v>57</v>
       </c>
       <c r="B28" s="13">
-        <v>363.3846153846154</v>
+        <v>53.10714285714285</v>
       </c>
       <c r="C28" s="13">
-        <v>383.4615384615385</v>
+        <v>51.25</v>
       </c>
       <c r="D28" s="13">
-        <v>267.0769230769231</v>
+        <v>38.21428571428572</v>
       </c>
       <c r="E28" s="13">
-        <v>122.0769230769231</v>
+        <v>16.82142857142857</v>
       </c>
       <c r="F28" s="13">
-        <v>130.1538461538462</v>
+        <v>21.71428571428572</v>
       </c>
       <c r="G28" s="13">
-        <v>228.6923076923077</v>
+        <v>34.75</v>
       </c>
       <c r="H28" s="13">
-        <v>126.8461538461538</v>
+        <v>18.64285714285714</v>
       </c>
       <c r="I28" s="13">
-        <v>86.38461538461539</v>
+        <v>11.28571428571429</v>
       </c>
       <c r="J28" s="13">
-        <v>67.46153846153847</v>
+        <v>9.357142857142858</v>
       </c>
       <c r="K28" s="13">
-        <v>56.53846153846154</v>
+        <v>12</v>
       </c>
       <c r="M28" s="12" t="s">
         <v>57</v>
       </c>
       <c r="N28" s="13">
-        <v>37.4</v>
+        <v>37.38</v>
       </c>
       <c r="O28" s="13">
-        <v>26.3</v>
+        <v>26.32</v>
       </c>
       <c r="P28" s="13">
-        <v>18.7</v>
+        <v>18.69333333333333</v>
       </c>
       <c r="Q28" s="13">
-        <v>16.58571428571429</v>
+        <v>16.58</v>
       </c>
       <c r="R28" s="13">
-        <v>15.16428571428571</v>
+        <v>15.16666666666666</v>
       </c>
       <c r="S28" s="13">
-        <v>18.85714285714286</v>
+        <v>18.85333333333334</v>
       </c>
       <c r="T28" s="13">
-        <v>12.77142857142857</v>
+        <v>12.75999999999999</v>
       </c>
       <c r="U28" s="13">
-        <v>9.078571428571429</v>
+        <v>9.080000000000002</v>
       </c>
       <c r="V28" s="13">
-        <v>6.1</v>
+        <v>6.099999999999999</v>
       </c>
       <c r="W28" s="13">
         <v>6.299999999999998</v>
@@ -4942,67 +5122,67 @@
         <v>58</v>
       </c>
       <c r="B29" s="13">
-        <v>9.716166186754421</v>
+        <v>1.420736834059466</v>
       </c>
       <c r="C29" s="13">
-        <v>14.58028663351857</v>
+        <v>1.947188449848024</v>
       </c>
       <c r="D29" s="13">
-        <v>14.28218839983546</v>
+        <v>2.044273486855513</v>
       </c>
       <c r="E29" s="13">
-        <v>7.360365732458755</v>
+        <v>1.014561433741168</v>
       </c>
       <c r="F29" s="13">
-        <v>8.582919671002575</v>
+        <v>1.431711145996861</v>
       </c>
       <c r="G29" s="13">
-        <v>12.12762237762238</v>
+        <v>1.843175388967468</v>
       </c>
       <c r="H29" s="13">
-        <v>9.932025468938223</v>
+        <v>1.461038961038962</v>
       </c>
       <c r="I29" s="13">
-        <v>9.515221206802638</v>
+        <v>1.242920075519194</v>
       </c>
       <c r="J29" s="13">
-        <v>11.05926860025221</v>
+        <v>1.533957845433256</v>
       </c>
       <c r="K29" s="13">
-        <v>8.974358974358978</v>
+        <v>1.904761904761905</v>
       </c>
       <c r="M29" s="12" t="s">
         <v>58</v>
       </c>
       <c r="N29" s="13">
-        <v>9.716166186754421</v>
+        <v>1.420736834059466</v>
       </c>
       <c r="O29" s="13">
-        <v>14.58028663351857</v>
+        <v>1.947188449848024</v>
       </c>
       <c r="P29" s="13">
-        <v>14.28218839983546</v>
+        <v>2.044273486855513</v>
       </c>
       <c r="Q29" s="13">
-        <v>7.360365732458755</v>
+        <v>1.014561433741168</v>
       </c>
       <c r="R29" s="13">
-        <v>8.582919671002575</v>
+        <v>1.431711145996861</v>
       </c>
       <c r="S29" s="13">
-        <v>12.12762237762238</v>
+        <v>1.843175388967468</v>
       </c>
       <c r="T29" s="13">
-        <v>9.932025468938223</v>
+        <v>1.461038961038962</v>
       </c>
       <c r="U29" s="13">
-        <v>9.515221206802638</v>
+        <v>1.242920075519194</v>
       </c>
       <c r="V29" s="13">
-        <v>11.05926860025221</v>
+        <v>1.533957845433256</v>
       </c>
       <c r="W29" s="13">
-        <v>8.974358974358978</v>
+        <v>1.904761904761905</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -5010,67 +5190,67 @@
         <v>59</v>
       </c>
       <c r="B30" s="13">
-        <v>10343.25085197298</v>
+        <v>113.9886241478551</v>
       </c>
       <c r="C30" s="13">
-        <v>11275.29980624156</v>
+        <v>67.83424396289722</v>
       </c>
       <c r="D30" s="13">
-        <v>4842.680414281933</v>
+        <v>97.13718923528252</v>
       </c>
       <c r="E30" s="13">
-        <v>1296.706073354824</v>
+        <v>31.49489652939665</v>
       </c>
       <c r="F30" s="13">
-        <v>1833.320253270882</v>
+        <v>64.54086276632076</v>
       </c>
       <c r="G30" s="13">
-        <v>4393.978009843368</v>
+        <v>91.42959360602266</v>
       </c>
       <c r="H30" s="13">
-        <v>1622.918201918067</v>
+        <v>32.89631357723082</v>
       </c>
       <c r="I30" s="13">
-        <v>556.1739263323601</v>
+        <v>8.72144338404013</v>
       </c>
       <c r="J30" s="13">
-        <v>369.5419271751836</v>
+        <v>7.086513643973819</v>
       </c>
       <c r="K30" s="13">
-        <v>540.5602645960086</v>
+        <v>25.42799815909638</v>
       </c>
       <c r="M30" s="12" t="s">
         <v>59</v>
       </c>
       <c r="N30" s="13">
-        <v>0.02214450290132107</v>
+        <v>0.02141329458964554</v>
       </c>
       <c r="O30" s="13">
-        <v>0.02023549403045466</v>
+        <v>0.01969196865797002</v>
       </c>
       <c r="P30" s="13">
-        <v>0.003054414193325478</v>
+        <v>0.002914778577603766</v>
       </c>
       <c r="Q30" s="13">
-        <v>0.02743518462893813</v>
+        <v>0.02485594645298193</v>
       </c>
       <c r="R30" s="13">
-        <v>0.002522618865043078</v>
+        <v>0.002295101242248716</v>
       </c>
       <c r="S30" s="13">
-        <v>0.03692568587240051</v>
+        <v>0.03334782104913339</v>
       </c>
       <c r="T30" s="13">
-        <v>0.01085407900832138</v>
+        <v>0.01025910255266756</v>
       </c>
       <c r="U30" s="13">
-        <v>0.00503160195232317</v>
+        <v>0.004544300459535776</v>
       </c>
       <c r="V30" s="13">
-        <v>-1.89900533991096e-15</v>
+        <v>1.834613454911683e-15</v>
       </c>
       <c r="W30" s="13">
-        <v>7.596021359643839e-15</v>
+        <v>9.173067274558417e-15</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -5078,34 +5258,34 @@
         <v>60</v>
       </c>
       <c r="B31" s="13">
-        <v>677.5</v>
+        <v>86</v>
       </c>
       <c r="C31" s="13">
-        <v>670.5</v>
+        <v>78</v>
       </c>
       <c r="D31" s="13">
-        <v>448</v>
+        <v>87</v>
       </c>
       <c r="E31" s="13">
-        <v>216.5</v>
+        <v>40</v>
       </c>
       <c r="F31" s="13">
-        <v>280</v>
+        <v>70</v>
       </c>
       <c r="G31" s="13">
-        <v>426.5</v>
+        <v>72</v>
       </c>
       <c r="H31" s="13">
-        <v>255</v>
+        <v>41</v>
       </c>
       <c r="I31" s="13">
-        <v>147</v>
+        <v>23</v>
       </c>
       <c r="J31" s="13">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="K31" s="13">
-        <v>143</v>
+        <v>34</v>
       </c>
       <c r="M31" s="12" t="s">
         <v>60</v>
@@ -5146,34 +5326,34 @@
         <v>61</v>
       </c>
       <c r="B32" s="13">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="C32" s="13">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="D32" s="13">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E32" s="13">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="F32" s="13">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="G32" s="13">
-        <v>26</v>
+        <v>-2</v>
       </c>
       <c r="H32" s="13">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="I32" s="13">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J32" s="13">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="K32" s="13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M32" s="12" t="s">
         <v>61</v>
@@ -5214,34 +5394,34 @@
         <v>62</v>
       </c>
       <c r="B33" s="13">
-        <v>610.5</v>
+        <v>77</v>
       </c>
       <c r="C33" s="13">
-        <v>617.5</v>
+        <v>64</v>
       </c>
       <c r="D33" s="13">
-        <v>409</v>
+        <v>76</v>
       </c>
       <c r="E33" s="13">
-        <v>198.5</v>
+        <v>41</v>
       </c>
       <c r="F33" s="13">
-        <v>267</v>
+        <v>71</v>
       </c>
       <c r="G33" s="13">
-        <v>400.5</v>
+        <v>74</v>
       </c>
       <c r="H33" s="13">
-        <v>242</v>
+        <v>38</v>
       </c>
       <c r="I33" s="13">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="J33" s="13">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="K33" s="13">
-        <v>137</v>
+        <v>34</v>
       </c>
       <c r="M33" s="12" t="s">
         <v>62</v>

--- a/2021/Fantasy F1 2021.xlsx
+++ b/2021/Fantasy F1 2021.xlsx
@@ -2626,6 +2626,66 @@
       <c r="A16" s="12" t="s">
         <v>14</v>
       </c>
+      <c r="B16" s="13">
+        <v>52</v>
+      </c>
+      <c r="C16" s="13">
+        <v>33</v>
+      </c>
+      <c r="D16" s="13">
+        <v>27</v>
+      </c>
+      <c r="E16" s="13">
+        <v>8</v>
+      </c>
+      <c r="F16" s="13">
+        <v>27</v>
+      </c>
+      <c r="G16" s="13">
+        <v>17</v>
+      </c>
+      <c r="H16" s="13">
+        <v>-1</v>
+      </c>
+      <c r="I16" s="13">
+        <v>4</v>
+      </c>
+      <c r="J16" s="13">
+        <v>22</v>
+      </c>
+      <c r="K16" s="13">
+        <v>-5</v>
+      </c>
+      <c r="L16" s="13">
+        <v>11</v>
+      </c>
+      <c r="M16" s="13">
+        <v>31</v>
+      </c>
+      <c r="N16" s="13">
+        <v>6</v>
+      </c>
+      <c r="O16" s="13">
+        <v>-2</v>
+      </c>
+      <c r="P16" s="13">
+        <v>21</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>4</v>
+      </c>
+      <c r="R16" s="13">
+        <v>-12</v>
+      </c>
+      <c r="S16" s="13">
+        <v>2</v>
+      </c>
+      <c r="T16" s="13">
+        <v>8</v>
+      </c>
+      <c r="U16" s="13">
+        <v>0</v>
+      </c>
       <c r="W16" s="12" t="s">
         <v>14</v>
       </c>
@@ -2697,6 +2757,66 @@
       <c r="W17" s="12" t="s">
         <v>15</v>
       </c>
+      <c r="X17" s="13">
+        <v>33</v>
+      </c>
+      <c r="Y17" s="13">
+        <v>23.4</v>
+      </c>
+      <c r="Z17" s="13">
+        <v>25.6</v>
+      </c>
+      <c r="AA17" s="13">
+        <v>18.3</v>
+      </c>
+      <c r="AB17" s="13">
+        <v>15.8</v>
+      </c>
+      <c r="AC17" s="13">
+        <v>14.2</v>
+      </c>
+      <c r="AD17" s="13">
+        <v>15.3</v>
+      </c>
+      <c r="AE17" s="13">
+        <v>13.3</v>
+      </c>
+      <c r="AF17" s="13">
+        <v>15.1</v>
+      </c>
+      <c r="AG17" s="13">
+        <v>10.3</v>
+      </c>
+      <c r="AH17" s="13">
+        <v>17.6</v>
+      </c>
+      <c r="AI17" s="13">
+        <v>14.4</v>
+      </c>
+      <c r="AJ17" s="13">
+        <v>11.9</v>
+      </c>
+      <c r="AK17" s="13">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AL17" s="13">
+        <v>9.1</v>
+      </c>
+      <c r="AM17" s="13">
+        <v>8</v>
+      </c>
+      <c r="AN17" s="13">
+        <v>5.7</v>
+      </c>
+      <c r="AO17" s="13">
+        <v>5.3</v>
+      </c>
+      <c r="AP17" s="13">
+        <v>6.3</v>
+      </c>
+      <c r="AQ17" s="13">
+        <v>6.4</v>
+      </c>
     </row>
     <row r="18" spans="1:43">
       <c r="A18" s="12" t="s">
@@ -2759,61 +2879,61 @@
         <v>55</v>
       </c>
       <c r="B26" s="13">
-        <v>487.5</v>
+        <v>539.5</v>
       </c>
       <c r="C26" s="13">
-        <v>311.5</v>
+        <v>344.5</v>
       </c>
       <c r="D26" s="13">
-        <v>485</v>
+        <v>512</v>
       </c>
       <c r="E26" s="13">
-        <v>295.5</v>
+        <v>303.5</v>
       </c>
       <c r="F26" s="13">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="G26" s="13">
-        <v>371.5</v>
+        <v>388.5</v>
       </c>
       <c r="H26" s="13">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I26" s="13">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J26" s="13">
-        <v>206.5</v>
+        <v>228.5</v>
       </c>
       <c r="K26" s="13">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="L26" s="13">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="M26" s="13">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="N26" s="13">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="O26" s="13">
-        <v>58.5</v>
+        <v>56.5</v>
       </c>
       <c r="P26" s="13">
-        <v>113.5</v>
+        <v>134.5</v>
       </c>
       <c r="Q26" s="13">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="R26" s="13">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="S26" s="13">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="T26" s="13">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="U26" s="13">
         <v>81.5</v>
@@ -2822,64 +2942,64 @@
         <v>55</v>
       </c>
       <c r="X26">
-        <v>497.6000000000001</v>
+        <v>530.6000000000001</v>
       </c>
       <c r="Y26">
-        <v>347.3</v>
+        <v>370.7</v>
       </c>
       <c r="Z26">
-        <v>381.8999999999999</v>
+        <v>407.4999999999999</v>
       </c>
       <c r="AA26">
-        <v>276.8</v>
+        <v>295.1</v>
       </c>
       <c r="AB26">
-        <v>241.8</v>
+        <v>257.6</v>
       </c>
       <c r="AC26">
-        <v>208.2</v>
+        <v>222.3999999999999</v>
       </c>
       <c r="AD26">
-        <v>228.5</v>
+        <v>243.8</v>
       </c>
       <c r="AE26">
-        <v>201.5000000000001</v>
+        <v>214.8000000000001</v>
       </c>
       <c r="AF26">
-        <v>224.9</v>
+        <v>240</v>
       </c>
       <c r="AG26">
-        <v>152.4</v>
+        <v>162.7</v>
       </c>
       <c r="AH26">
-        <v>265.4</v>
+        <v>283</v>
       </c>
       <c r="AI26">
-        <v>216.6</v>
+        <v>231</v>
       </c>
       <c r="AJ26">
-        <v>176.7</v>
+        <v>188.6000000000001</v>
       </c>
       <c r="AK26">
-        <v>129.9</v>
+        <v>138.2</v>
       </c>
       <c r="AL26">
-        <v>140</v>
+        <v>149.1</v>
       </c>
       <c r="AM26">
-        <v>119.2</v>
+        <v>127.2</v>
       </c>
       <c r="AN26">
-        <v>86.89999999999998</v>
+        <v>92.59999999999998</v>
       </c>
       <c r="AO26">
-        <v>79.69999999999997</v>
+        <v>84.99999999999997</v>
       </c>
       <c r="AP26">
-        <v>93.20000000000003</v>
+        <v>99.50000000000003</v>
       </c>
       <c r="AQ26">
-        <v>96.30000000000003</v>
+        <v>102.7</v>
       </c>
     </row>
     <row r="27" spans="1:43">
@@ -2887,127 +3007,127 @@
         <v>56</v>
       </c>
       <c r="B27" s="13">
-        <v>0.9797025723472668</v>
+        <v>1.016773464003015</v>
       </c>
       <c r="C27" s="13">
-        <v>0.8969190901238122</v>
+        <v>0.9293229026166712</v>
       </c>
       <c r="D27" s="13">
-        <v>1.269965959675308</v>
+        <v>1.256441717791411</v>
       </c>
       <c r="E27" s="13">
-        <v>1.067557803468208</v>
+        <v>1.028464927143341</v>
       </c>
       <c r="F27" s="13">
-        <v>1.017369727047146</v>
+        <v>1.059782608695652</v>
       </c>
       <c r="G27" s="13">
-        <v>1.784341978866475</v>
+        <v>1.746852517985612</v>
       </c>
       <c r="H27" s="13">
-        <v>0.5426695842450766</v>
+        <v>0.5045118949958983</v>
       </c>
       <c r="I27" s="13">
-        <v>0.540942928039702</v>
+        <v>0.5260707635009308</v>
       </c>
       <c r="J27" s="13">
-        <v>0.9181858603823921</v>
+        <v>0.9520833333333333</v>
       </c>
       <c r="K27" s="13">
-        <v>0.9514435695538059</v>
+        <v>0.8604794099569761</v>
       </c>
       <c r="L27" s="13">
-        <v>1.0060286360211</v>
+        <v>0.9823321554770318</v>
       </c>
       <c r="M27" s="13">
-        <v>1.181902123730378</v>
+        <v>1.242424242424242</v>
       </c>
       <c r="N27" s="13">
-        <v>1.171477079796265</v>
+        <v>1.129374337221633</v>
       </c>
       <c r="O27" s="13">
-        <v>0.4503464203233256</v>
+        <v>0.4088277858176555</v>
       </c>
       <c r="P27" s="13">
-        <v>0.8107142857142858</v>
+        <v>0.9020791415157614</v>
       </c>
       <c r="Q27" s="13">
-        <v>0.813758389261745</v>
+        <v>0.7940251572327045</v>
       </c>
       <c r="R27" s="13">
-        <v>1.41542002301496</v>
+        <v>1.198704103671707</v>
       </c>
       <c r="S27" s="13">
-        <v>0.1317440401505647</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="T27" s="13">
-        <v>1.190987124463519</v>
+        <v>1.195979899497487</v>
       </c>
       <c r="U27" s="13">
-        <v>0.8463136033229489</v>
+        <v>0.7935735150925022</v>
       </c>
       <c r="W27" s="12" t="s">
         <v>56</v>
       </c>
       <c r="X27">
-        <v>0.9797025723472668</v>
+        <v>1.016773464003015</v>
       </c>
       <c r="Y27">
-        <v>0.8969190901238122</v>
+        <v>0.9293229026166712</v>
       </c>
       <c r="Z27">
-        <v>1.269965959675308</v>
+        <v>1.256441717791411</v>
       </c>
       <c r="AA27">
-        <v>1.067557803468208</v>
+        <v>1.028464927143341</v>
       </c>
       <c r="AB27">
-        <v>1.017369727047146</v>
+        <v>1.059782608695652</v>
       </c>
       <c r="AC27">
-        <v>1.784341978866475</v>
+        <v>1.746852517985612</v>
       </c>
       <c r="AD27">
-        <v>0.5426695842450766</v>
+        <v>0.5045118949958983</v>
       </c>
       <c r="AE27">
-        <v>0.540942928039702</v>
+        <v>0.5260707635009308</v>
       </c>
       <c r="AF27">
-        <v>0.9181858603823921</v>
+        <v>0.9520833333333333</v>
       </c>
       <c r="AG27">
-        <v>0.9514435695538059</v>
+        <v>0.8604794099569761</v>
       </c>
       <c r="AH27">
-        <v>1.0060286360211</v>
+        <v>0.9823321554770318</v>
       </c>
       <c r="AI27">
-        <v>1.181902123730378</v>
+        <v>1.242424242424242</v>
       </c>
       <c r="AJ27">
-        <v>1.171477079796265</v>
+        <v>1.129374337221633</v>
       </c>
       <c r="AK27">
-        <v>0.4503464203233256</v>
+        <v>0.4088277858176555</v>
       </c>
       <c r="AL27">
-        <v>0.8107142857142858</v>
+        <v>0.9020791415157614</v>
       </c>
       <c r="AM27">
-        <v>0.813758389261745</v>
+        <v>0.7940251572327045</v>
       </c>
       <c r="AN27">
-        <v>1.41542002301496</v>
+        <v>1.198704103671707</v>
       </c>
       <c r="AO27">
-        <v>0.1317440401505647</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="AP27">
-        <v>1.190987124463519</v>
+        <v>1.195979899497487</v>
       </c>
       <c r="AQ27">
-        <v>0.8463136033229489</v>
+        <v>0.7935735150925022</v>
       </c>
     </row>
     <row r="28" spans="1:43">
@@ -3015,127 +3135,127 @@
         <v>57</v>
       </c>
       <c r="B28" s="13">
-        <v>34.82142857142857</v>
+        <v>35.96666666666667</v>
       </c>
       <c r="C28" s="13">
-        <v>22.25</v>
+        <v>22.96666666666667</v>
       </c>
       <c r="D28" s="13">
-        <v>34.64285714285715</v>
+        <v>34.13333333333333</v>
       </c>
       <c r="E28" s="13">
-        <v>21.10714285714286</v>
+        <v>20.23333333333333</v>
       </c>
       <c r="F28" s="13">
-        <v>17.57142857142857</v>
+        <v>18.2</v>
       </c>
       <c r="G28" s="13">
-        <v>26.53571428571428</v>
+        <v>25.9</v>
       </c>
       <c r="H28" s="13">
-        <v>8.857142857142858</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I28" s="13">
-        <v>7.785714285714286</v>
+        <v>7.533333333333333</v>
       </c>
       <c r="J28" s="13">
-        <v>14.75</v>
+        <v>15.23333333333333</v>
       </c>
       <c r="K28" s="13">
-        <v>10.35714285714286</v>
+        <v>9.333333333333334</v>
       </c>
       <c r="L28" s="13">
-        <v>19.07142857142857</v>
+        <v>18.53333333333333</v>
       </c>
       <c r="M28" s="13">
-        <v>18.28571428571428</v>
+        <v>19.13333333333333</v>
       </c>
       <c r="N28" s="13">
-        <v>14.78571428571429</v>
+        <v>14.2</v>
       </c>
       <c r="O28" s="13">
-        <v>4.178571428571429</v>
+        <v>3.766666666666667</v>
       </c>
       <c r="P28" s="13">
-        <v>8.107142857142858</v>
+        <v>8.966666666666667</v>
       </c>
       <c r="Q28" s="13">
-        <v>6.928571428571429</v>
+        <v>6.733333333333333</v>
       </c>
       <c r="R28" s="13">
-        <v>8.785714285714286</v>
+        <v>7.4</v>
       </c>
       <c r="S28" s="13">
-        <v>0.75</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="T28" s="13">
-        <v>7.928571428571429</v>
+        <v>7.933333333333334</v>
       </c>
       <c r="U28" s="13">
-        <v>5.821428571428571</v>
+        <v>5.433333333333334</v>
       </c>
       <c r="W28" s="12" t="s">
         <v>57</v>
       </c>
       <c r="X28">
-        <v>33.17333333333334</v>
+        <v>33.16250000000001</v>
       </c>
       <c r="Y28">
-        <v>23.15333333333333</v>
+        <v>23.16875</v>
       </c>
       <c r="Z28">
-        <v>25.45999999999999</v>
+        <v>25.46875</v>
       </c>
       <c r="AA28">
-        <v>18.45333333333333</v>
+        <v>18.44375</v>
       </c>
       <c r="AB28">
-        <v>16.12</v>
+        <v>16.1</v>
       </c>
       <c r="AC28">
-        <v>13.88</v>
+        <v>13.9</v>
       </c>
       <c r="AD28">
-        <v>15.23333333333333</v>
+        <v>15.2375</v>
       </c>
       <c r="AE28">
-        <v>13.43333333333334</v>
+        <v>13.42500000000001</v>
       </c>
       <c r="AF28">
-        <v>14.99333333333333</v>
+        <v>15</v>
       </c>
       <c r="AG28">
-        <v>10.16</v>
+        <v>10.16875</v>
       </c>
       <c r="AH28">
-        <v>17.69333333333333</v>
+        <v>17.6875</v>
       </c>
       <c r="AI28">
-        <v>14.44</v>
+        <v>14.4375</v>
       </c>
       <c r="AJ28">
-        <v>11.78</v>
+        <v>11.7875</v>
       </c>
       <c r="AK28">
-        <v>8.66</v>
+        <v>8.637500000000001</v>
       </c>
       <c r="AL28">
-        <v>9.333333333333332</v>
+        <v>9.318749999999998</v>
       </c>
       <c r="AM28">
-        <v>7.946666666666666</v>
+        <v>7.949999999999999</v>
       </c>
       <c r="AN28">
-        <v>5.793333333333332</v>
+        <v>5.787499999999999</v>
       </c>
       <c r="AO28">
-        <v>5.313333333333332</v>
+        <v>5.312499999999998</v>
       </c>
       <c r="AP28">
-        <v>6.213333333333336</v>
+        <v>6.218750000000002</v>
       </c>
       <c r="AQ28">
-        <v>6.420000000000002</v>
+        <v>6.418750000000002</v>
       </c>
     </row>
     <row r="29" spans="1:43">
@@ -3143,127 +3263,127 @@
         <v>58</v>
       </c>
       <c r="B29" s="13">
-        <v>1.049681327514929</v>
+        <v>1.084558361603216</v>
       </c>
       <c r="C29" s="13">
-        <v>0.9609847394183704</v>
+        <v>0.9912777627911159</v>
       </c>
       <c r="D29" s="13">
-        <v>1.36067781393783</v>
+        <v>1.340204498977505</v>
       </c>
       <c r="E29" s="13">
-        <v>1.143811932287366</v>
+        <v>1.097029255619564</v>
       </c>
       <c r="F29" s="13">
-        <v>1.0900389932648</v>
+        <v>1.130434782608696</v>
       </c>
       <c r="G29" s="13">
-        <v>1.911794977356937</v>
+        <v>1.863309352517986</v>
       </c>
       <c r="H29" s="13">
-        <v>0.5814316974054393</v>
+        <v>0.5381460213289582</v>
       </c>
       <c r="I29" s="13">
-        <v>0.5795817086139664</v>
+        <v>0.5611421477343262</v>
       </c>
       <c r="J29" s="13">
-        <v>0.9837705646954201</v>
+        <v>1.015555555555556</v>
       </c>
       <c r="K29" s="13">
-        <v>1.019403824521935</v>
+        <v>0.9178447039541079</v>
       </c>
       <c r="L29" s="13">
-        <v>1.077887824308322</v>
+        <v>1.047820965842167</v>
       </c>
       <c r="M29" s="13">
-        <v>1.266323703996834</v>
+        <v>1.325252525252525</v>
       </c>
       <c r="N29" s="13">
-        <v>1.255154014067426</v>
+        <v>1.204665959703075</v>
       </c>
       <c r="O29" s="13">
-        <v>0.4825140217749918</v>
+        <v>0.4360829715388326</v>
       </c>
       <c r="P29" s="13">
-        <v>0.868622448979592</v>
+        <v>0.9622177509501455</v>
       </c>
       <c r="Q29" s="13">
-        <v>0.8718839884947268</v>
+        <v>0.8469601677148848</v>
       </c>
       <c r="R29" s="13">
-        <v>1.516521453230314</v>
+        <v>1.278617710583154</v>
       </c>
       <c r="S29" s="13">
-        <v>0.1411543287327479</v>
+        <v>0.1568627450980393</v>
       </c>
       <c r="T29" s="13">
-        <v>1.27605763335377</v>
+        <v>1.27571189279732</v>
       </c>
       <c r="U29" s="13">
-        <v>0.9067645749888738</v>
+        <v>0.846478416098669</v>
       </c>
       <c r="W29" s="12" t="s">
         <v>58</v>
       </c>
       <c r="X29">
-        <v>1.049681327514929</v>
+        <v>1.084558361603216</v>
       </c>
       <c r="Y29">
-        <v>0.9609847394183704</v>
+        <v>0.9912777627911159</v>
       </c>
       <c r="Z29">
-        <v>1.36067781393783</v>
+        <v>1.340204498977505</v>
       </c>
       <c r="AA29">
-        <v>1.143811932287366</v>
+        <v>1.097029255619564</v>
       </c>
       <c r="AB29">
-        <v>1.0900389932648</v>
+        <v>1.130434782608696</v>
       </c>
       <c r="AC29">
-        <v>1.911794977356937</v>
+        <v>1.863309352517986</v>
       </c>
       <c r="AD29">
-        <v>0.5814316974054393</v>
+        <v>0.5381460213289582</v>
       </c>
       <c r="AE29">
-        <v>0.5795817086139664</v>
+        <v>0.5611421477343262</v>
       </c>
       <c r="AF29">
-        <v>0.9837705646954201</v>
+        <v>1.015555555555556</v>
       </c>
       <c r="AG29">
-        <v>1.019403824521935</v>
+        <v>0.9178447039541079</v>
       </c>
       <c r="AH29">
-        <v>1.077887824308322</v>
+        <v>1.047820965842167</v>
       </c>
       <c r="AI29">
-        <v>1.266323703996834</v>
+        <v>1.325252525252525</v>
       </c>
       <c r="AJ29">
-        <v>1.255154014067426</v>
+        <v>1.204665959703075</v>
       </c>
       <c r="AK29">
-        <v>0.4825140217749918</v>
+        <v>0.4360829715388326</v>
       </c>
       <c r="AL29">
-        <v>0.868622448979592</v>
+        <v>0.9622177509501455</v>
       </c>
       <c r="AM29">
-        <v>0.8718839884947268</v>
+        <v>0.8469601677148848</v>
       </c>
       <c r="AN29">
-        <v>1.516521453230314</v>
+        <v>1.278617710583154</v>
       </c>
       <c r="AO29">
-        <v>0.1411543287327479</v>
+        <v>0.1568627450980393</v>
       </c>
       <c r="AP29">
-        <v>1.27605763335377</v>
+        <v>1.27571189279732</v>
       </c>
       <c r="AQ29">
-        <v>0.9067645749888738</v>
+        <v>0.846478416098669</v>
       </c>
     </row>
     <row r="30" spans="1:43">
@@ -3271,127 +3391,127 @@
         <v>59</v>
       </c>
       <c r="B30" s="13">
-        <v>69.33145234871279</v>
+        <v>67.256220576651</v>
       </c>
       <c r="C30" s="13">
-        <v>89.44422438038754</v>
+        <v>82.50716833105008</v>
       </c>
       <c r="D30" s="13">
-        <v>64.70040136480925</v>
+        <v>59.27787488346382</v>
       </c>
       <c r="E30" s="13">
-        <v>46.08517861339124</v>
+        <v>44.31438855964997</v>
       </c>
       <c r="F30" s="13">
-        <v>48.32519598661386</v>
+        <v>45.00234515699855</v>
       </c>
       <c r="G30" s="13">
-        <v>64.52893146087824</v>
+        <v>59.64566485752589</v>
       </c>
       <c r="H30" s="13">
-        <v>39.05286718557058</v>
+        <v>36.77440720372233</v>
       </c>
       <c r="I30" s="13">
-        <v>35.3998423535125</v>
+        <v>32.14977820069541</v>
       </c>
       <c r="J30" s="13">
-        <v>35.26655262699751</v>
+        <v>32.64379874307831</v>
       </c>
       <c r="K30" s="13">
-        <v>53.01726707549476</v>
+        <v>51.59387592458827</v>
       </c>
       <c r="L30" s="13">
-        <v>51.48460566779288</v>
+        <v>47.46957899236028</v>
       </c>
       <c r="M30" s="13">
-        <v>23.4971720440556</v>
+        <v>23.78413417288738</v>
       </c>
       <c r="N30" s="13">
-        <v>47.96112072339643</v>
+        <v>44.48594737750422</v>
       </c>
       <c r="O30" s="13">
-        <v>30.42585156174696</v>
+        <v>28.04785850557883</v>
       </c>
       <c r="P30" s="13">
-        <v>15.73193756762305</v>
+        <v>16.85579729800523</v>
       </c>
       <c r="Q30" s="13">
-        <v>1.774014672081959</v>
+        <v>1.73739164034312</v>
       </c>
       <c r="R30" s="13">
-        <v>3.977556340094598</v>
+        <v>10.52762939795758</v>
       </c>
       <c r="S30" s="13">
-        <v>20.24265281377765</v>
+        <v>18.27761251754626</v>
       </c>
       <c r="T30" s="13">
-        <v>28.53831904074046</v>
+        <v>25.73267512751262</v>
       </c>
       <c r="U30" s="13">
-        <v>15.47831210335922</v>
+        <v>14.50102342351112</v>
       </c>
       <c r="W30" s="12" t="s">
         <v>59</v>
       </c>
       <c r="X30">
-        <v>0.00773449118612793</v>
+        <v>0.007460937499843112</v>
       </c>
       <c r="Y30">
-        <v>0.01131484912404473</v>
+        <v>0.0111621093750216</v>
       </c>
       <c r="Z30">
-        <v>0.01817720183827519</v>
+        <v>0.01678710937505912</v>
       </c>
       <c r="AA30">
-        <v>0.01338044024204656</v>
+        <v>0.01249023437502217</v>
       </c>
       <c r="AB30">
-        <v>0.05377422210464061</v>
+        <v>0.05031249999997556</v>
       </c>
       <c r="AC30">
-        <v>0.02588874201199752</v>
+        <v>0.02500000000001279</v>
       </c>
       <c r="AD30">
-        <v>0.02363954279465542</v>
+        <v>0.02152343750000796</v>
       </c>
       <c r="AE30">
-        <v>0.008491874596092755</v>
+        <v>0.007968749999953673</v>
       </c>
       <c r="AF30">
-        <v>0.0122099386084799</v>
+        <v>0.01125000000000398</v>
       </c>
       <c r="AG30">
-        <v>0.01404601960224952</v>
+        <v>0.01303710937499858</v>
       </c>
       <c r="AH30">
-        <v>0.03389864534727895</v>
+        <v>0.03089843750001364</v>
       </c>
       <c r="AI30">
-        <v>0.004062329198684093</v>
+        <v>0.003710937499988631</v>
       </c>
       <c r="AJ30">
-        <v>0.004200035273220484</v>
+        <v>0.004023437499995453</v>
       </c>
       <c r="AK30">
-        <v>0.03435766559568833</v>
+        <v>0.03308593749999389</v>
       </c>
       <c r="AL30">
-        <v>0.002983631614857284</v>
+        <v>0.003505859375003695</v>
       </c>
       <c r="AM30">
-        <v>0.002019689093135573</v>
+        <v>0.001875000000003624</v>
       </c>
       <c r="AN30">
-        <v>0.0005049222732848106</v>
+        <v>0.0005859375000021316</v>
       </c>
       <c r="AO30">
-        <v>0.000642628347817532</v>
+        <v>0.0005859375000021316</v>
       </c>
       <c r="AP30">
-        <v>0.0002983631614802246</v>
+        <v>0.0003808593749976552</v>
       </c>
       <c r="AQ30">
-        <v>0.0004131182235963296</v>
+        <v>0.0003808593749994316</v>
       </c>
     </row>
     <row r="31" spans="1:43">
@@ -3441,7 +3561,7 @@
         <v>20</v>
       </c>
       <c r="P31" s="13">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q31" s="13">
         <v>12</v>
@@ -3575,7 +3695,7 @@
         <v>3</v>
       </c>
       <c r="R32" s="13">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="S32" s="13">
         <v>-14</v>
@@ -3632,7 +3752,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="AL32">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="AM32">
         <v>7.8</v>
@@ -3697,13 +3817,13 @@
         <v>34</v>
       </c>
       <c r="P33" s="13">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Q33" s="13">
         <v>9</v>
       </c>
       <c r="R33" s="13">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="S33" s="13">
         <v>25</v>
@@ -3760,7 +3880,7 @@
         <v>1.1</v>
       </c>
       <c r="AL33">
-        <v>0.4000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="AM33">
         <v>0.2999999999999998</v>
@@ -4815,6 +4935,36 @@
       <c r="A16" s="12" t="s">
         <v>14</v>
       </c>
+      <c r="B16" s="13">
+        <v>75</v>
+      </c>
+      <c r="C16" s="13">
+        <v>35</v>
+      </c>
+      <c r="D16" s="13">
+        <v>34</v>
+      </c>
+      <c r="E16" s="13">
+        <v>-2</v>
+      </c>
+      <c r="F16" s="13">
+        <v>12</v>
+      </c>
+      <c r="G16" s="13">
+        <v>37</v>
+      </c>
+      <c r="H16" s="13">
+        <v>-1</v>
+      </c>
+      <c r="I16" s="13">
+        <v>20</v>
+      </c>
+      <c r="J16" s="13">
+        <v>0</v>
+      </c>
+      <c r="K16" s="13">
+        <v>3</v>
+      </c>
       <c r="M16" s="12" t="s">
         <v>14</v>
       </c>
@@ -4856,6 +5006,36 @@
       <c r="M17" s="12" t="s">
         <v>15</v>
       </c>
+      <c r="N17" s="13">
+        <v>37.2</v>
+      </c>
+      <c r="O17" s="13">
+        <v>26.3</v>
+      </c>
+      <c r="P17" s="13">
+        <v>18.8</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>16.4</v>
+      </c>
+      <c r="R17" s="13">
+        <v>15.2</v>
+      </c>
+      <c r="S17" s="13">
+        <v>18.8</v>
+      </c>
+      <c r="T17" s="13">
+        <v>12.6</v>
+      </c>
+      <c r="U17" s="13">
+        <v>9.1</v>
+      </c>
+      <c r="V17" s="13">
+        <v>6.1</v>
+      </c>
+      <c r="W17" s="13">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="12" t="s">
@@ -4918,67 +5098,67 @@
         <v>55</v>
       </c>
       <c r="B26" s="13">
-        <v>743.5</v>
+        <v>818.5</v>
       </c>
       <c r="C26" s="13">
-        <v>717.5</v>
+        <v>752.5</v>
       </c>
       <c r="D26" s="13">
-        <v>535</v>
+        <v>569</v>
       </c>
       <c r="E26" s="13">
-        <v>235.5</v>
+        <v>233.5</v>
       </c>
       <c r="F26" s="13">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="G26" s="13">
-        <v>486.5</v>
+        <v>523.5</v>
       </c>
       <c r="H26" s="13">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I26" s="13">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="J26" s="13">
         <v>131</v>
       </c>
       <c r="K26" s="13">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M26" s="12" t="s">
         <v>55</v>
       </c>
       <c r="N26" s="13">
-        <v>560.7</v>
+        <v>597.9000000000001</v>
       </c>
       <c r="O26" s="13">
-        <v>394.8000000000001</v>
+        <v>421.1000000000001</v>
       </c>
       <c r="P26" s="13">
-        <v>280.4</v>
+        <v>299.2</v>
       </c>
       <c r="Q26" s="13">
-        <v>248.7</v>
+        <v>265.1</v>
       </c>
       <c r="R26" s="13">
-        <v>227.4999999999999</v>
+        <v>242.6999999999999</v>
       </c>
       <c r="S26" s="13">
-        <v>282.8</v>
+        <v>301.6</v>
       </c>
       <c r="T26" s="13">
-        <v>191.3999999999999</v>
+        <v>203.9999999999999</v>
       </c>
       <c r="U26" s="13">
-        <v>136.2</v>
+        <v>145.3</v>
       </c>
       <c r="V26" s="13">
-        <v>91.49999999999999</v>
+        <v>97.59999999999998</v>
       </c>
       <c r="W26" s="13">
-        <v>94.49999999999997</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -4986,67 +5166,67 @@
         <v>56</v>
       </c>
       <c r="B27" s="13">
-        <v>1.326021045122169</v>
+        <v>1.368958019735742</v>
       </c>
       <c r="C27" s="13">
-        <v>1.817375886524822</v>
+        <v>1.786986464022797</v>
       </c>
       <c r="D27" s="13">
-        <v>1.907988587731812</v>
+        <v>1.901737967914439</v>
       </c>
       <c r="E27" s="13">
-        <v>0.9469240048250903</v>
+        <v>0.880799698227084</v>
       </c>
       <c r="F27" s="13">
-        <v>1.336263736263737</v>
+        <v>1.302018953440462</v>
       </c>
       <c r="G27" s="13">
-        <v>1.72029702970297</v>
+        <v>1.735742705570292</v>
       </c>
       <c r="H27" s="13">
-        <v>1.363636363636364</v>
+        <v>1.274509803921569</v>
       </c>
       <c r="I27" s="13">
-        <v>1.160058737151248</v>
+        <v>1.225051617343427</v>
       </c>
       <c r="J27" s="13">
-        <v>1.431693989071039</v>
+        <v>1.342213114754099</v>
       </c>
       <c r="K27" s="13">
-        <v>1.777777777777778</v>
+        <v>1.696428571428572</v>
       </c>
       <c r="M27" s="12" t="s">
         <v>56</v>
       </c>
       <c r="N27" s="13">
-        <v>1.326021045122169</v>
+        <v>1.368958019735742</v>
       </c>
       <c r="O27" s="13">
-        <v>1.817375886524822</v>
+        <v>1.786986464022797</v>
       </c>
       <c r="P27" s="13">
-        <v>1.907988587731812</v>
+        <v>1.901737967914439</v>
       </c>
       <c r="Q27" s="13">
-        <v>0.9469240048250903</v>
+        <v>0.880799698227084</v>
       </c>
       <c r="R27" s="13">
-        <v>1.336263736263737</v>
+        <v>1.302018953440462</v>
       </c>
       <c r="S27" s="13">
-        <v>1.72029702970297</v>
+        <v>1.735742705570292</v>
       </c>
       <c r="T27" s="13">
-        <v>1.363636363636364</v>
+        <v>1.274509803921569</v>
       </c>
       <c r="U27" s="13">
-        <v>1.160058737151248</v>
+        <v>1.225051617343427</v>
       </c>
       <c r="V27" s="13">
-        <v>1.431693989071039</v>
+        <v>1.342213114754099</v>
       </c>
       <c r="W27" s="13">
-        <v>1.777777777777778</v>
+        <v>1.696428571428572</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -5054,61 +5234,61 @@
         <v>57</v>
       </c>
       <c r="B28" s="13">
-        <v>53.10714285714285</v>
+        <v>54.56666666666667</v>
       </c>
       <c r="C28" s="13">
-        <v>51.25</v>
+        <v>50.16666666666666</v>
       </c>
       <c r="D28" s="13">
-        <v>38.21428571428572</v>
+        <v>37.93333333333333</v>
       </c>
       <c r="E28" s="13">
-        <v>16.82142857142857</v>
+        <v>15.56666666666667</v>
       </c>
       <c r="F28" s="13">
-        <v>21.71428571428572</v>
+        <v>21.06666666666667</v>
       </c>
       <c r="G28" s="13">
-        <v>34.75</v>
+        <v>34.9</v>
       </c>
       <c r="H28" s="13">
-        <v>18.64285714285714</v>
+        <v>17.33333333333333</v>
       </c>
       <c r="I28" s="13">
-        <v>11.28571428571429</v>
+        <v>11.86666666666667</v>
       </c>
       <c r="J28" s="13">
-        <v>9.357142857142858</v>
+        <v>8.733333333333333</v>
       </c>
       <c r="K28" s="13">
-        <v>12</v>
+        <v>11.4</v>
       </c>
       <c r="M28" s="12" t="s">
         <v>57</v>
       </c>
       <c r="N28" s="13">
-        <v>37.38</v>
+        <v>37.36875000000001</v>
       </c>
       <c r="O28" s="13">
-        <v>26.32</v>
+        <v>26.31875</v>
       </c>
       <c r="P28" s="13">
-        <v>18.69333333333333</v>
+        <v>18.7</v>
       </c>
       <c r="Q28" s="13">
-        <v>16.58</v>
+        <v>16.56875</v>
       </c>
       <c r="R28" s="13">
-        <v>15.16666666666666</v>
+        <v>15.16875</v>
       </c>
       <c r="S28" s="13">
-        <v>18.85333333333334</v>
+        <v>18.85</v>
       </c>
       <c r="T28" s="13">
-        <v>12.75999999999999</v>
+        <v>12.74999999999999</v>
       </c>
       <c r="U28" s="13">
-        <v>9.080000000000002</v>
+        <v>9.081250000000001</v>
       </c>
       <c r="V28" s="13">
         <v>6.099999999999999</v>
@@ -5122,67 +5302,67 @@
         <v>58</v>
       </c>
       <c r="B29" s="13">
-        <v>1.420736834059466</v>
+        <v>1.460221887718124</v>
       </c>
       <c r="C29" s="13">
-        <v>1.947188449848024</v>
+        <v>1.90611889495765</v>
       </c>
       <c r="D29" s="13">
-        <v>2.044273486855513</v>
+        <v>2.028520499108734</v>
       </c>
       <c r="E29" s="13">
-        <v>1.014561433741168</v>
+        <v>0.9395196781088896</v>
       </c>
       <c r="F29" s="13">
-        <v>1.431711145996861</v>
+        <v>1.388820217003159</v>
       </c>
       <c r="G29" s="13">
-        <v>1.843175388967468</v>
+        <v>1.851458885941644</v>
       </c>
       <c r="H29" s="13">
-        <v>1.461038961038962</v>
+        <v>1.359477124183007</v>
       </c>
       <c r="I29" s="13">
-        <v>1.242920075519194</v>
+        <v>1.306721725166323</v>
       </c>
       <c r="J29" s="13">
-        <v>1.533957845433256</v>
+        <v>1.431693989071039</v>
       </c>
       <c r="K29" s="13">
-        <v>1.904761904761905</v>
+        <v>1.80952380952381</v>
       </c>
       <c r="M29" s="12" t="s">
         <v>58</v>
       </c>
       <c r="N29" s="13">
-        <v>1.420736834059466</v>
+        <v>1.460221887718124</v>
       </c>
       <c r="O29" s="13">
-        <v>1.947188449848024</v>
+        <v>1.90611889495765</v>
       </c>
       <c r="P29" s="13">
-        <v>2.044273486855513</v>
+        <v>2.028520499108734</v>
       </c>
       <c r="Q29" s="13">
-        <v>1.014561433741168</v>
+        <v>0.9395196781088896</v>
       </c>
       <c r="R29" s="13">
-        <v>1.431711145996861</v>
+        <v>1.388820217003159</v>
       </c>
       <c r="S29" s="13">
-        <v>1.843175388967468</v>
+        <v>1.851458885941644</v>
       </c>
       <c r="T29" s="13">
-        <v>1.461038961038962</v>
+        <v>1.359477124183007</v>
       </c>
       <c r="U29" s="13">
-        <v>1.242920075519194</v>
+        <v>1.306721725166323</v>
       </c>
       <c r="V29" s="13">
-        <v>1.533957845433256</v>
+        <v>1.431693989071039</v>
       </c>
       <c r="W29" s="13">
-        <v>1.904761904761905</v>
+        <v>1.80952380952381</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -5190,67 +5370,67 @@
         <v>59</v>
       </c>
       <c r="B30" s="13">
-        <v>113.9886241478551</v>
+        <v>110.482157372189</v>
       </c>
       <c r="C30" s="13">
-        <v>67.83424396289722</v>
+        <v>65.40751652606149</v>
       </c>
       <c r="D30" s="13">
-        <v>97.13718923528252</v>
+        <v>87.87254125999615</v>
       </c>
       <c r="E30" s="13">
-        <v>31.49489652939665</v>
+        <v>34.08971252566242</v>
       </c>
       <c r="F30" s="13">
-        <v>64.54086276632076</v>
+        <v>59.71164901823905</v>
       </c>
       <c r="G30" s="13">
-        <v>91.42959360602266</v>
+        <v>82.52208648912432</v>
       </c>
       <c r="H30" s="13">
-        <v>32.89631357723082</v>
+        <v>35.86095690932794</v>
       </c>
       <c r="I30" s="13">
-        <v>8.72144338404013</v>
+        <v>9.084010716615674</v>
       </c>
       <c r="J30" s="13">
-        <v>7.086513643973819</v>
+        <v>7.796458919743172</v>
       </c>
       <c r="K30" s="13">
-        <v>25.42799815909638</v>
+        <v>24.2293838138736</v>
       </c>
       <c r="M30" s="12" t="s">
         <v>59</v>
       </c>
       <c r="N30" s="13">
-        <v>0.02141329458964554</v>
+        <v>0.01991210937489996</v>
       </c>
       <c r="O30" s="13">
-        <v>0.01969196865797002</v>
+        <v>0.01788085937491246</v>
       </c>
       <c r="P30" s="13">
-        <v>0.002914778577603766</v>
+        <v>0.002812499999990337</v>
       </c>
       <c r="Q30" s="13">
-        <v>0.02485594645298193</v>
+        <v>0.02303710937499659</v>
       </c>
       <c r="R30" s="13">
-        <v>0.002295101242248716</v>
+        <v>0.002099609375051159</v>
       </c>
       <c r="S30" s="13">
-        <v>0.03334782104913339</v>
+        <v>0.03031250000002217</v>
       </c>
       <c r="T30" s="13">
-        <v>0.01025910255266756</v>
+        <v>0.009687500000048033</v>
       </c>
       <c r="U30" s="13">
-        <v>0.004544300459535776</v>
+        <v>0.004130859374992468</v>
       </c>
       <c r="V30" s="13">
-        <v>1.834613454911683e-15</v>
+        <v>1.77635683940025e-15</v>
       </c>
       <c r="W30" s="13">
-        <v>9.173067274558417e-15</v>
+        <v>8.881784197001252e-15</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -5335,7 +5515,7 @@
         <v>11</v>
       </c>
       <c r="E32" s="13">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F32" s="13">
         <v>-1</v>
@@ -5344,7 +5524,7 @@
         <v>-2</v>
       </c>
       <c r="H32" s="13">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I32" s="13">
         <v>2</v>
@@ -5403,7 +5583,7 @@
         <v>76</v>
       </c>
       <c r="E33" s="13">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F33" s="13">
         <v>71</v>
@@ -5412,7 +5592,7 @@
         <v>74</v>
       </c>
       <c r="H33" s="13">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I33" s="13">
         <v>21</v>

--- a/2021/Fantasy F1 2021.xlsx
+++ b/2021/Fantasy F1 2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="62">
   <si>
     <t>Bahrain</t>
   </si>
@@ -62,10 +62,7 @@
     <t>Russia</t>
   </si>
   <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Japan</t>
+    <t>Turkey</t>
   </si>
   <si>
     <t>United States</t>
@@ -696,7 +693,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ33"/>
+  <dimension ref="A1:AQ32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -704,130 +701,130 @@
   <sheetData>
     <row r="1" spans="1:43">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="X1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="Z1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="AB1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="AD1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="AF1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="AH1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="AI1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="AK1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="AL1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="AM1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="AN1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="AO1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="AP1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="AQ1" s="11" t="s">
         <v>43</v>
-      </c>
-      <c r="U1" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI1" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ1" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK1" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL1" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO1" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="AP1" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="AQ1" s="11" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:43">
@@ -2754,6 +2751,66 @@
       <c r="A17" s="12" t="s">
         <v>15</v>
       </c>
+      <c r="B17" s="13">
+        <v>36</v>
+      </c>
+      <c r="C17" s="13">
+        <v>46</v>
+      </c>
+      <c r="D17" s="13">
+        <v>41</v>
+      </c>
+      <c r="E17" s="13">
+        <v>29</v>
+      </c>
+      <c r="F17" s="13">
+        <v>12</v>
+      </c>
+      <c r="G17" s="13">
+        <v>18</v>
+      </c>
+      <c r="H17" s="13">
+        <v>-7</v>
+      </c>
+      <c r="I17" s="13">
+        <v>11</v>
+      </c>
+      <c r="J17" s="13">
+        <v>1</v>
+      </c>
+      <c r="K17" s="13">
+        <v>11</v>
+      </c>
+      <c r="L17" s="13">
+        <v>26</v>
+      </c>
+      <c r="M17" s="13">
+        <v>17</v>
+      </c>
+      <c r="N17" s="13">
+        <v>19</v>
+      </c>
+      <c r="O17" s="13">
+        <v>-5</v>
+      </c>
+      <c r="P17" s="13">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>17</v>
+      </c>
+      <c r="R17" s="13">
+        <v>3</v>
+      </c>
+      <c r="S17" s="13">
+        <v>0</v>
+      </c>
+      <c r="T17" s="13">
+        <v>6</v>
+      </c>
+      <c r="U17" s="13">
+        <v>0</v>
+      </c>
       <c r="W17" s="12" t="s">
         <v>15</v>
       </c>
@@ -2822,8 +2879,128 @@
       <c r="A18" s="12" t="s">
         <v>16</v>
       </c>
+      <c r="B18" s="13">
+        <v>41</v>
+      </c>
+      <c r="C18" s="13">
+        <v>35</v>
+      </c>
+      <c r="D18" s="13">
+        <v>44</v>
+      </c>
+      <c r="E18" s="13">
+        <v>37</v>
+      </c>
+      <c r="F18" s="13">
+        <v>25</v>
+      </c>
+      <c r="G18" s="13">
+        <v>19</v>
+      </c>
+      <c r="H18" s="13">
+        <v>19</v>
+      </c>
+      <c r="I18" s="13">
+        <v>4</v>
+      </c>
+      <c r="J18" s="13">
+        <v>-13</v>
+      </c>
+      <c r="K18" s="13">
+        <v>-11</v>
+      </c>
+      <c r="L18" s="13">
+        <v>27</v>
+      </c>
+      <c r="M18" s="13">
+        <v>21</v>
+      </c>
+      <c r="N18" s="13">
+        <v>-8</v>
+      </c>
+      <c r="O18" s="13">
+        <v>12</v>
+      </c>
+      <c r="P18" s="13">
+        <v>6</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>10</v>
+      </c>
+      <c r="R18" s="13">
+        <v>7</v>
+      </c>
+      <c r="S18" s="13">
+        <v>2</v>
+      </c>
+      <c r="T18" s="13">
+        <v>18</v>
+      </c>
+      <c r="U18" s="13">
+        <v>1</v>
+      </c>
       <c r="W18" s="12" t="s">
         <v>16</v>
+      </c>
+      <c r="X18" s="13">
+        <v>33.1</v>
+      </c>
+      <c r="Y18" s="13">
+        <v>23.3</v>
+      </c>
+      <c r="Z18" s="13">
+        <v>25.6</v>
+      </c>
+      <c r="AA18" s="13">
+        <v>18.2</v>
+      </c>
+      <c r="AB18" s="13">
+        <v>15.8</v>
+      </c>
+      <c r="AC18" s="13">
+        <v>14.2</v>
+      </c>
+      <c r="AD18" s="13">
+        <v>15.2</v>
+      </c>
+      <c r="AE18" s="13">
+        <v>13.3</v>
+      </c>
+      <c r="AF18" s="13">
+        <v>15.1</v>
+      </c>
+      <c r="AG18" s="13">
+        <v>10.2</v>
+      </c>
+      <c r="AH18" s="13">
+        <v>17.7</v>
+      </c>
+      <c r="AI18" s="13">
+        <v>14.5</v>
+      </c>
+      <c r="AJ18" s="13">
+        <v>12</v>
+      </c>
+      <c r="AK18" s="13">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AL18" s="13">
+        <v>9.1</v>
+      </c>
+      <c r="AM18" s="13">
+        <v>8</v>
+      </c>
+      <c r="AN18" s="13">
+        <v>5.7</v>
+      </c>
+      <c r="AO18" s="13">
+        <v>5.3</v>
+      </c>
+      <c r="AP18" s="13">
+        <v>6.3</v>
+      </c>
+      <c r="AQ18" s="13">
+        <v>6.4</v>
       </c>
     </row>
     <row r="19" spans="1:43">
@@ -2833,6 +3010,66 @@
       <c r="W19" s="12" t="s">
         <v>17</v>
       </c>
+      <c r="X19" s="13">
+        <v>33</v>
+      </c>
+      <c r="Y19" s="13">
+        <v>23.2</v>
+      </c>
+      <c r="Z19" s="13">
+        <v>25.7</v>
+      </c>
+      <c r="AA19" s="13">
+        <v>18.4</v>
+      </c>
+      <c r="AB19" s="13">
+        <v>15.8</v>
+      </c>
+      <c r="AC19" s="13">
+        <v>14.2</v>
+      </c>
+      <c r="AD19" s="13">
+        <v>15.1</v>
+      </c>
+      <c r="AE19" s="13">
+        <v>13.3</v>
+      </c>
+      <c r="AF19" s="13">
+        <v>15.1</v>
+      </c>
+      <c r="AG19" s="13">
+        <v>10.2</v>
+      </c>
+      <c r="AH19" s="13">
+        <v>17.6</v>
+      </c>
+      <c r="AI19" s="13">
+        <v>14.7</v>
+      </c>
+      <c r="AJ19" s="13">
+        <v>11.9</v>
+      </c>
+      <c r="AK19" s="13">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AL19" s="13">
+        <v>9.1</v>
+      </c>
+      <c r="AM19" s="13">
+        <v>8</v>
+      </c>
+      <c r="AN19" s="13">
+        <v>5.7</v>
+      </c>
+      <c r="AO19" s="13">
+        <v>5.3</v>
+      </c>
+      <c r="AP19" s="13">
+        <v>6.3</v>
+      </c>
+      <c r="AQ19" s="13">
+        <v>6.4</v>
+      </c>
     </row>
     <row r="20" spans="1:43">
       <c r="A20" s="12" t="s">
@@ -2866,12 +3103,132 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:43">
-      <c r="A24" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="W24" s="12" t="s">
-        <v>22</v>
+    <row r="25" spans="1:43">
+      <c r="A25" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="13">
+        <v>616.5</v>
+      </c>
+      <c r="C25" s="13">
+        <v>425.5</v>
+      </c>
+      <c r="D25" s="13">
+        <v>597</v>
+      </c>
+      <c r="E25" s="13">
+        <v>369.5</v>
+      </c>
+      <c r="F25" s="13">
+        <v>310</v>
+      </c>
+      <c r="G25" s="13">
+        <v>425.5</v>
+      </c>
+      <c r="H25" s="13">
+        <v>135</v>
+      </c>
+      <c r="I25" s="13">
+        <v>128</v>
+      </c>
+      <c r="J25" s="13">
+        <v>216.5</v>
+      </c>
+      <c r="K25" s="13">
+        <v>140</v>
+      </c>
+      <c r="L25" s="13">
+        <v>331</v>
+      </c>
+      <c r="M25" s="13">
+        <v>325</v>
+      </c>
+      <c r="N25" s="13">
+        <v>224</v>
+      </c>
+      <c r="O25" s="13">
+        <v>63.5</v>
+      </c>
+      <c r="P25" s="13">
+        <v>152.5</v>
+      </c>
+      <c r="Q25" s="13">
+        <v>128</v>
+      </c>
+      <c r="R25" s="13">
+        <v>121</v>
+      </c>
+      <c r="S25" s="13">
+        <v>14.5</v>
+      </c>
+      <c r="T25" s="13">
+        <v>143</v>
+      </c>
+      <c r="U25" s="13">
+        <v>82.5</v>
+      </c>
+      <c r="W25" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="X25">
+        <v>596.7000000000002</v>
+      </c>
+      <c r="Y25">
+        <v>417.2</v>
+      </c>
+      <c r="Z25">
+        <v>458.8</v>
+      </c>
+      <c r="AA25">
+        <v>331.6999999999999</v>
+      </c>
+      <c r="AB25">
+        <v>289.2</v>
+      </c>
+      <c r="AC25">
+        <v>250.7999999999999</v>
+      </c>
+      <c r="AD25">
+        <v>274.1</v>
+      </c>
+      <c r="AE25">
+        <v>241.4000000000001</v>
+      </c>
+      <c r="AF25">
+        <v>270.2</v>
+      </c>
+      <c r="AG25">
+        <v>183.1</v>
+      </c>
+      <c r="AH25">
+        <v>318.3</v>
+      </c>
+      <c r="AI25">
+        <v>260.2</v>
+      </c>
+      <c r="AJ25">
+        <v>212.5000000000001</v>
+      </c>
+      <c r="AK25">
+        <v>154.6</v>
+      </c>
+      <c r="AL25">
+        <v>167.3</v>
+      </c>
+      <c r="AM25">
+        <v>143.2</v>
+      </c>
+      <c r="AN25">
+        <v>104</v>
+      </c>
+      <c r="AO25">
+        <v>95.59999999999997</v>
+      </c>
+      <c r="AP25">
+        <v>112.1</v>
+      </c>
+      <c r="AQ25">
+        <v>115.5</v>
       </c>
     </row>
     <row r="26" spans="1:43">
@@ -2879,127 +3236,127 @@
         <v>55</v>
       </c>
       <c r="B26" s="13">
-        <v>539.5</v>
+        <v>1.033182503770739</v>
       </c>
       <c r="C26" s="13">
-        <v>344.5</v>
+        <v>1.019894534995206</v>
       </c>
       <c r="D26" s="13">
-        <v>512</v>
+        <v>1.301220575414124</v>
       </c>
       <c r="E26" s="13">
-        <v>303.5</v>
+        <v>1.113958396141091</v>
       </c>
       <c r="F26" s="13">
-        <v>273</v>
+        <v>1.07192254495159</v>
       </c>
       <c r="G26" s="13">
-        <v>388.5</v>
+        <v>1.696570972886763</v>
       </c>
       <c r="H26" s="13">
-        <v>123</v>
+        <v>0.4925209777453484</v>
       </c>
       <c r="I26" s="13">
-        <v>113</v>
+        <v>0.5302402651201323</v>
       </c>
       <c r="J26" s="13">
-        <v>228.5</v>
+        <v>0.801258327165063</v>
       </c>
       <c r="K26" s="13">
-        <v>140</v>
+        <v>0.7646095030038232</v>
       </c>
       <c r="L26" s="13">
-        <v>278</v>
+        <v>1.039899465912661</v>
       </c>
       <c r="M26" s="13">
-        <v>287</v>
+        <v>1.249039200614911</v>
       </c>
       <c r="N26" s="13">
-        <v>213</v>
+        <v>1.054117647058823</v>
       </c>
       <c r="O26" s="13">
-        <v>56.5</v>
+        <v>0.4107373868046572</v>
       </c>
       <c r="P26" s="13">
-        <v>134.5</v>
+        <v>0.9115361625821879</v>
       </c>
       <c r="Q26" s="13">
-        <v>101</v>
+        <v>0.893854748603352</v>
       </c>
       <c r="R26" s="13">
-        <v>111</v>
+        <v>1.163461538461539</v>
       </c>
       <c r="S26" s="13">
-        <v>12.5</v>
+        <v>0.1516736401673641</v>
       </c>
       <c r="T26" s="13">
-        <v>119</v>
+        <v>1.27564674397859</v>
       </c>
       <c r="U26" s="13">
-        <v>81.5</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="W26" s="12" t="s">
         <v>55</v>
       </c>
       <c r="X26">
-        <v>530.6000000000001</v>
+        <v>1.033182503770739</v>
       </c>
       <c r="Y26">
-        <v>370.7</v>
+        <v>1.019894534995206</v>
       </c>
       <c r="Z26">
-        <v>407.4999999999999</v>
+        <v>1.301220575414124</v>
       </c>
       <c r="AA26">
-        <v>295.1</v>
+        <v>1.113958396141091</v>
       </c>
       <c r="AB26">
-        <v>257.6</v>
+        <v>1.07192254495159</v>
       </c>
       <c r="AC26">
-        <v>222.3999999999999</v>
+        <v>1.696570972886763</v>
       </c>
       <c r="AD26">
-        <v>243.8</v>
+        <v>0.4925209777453484</v>
       </c>
       <c r="AE26">
-        <v>214.8000000000001</v>
+        <v>0.5302402651201323</v>
       </c>
       <c r="AF26">
-        <v>240</v>
+        <v>0.801258327165063</v>
       </c>
       <c r="AG26">
-        <v>162.7</v>
+        <v>0.7646095030038232</v>
       </c>
       <c r="AH26">
-        <v>283</v>
+        <v>1.039899465912661</v>
       </c>
       <c r="AI26">
-        <v>231</v>
+        <v>1.249039200614911</v>
       </c>
       <c r="AJ26">
-        <v>188.6000000000001</v>
+        <v>1.054117647058823</v>
       </c>
       <c r="AK26">
-        <v>138.2</v>
+        <v>0.4107373868046572</v>
       </c>
       <c r="AL26">
-        <v>149.1</v>
+        <v>0.9115361625821879</v>
       </c>
       <c r="AM26">
-        <v>127.2</v>
+        <v>0.893854748603352</v>
       </c>
       <c r="AN26">
-        <v>92.59999999999998</v>
+        <v>1.163461538461539</v>
       </c>
       <c r="AO26">
-        <v>84.99999999999997</v>
+        <v>0.1516736401673641</v>
       </c>
       <c r="AP26">
-        <v>99.50000000000003</v>
+        <v>1.27564674397859</v>
       </c>
       <c r="AQ26">
-        <v>102.7</v>
+        <v>0.714285714285714</v>
       </c>
     </row>
     <row r="27" spans="1:43">
@@ -3007,127 +3364,127 @@
         <v>56</v>
       </c>
       <c r="B27" s="13">
-        <v>1.016773464003015</v>
+        <v>36.26470588235294</v>
       </c>
       <c r="C27" s="13">
-        <v>0.9293229026166712</v>
+        <v>25.02941176470588</v>
       </c>
       <c r="D27" s="13">
-        <v>1.256441717791411</v>
+        <v>35.11764705882353</v>
       </c>
       <c r="E27" s="13">
-        <v>1.028464927143341</v>
+        <v>21.73529411764706</v>
       </c>
       <c r="F27" s="13">
-        <v>1.059782608695652</v>
+        <v>18.23529411764706</v>
       </c>
       <c r="G27" s="13">
-        <v>1.746852517985612</v>
+        <v>25.02941176470588</v>
       </c>
       <c r="H27" s="13">
-        <v>0.5045118949958983</v>
+        <v>7.941176470588236</v>
       </c>
       <c r="I27" s="13">
-        <v>0.5260707635009308</v>
+        <v>7.529411764705882</v>
       </c>
       <c r="J27" s="13">
-        <v>0.9520833333333333</v>
+        <v>12.73529411764706</v>
       </c>
       <c r="K27" s="13">
-        <v>0.8604794099569761</v>
+        <v>8.235294117647058</v>
       </c>
       <c r="L27" s="13">
-        <v>0.9823321554770318</v>
+        <v>19.47058823529412</v>
       </c>
       <c r="M27" s="13">
-        <v>1.242424242424242</v>
+        <v>19.11764705882353</v>
       </c>
       <c r="N27" s="13">
-        <v>1.129374337221633</v>
+        <v>13.17647058823529</v>
       </c>
       <c r="O27" s="13">
-        <v>0.4088277858176555</v>
+        <v>3.735294117647059</v>
       </c>
       <c r="P27" s="13">
-        <v>0.9020791415157614</v>
+        <v>8.970588235294118</v>
       </c>
       <c r="Q27" s="13">
-        <v>0.7940251572327045</v>
+        <v>7.529411764705882</v>
       </c>
       <c r="R27" s="13">
-        <v>1.198704103671707</v>
+        <v>7.117647058823529</v>
       </c>
       <c r="S27" s="13">
-        <v>0.1470588235294118</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="T27" s="13">
-        <v>1.195979899497487</v>
+        <v>8.411764705882353</v>
       </c>
       <c r="U27" s="13">
-        <v>0.7935735150925022</v>
+        <v>4.852941176470588</v>
       </c>
       <c r="W27" s="12" t="s">
         <v>56</v>
       </c>
       <c r="X27">
-        <v>1.016773464003015</v>
+        <v>33.15000000000001</v>
       </c>
       <c r="Y27">
-        <v>0.9293229026166712</v>
+        <v>23.17777777777778</v>
       </c>
       <c r="Z27">
-        <v>1.256441717791411</v>
+        <v>25.48888888888889</v>
       </c>
       <c r="AA27">
-        <v>1.028464927143341</v>
+        <v>18.42777777777777</v>
       </c>
       <c r="AB27">
-        <v>1.059782608695652</v>
+        <v>16.06666666666667</v>
       </c>
       <c r="AC27">
-        <v>1.746852517985612</v>
+        <v>13.93333333333333</v>
       </c>
       <c r="AD27">
-        <v>0.5045118949958983</v>
+        <v>15.22777777777778</v>
       </c>
       <c r="AE27">
-        <v>0.5260707635009308</v>
+        <v>13.41111111111112</v>
       </c>
       <c r="AF27">
-        <v>0.9520833333333333</v>
+        <v>15.01111111111111</v>
       </c>
       <c r="AG27">
-        <v>0.8604794099569761</v>
+        <v>10.17222222222222</v>
       </c>
       <c r="AH27">
-        <v>0.9823321554770318</v>
+        <v>17.68333333333333</v>
       </c>
       <c r="AI27">
-        <v>1.242424242424242</v>
+        <v>14.45555555555556</v>
       </c>
       <c r="AJ27">
-        <v>1.129374337221633</v>
+        <v>11.80555555555556</v>
       </c>
       <c r="AK27">
-        <v>0.4088277858176555</v>
+        <v>8.588888888888889</v>
       </c>
       <c r="AL27">
-        <v>0.9020791415157614</v>
+        <v>9.294444444444443</v>
       </c>
       <c r="AM27">
-        <v>0.7940251572327045</v>
+        <v>7.955555555555555</v>
       </c>
       <c r="AN27">
-        <v>1.198704103671707</v>
+        <v>5.777777777777777</v>
       </c>
       <c r="AO27">
-        <v>0.1470588235294118</v>
+        <v>5.311111111111109</v>
       </c>
       <c r="AP27">
-        <v>1.195979899497487</v>
+        <v>6.227777777777779</v>
       </c>
       <c r="AQ27">
-        <v>0.7935735150925022</v>
+        <v>6.416666666666669</v>
       </c>
     </row>
     <row r="28" spans="1:43">
@@ -3135,127 +3492,127 @@
         <v>57</v>
       </c>
       <c r="B28" s="13">
-        <v>35.96666666666667</v>
+        <v>1.093957945169018</v>
       </c>
       <c r="C28" s="13">
-        <v>22.96666666666667</v>
+        <v>1.079888331171395</v>
       </c>
       <c r="D28" s="13">
-        <v>34.13333333333333</v>
+        <v>1.37776296220319</v>
       </c>
       <c r="E28" s="13">
-        <v>20.23333333333333</v>
+        <v>1.179485360619979</v>
       </c>
       <c r="F28" s="13">
-        <v>18.2</v>
+        <v>1.134976812301684</v>
       </c>
       <c r="G28" s="13">
-        <v>25.9</v>
+        <v>1.796369265409514</v>
       </c>
       <c r="H28" s="13">
-        <v>8.199999999999999</v>
+        <v>0.521492799965663</v>
       </c>
       <c r="I28" s="13">
-        <v>7.533333333333333</v>
+        <v>0.5614308689507282</v>
       </c>
       <c r="J28" s="13">
-        <v>15.23333333333333</v>
+        <v>0.8483911699394783</v>
       </c>
       <c r="K28" s="13">
-        <v>9.333333333333334</v>
+        <v>0.8095865325922833</v>
       </c>
       <c r="L28" s="13">
-        <v>18.53333333333333</v>
+        <v>1.101070022731053</v>
       </c>
       <c r="M28" s="13">
-        <v>19.13333333333333</v>
+        <v>1.32251209476873</v>
       </c>
       <c r="N28" s="13">
-        <v>14.2</v>
+        <v>1.116124567474048</v>
       </c>
       <c r="O28" s="13">
-        <v>3.766666666666667</v>
+        <v>0.4348984095578723</v>
       </c>
       <c r="P28" s="13">
-        <v>8.966666666666667</v>
+        <v>0.9651559368517284</v>
       </c>
       <c r="Q28" s="13">
-        <v>6.733333333333333</v>
+        <v>0.9464344396976668</v>
       </c>
       <c r="R28" s="13">
-        <v>7.4</v>
+        <v>1.231900452488688</v>
       </c>
       <c r="S28" s="13">
-        <v>0.8333333333333334</v>
+        <v>0.1605956190007384</v>
       </c>
       <c r="T28" s="13">
-        <v>7.933333333333334</v>
+        <v>1.350684787742037</v>
       </c>
       <c r="U28" s="13">
-        <v>5.433333333333334</v>
+        <v>0.756302521008403</v>
       </c>
       <c r="W28" s="12" t="s">
         <v>57</v>
       </c>
       <c r="X28">
-        <v>33.16250000000001</v>
+        <v>1.093957945169018</v>
       </c>
       <c r="Y28">
-        <v>23.16875</v>
+        <v>1.079888331171395</v>
       </c>
       <c r="Z28">
-        <v>25.46875</v>
+        <v>1.37776296220319</v>
       </c>
       <c r="AA28">
-        <v>18.44375</v>
+        <v>1.179485360619979</v>
       </c>
       <c r="AB28">
-        <v>16.1</v>
+        <v>1.134976812301684</v>
       </c>
       <c r="AC28">
-        <v>13.9</v>
+        <v>1.796369265409514</v>
       </c>
       <c r="AD28">
-        <v>15.2375</v>
+        <v>0.521492799965663</v>
       </c>
       <c r="AE28">
-        <v>13.42500000000001</v>
+        <v>0.5614308689507282</v>
       </c>
       <c r="AF28">
-        <v>15</v>
+        <v>0.8483911699394783</v>
       </c>
       <c r="AG28">
-        <v>10.16875</v>
+        <v>0.8095865325922833</v>
       </c>
       <c r="AH28">
-        <v>17.6875</v>
+        <v>1.101070022731053</v>
       </c>
       <c r="AI28">
-        <v>14.4375</v>
+        <v>1.32251209476873</v>
       </c>
       <c r="AJ28">
-        <v>11.7875</v>
+        <v>1.116124567474048</v>
       </c>
       <c r="AK28">
-        <v>8.637500000000001</v>
+        <v>0.4348984095578723</v>
       </c>
       <c r="AL28">
-        <v>9.318749999999998</v>
+        <v>0.9651559368517284</v>
       </c>
       <c r="AM28">
-        <v>7.949999999999999</v>
+        <v>0.9464344396976668</v>
       </c>
       <c r="AN28">
-        <v>5.787499999999999</v>
+        <v>1.231900452488688</v>
       </c>
       <c r="AO28">
-        <v>5.312499999999998</v>
+        <v>0.1605956190007384</v>
       </c>
       <c r="AP28">
-        <v>6.218750000000002</v>
+        <v>1.350684787742037</v>
       </c>
       <c r="AQ28">
-        <v>6.418750000000002</v>
+        <v>0.756302521008403</v>
       </c>
     </row>
     <row r="29" spans="1:43">
@@ -3263,127 +3620,127 @@
         <v>58</v>
       </c>
       <c r="B29" s="13">
-        <v>1.084558361603216</v>
+        <v>56.08363581289983</v>
       </c>
       <c r="C29" s="13">
-        <v>0.9912777627911159</v>
+        <v>76.98701764129079</v>
       </c>
       <c r="D29" s="13">
-        <v>1.340204498977505</v>
+        <v>50.95765796611121</v>
       </c>
       <c r="E29" s="13">
-        <v>1.097029255619564</v>
+        <v>41.28896268568354</v>
       </c>
       <c r="F29" s="13">
-        <v>1.130434782608696</v>
+        <v>38.5069363985021</v>
       </c>
       <c r="G29" s="13">
-        <v>1.863309352517986</v>
+        <v>50.82170374031227</v>
       </c>
       <c r="H29" s="13">
-        <v>0.5381460213289582</v>
+        <v>35.4236288331613</v>
       </c>
       <c r="I29" s="13">
-        <v>0.5611421477343262</v>
+        <v>26.99614528086076</v>
       </c>
       <c r="J29" s="13">
-        <v>1.015555555555556</v>
+        <v>39.80521533252011</v>
       </c>
       <c r="K29" s="13">
-        <v>0.9178447039541079</v>
+        <v>48.40809662057357</v>
       </c>
       <c r="L29" s="13">
-        <v>1.047820965842167</v>
+        <v>40.9490771211863</v>
       </c>
       <c r="M29" s="13">
-        <v>1.325252525252525</v>
+        <v>19.82749715262424</v>
       </c>
       <c r="N29" s="13">
-        <v>1.204665959703075</v>
+        <v>43.97699592786824</v>
       </c>
       <c r="O29" s="13">
-        <v>0.4360829715388326</v>
+        <v>25.31014503623102</v>
       </c>
       <c r="P29" s="13">
-        <v>0.9622177509501455</v>
+        <v>14.22735796277146</v>
       </c>
       <c r="Q29" s="13">
-        <v>0.8469601677148848</v>
+        <v>2.942317997845618</v>
       </c>
       <c r="R29" s="13">
-        <v>1.278617710583154</v>
+        <v>8.984728033352875</v>
       </c>
       <c r="S29" s="13">
-        <v>0.1568627450980393</v>
+        <v>15.17819831974781</v>
       </c>
       <c r="T29" s="13">
-        <v>1.27571189279732</v>
+        <v>22.77149359770193</v>
       </c>
       <c r="U29" s="13">
-        <v>0.846478416098669</v>
+        <v>12.63870765760268</v>
       </c>
       <c r="W29" s="12" t="s">
         <v>58</v>
       </c>
       <c r="X29">
-        <v>1.084558361603216</v>
+        <v>0.006612757861032345</v>
       </c>
       <c r="Y29">
-        <v>0.9912777627911159</v>
+        <v>0.009573585638285243</v>
       </c>
       <c r="Z29">
-        <v>1.340204498977505</v>
+        <v>0.01489871078057328</v>
       </c>
       <c r="AA29">
-        <v>1.097029255619564</v>
+        <v>0.01121040689107505</v>
       </c>
       <c r="AB29">
-        <v>1.130434782608696</v>
+        <v>0.0442596466742333</v>
       </c>
       <c r="AC29">
-        <v>1.863309352517986</v>
+        <v>0.02304644323868966</v>
       </c>
       <c r="AD29">
-        <v>0.5381460213289582</v>
+        <v>0.0182814747028872</v>
       </c>
       <c r="AE29">
-        <v>0.5611421477343262</v>
+        <v>0.007041968767322874</v>
       </c>
       <c r="AF29">
-        <v>1.015555555555556</v>
+        <v>0.00966088277177987</v>
       </c>
       <c r="AG29">
-        <v>0.9178447039541079</v>
+        <v>0.01094851549059452</v>
       </c>
       <c r="AH29">
-        <v>1.047820965842167</v>
+        <v>0.02599272149362423</v>
       </c>
       <c r="AI29">
-        <v>1.325252525252525</v>
+        <v>0.003986569095566913</v>
       </c>
       <c r="AJ29">
-        <v>1.204665959703075</v>
+        <v>0.004052041945687884</v>
       </c>
       <c r="AK29">
-        <v>0.4360829715388326</v>
+        <v>0.03218354320956206</v>
       </c>
       <c r="AL29">
-        <v>0.9622177509501455</v>
+        <v>0.004052041945687884</v>
       </c>
       <c r="AM29">
-        <v>0.8469601677148848</v>
+        <v>0.001629546491627296</v>
       </c>
       <c r="AN29">
-        <v>1.278617710583154</v>
+        <v>0.0006692780233471644</v>
       </c>
       <c r="AO29">
-        <v>0.1568627450980393</v>
+        <v>0.000494683756388054</v>
       </c>
       <c r="AP29">
-        <v>1.27571189279732</v>
+        <v>0.0004728594730177465</v>
       </c>
       <c r="AQ29">
-        <v>0.846478416098669</v>
+        <v>0.0003273642505495881</v>
       </c>
     </row>
     <row r="30" spans="1:43">
@@ -3391,127 +3748,127 @@
         <v>59</v>
       </c>
       <c r="B30" s="13">
-        <v>67.256220576651</v>
+        <v>65</v>
       </c>
       <c r="C30" s="13">
-        <v>82.50716833105008</v>
+        <v>57</v>
       </c>
       <c r="D30" s="13">
-        <v>59.27787488346382</v>
+        <v>60</v>
       </c>
       <c r="E30" s="13">
-        <v>44.31438855964997</v>
+        <v>51</v>
       </c>
       <c r="F30" s="13">
-        <v>45.00234515699855</v>
+        <v>58</v>
       </c>
       <c r="G30" s="13">
-        <v>59.64566485752589</v>
+        <v>53</v>
       </c>
       <c r="H30" s="13">
-        <v>36.77440720372233</v>
+        <v>36</v>
       </c>
       <c r="I30" s="13">
-        <v>32.14977820069541</v>
+        <v>22</v>
       </c>
       <c r="J30" s="13">
-        <v>32.64379874307831</v>
+        <v>35</v>
       </c>
       <c r="K30" s="13">
-        <v>51.59387592458827</v>
+        <v>47</v>
       </c>
       <c r="L30" s="13">
-        <v>47.46957899236028</v>
+        <v>48</v>
       </c>
       <c r="M30" s="13">
-        <v>23.78413417288738</v>
+        <v>36</v>
       </c>
       <c r="N30" s="13">
-        <v>44.48594737750422</v>
+        <v>43</v>
       </c>
       <c r="O30" s="13">
-        <v>28.04785850557883</v>
+        <v>20</v>
       </c>
       <c r="P30" s="13">
-        <v>16.85579729800523</v>
+        <v>21</v>
       </c>
       <c r="Q30" s="13">
-        <v>1.73739164034312</v>
+        <v>17</v>
       </c>
       <c r="R30" s="13">
-        <v>10.52762939795758</v>
+        <v>15</v>
       </c>
       <c r="S30" s="13">
-        <v>18.27761251754626</v>
+        <v>11</v>
       </c>
       <c r="T30" s="13">
-        <v>25.73267512751262</v>
+        <v>25</v>
       </c>
       <c r="U30" s="13">
-        <v>14.50102342351112</v>
+        <v>21</v>
       </c>
       <c r="W30" s="12" t="s">
         <v>59</v>
       </c>
       <c r="X30">
-        <v>0.007460937499843112</v>
+        <v>33.5</v>
       </c>
       <c r="Y30">
-        <v>0.0111621093750216</v>
+        <v>23.6</v>
       </c>
       <c r="Z30">
-        <v>0.01678710937505912</v>
+        <v>25.7</v>
       </c>
       <c r="AA30">
-        <v>0.01249023437502217</v>
+        <v>18.8</v>
       </c>
       <c r="AB30">
-        <v>0.05031249999997556</v>
+        <v>17.3</v>
       </c>
       <c r="AC30">
-        <v>0.02500000000001279</v>
+        <v>14.2</v>
       </c>
       <c r="AD30">
-        <v>0.02152343750000796</v>
+        <v>16.2</v>
       </c>
       <c r="AE30">
-        <v>0.007968749999953673</v>
+        <v>13.9</v>
       </c>
       <c r="AF30">
-        <v>0.01125000000000398</v>
+        <v>15.6</v>
       </c>
       <c r="AG30">
-        <v>0.01303710937499858</v>
+        <v>10.5</v>
       </c>
       <c r="AH30">
-        <v>0.03089843750001364</v>
+        <v>18.3</v>
       </c>
       <c r="AI30">
-        <v>0.003710937499988631</v>
+        <v>14.7</v>
       </c>
       <c r="AJ30">
-        <v>0.004023437499995453</v>
+        <v>12</v>
       </c>
       <c r="AK30">
-        <v>0.03308593749999389</v>
+        <v>9.4</v>
       </c>
       <c r="AL30">
-        <v>0.003505859375003695</v>
+        <v>9.6</v>
       </c>
       <c r="AM30">
-        <v>0.001875000000003624</v>
+        <v>8.1</v>
       </c>
       <c r="AN30">
-        <v>0.0005859375000021316</v>
+        <v>5.9</v>
       </c>
       <c r="AO30">
-        <v>0.0005859375000021316</v>
+        <v>5.5</v>
       </c>
       <c r="AP30">
-        <v>0.0003808593749976552</v>
+        <v>6.3</v>
       </c>
       <c r="AQ30">
-        <v>0.0003808593749994316</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="31" spans="1:43">
@@ -3519,127 +3876,127 @@
         <v>60</v>
       </c>
       <c r="B31" s="13">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="C31" s="13">
-        <v>57</v>
+        <v>-9</v>
       </c>
       <c r="D31" s="13">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="E31" s="13">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="F31" s="13">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="G31" s="13">
-        <v>53</v>
+        <v>-5</v>
       </c>
       <c r="H31" s="13">
-        <v>36</v>
+        <v>-14</v>
       </c>
       <c r="I31" s="13">
-        <v>22</v>
+        <v>-20</v>
       </c>
       <c r="J31" s="13">
-        <v>35</v>
+        <v>-13</v>
       </c>
       <c r="K31" s="13">
-        <v>47</v>
+        <v>-14</v>
       </c>
       <c r="L31" s="13">
-        <v>48</v>
+        <v>-6</v>
       </c>
       <c r="M31" s="13">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="N31" s="13">
-        <v>43</v>
+        <v>-10</v>
       </c>
       <c r="O31" s="13">
-        <v>20</v>
+        <v>-14</v>
       </c>
       <c r="P31" s="13">
-        <v>21</v>
+        <v>-13</v>
       </c>
       <c r="Q31" s="13">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="R31" s="13">
-        <v>15</v>
+        <v>-12</v>
       </c>
       <c r="S31" s="13">
-        <v>11</v>
+        <v>-14</v>
       </c>
       <c r="T31" s="13">
-        <v>25</v>
+        <v>-11</v>
       </c>
       <c r="U31" s="13">
-        <v>21</v>
+        <v>-13</v>
       </c>
       <c r="W31" s="12" t="s">
         <v>60</v>
       </c>
       <c r="X31">
-        <v>33.5</v>
+        <v>33</v>
       </c>
       <c r="Y31">
-        <v>23.6</v>
+        <v>23</v>
       </c>
       <c r="Z31">
-        <v>25.7</v>
+        <v>24.8</v>
       </c>
       <c r="AA31">
-        <v>18.8</v>
+        <v>18</v>
       </c>
       <c r="AB31">
-        <v>17.3</v>
+        <v>15.7</v>
       </c>
       <c r="AC31">
-        <v>14.2</v>
+        <v>13.1</v>
       </c>
       <c r="AD31">
-        <v>16.2</v>
+        <v>14.9</v>
       </c>
       <c r="AE31">
-        <v>13.9</v>
+        <v>13.3</v>
       </c>
       <c r="AF31">
-        <v>15.6</v>
+        <v>14.8</v>
       </c>
       <c r="AG31">
-        <v>10.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AH31">
-        <v>18.3</v>
+        <v>16.8</v>
       </c>
       <c r="AI31">
-        <v>14.7</v>
+        <v>14.3</v>
       </c>
       <c r="AJ31">
-        <v>11.9</v>
+        <v>11.5</v>
       </c>
       <c r="AK31">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AL31">
-        <v>9.6</v>
+        <v>9.1</v>
       </c>
       <c r="AM31">
-        <v>8.1</v>
+        <v>7.8</v>
       </c>
       <c r="AN31">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AO31">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="AP31">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AQ31">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="32" spans="1:43">
@@ -3647,254 +4004,126 @@
         <v>61</v>
       </c>
       <c r="B32" s="13">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="C32" s="13">
-        <v>-9</v>
+        <v>66</v>
       </c>
       <c r="D32" s="13">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E32" s="13">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="F32" s="13">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="G32" s="13">
-        <v>-5</v>
+        <v>58</v>
       </c>
       <c r="H32" s="13">
-        <v>-14</v>
+        <v>50</v>
       </c>
       <c r="I32" s="13">
-        <v>-20</v>
+        <v>42</v>
       </c>
       <c r="J32" s="13">
-        <v>-8</v>
+        <v>48</v>
       </c>
       <c r="K32" s="13">
-        <v>-14</v>
+        <v>61</v>
       </c>
       <c r="L32" s="13">
-        <v>-6</v>
+        <v>54</v>
       </c>
       <c r="M32" s="13">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="N32" s="13">
-        <v>-10</v>
+        <v>53</v>
       </c>
       <c r="O32" s="13">
-        <v>-14</v>
+        <v>34</v>
       </c>
       <c r="P32" s="13">
-        <v>-13</v>
+        <v>34</v>
       </c>
       <c r="Q32" s="13">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="R32" s="13">
-        <v>-12</v>
+        <v>27</v>
       </c>
       <c r="S32" s="13">
-        <v>-14</v>
+        <v>25</v>
       </c>
       <c r="T32" s="13">
-        <v>-11</v>
+        <v>36</v>
       </c>
       <c r="U32" s="13">
-        <v>-13</v>
+        <v>34</v>
       </c>
       <c r="W32" s="12" t="s">
         <v>61</v>
       </c>
       <c r="X32">
-        <v>33</v>
+        <v>0.5</v>
       </c>
       <c r="Y32">
-        <v>23</v>
+        <v>0.6000000000000014</v>
       </c>
       <c r="Z32">
-        <v>24.8</v>
+        <v>0.8999999999999986</v>
       </c>
       <c r="AA32">
-        <v>18</v>
+        <v>0.8000000000000007</v>
       </c>
       <c r="AB32">
-        <v>15.7</v>
+        <v>1.600000000000001</v>
       </c>
       <c r="AC32">
-        <v>13.1</v>
+        <v>1.1</v>
       </c>
       <c r="AD32">
-        <v>14.9</v>
+        <v>1.299999999999999</v>
       </c>
       <c r="AE32">
-        <v>13.3</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="AF32">
-        <v>14.8</v>
+        <v>0.7999999999999989</v>
       </c>
       <c r="AG32">
-        <v>9.699999999999999</v>
+        <v>0.8000000000000007</v>
       </c>
       <c r="AH32">
-        <v>16.8</v>
+        <v>1.5</v>
       </c>
       <c r="AI32">
-        <v>14.3</v>
+        <v>0.3999999999999986</v>
       </c>
       <c r="AJ32">
-        <v>11.5</v>
+        <v>0.5</v>
       </c>
       <c r="AK32">
-        <v>8.300000000000001</v>
+        <v>1.200000000000001</v>
       </c>
       <c r="AL32">
-        <v>9.1</v>
+        <v>0.5</v>
       </c>
       <c r="AM32">
-        <v>7.8</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="AN32">
-        <v>5.7</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="AO32">
-        <v>5.3</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="AP32">
-        <v>6.2</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="AQ32">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:43">
-      <c r="A33" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="13">
-        <v>64</v>
-      </c>
-      <c r="C33" s="13">
-        <v>66</v>
-      </c>
-      <c r="D33" s="13">
-        <v>51</v>
-      </c>
-      <c r="E33" s="13">
-        <v>51</v>
-      </c>
-      <c r="F33" s="13">
-        <v>55</v>
-      </c>
-      <c r="G33" s="13">
-        <v>58</v>
-      </c>
-      <c r="H33" s="13">
-        <v>50</v>
-      </c>
-      <c r="I33" s="13">
-        <v>42</v>
-      </c>
-      <c r="J33" s="13">
-        <v>43</v>
-      </c>
-      <c r="K33" s="13">
-        <v>61</v>
-      </c>
-      <c r="L33" s="13">
-        <v>54</v>
-      </c>
-      <c r="M33" s="13">
-        <v>34</v>
-      </c>
-      <c r="N33" s="13">
-        <v>53</v>
-      </c>
-      <c r="O33" s="13">
-        <v>34</v>
-      </c>
-      <c r="P33" s="13">
-        <v>34</v>
-      </c>
-      <c r="Q33" s="13">
-        <v>9</v>
-      </c>
-      <c r="R33" s="13">
-        <v>27</v>
-      </c>
-      <c r="S33" s="13">
-        <v>25</v>
-      </c>
-      <c r="T33" s="13">
-        <v>36</v>
-      </c>
-      <c r="U33" s="13">
-        <v>34</v>
-      </c>
-      <c r="W33" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="X33">
-        <v>0.5</v>
-      </c>
-      <c r="Y33">
-        <v>0.6000000000000014</v>
-      </c>
-      <c r="Z33">
-        <v>0.8999999999999986</v>
-      </c>
-      <c r="AA33">
-        <v>0.8000000000000007</v>
-      </c>
-      <c r="AB33">
-        <v>1.600000000000001</v>
-      </c>
-      <c r="AC33">
-        <v>1.1</v>
-      </c>
-      <c r="AD33">
-        <v>1.299999999999999</v>
-      </c>
-      <c r="AE33">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="AF33">
-        <v>0.7999999999999989</v>
-      </c>
-      <c r="AG33">
-        <v>0.8000000000000007</v>
-      </c>
-      <c r="AH33">
-        <v>1.5</v>
-      </c>
-      <c r="AI33">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="AJ33">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="AK33">
-        <v>1.1</v>
-      </c>
-      <c r="AL33">
-        <v>0.5</v>
-      </c>
-      <c r="AM33">
-        <v>0.2999999999999998</v>
-      </c>
-      <c r="AN33">
-        <v>0.2000000000000002</v>
-      </c>
-      <c r="AO33">
-        <v>0.2000000000000002</v>
-      </c>
-      <c r="AP33">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="AQ33">
         <v>0.09999999999999964</v>
       </c>
     </row>
@@ -3905,7 +4134,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3913,70 +4142,70 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="R1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="S1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="T1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="U1" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="V1" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="W1" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="U1" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="V1" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="W1" s="11" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -5003,6 +5232,36 @@
       <c r="A17" s="12" t="s">
         <v>15</v>
       </c>
+      <c r="B17" s="13">
+        <v>72</v>
+      </c>
+      <c r="C17" s="13">
+        <v>60</v>
+      </c>
+      <c r="D17" s="13">
+        <v>25</v>
+      </c>
+      <c r="E17" s="13">
+        <v>-1</v>
+      </c>
+      <c r="F17" s="13">
+        <v>7</v>
+      </c>
+      <c r="G17" s="13">
+        <v>38</v>
+      </c>
+      <c r="H17" s="13">
+        <v>9</v>
+      </c>
+      <c r="I17" s="13">
+        <v>24</v>
+      </c>
+      <c r="J17" s="13">
+        <v>-2</v>
+      </c>
+      <c r="K17" s="13">
+        <v>1</v>
+      </c>
       <c r="M17" s="12" t="s">
         <v>15</v>
       </c>
@@ -5041,8 +5300,68 @@
       <c r="A18" s="12" t="s">
         <v>16</v>
       </c>
+      <c r="B18" s="13">
+        <v>66</v>
+      </c>
+      <c r="C18" s="13">
+        <v>76</v>
+      </c>
+      <c r="D18" s="13">
+        <v>29</v>
+      </c>
+      <c r="E18" s="13">
+        <v>18</v>
+      </c>
+      <c r="F18" s="13">
+        <v>4</v>
+      </c>
+      <c r="G18" s="13">
+        <v>33</v>
+      </c>
+      <c r="H18" s="13">
+        <v>14</v>
+      </c>
+      <c r="I18" s="13">
+        <v>11</v>
+      </c>
+      <c r="J18" s="13">
+        <v>4</v>
+      </c>
+      <c r="K18" s="13">
+        <v>14</v>
+      </c>
       <c r="M18" s="12" t="s">
         <v>16</v>
+      </c>
+      <c r="N18" s="13">
+        <v>37.2</v>
+      </c>
+      <c r="O18" s="13">
+        <v>26.3</v>
+      </c>
+      <c r="P18" s="13">
+        <v>18.8</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>16.4</v>
+      </c>
+      <c r="R18" s="13">
+        <v>15.2</v>
+      </c>
+      <c r="S18" s="13">
+        <v>18.8</v>
+      </c>
+      <c r="T18" s="13">
+        <v>12.6</v>
+      </c>
+      <c r="U18" s="13">
+        <v>9.1</v>
+      </c>
+      <c r="V18" s="13">
+        <v>6.1</v>
+      </c>
+      <c r="W18" s="13">
+        <v>6.3</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -5052,6 +5371,36 @@
       <c r="M19" s="12" t="s">
         <v>17</v>
       </c>
+      <c r="N19" s="13">
+        <v>37.1</v>
+      </c>
+      <c r="O19" s="13">
+        <v>26.4</v>
+      </c>
+      <c r="P19" s="13">
+        <v>18.9</v>
+      </c>
+      <c r="Q19" s="13">
+        <v>16.4</v>
+      </c>
+      <c r="R19" s="13">
+        <v>15.1</v>
+      </c>
+      <c r="S19" s="13">
+        <v>18.8</v>
+      </c>
+      <c r="T19" s="13">
+        <v>12.6</v>
+      </c>
+      <c r="U19" s="13">
+        <v>9.1</v>
+      </c>
+      <c r="V19" s="13">
+        <v>6.1</v>
+      </c>
+      <c r="W19" s="13">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="12" t="s">
@@ -5085,12 +5434,72 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
-      <c r="A24" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="12" t="s">
-        <v>22</v>
+    <row r="25" spans="1:23">
+      <c r="A25" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="13">
+        <v>956.5</v>
+      </c>
+      <c r="C25" s="13">
+        <v>888.5</v>
+      </c>
+      <c r="D25" s="13">
+        <v>623</v>
+      </c>
+      <c r="E25" s="13">
+        <v>250.5</v>
+      </c>
+      <c r="F25" s="13">
+        <v>327</v>
+      </c>
+      <c r="G25" s="13">
+        <v>594.5</v>
+      </c>
+      <c r="H25" s="13">
+        <v>283</v>
+      </c>
+      <c r="I25" s="13">
+        <v>213</v>
+      </c>
+      <c r="J25" s="13">
+        <v>133</v>
+      </c>
+      <c r="K25" s="13">
+        <v>186</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="N25" s="13">
+        <v>672.2000000000002</v>
+      </c>
+      <c r="O25" s="13">
+        <v>473.8000000000001</v>
+      </c>
+      <c r="P25" s="13">
+        <v>336.9</v>
+      </c>
+      <c r="Q25" s="13">
+        <v>297.9</v>
+      </c>
+      <c r="R25" s="13">
+        <v>272.9999999999999</v>
+      </c>
+      <c r="S25" s="13">
+        <v>339.2</v>
+      </c>
+      <c r="T25" s="13">
+        <v>229.1999999999999</v>
+      </c>
+      <c r="U25" s="13">
+        <v>163.5</v>
+      </c>
+      <c r="V25" s="13">
+        <v>109.8</v>
+      </c>
+      <c r="W25" s="13">
+        <v>113.4</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -5098,67 +5507,67 @@
         <v>55</v>
       </c>
       <c r="B26" s="13">
-        <v>818.5</v>
+        <v>1.422939601309134</v>
       </c>
       <c r="C26" s="13">
-        <v>752.5</v>
+        <v>1.87526382439848</v>
       </c>
       <c r="D26" s="13">
-        <v>569</v>
+        <v>1.849213416444049</v>
       </c>
       <c r="E26" s="13">
-        <v>233.5</v>
+        <v>0.8408862034239678</v>
       </c>
       <c r="F26" s="13">
-        <v>316</v>
+        <v>1.197802197802198</v>
       </c>
       <c r="G26" s="13">
-        <v>523.5</v>
+        <v>1.752653301886792</v>
       </c>
       <c r="H26" s="13">
-        <v>260</v>
+        <v>1.234729493891798</v>
       </c>
       <c r="I26" s="13">
-        <v>178</v>
+        <v>1.302752293577982</v>
       </c>
       <c r="J26" s="13">
-        <v>131</v>
+        <v>1.211293260473589</v>
       </c>
       <c r="K26" s="13">
-        <v>171</v>
+        <v>1.640211640211641</v>
       </c>
       <c r="M26" s="12" t="s">
         <v>55</v>
       </c>
       <c r="N26" s="13">
-        <v>597.9000000000001</v>
+        <v>1.422939601309134</v>
       </c>
       <c r="O26" s="13">
-        <v>421.1000000000001</v>
+        <v>1.87526382439848</v>
       </c>
       <c r="P26" s="13">
-        <v>299.2</v>
+        <v>1.849213416444049</v>
       </c>
       <c r="Q26" s="13">
-        <v>265.1</v>
+        <v>0.8408862034239678</v>
       </c>
       <c r="R26" s="13">
-        <v>242.6999999999999</v>
+        <v>1.197802197802198</v>
       </c>
       <c r="S26" s="13">
-        <v>301.6</v>
+        <v>1.752653301886792</v>
       </c>
       <c r="T26" s="13">
-        <v>203.9999999999999</v>
+        <v>1.234729493891798</v>
       </c>
       <c r="U26" s="13">
-        <v>145.3</v>
+        <v>1.302752293577982</v>
       </c>
       <c r="V26" s="13">
-        <v>97.59999999999998</v>
+        <v>1.211293260473589</v>
       </c>
       <c r="W26" s="13">
-        <v>100.8</v>
+        <v>1.640211640211641</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -5166,67 +5575,67 @@
         <v>56</v>
       </c>
       <c r="B27" s="13">
-        <v>1.368958019735742</v>
+        <v>56.26470588235294</v>
       </c>
       <c r="C27" s="13">
-        <v>1.786986464022797</v>
+        <v>52.26470588235294</v>
       </c>
       <c r="D27" s="13">
-        <v>1.901737967914439</v>
+        <v>36.64705882352941</v>
       </c>
       <c r="E27" s="13">
-        <v>0.880799698227084</v>
+        <v>14.73529411764706</v>
       </c>
       <c r="F27" s="13">
-        <v>1.302018953440462</v>
+        <v>19.23529411764706</v>
       </c>
       <c r="G27" s="13">
-        <v>1.735742705570292</v>
+        <v>34.97058823529412</v>
       </c>
       <c r="H27" s="13">
-        <v>1.274509803921569</v>
+        <v>16.64705882352941</v>
       </c>
       <c r="I27" s="13">
-        <v>1.225051617343427</v>
+        <v>12.52941176470588</v>
       </c>
       <c r="J27" s="13">
-        <v>1.342213114754099</v>
+        <v>7.823529411764706</v>
       </c>
       <c r="K27" s="13">
-        <v>1.696428571428572</v>
+        <v>10.94117647058824</v>
       </c>
       <c r="M27" s="12" t="s">
         <v>56</v>
       </c>
       <c r="N27" s="13">
-        <v>1.368958019735742</v>
+        <v>37.34444444444446</v>
       </c>
       <c r="O27" s="13">
-        <v>1.786986464022797</v>
+        <v>26.32222222222223</v>
       </c>
       <c r="P27" s="13">
-        <v>1.901737967914439</v>
+        <v>18.71666666666667</v>
       </c>
       <c r="Q27" s="13">
-        <v>0.880799698227084</v>
+        <v>16.55</v>
       </c>
       <c r="R27" s="13">
-        <v>1.302018953440462</v>
+        <v>15.16666666666666</v>
       </c>
       <c r="S27" s="13">
-        <v>1.735742705570292</v>
+        <v>18.84444444444445</v>
       </c>
       <c r="T27" s="13">
-        <v>1.274509803921569</v>
+        <v>12.73333333333333</v>
       </c>
       <c r="U27" s="13">
-        <v>1.225051617343427</v>
+        <v>9.083333333333334</v>
       </c>
       <c r="V27" s="13">
-        <v>1.342213114754099</v>
+        <v>6.099999999999998</v>
       </c>
       <c r="W27" s="13">
-        <v>1.696428571428572</v>
+        <v>6.299999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -5234,67 +5643,67 @@
         <v>57</v>
       </c>
       <c r="B28" s="13">
-        <v>54.56666666666667</v>
+        <v>1.506641930797906</v>
       </c>
       <c r="C28" s="13">
-        <v>50.16666666666666</v>
+        <v>1.985573461127802</v>
       </c>
       <c r="D28" s="13">
-        <v>37.93333333333333</v>
+        <v>1.957990676234875</v>
       </c>
       <c r="E28" s="13">
-        <v>15.56666666666667</v>
+        <v>0.8903500977430248</v>
       </c>
       <c r="F28" s="13">
-        <v>21.06666666666667</v>
+        <v>1.268261150614092</v>
       </c>
       <c r="G28" s="13">
-        <v>34.9</v>
+        <v>1.855750554938956</v>
       </c>
       <c r="H28" s="13">
-        <v>17.33333333333333</v>
+        <v>1.307360640591316</v>
       </c>
       <c r="I28" s="13">
-        <v>11.86666666666667</v>
+        <v>1.37938478143551</v>
       </c>
       <c r="J28" s="13">
-        <v>8.733333333333333</v>
+        <v>1.282545805207329</v>
       </c>
       <c r="K28" s="13">
-        <v>11.4</v>
+        <v>1.736694677871149</v>
       </c>
       <c r="M28" s="12" t="s">
         <v>57</v>
       </c>
       <c r="N28" s="13">
-        <v>37.36875000000001</v>
+        <v>1.506641930797906</v>
       </c>
       <c r="O28" s="13">
-        <v>26.31875</v>
+        <v>1.985573461127802</v>
       </c>
       <c r="P28" s="13">
-        <v>18.7</v>
+        <v>1.957990676234875</v>
       </c>
       <c r="Q28" s="13">
-        <v>16.56875</v>
+        <v>0.8903500977430248</v>
       </c>
       <c r="R28" s="13">
-        <v>15.16875</v>
+        <v>1.268261150614092</v>
       </c>
       <c r="S28" s="13">
-        <v>18.85</v>
+        <v>1.855750554938956</v>
       </c>
       <c r="T28" s="13">
-        <v>12.74999999999999</v>
+        <v>1.307360640591316</v>
       </c>
       <c r="U28" s="13">
-        <v>9.081250000000001</v>
+        <v>1.37938478143551</v>
       </c>
       <c r="V28" s="13">
-        <v>6.099999999999999</v>
+        <v>1.282545805207329</v>
       </c>
       <c r="W28" s="13">
-        <v>6.299999999999998</v>
+        <v>1.736694677871149</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -5302,67 +5711,67 @@
         <v>58</v>
       </c>
       <c r="B29" s="13">
-        <v>1.460221887718124</v>
+        <v>97.0721564440401</v>
       </c>
       <c r="C29" s="13">
-        <v>1.90611889495765</v>
+        <v>64.04451103468068</v>
       </c>
       <c r="D29" s="13">
-        <v>2.028520499108734</v>
+        <v>75.95477259355829</v>
       </c>
       <c r="E29" s="13">
-        <v>0.9395196781088896</v>
+        <v>32.08687573577563</v>
       </c>
       <c r="F29" s="13">
-        <v>1.388820217003159</v>
+        <v>55.65563176871811</v>
       </c>
       <c r="G29" s="13">
-        <v>1.851458885941644</v>
+        <v>68.58387157385552</v>
       </c>
       <c r="H29" s="13">
-        <v>1.359477124183007</v>
+        <v>30.75754552796401</v>
       </c>
       <c r="I29" s="13">
-        <v>1.306721725166323</v>
+        <v>9.533580278244781</v>
       </c>
       <c r="J29" s="13">
-        <v>1.431693989071039</v>
+        <v>8.224391437218214</v>
       </c>
       <c r="K29" s="13">
-        <v>1.80952380952381</v>
+        <v>21.67043221345395</v>
       </c>
       <c r="M29" s="12" t="s">
         <v>58</v>
       </c>
       <c r="N29" s="13">
-        <v>1.460221887718124</v>
+        <v>0.01786681331866714</v>
       </c>
       <c r="O29" s="13">
-        <v>1.90611889495765</v>
+        <v>0.01507330504745535</v>
       </c>
       <c r="P29" s="13">
-        <v>2.028520499108734</v>
+        <v>0.002946278254954667</v>
       </c>
       <c r="Q29" s="13">
-        <v>0.9395196781088896</v>
+        <v>0.01996921928353995</v>
       </c>
       <c r="R29" s="13">
-        <v>1.388820217003159</v>
+        <v>0.001833239803105829</v>
       </c>
       <c r="S29" s="13">
-        <v>1.851458885941644</v>
+        <v>0.02546166393161453</v>
       </c>
       <c r="T29" s="13">
-        <v>1.359477124183007</v>
+        <v>0.00864241621455468</v>
       </c>
       <c r="U29" s="13">
-        <v>1.306721725166323</v>
+        <v>0.00347006105581525</v>
       </c>
       <c r="V29" s="13">
-        <v>1.431693989071039</v>
+        <v>6.699061157050774e-15</v>
       </c>
       <c r="W29" s="13">
-        <v>1.80952380952381</v>
+        <v>1.004859173557616e-14</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -5370,67 +5779,67 @@
         <v>59</v>
       </c>
       <c r="B30" s="13">
-        <v>110.482157372189</v>
+        <v>86</v>
       </c>
       <c r="C30" s="13">
-        <v>65.40751652606149</v>
+        <v>78</v>
       </c>
       <c r="D30" s="13">
-        <v>87.87254125999615</v>
+        <v>87</v>
       </c>
       <c r="E30" s="13">
-        <v>34.08971252566242</v>
+        <v>40</v>
       </c>
       <c r="F30" s="13">
-        <v>59.71164901823905</v>
+        <v>70</v>
       </c>
       <c r="G30" s="13">
-        <v>82.52208648912432</v>
+        <v>72</v>
       </c>
       <c r="H30" s="13">
-        <v>35.86095690932794</v>
+        <v>41</v>
       </c>
       <c r="I30" s="13">
-        <v>9.084010716615674</v>
+        <v>24</v>
       </c>
       <c r="J30" s="13">
-        <v>7.796458919743172</v>
+        <v>20</v>
       </c>
       <c r="K30" s="13">
-        <v>24.2293838138736</v>
+        <v>34</v>
       </c>
       <c r="M30" s="12" t="s">
         <v>59</v>
       </c>
       <c r="N30" s="13">
-        <v>0.01991210937489996</v>
+        <v>38</v>
       </c>
       <c r="O30" s="13">
-        <v>0.01788085937491246</v>
+        <v>26.7</v>
       </c>
       <c r="P30" s="13">
-        <v>0.002812499999990337</v>
+        <v>18.9</v>
       </c>
       <c r="Q30" s="13">
-        <v>0.02303710937499659</v>
+        <v>17.6</v>
       </c>
       <c r="R30" s="13">
-        <v>0.002099609375051159</v>
+        <v>15.4</v>
       </c>
       <c r="S30" s="13">
-        <v>0.03031250000002217</v>
+        <v>19.6</v>
       </c>
       <c r="T30" s="13">
-        <v>0.009687500000048033</v>
+        <v>13.2</v>
       </c>
       <c r="U30" s="13">
-        <v>0.004130859374992468</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="V30" s="13">
-        <v>1.77635683940025e-15</v>
+        <v>6.1</v>
       </c>
       <c r="W30" s="13">
-        <v>8.881784197001252e-15</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -5438,61 +5847,61 @@
         <v>60</v>
       </c>
       <c r="B31" s="13">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="C31" s="13">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D31" s="13">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="E31" s="13">
-        <v>40</v>
+        <v>-2</v>
       </c>
       <c r="F31" s="13">
-        <v>70</v>
+        <v>-1</v>
       </c>
       <c r="G31" s="13">
-        <v>72</v>
+        <v>-2</v>
       </c>
       <c r="H31" s="13">
-        <v>41</v>
+        <v>-1</v>
       </c>
       <c r="I31" s="13">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="J31" s="13">
-        <v>20</v>
+        <v>-2</v>
       </c>
       <c r="K31" s="13">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="M31" s="12" t="s">
         <v>60</v>
       </c>
       <c r="N31" s="13">
-        <v>38</v>
+        <v>37.1</v>
       </c>
       <c r="O31" s="13">
-        <v>26.7</v>
+        <v>25.9</v>
       </c>
       <c r="P31" s="13">
-        <v>18.9</v>
+        <v>18.6</v>
       </c>
       <c r="Q31" s="13">
-        <v>17.6</v>
+        <v>16.4</v>
       </c>
       <c r="R31" s="13">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="S31" s="13">
-        <v>19.6</v>
+        <v>18.1</v>
       </c>
       <c r="T31" s="13">
-        <v>13.2</v>
+        <v>12.6</v>
       </c>
       <c r="U31" s="13">
-        <v>9.199999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="V31" s="13">
         <v>6.1</v>
@@ -5506,134 +5915,66 @@
         <v>61</v>
       </c>
       <c r="B32" s="13">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="C32" s="13">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="D32" s="13">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="E32" s="13">
-        <v>-2</v>
+        <v>42</v>
       </c>
       <c r="F32" s="13">
-        <v>-1</v>
+        <v>71</v>
       </c>
       <c r="G32" s="13">
-        <v>-2</v>
+        <v>74</v>
       </c>
       <c r="H32" s="13">
-        <v>-1</v>
+        <v>42</v>
       </c>
       <c r="I32" s="13">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="J32" s="13">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="K32" s="13">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="M32" s="12" t="s">
         <v>61</v>
       </c>
       <c r="N32" s="13">
-        <v>37.1</v>
+        <v>0.8999999999999986</v>
       </c>
       <c r="O32" s="13">
-        <v>25.9</v>
+        <v>0.8000000000000007</v>
       </c>
       <c r="P32" s="13">
-        <v>18.6</v>
+        <v>0.2999999999999972</v>
       </c>
       <c r="Q32" s="13">
-        <v>16.4</v>
+        <v>1.200000000000003</v>
       </c>
       <c r="R32" s="13">
-        <v>15.1</v>
+        <v>0.3000000000000007</v>
       </c>
       <c r="S32" s="13">
-        <v>18.1</v>
+        <v>1.5</v>
       </c>
       <c r="T32" s="13">
-        <v>12.6</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="U32" s="13">
-        <v>8.9</v>
+        <v>0.2999999999999989</v>
       </c>
       <c r="V32" s="13">
-        <v>6.1</v>
+        <v>0</v>
       </c>
       <c r="W32" s="13">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23">
-      <c r="A33" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="13">
-        <v>77</v>
-      </c>
-      <c r="C33" s="13">
-        <v>64</v>
-      </c>
-      <c r="D33" s="13">
-        <v>76</v>
-      </c>
-      <c r="E33" s="13">
-        <v>42</v>
-      </c>
-      <c r="F33" s="13">
-        <v>71</v>
-      </c>
-      <c r="G33" s="13">
-        <v>74</v>
-      </c>
-      <c r="H33" s="13">
-        <v>42</v>
-      </c>
-      <c r="I33" s="13">
-        <v>21</v>
-      </c>
-      <c r="J33" s="13">
-        <v>21</v>
-      </c>
-      <c r="K33" s="13">
-        <v>34</v>
-      </c>
-      <c r="M33" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="N33" s="13">
-        <v>0.8999999999999986</v>
-      </c>
-      <c r="O33" s="13">
-        <v>0.8000000000000007</v>
-      </c>
-      <c r="P33" s="13">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="Q33" s="13">
-        <v>1.200000000000003</v>
-      </c>
-      <c r="R33" s="13">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="S33" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="T33" s="13">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="U33" s="13">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="V33" s="13">
-        <v>0</v>
-      </c>
-      <c r="W33" s="13">
         <v>0</v>
       </c>
     </row>

--- a/2021/Fantasy F1 2021.xlsx
+++ b/2021/Fantasy F1 2021.xlsx
@@ -74,7 +74,7 @@
     <t>Brazil</t>
   </si>
   <si>
-    <t>Australia</t>
+    <t>Qatar</t>
   </si>
   <si>
     <t>Saudi Arabia</t>
@@ -1898,7 +1898,7 @@
         <v>-2</v>
       </c>
       <c r="P10" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q10" s="13">
         <v>10</v>
@@ -2026,7 +2026,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="13">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q11" s="13">
         <v>12</v>
@@ -2630,7 +2630,7 @@
         <v>33</v>
       </c>
       <c r="D16" s="13">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E16" s="13">
         <v>8</v>
@@ -2758,7 +2758,7 @@
         <v>46</v>
       </c>
       <c r="D17" s="13">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E17" s="13">
         <v>29</v>
@@ -3007,6 +3007,66 @@
       <c r="A19" s="12" t="s">
         <v>17</v>
       </c>
+      <c r="B19" s="13">
+        <v>34</v>
+      </c>
+      <c r="C19" s="13">
+        <v>11</v>
+      </c>
+      <c r="D19" s="13">
+        <v>46</v>
+      </c>
+      <c r="E19" s="13">
+        <v>33</v>
+      </c>
+      <c r="F19" s="13">
+        <v>0</v>
+      </c>
+      <c r="G19" s="13">
+        <v>24</v>
+      </c>
+      <c r="H19" s="13">
+        <v>18</v>
+      </c>
+      <c r="I19" s="13">
+        <v>12</v>
+      </c>
+      <c r="J19" s="13">
+        <v>13</v>
+      </c>
+      <c r="K19" s="13">
+        <v>15</v>
+      </c>
+      <c r="L19" s="13">
+        <v>26</v>
+      </c>
+      <c r="M19" s="13">
+        <v>19</v>
+      </c>
+      <c r="N19" s="13">
+        <v>29</v>
+      </c>
+      <c r="O19" s="13">
+        <v>-10</v>
+      </c>
+      <c r="P19" s="13">
+        <v>16</v>
+      </c>
+      <c r="Q19" s="13">
+        <v>3</v>
+      </c>
+      <c r="R19" s="13">
+        <v>-12</v>
+      </c>
+      <c r="S19" s="13">
+        <v>2</v>
+      </c>
+      <c r="T19" s="13">
+        <v>8</v>
+      </c>
+      <c r="U19" s="13">
+        <v>-2</v>
+      </c>
       <c r="W19" s="12" t="s">
         <v>17</v>
       </c>
@@ -3075,32 +3135,512 @@
       <c r="A20" s="12" t="s">
         <v>18</v>
       </c>
+      <c r="B20" s="13">
+        <v>51</v>
+      </c>
+      <c r="C20" s="13">
+        <v>40</v>
+      </c>
+      <c r="D20" s="13">
+        <v>61</v>
+      </c>
+      <c r="E20" s="13">
+        <v>36</v>
+      </c>
+      <c r="F20" s="13">
+        <v>-11</v>
+      </c>
+      <c r="G20" s="13">
+        <v>13</v>
+      </c>
+      <c r="H20" s="13">
+        <v>9</v>
+      </c>
+      <c r="I20" s="13">
+        <v>-11</v>
+      </c>
+      <c r="J20" s="13">
+        <v>14</v>
+      </c>
+      <c r="K20" s="13">
+        <v>18</v>
+      </c>
+      <c r="L20" s="13">
+        <v>28</v>
+      </c>
+      <c r="M20" s="13">
+        <v>27</v>
+      </c>
+      <c r="N20" s="13">
+        <v>24</v>
+      </c>
+      <c r="O20" s="13">
+        <v>1</v>
+      </c>
+      <c r="P20" s="13">
+        <v>14</v>
+      </c>
+      <c r="Q20" s="13">
+        <v>6</v>
+      </c>
+      <c r="R20" s="13">
+        <v>6</v>
+      </c>
+      <c r="S20" s="13">
+        <v>9</v>
+      </c>
+      <c r="T20" s="13">
+        <v>14</v>
+      </c>
+      <c r="U20" s="13">
+        <v>7</v>
+      </c>
       <c r="W20" s="12" t="s">
         <v>18</v>
+      </c>
+      <c r="X20" s="13">
+        <v>32.9</v>
+      </c>
+      <c r="Y20" s="13">
+        <v>23.4</v>
+      </c>
+      <c r="Z20" s="13">
+        <v>25.6</v>
+      </c>
+      <c r="AA20" s="13">
+        <v>18.5</v>
+      </c>
+      <c r="AB20" s="13">
+        <v>15.8</v>
+      </c>
+      <c r="AC20" s="13">
+        <v>14.1</v>
+      </c>
+      <c r="AD20" s="13">
+        <v>15.1</v>
+      </c>
+      <c r="AE20" s="13">
+        <v>13.2</v>
+      </c>
+      <c r="AF20" s="13">
+        <v>15</v>
+      </c>
+      <c r="AG20" s="13">
+        <v>10.3</v>
+      </c>
+      <c r="AH20" s="13">
+        <v>17.6</v>
+      </c>
+      <c r="AI20" s="13">
+        <v>14.8</v>
+      </c>
+      <c r="AJ20" s="13">
+        <v>11.9</v>
+      </c>
+      <c r="AK20" s="13">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AL20" s="13">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AM20" s="13">
+        <v>7.9</v>
+      </c>
+      <c r="AN20" s="13">
+        <v>5.7</v>
+      </c>
+      <c r="AO20" s="13">
+        <v>5.3</v>
+      </c>
+      <c r="AP20" s="13">
+        <v>6.3</v>
+      </c>
+      <c r="AQ20" s="13">
+        <v>6.4</v>
       </c>
     </row>
     <row r="21" spans="1:43">
       <c r="A21" s="12" t="s">
         <v>19</v>
       </c>
+      <c r="B21" s="13">
+        <v>44</v>
+      </c>
+      <c r="C21" s="13">
+        <v>1</v>
+      </c>
+      <c r="D21" s="13">
+        <v>56</v>
+      </c>
+      <c r="E21" s="13">
+        <v>25</v>
+      </c>
+      <c r="F21" s="13">
+        <v>7</v>
+      </c>
+      <c r="G21" s="13">
+        <v>6</v>
+      </c>
+      <c r="H21" s="13">
+        <v>8</v>
+      </c>
+      <c r="I21" s="13">
+        <v>24</v>
+      </c>
+      <c r="J21" s="13">
+        <v>30</v>
+      </c>
+      <c r="K21" s="13">
+        <v>24</v>
+      </c>
+      <c r="L21" s="13">
+        <v>27</v>
+      </c>
+      <c r="M21" s="13">
+        <v>15</v>
+      </c>
+      <c r="N21" s="13">
+        <v>11</v>
+      </c>
+      <c r="O21" s="13">
+        <v>-3</v>
+      </c>
+      <c r="P21" s="13">
+        <v>11</v>
+      </c>
+      <c r="Q21" s="13">
+        <v>8</v>
+      </c>
+      <c r="R21" s="13">
+        <v>13</v>
+      </c>
+      <c r="S21" s="13">
+        <v>6</v>
+      </c>
+      <c r="T21" s="13">
+        <v>6</v>
+      </c>
+      <c r="U21" s="13">
+        <v>-14</v>
+      </c>
       <c r="W21" s="12" t="s">
         <v>19</v>
+      </c>
+      <c r="X21" s="13">
+        <v>32.9</v>
+      </c>
+      <c r="Y21" s="13">
+        <v>23.2</v>
+      </c>
+      <c r="Z21" s="13">
+        <v>25.7</v>
+      </c>
+      <c r="AA21" s="13">
+        <v>18.6</v>
+      </c>
+      <c r="AB21" s="13">
+        <v>15.8</v>
+      </c>
+      <c r="AC21" s="13">
+        <v>14</v>
+      </c>
+      <c r="AD21" s="13">
+        <v>15.1</v>
+      </c>
+      <c r="AE21" s="13">
+        <v>13.2</v>
+      </c>
+      <c r="AF21" s="13">
+        <v>15</v>
+      </c>
+      <c r="AG21" s="13">
+        <v>10.3</v>
+      </c>
+      <c r="AH21" s="13">
+        <v>17.6</v>
+      </c>
+      <c r="AI21" s="13">
+        <v>14.8</v>
+      </c>
+      <c r="AJ21" s="13">
+        <v>11.9</v>
+      </c>
+      <c r="AK21" s="13">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AL21" s="13">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AM21" s="13">
+        <v>7.9</v>
+      </c>
+      <c r="AN21" s="13">
+        <v>5.7</v>
+      </c>
+      <c r="AO21" s="13">
+        <v>5.3</v>
+      </c>
+      <c r="AP21" s="13">
+        <v>6.3</v>
+      </c>
+      <c r="AQ21" s="13">
+        <v>6.4</v>
       </c>
     </row>
     <row r="22" spans="1:43">
       <c r="A22" s="12" t="s">
         <v>20</v>
       </c>
+      <c r="B22" s="13">
+        <v>49</v>
+      </c>
+      <c r="C22" s="13">
+        <v>26</v>
+      </c>
+      <c r="D22" s="13">
+        <v>37</v>
+      </c>
+      <c r="E22" s="13">
+        <v>-6</v>
+      </c>
+      <c r="F22" s="13">
+        <v>26</v>
+      </c>
+      <c r="G22" s="13">
+        <v>5</v>
+      </c>
+      <c r="H22" s="13">
+        <v>-12</v>
+      </c>
+      <c r="I22" s="13">
+        <v>15</v>
+      </c>
+      <c r="J22" s="13">
+        <v>3</v>
+      </c>
+      <c r="K22" s="13">
+        <v>33</v>
+      </c>
+      <c r="L22" s="13">
+        <v>16</v>
+      </c>
+      <c r="M22" s="13">
+        <v>17</v>
+      </c>
+      <c r="N22" s="13">
+        <v>22</v>
+      </c>
+      <c r="O22" s="13">
+        <v>-3</v>
+      </c>
+      <c r="P22" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="13">
+        <v>14</v>
+      </c>
+      <c r="R22" s="13">
+        <v>-12</v>
+      </c>
+      <c r="S22" s="13">
+        <v>-14</v>
+      </c>
+      <c r="T22" s="13">
+        <v>-11</v>
+      </c>
+      <c r="U22" s="13">
+        <v>13</v>
+      </c>
       <c r="W22" s="12" t="s">
         <v>20</v>
+      </c>
+      <c r="X22" s="13">
+        <v>32.9</v>
+      </c>
+      <c r="Y22" s="13">
+        <v>23.2</v>
+      </c>
+      <c r="Z22" s="13">
+        <v>25.7</v>
+      </c>
+      <c r="AA22" s="13">
+        <v>18.5</v>
+      </c>
+      <c r="AB22" s="13">
+        <v>15.7</v>
+      </c>
+      <c r="AC22" s="13">
+        <v>14</v>
+      </c>
+      <c r="AD22" s="13">
+        <v>15.1</v>
+      </c>
+      <c r="AE22" s="13">
+        <v>13.2</v>
+      </c>
+      <c r="AF22" s="13">
+        <v>15</v>
+      </c>
+      <c r="AG22" s="13">
+        <v>10.3</v>
+      </c>
+      <c r="AH22" s="13">
+        <v>17.5</v>
+      </c>
+      <c r="AI22" s="13">
+        <v>14.8</v>
+      </c>
+      <c r="AJ22" s="13">
+        <v>11.9</v>
+      </c>
+      <c r="AK22" s="13">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AL22" s="13">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AM22" s="13">
+        <v>7.9</v>
+      </c>
+      <c r="AN22" s="13">
+        <v>5.7</v>
+      </c>
+      <c r="AO22" s="13">
+        <v>5.3</v>
+      </c>
+      <c r="AP22" s="13">
+        <v>6.3</v>
+      </c>
+      <c r="AQ22" s="13">
+        <v>6.4</v>
       </c>
     </row>
     <row r="23" spans="1:43">
       <c r="A23" s="12" t="s">
         <v>21</v>
       </c>
+      <c r="B23" s="13">
+        <v>36</v>
+      </c>
+      <c r="C23" s="13">
+        <v>17</v>
+      </c>
+      <c r="D23" s="13">
+        <v>49</v>
+      </c>
+      <c r="E23" s="13">
+        <v>1</v>
+      </c>
+      <c r="F23" s="13">
+        <v>1</v>
+      </c>
+      <c r="G23" s="13">
+        <v>25</v>
+      </c>
+      <c r="H23" s="13">
+        <v>14</v>
+      </c>
+      <c r="I23" s="13">
+        <v>5</v>
+      </c>
+      <c r="J23" s="13">
+        <v>16</v>
+      </c>
+      <c r="K23" s="13">
+        <v>10</v>
+      </c>
+      <c r="L23" s="13">
+        <v>3</v>
+      </c>
+      <c r="M23" s="13">
+        <v>44</v>
+      </c>
+      <c r="N23" s="13">
+        <v>23</v>
+      </c>
+      <c r="O23" s="13">
+        <v>32</v>
+      </c>
+      <c r="P23" s="13">
+        <v>-14</v>
+      </c>
+      <c r="Q23" s="13">
+        <v>-11</v>
+      </c>
+      <c r="R23" s="13">
+        <v>17</v>
+      </c>
+      <c r="S23" s="13">
+        <v>1</v>
+      </c>
+      <c r="T23" s="13">
+        <v>-14</v>
+      </c>
+      <c r="U23" s="13">
+        <v>-12</v>
+      </c>
       <c r="W23" s="12" t="s">
         <v>21</v>
+      </c>
+      <c r="X23" s="13">
+        <v>32.9</v>
+      </c>
+      <c r="Y23" s="13">
+        <v>23.3</v>
+      </c>
+      <c r="Z23" s="13">
+        <v>25.7</v>
+      </c>
+      <c r="AA23" s="13">
+        <v>18.5</v>
+      </c>
+      <c r="AB23" s="13">
+        <v>15.7</v>
+      </c>
+      <c r="AC23" s="13">
+        <v>13.9</v>
+      </c>
+      <c r="AD23" s="13">
+        <v>15.1</v>
+      </c>
+      <c r="AE23" s="13">
+        <v>13.2</v>
+      </c>
+      <c r="AF23" s="13">
+        <v>15</v>
+      </c>
+      <c r="AG23" s="13">
+        <v>10.3</v>
+      </c>
+      <c r="AH23" s="13">
+        <v>17.5</v>
+      </c>
+      <c r="AI23" s="13">
+        <v>14.9</v>
+      </c>
+      <c r="AJ23" s="13">
+        <v>11.9</v>
+      </c>
+      <c r="AK23" s="13">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AL23" s="13">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AM23" s="13">
+        <v>7.9</v>
+      </c>
+      <c r="AN23" s="13">
+        <v>5.7</v>
+      </c>
+      <c r="AO23" s="13">
+        <v>5.3</v>
+      </c>
+      <c r="AP23" s="13">
+        <v>6.3</v>
+      </c>
+      <c r="AQ23" s="13">
+        <v>6.4</v>
       </c>
     </row>
     <row r="25" spans="1:43">
@@ -3108,127 +3648,127 @@
         <v>54</v>
       </c>
       <c r="B25" s="13">
-        <v>616.5</v>
+        <v>830.5</v>
       </c>
       <c r="C25" s="13">
-        <v>425.5</v>
+        <v>520.5</v>
       </c>
       <c r="D25" s="13">
-        <v>597</v>
+        <v>846</v>
       </c>
       <c r="E25" s="13">
-        <v>369.5</v>
+        <v>458.5</v>
       </c>
       <c r="F25" s="13">
-        <v>310</v>
+        <v>333</v>
       </c>
       <c r="G25" s="13">
-        <v>425.5</v>
+        <v>498.5</v>
       </c>
       <c r="H25" s="13">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="I25" s="13">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="J25" s="13">
-        <v>216.5</v>
+        <v>292.5</v>
       </c>
       <c r="K25" s="13">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="L25" s="13">
-        <v>331</v>
+        <v>431</v>
       </c>
       <c r="M25" s="13">
-        <v>325</v>
+        <v>447</v>
       </c>
       <c r="N25" s="13">
-        <v>224</v>
+        <v>333</v>
       </c>
       <c r="O25" s="13">
-        <v>63.5</v>
+        <v>80.5</v>
       </c>
       <c r="P25" s="13">
-        <v>152.5</v>
+        <v>179.5</v>
       </c>
       <c r="Q25" s="13">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="R25" s="13">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="S25" s="13">
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
       <c r="T25" s="13">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="U25" s="13">
-        <v>82.5</v>
+        <v>74.5</v>
       </c>
       <c r="W25" s="12" t="s">
         <v>54</v>
       </c>
       <c r="X25">
-        <v>596.7000000000002</v>
+        <v>728.3000000000001</v>
       </c>
       <c r="Y25">
-        <v>417.2</v>
+        <v>510.3</v>
       </c>
       <c r="Z25">
-        <v>458.8</v>
+        <v>561.5</v>
       </c>
       <c r="AA25">
-        <v>331.6999999999999</v>
+        <v>405.8</v>
       </c>
       <c r="AB25">
-        <v>289.2</v>
+        <v>352.2</v>
       </c>
       <c r="AC25">
-        <v>250.7999999999999</v>
+        <v>306.7999999999999</v>
       </c>
       <c r="AD25">
-        <v>274.1</v>
+        <v>334.5000000000001</v>
       </c>
       <c r="AE25">
-        <v>241.4000000000001</v>
+        <v>294.2000000000001</v>
       </c>
       <c r="AF25">
-        <v>270.2</v>
+        <v>330.2</v>
       </c>
       <c r="AG25">
-        <v>183.1</v>
+        <v>224.3</v>
       </c>
       <c r="AH25">
-        <v>318.3</v>
+        <v>388.5000000000001</v>
       </c>
       <c r="AI25">
-        <v>260.2</v>
+        <v>319.5000000000001</v>
       </c>
       <c r="AJ25">
-        <v>212.5000000000001</v>
+        <v>260.1000000000001</v>
       </c>
       <c r="AK25">
-        <v>154.6</v>
+        <v>187.3999999999999</v>
       </c>
       <c r="AL25">
-        <v>167.3</v>
+        <v>204.0999999999999</v>
       </c>
       <c r="AM25">
-        <v>143.2</v>
+        <v>174.8</v>
       </c>
       <c r="AN25">
-        <v>104</v>
+        <v>126.8</v>
       </c>
       <c r="AO25">
-        <v>95.59999999999997</v>
+        <v>116.8</v>
       </c>
       <c r="AP25">
-        <v>112.1</v>
+        <v>137.3</v>
       </c>
       <c r="AQ25">
-        <v>115.5</v>
+        <v>141.1000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:43">
@@ -3236,127 +3776,127 @@
         <v>55</v>
       </c>
       <c r="B26" s="13">
-        <v>1.033182503770739</v>
+        <v>1.140326788411369</v>
       </c>
       <c r="C26" s="13">
-        <v>1.019894534995206</v>
+        <v>1.019988242210464</v>
       </c>
       <c r="D26" s="13">
-        <v>1.301220575414124</v>
+        <v>1.506678539626002</v>
       </c>
       <c r="E26" s="13">
-        <v>1.113958396141091</v>
+        <v>1.129866929521932</v>
       </c>
       <c r="F26" s="13">
-        <v>1.07192254495159</v>
+        <v>0.9454855195911412</v>
       </c>
       <c r="G26" s="13">
-        <v>1.696570972886763</v>
+        <v>1.624837027379401</v>
       </c>
       <c r="H26" s="13">
-        <v>0.4925209777453484</v>
+        <v>0.514200298953662</v>
       </c>
       <c r="I26" s="13">
-        <v>0.5302402651201323</v>
+        <v>0.5880353501019713</v>
       </c>
       <c r="J26" s="13">
-        <v>0.801258327165063</v>
+        <v>0.8858267716535433</v>
       </c>
       <c r="K26" s="13">
-        <v>0.7646095030038232</v>
+        <v>1.069995541685243</v>
       </c>
       <c r="L26" s="13">
-        <v>1.039899465912661</v>
+        <v>1.109395109395109</v>
       </c>
       <c r="M26" s="13">
-        <v>1.249039200614911</v>
+        <v>1.39906103286385</v>
       </c>
       <c r="N26" s="13">
-        <v>1.054117647058823</v>
+        <v>1.280276816608996</v>
       </c>
       <c r="O26" s="13">
-        <v>0.4107373868046572</v>
+        <v>0.4295624332977589</v>
       </c>
       <c r="P26" s="13">
-        <v>0.9115361625821879</v>
+        <v>0.8794708476237143</v>
       </c>
       <c r="Q26" s="13">
-        <v>0.893854748603352</v>
+        <v>0.8466819221967963</v>
       </c>
       <c r="R26" s="13">
-        <v>1.163461538461539</v>
+        <v>1.048895899053628</v>
       </c>
       <c r="S26" s="13">
-        <v>0.1516736401673641</v>
+        <v>0.1583904109589042</v>
       </c>
       <c r="T26" s="13">
-        <v>1.27564674397859</v>
+        <v>1.063364894391842</v>
       </c>
       <c r="U26" s="13">
-        <v>0.714285714285714</v>
+        <v>0.5279943302622252</v>
       </c>
       <c r="W26" s="12" t="s">
         <v>55</v>
       </c>
       <c r="X26">
-        <v>1.033182503770739</v>
+        <v>1.140326788411369</v>
       </c>
       <c r="Y26">
-        <v>1.019894534995206</v>
+        <v>1.019988242210464</v>
       </c>
       <c r="Z26">
-        <v>1.301220575414124</v>
+        <v>1.506678539626002</v>
       </c>
       <c r="AA26">
-        <v>1.113958396141091</v>
+        <v>1.129866929521932</v>
       </c>
       <c r="AB26">
-        <v>1.07192254495159</v>
+        <v>0.9454855195911412</v>
       </c>
       <c r="AC26">
-        <v>1.696570972886763</v>
+        <v>1.624837027379401</v>
       </c>
       <c r="AD26">
-        <v>0.4925209777453484</v>
+        <v>0.514200298953662</v>
       </c>
       <c r="AE26">
-        <v>0.5302402651201323</v>
+        <v>0.5880353501019713</v>
       </c>
       <c r="AF26">
-        <v>0.801258327165063</v>
+        <v>0.8858267716535433</v>
       </c>
       <c r="AG26">
-        <v>0.7646095030038232</v>
+        <v>1.069995541685243</v>
       </c>
       <c r="AH26">
-        <v>1.039899465912661</v>
+        <v>1.109395109395109</v>
       </c>
       <c r="AI26">
-        <v>1.249039200614911</v>
+        <v>1.39906103286385</v>
       </c>
       <c r="AJ26">
-        <v>1.054117647058823</v>
+        <v>1.280276816608996</v>
       </c>
       <c r="AK26">
-        <v>0.4107373868046572</v>
+        <v>0.4295624332977589</v>
       </c>
       <c r="AL26">
-        <v>0.9115361625821879</v>
+        <v>0.8794708476237143</v>
       </c>
       <c r="AM26">
-        <v>0.893854748603352</v>
+        <v>0.8466819221967963</v>
       </c>
       <c r="AN26">
-        <v>1.163461538461539</v>
+        <v>1.048895899053628</v>
       </c>
       <c r="AO26">
-        <v>0.1516736401673641</v>
+        <v>0.1583904109589042</v>
       </c>
       <c r="AP26">
-        <v>1.27564674397859</v>
+        <v>1.063364894391842</v>
       </c>
       <c r="AQ26">
-        <v>0.714285714285714</v>
+        <v>0.5279943302622252</v>
       </c>
     </row>
     <row r="27" spans="1:43">
@@ -3364,127 +3904,127 @@
         <v>56</v>
       </c>
       <c r="B27" s="13">
-        <v>36.26470588235294</v>
+        <v>37.75</v>
       </c>
       <c r="C27" s="13">
-        <v>25.02941176470588</v>
+        <v>23.65909090909091</v>
       </c>
       <c r="D27" s="13">
-        <v>35.11764705882353</v>
+        <v>38.45454545454545</v>
       </c>
       <c r="E27" s="13">
-        <v>21.73529411764706</v>
+        <v>20.84090909090909</v>
       </c>
       <c r="F27" s="13">
-        <v>18.23529411764706</v>
+        <v>15.13636363636364</v>
       </c>
       <c r="G27" s="13">
-        <v>25.02941176470588</v>
+        <v>22.65909090909091</v>
       </c>
       <c r="H27" s="13">
-        <v>7.941176470588236</v>
+        <v>7.818181818181818</v>
       </c>
       <c r="I27" s="13">
-        <v>7.529411764705882</v>
+        <v>7.863636363636363</v>
       </c>
       <c r="J27" s="13">
-        <v>12.73529411764706</v>
+        <v>13.29545454545454</v>
       </c>
       <c r="K27" s="13">
-        <v>8.235294117647058</v>
+        <v>10.90909090909091</v>
       </c>
       <c r="L27" s="13">
-        <v>19.47058823529412</v>
+        <v>19.59090909090909</v>
       </c>
       <c r="M27" s="13">
-        <v>19.11764705882353</v>
+        <v>20.31818181818182</v>
       </c>
       <c r="N27" s="13">
-        <v>13.17647058823529</v>
+        <v>15.13636363636364</v>
       </c>
       <c r="O27" s="13">
-        <v>3.735294117647059</v>
+        <v>3.659090909090909</v>
       </c>
       <c r="P27" s="13">
-        <v>8.970588235294118</v>
+        <v>8.159090909090908</v>
       </c>
       <c r="Q27" s="13">
-        <v>7.529411764705882</v>
+        <v>6.727272727272728</v>
       </c>
       <c r="R27" s="13">
-        <v>7.117647058823529</v>
+        <v>6.045454545454546</v>
       </c>
       <c r="S27" s="13">
-        <v>0.8529411764705882</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="T27" s="13">
-        <v>8.411764705882353</v>
+        <v>6.636363636363637</v>
       </c>
       <c r="U27" s="13">
-        <v>4.852941176470588</v>
+        <v>3.386363636363636</v>
       </c>
       <c r="W27" s="12" t="s">
         <v>56</v>
       </c>
       <c r="X27">
-        <v>33.15000000000001</v>
+        <v>33.10454545454546</v>
       </c>
       <c r="Y27">
-        <v>23.17777777777778</v>
+        <v>23.19545454545454</v>
       </c>
       <c r="Z27">
-        <v>25.48888888888889</v>
+        <v>25.52272727272727</v>
       </c>
       <c r="AA27">
-        <v>18.42777777777777</v>
+        <v>18.44545454545454</v>
       </c>
       <c r="AB27">
-        <v>16.06666666666667</v>
+        <v>16.00909090909091</v>
       </c>
       <c r="AC27">
-        <v>13.93333333333333</v>
+        <v>13.94545454545454</v>
       </c>
       <c r="AD27">
-        <v>15.22777777777778</v>
+        <v>15.20454545454546</v>
       </c>
       <c r="AE27">
-        <v>13.41111111111112</v>
+        <v>13.37272727272728</v>
       </c>
       <c r="AF27">
-        <v>15.01111111111111</v>
+        <v>15.00909090909091</v>
       </c>
       <c r="AG27">
-        <v>10.17222222222222</v>
+        <v>10.19545454545455</v>
       </c>
       <c r="AH27">
-        <v>17.68333333333333</v>
+        <v>17.65909090909091</v>
       </c>
       <c r="AI27">
-        <v>14.45555555555556</v>
+        <v>14.52272727272728</v>
       </c>
       <c r="AJ27">
-        <v>11.80555555555556</v>
+        <v>11.82272727272728</v>
       </c>
       <c r="AK27">
-        <v>8.588888888888889</v>
+        <v>8.518181818181816</v>
       </c>
       <c r="AL27">
-        <v>9.294444444444443</v>
+        <v>9.277272727272724</v>
       </c>
       <c r="AM27">
-        <v>7.955555555555555</v>
+        <v>7.945454545454546</v>
       </c>
       <c r="AN27">
-        <v>5.777777777777777</v>
+        <v>5.763636363636364</v>
       </c>
       <c r="AO27">
-        <v>5.311111111111109</v>
+        <v>5.309090909090907</v>
       </c>
       <c r="AP27">
-        <v>6.227777777777779</v>
+        <v>6.240909090909093</v>
       </c>
       <c r="AQ27">
-        <v>6.416666666666669</v>
+        <v>6.413636363636366</v>
       </c>
     </row>
     <row r="28" spans="1:43">
@@ -3492,127 +4032,127 @@
         <v>57</v>
       </c>
       <c r="B28" s="13">
-        <v>1.093957945169018</v>
+        <v>1.140326788411369</v>
       </c>
       <c r="C28" s="13">
-        <v>1.079888331171395</v>
+        <v>1.019988242210465</v>
       </c>
       <c r="D28" s="13">
-        <v>1.37776296220319</v>
+        <v>1.506678539626002</v>
       </c>
       <c r="E28" s="13">
-        <v>1.179485360619979</v>
+        <v>1.129866929521932</v>
       </c>
       <c r="F28" s="13">
-        <v>1.134976812301684</v>
+        <v>0.9454855195911412</v>
       </c>
       <c r="G28" s="13">
-        <v>1.796369265409514</v>
+        <v>1.624837027379401</v>
       </c>
       <c r="H28" s="13">
-        <v>0.521492799965663</v>
+        <v>0.514200298953662</v>
       </c>
       <c r="I28" s="13">
-        <v>0.5614308689507282</v>
+        <v>0.5880353501019713</v>
       </c>
       <c r="J28" s="13">
-        <v>0.8483911699394783</v>
+        <v>0.8858267716535434</v>
       </c>
       <c r="K28" s="13">
-        <v>0.8095865325922833</v>
+        <v>1.069995541685243</v>
       </c>
       <c r="L28" s="13">
-        <v>1.101070022731053</v>
+        <v>1.109395109395109</v>
       </c>
       <c r="M28" s="13">
-        <v>1.32251209476873</v>
+        <v>1.39906103286385</v>
       </c>
       <c r="N28" s="13">
-        <v>1.116124567474048</v>
+        <v>1.280276816608996</v>
       </c>
       <c r="O28" s="13">
-        <v>0.4348984095578723</v>
+        <v>0.4295624332977589</v>
       </c>
       <c r="P28" s="13">
-        <v>0.9651559368517284</v>
+        <v>0.8794708476237141</v>
       </c>
       <c r="Q28" s="13">
-        <v>0.9464344396976668</v>
+        <v>0.8466819221967963</v>
       </c>
       <c r="R28" s="13">
-        <v>1.231900452488688</v>
+        <v>1.048895899053628</v>
       </c>
       <c r="S28" s="13">
-        <v>0.1605956190007384</v>
+        <v>0.1583904109589042</v>
       </c>
       <c r="T28" s="13">
-        <v>1.350684787742037</v>
+        <v>1.063364894391842</v>
       </c>
       <c r="U28" s="13">
-        <v>0.756302521008403</v>
+        <v>0.5279943302622252</v>
       </c>
       <c r="W28" s="12" t="s">
         <v>57</v>
       </c>
       <c r="X28">
-        <v>1.093957945169018</v>
+        <v>1.140326788411369</v>
       </c>
       <c r="Y28">
-        <v>1.079888331171395</v>
+        <v>1.019988242210465</v>
       </c>
       <c r="Z28">
-        <v>1.37776296220319</v>
+        <v>1.506678539626002</v>
       </c>
       <c r="AA28">
-        <v>1.179485360619979</v>
+        <v>1.129866929521932</v>
       </c>
       <c r="AB28">
-        <v>1.134976812301684</v>
+        <v>0.9454855195911412</v>
       </c>
       <c r="AC28">
-        <v>1.796369265409514</v>
+        <v>1.624837027379401</v>
       </c>
       <c r="AD28">
-        <v>0.521492799965663</v>
+        <v>0.514200298953662</v>
       </c>
       <c r="AE28">
-        <v>0.5614308689507282</v>
+        <v>0.5880353501019713</v>
       </c>
       <c r="AF28">
-        <v>0.8483911699394783</v>
+        <v>0.8858267716535434</v>
       </c>
       <c r="AG28">
-        <v>0.8095865325922833</v>
+        <v>1.069995541685243</v>
       </c>
       <c r="AH28">
-        <v>1.101070022731053</v>
+        <v>1.109395109395109</v>
       </c>
       <c r="AI28">
-        <v>1.32251209476873</v>
+        <v>1.39906103286385</v>
       </c>
       <c r="AJ28">
-        <v>1.116124567474048</v>
+        <v>1.280276816608996</v>
       </c>
       <c r="AK28">
-        <v>0.4348984095578723</v>
+        <v>0.4295624332977589</v>
       </c>
       <c r="AL28">
-        <v>0.9651559368517284</v>
+        <v>0.8794708476237141</v>
       </c>
       <c r="AM28">
-        <v>0.9464344396976668</v>
+        <v>0.8466819221967963</v>
       </c>
       <c r="AN28">
-        <v>1.231900452488688</v>
+        <v>1.048895899053628</v>
       </c>
       <c r="AO28">
-        <v>0.1605956190007384</v>
+        <v>0.1583904109589042</v>
       </c>
       <c r="AP28">
-        <v>1.350684787742037</v>
+        <v>1.063364894391842</v>
       </c>
       <c r="AQ28">
-        <v>0.756302521008403</v>
+        <v>0.5279943302622252</v>
       </c>
     </row>
     <row r="29" spans="1:43">
@@ -3620,127 +4160,127 @@
         <v>58</v>
       </c>
       <c r="B29" s="13">
-        <v>56.08363581289983</v>
+        <v>41.93149316278097</v>
       </c>
       <c r="C29" s="13">
-        <v>76.98701764129079</v>
+        <v>62.20318111047767</v>
       </c>
       <c r="D29" s="13">
-        <v>50.95765796611121</v>
+        <v>45.07697459938503</v>
       </c>
       <c r="E29" s="13">
-        <v>41.28896268568354</v>
+        <v>42.80191592211713</v>
       </c>
       <c r="F29" s="13">
-        <v>38.5069363985021</v>
+        <v>40.30066185673231</v>
       </c>
       <c r="G29" s="13">
-        <v>50.82170374031227</v>
+        <v>42.13324094809268</v>
       </c>
       <c r="H29" s="13">
-        <v>35.4236288331613</v>
+        <v>29.25959583306832</v>
       </c>
       <c r="I29" s="13">
-        <v>26.99614528086076</v>
+        <v>25.0665015789587</v>
       </c>
       <c r="J29" s="13">
-        <v>39.80521533252011</v>
+        <v>30.89791559403031</v>
       </c>
       <c r="K29" s="13">
-        <v>48.40809662057357</v>
+        <v>41.10721250063133</v>
       </c>
       <c r="L29" s="13">
-        <v>40.9490771211863</v>
+        <v>32.22546447608968</v>
       </c>
       <c r="M29" s="13">
-        <v>19.82749715262424</v>
+        <v>19.97082825912049</v>
       </c>
       <c r="N29" s="13">
-        <v>43.97699592786824</v>
+        <v>34.35042368208028</v>
       </c>
       <c r="O29" s="13">
-        <v>25.31014503623102</v>
+        <v>27.71311976913142</v>
       </c>
       <c r="P29" s="13">
-        <v>14.22735796277146</v>
+        <v>15.98708036957285</v>
       </c>
       <c r="Q29" s="13">
-        <v>2.942317997845618</v>
+        <v>5.818088970299384</v>
       </c>
       <c r="R29" s="13">
-        <v>8.984728033352875</v>
+        <v>14.23555279021542</v>
       </c>
       <c r="S29" s="13">
-        <v>15.17819831974781</v>
+        <v>13.36083518173783</v>
       </c>
       <c r="T29" s="13">
-        <v>22.77149359770193</v>
+        <v>23.67585145182097</v>
       </c>
       <c r="U29" s="13">
-        <v>12.63870765760268</v>
+        <v>15.4664125044234</v>
       </c>
       <c r="W29" s="12" t="s">
         <v>58</v>
       </c>
       <c r="X29">
-        <v>0.006612757861032345</v>
+        <v>0.006876163599764853</v>
       </c>
       <c r="Y29">
-        <v>0.009573585638285243</v>
+        <v>0.007651438932039082</v>
       </c>
       <c r="Z29">
-        <v>0.01489871078057328</v>
+        <v>0.01219737156174852</v>
       </c>
       <c r="AA29">
-        <v>0.01121040689107505</v>
+        <v>0.00866898780556569</v>
       </c>
       <c r="AB29">
-        <v>0.0442596466742333</v>
+        <v>0.03603268305346998</v>
       </c>
       <c r="AC29">
-        <v>0.02304644323868966</v>
+        <v>0.01739083529283879</v>
       </c>
       <c r="AD29">
-        <v>0.0182814747028872</v>
+        <v>0.01404746042265916</v>
       </c>
       <c r="AE29">
-        <v>0.007041968767322874</v>
+        <v>0.006625080111507715</v>
       </c>
       <c r="AF29">
-        <v>0.00966088277177987</v>
+        <v>0.007153676928969619</v>
       </c>
       <c r="AG29">
-        <v>0.01094851549059452</v>
+        <v>0.008620533097269768</v>
       </c>
       <c r="AH29">
-        <v>0.02599272149362423</v>
+        <v>0.01989726520203807</v>
       </c>
       <c r="AI29">
-        <v>0.003986569095566913</v>
+        <v>0.007351900735476933</v>
       </c>
       <c r="AJ29">
-        <v>0.004052041945687884</v>
+        <v>0.00328170524142504</v>
       </c>
       <c r="AK29">
-        <v>0.03218354320956206</v>
+        <v>0.02861470771583606</v>
       </c>
       <c r="AL29">
-        <v>0.004052041945687884</v>
+        <v>0.00328170524142807</v>
       </c>
       <c r="AM29">
-        <v>0.001629546491627296</v>
+        <v>0.001303872149613429</v>
       </c>
       <c r="AN29">
-        <v>0.0006692780233471644</v>
+        <v>0.0006871758626326098</v>
       </c>
       <c r="AO29">
-        <v>0.000494683756388054</v>
+        <v>0.000370017772191218</v>
       </c>
       <c r="AP29">
-        <v>0.0004728594730177465</v>
+        <v>0.0005153818969744574</v>
       </c>
       <c r="AQ29">
-        <v>0.0003273642505495881</v>
+        <v>0.0002510834882692579</v>
       </c>
     </row>
     <row r="30" spans="1:43">
@@ -3754,7 +4294,7 @@
         <v>57</v>
       </c>
       <c r="D30" s="13">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E30" s="13">
         <v>51</v>
@@ -3769,7 +4309,7 @@
         <v>36</v>
       </c>
       <c r="I30" s="13">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J30" s="13">
         <v>35</v>
@@ -3781,13 +4321,13 @@
         <v>48</v>
       </c>
       <c r="M30" s="13">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="N30" s="13">
         <v>43</v>
       </c>
       <c r="O30" s="13">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="P30" s="13">
         <v>21</v>
@@ -3796,7 +4336,7 @@
         <v>17</v>
       </c>
       <c r="R30" s="13">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="S30" s="13">
         <v>11</v>
@@ -3844,7 +4384,7 @@
         <v>18.3</v>
       </c>
       <c r="AI30">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="AJ30">
         <v>12</v>
@@ -3885,10 +4425,10 @@
         <v>9</v>
       </c>
       <c r="E31" s="13">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="F31" s="13">
-        <v>3</v>
+        <v>-11</v>
       </c>
       <c r="G31" s="13">
         <v>-5</v>
@@ -3918,10 +4458,10 @@
         <v>-14</v>
       </c>
       <c r="P31" s="13">
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="Q31" s="13">
-        <v>3</v>
+        <v>-11</v>
       </c>
       <c r="R31" s="13">
         <v>-12</v>
@@ -3930,16 +4470,16 @@
         <v>-14</v>
       </c>
       <c r="T31" s="13">
-        <v>-11</v>
+        <v>-14</v>
       </c>
       <c r="U31" s="13">
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="W31" s="12" t="s">
         <v>60</v>
       </c>
       <c r="X31">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="Y31">
         <v>23</v>
@@ -3960,7 +4500,7 @@
         <v>14.9</v>
       </c>
       <c r="AE31">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="AF31">
         <v>14.8</v>
@@ -4010,13 +4550,13 @@
         <v>66</v>
       </c>
       <c r="D32" s="13">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E32" s="13">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F32" s="13">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="G32" s="13">
         <v>58</v>
@@ -4025,7 +4565,7 @@
         <v>50</v>
       </c>
       <c r="I32" s="13">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J32" s="13">
         <v>48</v>
@@ -4037,37 +4577,37 @@
         <v>54</v>
       </c>
       <c r="M32" s="13">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="N32" s="13">
         <v>53</v>
       </c>
       <c r="O32" s="13">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="P32" s="13">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q32" s="13">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="R32" s="13">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="S32" s="13">
         <v>25</v>
       </c>
       <c r="T32" s="13">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="U32" s="13">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W32" s="12" t="s">
         <v>61</v>
       </c>
       <c r="X32">
-        <v>0.5</v>
+        <v>0.6000000000000014</v>
       </c>
       <c r="Y32">
         <v>0.6000000000000014</v>
@@ -4088,7 +4628,7 @@
         <v>1.299999999999999</v>
       </c>
       <c r="AE32">
-        <v>0.5999999999999996</v>
+        <v>0.7000000000000011</v>
       </c>
       <c r="AF32">
         <v>0.7999999999999989</v>
@@ -4100,7 +4640,7 @@
         <v>1.5</v>
       </c>
       <c r="AI32">
-        <v>0.3999999999999986</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="AJ32">
         <v>0.5</v>
@@ -5168,7 +5708,7 @@
         <v>75</v>
       </c>
       <c r="C16" s="13">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D16" s="13">
         <v>34</v>
@@ -5236,7 +5776,7 @@
         <v>72</v>
       </c>
       <c r="C17" s="13">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" s="13">
         <v>25</v>
@@ -5368,6 +5908,36 @@
       <c r="A19" s="12" t="s">
         <v>17</v>
       </c>
+      <c r="B19" s="13">
+        <v>40</v>
+      </c>
+      <c r="C19" s="13">
+        <v>74</v>
+      </c>
+      <c r="D19" s="13">
+        <v>14</v>
+      </c>
+      <c r="E19" s="13">
+        <v>25</v>
+      </c>
+      <c r="F19" s="13">
+        <v>23</v>
+      </c>
+      <c r="G19" s="13">
+        <v>50</v>
+      </c>
+      <c r="H19" s="13">
+        <v>34</v>
+      </c>
+      <c r="I19" s="13">
+        <v>14</v>
+      </c>
+      <c r="J19" s="13">
+        <v>0</v>
+      </c>
+      <c r="K19" s="13">
+        <v>1</v>
+      </c>
       <c r="M19" s="12" t="s">
         <v>17</v>
       </c>
@@ -5406,32 +5976,272 @@
       <c r="A20" s="12" t="s">
         <v>18</v>
       </c>
+      <c r="B20" s="13">
+        <v>84</v>
+      </c>
+      <c r="C20" s="13">
+        <v>72</v>
+      </c>
+      <c r="D20" s="13">
+        <v>15</v>
+      </c>
+      <c r="E20" s="13">
+        <v>6</v>
+      </c>
+      <c r="F20" s="13">
+        <v>25</v>
+      </c>
+      <c r="G20" s="13">
+        <v>53</v>
+      </c>
+      <c r="H20" s="13">
+        <v>18</v>
+      </c>
+      <c r="I20" s="13">
+        <v>13</v>
+      </c>
+      <c r="J20" s="13">
+        <v>8</v>
+      </c>
+      <c r="K20" s="13">
+        <v>14</v>
+      </c>
       <c r="M20" s="12" t="s">
         <v>18</v>
+      </c>
+      <c r="N20" s="13">
+        <v>37.1</v>
+      </c>
+      <c r="O20" s="13">
+        <v>26.6</v>
+      </c>
+      <c r="P20" s="13">
+        <v>18.7</v>
+      </c>
+      <c r="Q20" s="13">
+        <v>16.4</v>
+      </c>
+      <c r="R20" s="13">
+        <v>15.1</v>
+      </c>
+      <c r="S20" s="13">
+        <v>18.9</v>
+      </c>
+      <c r="T20" s="13">
+        <v>12.6</v>
+      </c>
+      <c r="U20" s="13">
+        <v>9.1</v>
+      </c>
+      <c r="V20" s="13">
+        <v>6.1</v>
+      </c>
+      <c r="W20" s="13">
+        <v>6.3</v>
       </c>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" s="12" t="s">
         <v>19</v>
       </c>
+      <c r="B21" s="13">
+        <v>50</v>
+      </c>
+      <c r="C21" s="13">
+        <v>76</v>
+      </c>
+      <c r="D21" s="13">
+        <v>8</v>
+      </c>
+      <c r="E21" s="13">
+        <v>27</v>
+      </c>
+      <c r="F21" s="13">
+        <v>49</v>
+      </c>
+      <c r="G21" s="13">
+        <v>27</v>
+      </c>
+      <c r="H21" s="13">
+        <v>-2</v>
+      </c>
+      <c r="I21" s="13">
+        <v>14</v>
+      </c>
+      <c r="J21" s="13">
+        <v>14</v>
+      </c>
+      <c r="K21" s="13">
+        <v>2</v>
+      </c>
       <c r="M21" s="12" t="s">
         <v>19</v>
+      </c>
+      <c r="N21" s="13">
+        <v>37.1</v>
+      </c>
+      <c r="O21" s="13">
+        <v>26.6</v>
+      </c>
+      <c r="P21" s="13">
+        <v>18.6</v>
+      </c>
+      <c r="Q21" s="13">
+        <v>16.4</v>
+      </c>
+      <c r="R21" s="13">
+        <v>15.1</v>
+      </c>
+      <c r="S21" s="13">
+        <v>19</v>
+      </c>
+      <c r="T21" s="13">
+        <v>12.6</v>
+      </c>
+      <c r="U21" s="13">
+        <v>9.1</v>
+      </c>
+      <c r="V21" s="13">
+        <v>6.1</v>
+      </c>
+      <c r="W21" s="13">
+        <v>6.3</v>
       </c>
     </row>
     <row r="22" spans="1:23">
       <c r="A22" s="12" t="s">
         <v>20</v>
       </c>
+      <c r="B22" s="13">
+        <v>65</v>
+      </c>
+      <c r="C22" s="13">
+        <v>41</v>
+      </c>
+      <c r="D22" s="13">
+        <v>26</v>
+      </c>
+      <c r="E22" s="13">
+        <v>13</v>
+      </c>
+      <c r="F22" s="13">
+        <v>31</v>
+      </c>
+      <c r="G22" s="13">
+        <v>38</v>
+      </c>
+      <c r="H22" s="13">
+        <v>14</v>
+      </c>
+      <c r="I22" s="13">
+        <v>9</v>
+      </c>
+      <c r="J22" s="13">
+        <v>2</v>
+      </c>
+      <c r="K22" s="13">
+        <v>12</v>
+      </c>
       <c r="M22" s="12" t="s">
         <v>20</v>
+      </c>
+      <c r="N22" s="13">
+        <v>37.1</v>
+      </c>
+      <c r="O22" s="13">
+        <v>26.6</v>
+      </c>
+      <c r="P22" s="13">
+        <v>18.6</v>
+      </c>
+      <c r="Q22" s="13">
+        <v>16.4</v>
+      </c>
+      <c r="R22" s="13">
+        <v>15.1</v>
+      </c>
+      <c r="S22" s="13">
+        <v>19</v>
+      </c>
+      <c r="T22" s="13">
+        <v>12.6</v>
+      </c>
+      <c r="U22" s="13">
+        <v>9.1</v>
+      </c>
+      <c r="V22" s="13">
+        <v>6.1</v>
+      </c>
+      <c r="W22" s="13">
+        <v>6.3</v>
       </c>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" s="12" t="s">
         <v>21</v>
       </c>
+      <c r="B23" s="13">
+        <v>53</v>
+      </c>
+      <c r="C23" s="13">
+        <v>40</v>
+      </c>
+      <c r="D23" s="13">
+        <v>11</v>
+      </c>
+      <c r="E23" s="13">
+        <v>14</v>
+      </c>
+      <c r="F23" s="13">
+        <v>21</v>
+      </c>
+      <c r="G23" s="13">
+        <v>32</v>
+      </c>
+      <c r="H23" s="13">
+        <v>50</v>
+      </c>
+      <c r="I23" s="13">
+        <v>3</v>
+      </c>
+      <c r="J23" s="13">
+        <v>13</v>
+      </c>
+      <c r="K23" s="13">
+        <v>2</v>
+      </c>
       <c r="M23" s="12" t="s">
         <v>21</v>
+      </c>
+      <c r="N23" s="13">
+        <v>37.1</v>
+      </c>
+      <c r="O23" s="13">
+        <v>26.6</v>
+      </c>
+      <c r="P23" s="13">
+        <v>18.5</v>
+      </c>
+      <c r="Q23" s="13">
+        <v>16.4</v>
+      </c>
+      <c r="R23" s="13">
+        <v>15.1</v>
+      </c>
+      <c r="S23" s="13">
+        <v>19.1</v>
+      </c>
+      <c r="T23" s="13">
+        <v>12.6</v>
+      </c>
+      <c r="U23" s="13">
+        <v>9.1</v>
+      </c>
+      <c r="V23" s="13">
+        <v>6.1</v>
+      </c>
+      <c r="W23" s="13">
+        <v>6.3</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -5439,67 +6249,67 @@
         <v>54</v>
       </c>
       <c r="B25" s="13">
-        <v>956.5</v>
+        <v>1248.5</v>
       </c>
       <c r="C25" s="13">
-        <v>888.5</v>
+        <v>1191.5</v>
       </c>
       <c r="D25" s="13">
-        <v>623</v>
+        <v>697</v>
       </c>
       <c r="E25" s="13">
-        <v>250.5</v>
+        <v>335.5</v>
       </c>
       <c r="F25" s="13">
-        <v>327</v>
+        <v>476</v>
       </c>
       <c r="G25" s="13">
-        <v>594.5</v>
+        <v>794.5</v>
       </c>
       <c r="H25" s="13">
-        <v>283</v>
+        <v>397</v>
       </c>
       <c r="I25" s="13">
-        <v>213</v>
+        <v>266</v>
       </c>
       <c r="J25" s="13">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="K25" s="13">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="M25" s="12" t="s">
         <v>54</v>
       </c>
       <c r="N25" s="13">
-        <v>672.2000000000002</v>
+        <v>820.6000000000003</v>
       </c>
       <c r="O25" s="13">
-        <v>473.8000000000001</v>
+        <v>580.2000000000002</v>
       </c>
       <c r="P25" s="13">
-        <v>336.9</v>
+        <v>411.3</v>
       </c>
       <c r="Q25" s="13">
-        <v>297.9</v>
+        <v>363.4999999999999</v>
       </c>
       <c r="R25" s="13">
-        <v>272.9999999999999</v>
+        <v>333.4</v>
       </c>
       <c r="S25" s="13">
-        <v>339.2</v>
+        <v>415.2</v>
       </c>
       <c r="T25" s="13">
-        <v>229.1999999999999</v>
+        <v>279.5999999999999</v>
       </c>
       <c r="U25" s="13">
-        <v>163.5</v>
+        <v>199.9</v>
       </c>
       <c r="V25" s="13">
-        <v>109.8</v>
+        <v>134.2</v>
       </c>
       <c r="W25" s="13">
-        <v>113.4</v>
+        <v>138.6</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -5507,67 +6317,67 @@
         <v>55</v>
       </c>
       <c r="B26" s="13">
-        <v>1.422939601309134</v>
+        <v>1.521447721179624</v>
       </c>
       <c r="C26" s="13">
-        <v>1.87526382439848</v>
+        <v>2.053602206135815</v>
       </c>
       <c r="D26" s="13">
-        <v>1.849213416444049</v>
+        <v>1.694626793095064</v>
       </c>
       <c r="E26" s="13">
-        <v>0.8408862034239678</v>
+        <v>0.9229711141678132</v>
       </c>
       <c r="F26" s="13">
-        <v>1.197802197802198</v>
+        <v>1.427714457108578</v>
       </c>
       <c r="G26" s="13">
-        <v>1.752653301886792</v>
+        <v>1.913535645472061</v>
       </c>
       <c r="H26" s="13">
-        <v>1.234729493891798</v>
+        <v>1.419885550786839</v>
       </c>
       <c r="I26" s="13">
-        <v>1.302752293577982</v>
+        <v>1.330665332666333</v>
       </c>
       <c r="J26" s="13">
-        <v>1.211293260473589</v>
+        <v>1.266766020864382</v>
       </c>
       <c r="K26" s="13">
-        <v>1.640211640211641</v>
+        <v>1.565656565656566</v>
       </c>
       <c r="M26" s="12" t="s">
         <v>55</v>
       </c>
       <c r="N26" s="13">
-        <v>1.422939601309134</v>
+        <v>1.521447721179624</v>
       </c>
       <c r="O26" s="13">
-        <v>1.87526382439848</v>
+        <v>2.053602206135815</v>
       </c>
       <c r="P26" s="13">
-        <v>1.849213416444049</v>
+        <v>1.694626793095064</v>
       </c>
       <c r="Q26" s="13">
-        <v>0.8408862034239678</v>
+        <v>0.9229711141678132</v>
       </c>
       <c r="R26" s="13">
-        <v>1.197802197802198</v>
+        <v>1.427714457108578</v>
       </c>
       <c r="S26" s="13">
-        <v>1.752653301886792</v>
+        <v>1.913535645472061</v>
       </c>
       <c r="T26" s="13">
-        <v>1.234729493891798</v>
+        <v>1.419885550786839</v>
       </c>
       <c r="U26" s="13">
-        <v>1.302752293577982</v>
+        <v>1.330665332666333</v>
       </c>
       <c r="V26" s="13">
-        <v>1.211293260473589</v>
+        <v>1.266766020864382</v>
       </c>
       <c r="W26" s="13">
-        <v>1.640211640211641</v>
+        <v>1.565656565656566</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -5575,61 +6385,61 @@
         <v>56</v>
       </c>
       <c r="B27" s="13">
-        <v>56.26470588235294</v>
+        <v>56.75</v>
       </c>
       <c r="C27" s="13">
-        <v>52.26470588235294</v>
+        <v>54.15909090909091</v>
       </c>
       <c r="D27" s="13">
-        <v>36.64705882352941</v>
+        <v>31.68181818181818</v>
       </c>
       <c r="E27" s="13">
-        <v>14.73529411764706</v>
+        <v>15.25</v>
       </c>
       <c r="F27" s="13">
-        <v>19.23529411764706</v>
+        <v>21.63636363636364</v>
       </c>
       <c r="G27" s="13">
-        <v>34.97058823529412</v>
+        <v>36.11363636363637</v>
       </c>
       <c r="H27" s="13">
-        <v>16.64705882352941</v>
+        <v>18.04545454545455</v>
       </c>
       <c r="I27" s="13">
-        <v>12.52941176470588</v>
+        <v>12.09090909090909</v>
       </c>
       <c r="J27" s="13">
-        <v>7.823529411764706</v>
+        <v>7.727272727272728</v>
       </c>
       <c r="K27" s="13">
-        <v>10.94117647058824</v>
+        <v>9.863636363636363</v>
       </c>
       <c r="M27" s="12" t="s">
         <v>56</v>
       </c>
       <c r="N27" s="13">
-        <v>37.34444444444446</v>
+        <v>37.30000000000001</v>
       </c>
       <c r="O27" s="13">
-        <v>26.32222222222223</v>
+        <v>26.37272727272728</v>
       </c>
       <c r="P27" s="13">
-        <v>18.71666666666667</v>
+        <v>18.69545454545455</v>
       </c>
       <c r="Q27" s="13">
-        <v>16.55</v>
+        <v>16.52272727272727</v>
       </c>
       <c r="R27" s="13">
-        <v>15.16666666666666</v>
+        <v>15.15454545454546</v>
       </c>
       <c r="S27" s="13">
-        <v>18.84444444444445</v>
+        <v>18.87272727272727</v>
       </c>
       <c r="T27" s="13">
-        <v>12.73333333333333</v>
+        <v>12.70909090909091</v>
       </c>
       <c r="U27" s="13">
-        <v>9.083333333333334</v>
+        <v>9.086363636363636</v>
       </c>
       <c r="V27" s="13">
         <v>6.099999999999998</v>
@@ -5643,67 +6453,67 @@
         <v>57</v>
       </c>
       <c r="B28" s="13">
-        <v>1.506641930797906</v>
+        <v>1.521447721179624</v>
       </c>
       <c r="C28" s="13">
-        <v>1.985573461127802</v>
+        <v>2.053602206135815</v>
       </c>
       <c r="D28" s="13">
-        <v>1.957990676234875</v>
+        <v>1.694626793095064</v>
       </c>
       <c r="E28" s="13">
-        <v>0.8903500977430248</v>
+        <v>0.9229711141678133</v>
       </c>
       <c r="F28" s="13">
-        <v>1.268261150614092</v>
+        <v>1.427714457108578</v>
       </c>
       <c r="G28" s="13">
-        <v>1.855750554938956</v>
+        <v>1.913535645472062</v>
       </c>
       <c r="H28" s="13">
-        <v>1.307360640591316</v>
+        <v>1.419885550786839</v>
       </c>
       <c r="I28" s="13">
-        <v>1.37938478143551</v>
+        <v>1.330665332666333</v>
       </c>
       <c r="J28" s="13">
-        <v>1.282545805207329</v>
+        <v>1.266766020864382</v>
       </c>
       <c r="K28" s="13">
-        <v>1.736694677871149</v>
+        <v>1.565656565656566</v>
       </c>
       <c r="M28" s="12" t="s">
         <v>57</v>
       </c>
       <c r="N28" s="13">
-        <v>1.506641930797906</v>
+        <v>1.521447721179624</v>
       </c>
       <c r="O28" s="13">
-        <v>1.985573461127802</v>
+        <v>2.053602206135815</v>
       </c>
       <c r="P28" s="13">
-        <v>1.957990676234875</v>
+        <v>1.694626793095064</v>
       </c>
       <c r="Q28" s="13">
-        <v>0.8903500977430248</v>
+        <v>0.9229711141678133</v>
       </c>
       <c r="R28" s="13">
-        <v>1.268261150614092</v>
+        <v>1.427714457108578</v>
       </c>
       <c r="S28" s="13">
-        <v>1.855750554938956</v>
+        <v>1.913535645472062</v>
       </c>
       <c r="T28" s="13">
-        <v>1.307360640591316</v>
+        <v>1.419885550786839</v>
       </c>
       <c r="U28" s="13">
-        <v>1.37938478143551</v>
+        <v>1.330665332666333</v>
       </c>
       <c r="V28" s="13">
-        <v>1.282545805207329</v>
+        <v>1.266766020864382</v>
       </c>
       <c r="W28" s="13">
-        <v>1.736694677871149</v>
+        <v>1.565656565656566</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -5711,67 +6521,67 @@
         <v>58</v>
       </c>
       <c r="B29" s="13">
-        <v>97.0721564440401</v>
+        <v>77.12899324476177</v>
       </c>
       <c r="C29" s="13">
-        <v>64.04451103468068</v>
+        <v>58.77258776548294</v>
       </c>
       <c r="D29" s="13">
-        <v>75.95477259355829</v>
+        <v>71.27467336760233</v>
       </c>
       <c r="E29" s="13">
-        <v>32.08687573577563</v>
+        <v>24.9917271541625</v>
       </c>
       <c r="F29" s="13">
-        <v>55.65563176871811</v>
+        <v>46.99225706780271</v>
       </c>
       <c r="G29" s="13">
-        <v>68.58387157385552</v>
+        <v>52.43735490881669</v>
       </c>
       <c r="H29" s="13">
-        <v>30.75754552796401</v>
+        <v>37.62948593941739</v>
       </c>
       <c r="I29" s="13">
-        <v>9.533580278244781</v>
+        <v>7.479644966360049</v>
       </c>
       <c r="J29" s="13">
-        <v>8.224391437218214</v>
+        <v>7.13605703504316</v>
       </c>
       <c r="K29" s="13">
-        <v>21.67043221345395</v>
+        <v>17.08116565727584</v>
       </c>
       <c r="M29" s="12" t="s">
         <v>58</v>
       </c>
       <c r="N29" s="13">
-        <v>0.01786681331866714</v>
+        <v>0.01511786897773563</v>
       </c>
       <c r="O29" s="13">
-        <v>0.01507330504745535</v>
+        <v>0.01360255810125469</v>
       </c>
       <c r="P29" s="13">
-        <v>0.002946278254954667</v>
+        <v>0.002805968105743259</v>
       </c>
       <c r="Q29" s="13">
-        <v>0.01996921928353995</v>
+        <v>0.01549229172366555</v>
       </c>
       <c r="R29" s="13">
-        <v>0.001833239803105829</v>
+        <v>0.001497690982677441</v>
       </c>
       <c r="S29" s="13">
-        <v>0.02546166393161453</v>
+        <v>0.01980476075900012</v>
       </c>
       <c r="T29" s="13">
-        <v>0.00864241621455468</v>
+        <v>0.006959858095943479</v>
       </c>
       <c r="U29" s="13">
-        <v>0.00347006105581525</v>
+        <v>0.002576909484873802</v>
       </c>
       <c r="V29" s="13">
-        <v>6.699061157050774e-15</v>
+        <v>7.574411013266429E-15</v>
       </c>
       <c r="W29" s="13">
-        <v>1.004859173557616e-14</v>
+        <v>1.0604175418573E-14</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -5797,7 +6607,7 @@
         <v>72</v>
       </c>
       <c r="H30" s="13">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="I30" s="13">
         <v>24</v>
@@ -5853,7 +6663,7 @@
         <v>14</v>
       </c>
       <c r="D31" s="13">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E31" s="13">
         <v>-2</v>
@@ -5865,7 +6675,7 @@
         <v>-2</v>
       </c>
       <c r="H31" s="13">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="I31" s="13">
         <v>2</v>
@@ -5886,7 +6696,7 @@
         <v>25.9</v>
       </c>
       <c r="P31" s="13">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="Q31" s="13">
         <v>16.4</v>
@@ -5921,7 +6731,7 @@
         <v>64</v>
       </c>
       <c r="D32" s="13">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E32" s="13">
         <v>42</v>
@@ -5933,7 +6743,7 @@
         <v>74</v>
       </c>
       <c r="H32" s="13">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I32" s="13">
         <v>22</v>
@@ -5954,7 +6764,7 @@
         <v>0.8000000000000007</v>
       </c>
       <c r="P32" s="13">
-        <v>0.2999999999999972</v>
+        <v>0.3999999999999986</v>
       </c>
       <c r="Q32" s="13">
         <v>1.200000000000003</v>
